--- a/RingetteSchedule/Master.xlsx
+++ b/RingetteSchedule/Master.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rolan\Documents\GitHub\coraSchedule\RingetteSchedule\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="105" windowWidth="19290" windowHeight="8040" tabRatio="163" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="105" windowWidth="19290" windowHeight="8040" tabRatio="163" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revisions" sheetId="7" r:id="rId1"/>
@@ -22,17 +17,17 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Season!$A:$A,Season!$3:$4</definedName>
     <definedName name="Type">Season!$A$83:$A$87</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Lemkows</author>
   </authors>
   <commentList>
-    <comment ref="BW76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="BW76" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="159">
   <si>
     <t>Sat</t>
   </si>
@@ -372,9 +367,6 @@
     <t>power skating starts at Kilrea for Novice &amp; Rec teams</t>
   </si>
   <si>
-    <t>U14 C</t>
-  </si>
-  <si>
     <t xml:space="preserve">NRL </t>
   </si>
   <si>
@@ -447,12 +439,6 @@
     <t xml:space="preserve">U10 Potvin </t>
   </si>
   <si>
-    <t>U12 Reg 2</t>
-  </si>
-  <si>
-    <t>U10 -3</t>
-  </si>
-  <si>
     <t>McNabb 10:00</t>
   </si>
   <si>
@@ -468,58 +454,91 @@
     <t>Grandmaitre 21:00</t>
   </si>
   <si>
-    <t>U8 -1</t>
+    <t>Sandy Hill 8:00</t>
   </si>
   <si>
-    <t xml:space="preserve">U8 -1 </t>
+    <t>Sandy Hill 9:00</t>
   </si>
   <si>
-    <t>U12 Reg 1 Van Walleghem</t>
+    <t>McNabb 8:00</t>
   </si>
   <si>
-    <t>U12 Prov Blue Leblanc</t>
+    <t>McNabb 11:00</t>
   </si>
   <si>
-    <t>U12 Prov Red Bickerton</t>
+    <t>Peplinski 8:00</t>
   </si>
   <si>
-    <t>U14 AA Grant</t>
+    <t>McNabb 9:00</t>
   </si>
   <si>
-    <t>U14 A Zarull</t>
+    <t xml:space="preserve">Grandmaitre 21:00 </t>
   </si>
   <si>
-    <t>U14 B Fawcett</t>
+    <t>McNabb 12:00</t>
   </si>
   <si>
-    <t>U16 AA Wippel</t>
+    <t>Peplinski 19:00</t>
   </si>
   <si>
-    <t>U16 A Wolf</t>
+    <t xml:space="preserve">U8 Lannon </t>
   </si>
   <si>
-    <t>U16 B Bergmans</t>
+    <t>U14AA Grant</t>
   </si>
   <si>
-    <t>U16 C Herdman</t>
+    <t>U14A Zarull</t>
   </si>
   <si>
-    <t>U19 AA Cram</t>
+    <t xml:space="preserve">U14B Fawcett </t>
   </si>
   <si>
-    <t>U19 A Soulard</t>
+    <t>U14C</t>
   </si>
   <si>
-    <t>U19 B 1 Fabiano</t>
+    <t>U16AA Wippel</t>
   </si>
   <si>
-    <t>U19 B 2 Sloan</t>
+    <t>U16A Wolf</t>
+  </si>
+  <si>
+    <t>U12P Blue Leblanc</t>
+  </si>
+  <si>
+    <t>U12P Red Bickerton</t>
+  </si>
+  <si>
+    <t>U12Reg -2</t>
+  </si>
+  <si>
+    <t>U12Reg Van Walleghem</t>
+  </si>
+  <si>
+    <t>U16B Bergmans</t>
+  </si>
+  <si>
+    <t>U16C Herdman</t>
+  </si>
+  <si>
+    <t>U19AA Cram</t>
+  </si>
+  <si>
+    <t>U19A Soulard</t>
+  </si>
+  <si>
+    <t>U19B Fabiano</t>
+  </si>
+  <si>
+    <t>U19B Sloan</t>
+  </si>
+  <si>
+    <t>U10 Purves</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -5606,9 +5625,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -5960,7 +5976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6021,22 +6037,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:RL141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="BQ5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="CL5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A55" sqref="A55"/>
+      <selection pane="bottomRight" activeCell="CM9" sqref="CM9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" customWidth="1"/>
@@ -6127,7 +6143,7 @@
     <col min="89" max="89" width="18.85546875" style="18" customWidth="1"/>
     <col min="90" max="90" width="4.5703125" style="4" customWidth="1"/>
     <col min="91" max="91" width="23.5703125" style="18" customWidth="1"/>
-    <col min="92" max="92" width="3.7109375" style="1" customWidth="1"/>
+    <col min="92" max="92" width="4.140625" style="1" customWidth="1"/>
     <col min="93" max="93" width="16.5703125" style="4" customWidth="1"/>
     <col min="94" max="94" width="4.5703125" style="1" customWidth="1"/>
     <col min="95" max="95" width="15.7109375" style="4" customWidth="1"/>
@@ -6188,7 +6204,7 @@
     <col min="150" max="150" width="3.7109375" style="1" customWidth="1"/>
     <col min="151" max="151" width="15.7109375" style="4" customWidth="1"/>
     <col min="152" max="152" width="3.7109375" style="1" customWidth="1"/>
-    <col min="153" max="153" width="15.7109375" style="4" customWidth="1"/>
+    <col min="153" max="153" width="18.42578125" style="4" customWidth="1"/>
     <col min="154" max="154" width="4.85546875" style="1" customWidth="1"/>
     <col min="155" max="155" width="17.5703125" style="4" customWidth="1"/>
     <col min="156" max="156" width="4.42578125" style="1" customWidth="1"/>
@@ -6216,7 +6232,7 @@
     <col min="178" max="178" width="3.7109375" style="1" customWidth="1"/>
     <col min="179" max="179" width="15.7109375" style="4" customWidth="1"/>
     <col min="180" max="180" width="3.7109375" style="1" customWidth="1"/>
-    <col min="181" max="181" width="15.7109375" style="4" customWidth="1"/>
+    <col min="181" max="181" width="18.5703125" style="4" customWidth="1"/>
     <col min="182" max="182" width="4.42578125" style="1" customWidth="1"/>
     <col min="183" max="183" width="17.140625" style="4" customWidth="1"/>
     <col min="184" max="184" width="4.7109375" style="1" customWidth="1"/>
@@ -6239,12 +6255,12 @@
     <col min="201" max="201" width="19.7109375" style="18" customWidth="1"/>
     <col min="202" max="202" width="3.7109375" style="4" customWidth="1"/>
     <col min="203" max="203" width="23.5703125" style="18" customWidth="1"/>
-    <col min="204" max="204" width="3.7109375" style="1" customWidth="1"/>
+    <col min="204" max="204" width="4.5703125" style="1" customWidth="1"/>
     <col min="205" max="205" width="15.7109375" style="4" customWidth="1"/>
     <col min="206" max="206" width="3.7109375" style="1" customWidth="1"/>
     <col min="207" max="207" width="15.7109375" style="4" customWidth="1"/>
     <col min="208" max="208" width="3.7109375" style="1" customWidth="1"/>
-    <col min="209" max="209" width="15.7109375" style="4" customWidth="1"/>
+    <col min="209" max="209" width="18.140625" style="4" customWidth="1"/>
     <col min="210" max="210" width="4.42578125" style="1" customWidth="1"/>
     <col min="211" max="211" width="16.28515625" style="4" customWidth="1"/>
     <col min="212" max="212" width="5" style="1" customWidth="1"/>
@@ -7102,7 +7118,7 @@
       <c r="AE2" s="41"/>
       <c r="AF2" s="42"/>
       <c r="AG2" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AH2" s="41"/>
       <c r="AI2" s="41"/>
@@ -9725,7 +9741,7 @@
       </c>
       <c r="B5" s="14">
         <f>SUM(E5:RK5)+SUM(E6:RK6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="19"/>
@@ -9807,8 +9823,12 @@
       <c r="CI5" s="20"/>
       <c r="CK5" s="20"/>
       <c r="CL5" s="19"/>
-      <c r="CM5" s="20"/>
-      <c r="CN5" s="19"/>
+      <c r="CM5" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="CN5" s="19">
+        <v>0.5</v>
+      </c>
       <c r="CO5" s="20"/>
       <c r="CP5" s="19"/>
       <c r="CQ5" s="20"/>
@@ -9911,8 +9931,12 @@
       <c r="GQ5" s="20"/>
       <c r="GS5" s="20"/>
       <c r="GT5" s="19"/>
-      <c r="GU5" s="20"/>
-      <c r="GV5" s="19"/>
+      <c r="GU5" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="GV5" s="19">
+        <v>0.5</v>
+      </c>
       <c r="GW5" s="20"/>
       <c r="GX5" s="19"/>
       <c r="GY5" s="20"/>
@@ -10624,7 +10648,7 @@
       </c>
       <c r="B7" s="14">
         <f>SUM(E7:RK7)+SUM(E8:RK8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="13">
         <f>COUNTIF($E7:$RL7,"H")</f>
@@ -10720,8 +10744,12 @@
       <c r="CJ7" s="19"/>
       <c r="CK7" s="20"/>
       <c r="CL7" s="19"/>
-      <c r="CM7" s="20"/>
-      <c r="CN7" s="19"/>
+      <c r="CM7" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="CN7" s="19">
+        <v>0.5</v>
+      </c>
       <c r="CO7" s="20"/>
       <c r="CP7" s="19"/>
       <c r="CQ7" s="20"/>
@@ -10832,8 +10860,12 @@
       <c r="GR7" s="19"/>
       <c r="GS7" s="20"/>
       <c r="GT7" s="19"/>
-      <c r="GU7" s="20"/>
-      <c r="GV7" s="19"/>
+      <c r="GU7" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="GV7" s="19">
+        <v>0.5</v>
+      </c>
       <c r="GW7" s="20"/>
       <c r="GX7" s="19"/>
       <c r="GY7" s="20"/>
@@ -11603,7 +11635,7 @@
     </row>
     <row r="9" spans="1:480" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B9" s="14">
         <f>SUM(E9:RK9)+SUM(E10:RK10)</f>
@@ -12112,7 +12144,7 @@
     </row>
     <row r="10" spans="1:480" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="13">
@@ -12568,7 +12600,7 @@
     </row>
     <row r="11" spans="1:480" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B11" s="14">
         <f>SUM(E11:RK11)+SUM(E12:RK12)</f>
@@ -13077,7 +13109,7 @@
     </row>
     <row r="12" spans="1:480" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="13">
@@ -13533,7 +13565,7 @@
     </row>
     <row r="13" spans="1:480" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" s="14">
         <f>SUM(E13:RK13)+SUM(E14:RK14)</f>
@@ -14042,7 +14074,7 @@
     </row>
     <row r="14" spans="1:480" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="13">
@@ -14532,7 +14564,7 @@
     </row>
     <row r="15" spans="1:480" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="14">
         <f>SUM(E15:RK15)+SUM(E16:RK16)</f>
@@ -15041,7 +15073,7 @@
     </row>
     <row r="16" spans="1:480" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="13">
@@ -15497,7 +15529,7 @@
     </row>
     <row r="17" spans="1:480" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="14">
         <f>SUM(E17:RK17)+SUM(E18:RK18)</f>
@@ -15600,7 +15632,7 @@
         <v>0.5</v>
       </c>
       <c r="BY17" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BZ17" s="21">
         <v>0.5</v>
@@ -16010,7 +16042,7 @@
     </row>
     <row r="18" spans="1:480" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="13">
@@ -16089,7 +16121,7 @@
       <c r="BW18" s="20"/>
       <c r="BX18" s="19"/>
       <c r="BY18" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BZ18" s="19">
         <v>0.5</v>
@@ -16470,7 +16502,7 @@
     </row>
     <row r="19" spans="1:480" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" s="14">
         <f>SUM(E19:RK19)+SUM(E20:RK20)</f>
@@ -16573,7 +16605,7 @@
         <v>0.5</v>
       </c>
       <c r="BY19" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BZ19" s="21">
         <v>0.5</v>
@@ -16983,7 +17015,7 @@
     </row>
     <row r="20" spans="1:480" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="13">
@@ -17062,7 +17094,7 @@
       <c r="BW20" s="20"/>
       <c r="BX20" s="19"/>
       <c r="BY20" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BZ20" s="19">
         <v>0.5</v>
@@ -17443,7 +17475,7 @@
     </row>
     <row r="21" spans="1:480" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="13">
@@ -17534,7 +17566,7 @@
         <v>0.5</v>
       </c>
       <c r="BY21" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BZ21" s="19">
         <v>0.5</v>
@@ -17915,7 +17947,7 @@
     </row>
     <row r="22" spans="1:480" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="13">
@@ -17994,7 +18026,7 @@
       <c r="BW22" s="20"/>
       <c r="BX22" s="19"/>
       <c r="BY22" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BZ22" s="19">
         <v>0.5</v>
@@ -18375,11 +18407,11 @@
     </row>
     <row r="23" spans="1:480" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B23" s="14">
         <f>SUM(E23:RK23)+SUM(E24:RK24)</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C23" s="13">
         <f t="shared" si="1"/>
@@ -18432,7 +18464,7 @@
       <c r="AQ23" s="20"/>
       <c r="AR23" s="19"/>
       <c r="AS23" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AT23" s="19" t="s">
         <v>12</v>
@@ -18463,13 +18495,13 @@
       <c r="BF23" s="19"/>
       <c r="BG23" s="20"/>
       <c r="BI23" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BJ23" s="19">
         <v>0.5</v>
       </c>
       <c r="BK23" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BL23" s="19">
         <v>1</v>
@@ -18488,7 +18520,7 @@
       <c r="BT23" s="19"/>
       <c r="BU23" s="20"/>
       <c r="BW23" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BX23" s="19">
         <v>1</v>
@@ -18516,8 +18548,12 @@
       <c r="CL23" s="19"/>
       <c r="CM23" s="20"/>
       <c r="CN23" s="19"/>
-      <c r="CO23" s="20"/>
-      <c r="CP23" s="19"/>
+      <c r="CO23" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="CP23" s="19">
+        <v>0.5</v>
+      </c>
       <c r="CQ23" s="20"/>
       <c r="CR23" s="19"/>
       <c r="CS23" s="20"/>
@@ -18879,7 +18915,7 @@
     </row>
     <row r="24" spans="1:480" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="13">
@@ -18933,7 +18969,7 @@
       <c r="AQ24" s="20"/>
       <c r="AR24" s="19"/>
       <c r="AS24" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AT24" s="19" t="s">
         <v>12</v>
@@ -19344,7 +19380,7 @@
     </row>
     <row r="25" spans="1:480" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B25" s="14">
         <f>SUM(E25:RK25)+SUM(E26:RK26)</f>
@@ -19403,7 +19439,7 @@
       <c r="AQ25" s="20"/>
       <c r="AR25" s="21"/>
       <c r="AS25" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AT25" s="19" t="s">
         <v>12</v>
@@ -19423,7 +19459,7 @@
         <v>12</v>
       </c>
       <c r="BE25" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BF25" s="21" t="s">
         <v>12</v>
@@ -19869,7 +19905,7 @@
     </row>
     <row r="26" spans="1:480" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="13">
@@ -19923,7 +19959,7 @@
       <c r="AQ26" s="20"/>
       <c r="AR26" s="19"/>
       <c r="AS26" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AT26" s="19" t="s">
         <v>12</v>
@@ -20334,7 +20370,7 @@
     </row>
     <row r="27" spans="1:480" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B27" s="14">
         <f>SUM(E27:RK27)+SUM(E28:RK28)</f>
@@ -20847,7 +20883,7 @@
     </row>
     <row r="28" spans="1:480" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="13">
@@ -21303,7 +21339,7 @@
     </row>
     <row r="29" spans="1:480" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="B29" s="14">
         <f>SUM(E29:RK29)+SUM(E30:RK30)</f>
@@ -21816,7 +21852,7 @@
     </row>
     <row r="30" spans="1:480" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="13">
@@ -22272,7 +22308,7 @@
     </row>
     <row r="31" spans="1:480" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B31" s="14">
         <f>SUM(E31:RK31)+SUM(E32:RK32)</f>
@@ -22284,7 +22320,7 @@
       </c>
       <c r="D31" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="19"/>
@@ -22408,10 +22444,18 @@
       <c r="CG31" s="20"/>
       <c r="CH31" s="19"/>
       <c r="CI31" s="20"/>
-      <c r="CK31" s="20"/>
-      <c r="CL31" s="19"/>
-      <c r="CM31" s="20"/>
-      <c r="CN31" s="19"/>
+      <c r="CK31" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="CL31" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM31" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="CN31" s="19" t="s">
+        <v>11</v>
+      </c>
       <c r="CO31" s="20"/>
       <c r="CP31" s="19"/>
       <c r="CQ31" s="20"/>
@@ -22775,7 +22819,7 @@
     </row>
     <row r="32" spans="1:480" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="13">
@@ -22784,7 +22828,7 @@
       </c>
       <c r="D32" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="19"/>
@@ -22864,10 +22908,18 @@
       <c r="CG32" s="20"/>
       <c r="CH32" s="19"/>
       <c r="CI32" s="20"/>
-      <c r="CK32" s="20"/>
-      <c r="CL32" s="19"/>
-      <c r="CM32" s="20"/>
-      <c r="CN32" s="19"/>
+      <c r="CK32" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="CL32" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM32" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="CN32" s="19" t="s">
+        <v>11</v>
+      </c>
       <c r="CO32" s="20"/>
       <c r="CP32" s="19"/>
       <c r="CQ32" s="20"/>
@@ -23231,7 +23283,7 @@
     </row>
     <row r="33" spans="1:480" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B33" s="14">
         <f>SUM(E33:RK33)+SUM(E34:RK34)</f>
@@ -23318,7 +23370,7 @@
       <c r="BG33" s="20"/>
       <c r="BH33" s="19"/>
       <c r="BI33" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BJ33" s="21">
         <v>1</v>
@@ -23344,7 +23396,7 @@
       <c r="BU33" s="20"/>
       <c r="BV33" s="19"/>
       <c r="BW33" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BX33" s="21" t="s">
         <v>10</v>
@@ -23760,7 +23812,7 @@
     </row>
     <row r="34" spans="1:480" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="13">
@@ -24216,7 +24268,7 @@
     </row>
     <row r="35" spans="1:480" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B35" s="14">
         <f>SUM(E35:RK35)+SUM(E36:RK36)</f>
@@ -24269,7 +24321,7 @@
       <c r="AO35" s="20"/>
       <c r="AP35" s="21"/>
       <c r="AQ35" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AR35" s="21" t="s">
         <v>12</v>
@@ -24319,7 +24371,7 @@
       <c r="BO35" s="20"/>
       <c r="BP35" s="21"/>
       <c r="BQ35" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BR35" s="21">
         <v>0.5</v>
@@ -24745,7 +24797,7 @@
     </row>
     <row r="36" spans="1:480" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="13">
@@ -25201,7 +25253,7 @@
     </row>
     <row r="37" spans="1:480" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="B37" s="14">
         <f>SUM(E37:RK37)+SUM(E38:RK38)</f>
@@ -25714,7 +25766,7 @@
     </row>
     <row r="38" spans="1:480" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="13">
@@ -26170,7 +26222,7 @@
     </row>
     <row r="39" spans="1:480" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B39" s="14">
         <f>SUM(E39:RK39)+SUM(E40:RK40)</f>
@@ -26182,7 +26234,7 @@
       </c>
       <c r="D39" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="21"/>
@@ -26249,7 +26301,7 @@
       <c r="BG39" s="20"/>
       <c r="BH39" s="19"/>
       <c r="BI39" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BJ39" s="21">
         <v>1</v>
@@ -26296,8 +26348,12 @@
       <c r="CH39" s="21"/>
       <c r="CI39" s="20"/>
       <c r="CJ39" s="19"/>
-      <c r="CK39" s="20"/>
-      <c r="CL39" s="21"/>
+      <c r="CK39" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="CL39" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="CM39" s="20"/>
       <c r="CN39" s="21"/>
       <c r="CO39" s="20"/>
@@ -26691,7 +26747,7 @@
     </row>
     <row r="40" spans="1:480" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="13">
@@ -26700,7 +26756,7 @@
       </c>
       <c r="D40" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="19"/>
@@ -26780,8 +26836,12 @@
       <c r="CG40" s="20"/>
       <c r="CH40" s="19"/>
       <c r="CI40" s="20"/>
-      <c r="CK40" s="20"/>
-      <c r="CL40" s="19"/>
+      <c r="CK40" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="CL40" s="19" t="s">
+        <v>11</v>
+      </c>
       <c r="CM40" s="20"/>
       <c r="CN40" s="19"/>
       <c r="CO40" s="20"/>
@@ -27147,7 +27207,7 @@
     </row>
     <row r="41" spans="1:480" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B41" s="14">
         <f>SUM(E41:RK41)+SUM(E42:RK42)</f>
@@ -27155,7 +27215,7 @@
       </c>
       <c r="C41" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="13">
         <f t="shared" si="0"/>
@@ -27202,7 +27262,7 @@
       <c r="AO41" s="20"/>
       <c r="AP41" s="19"/>
       <c r="AQ41" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AR41" s="19">
         <v>1</v>
@@ -27223,7 +27283,7 @@
       <c r="BC41" s="20"/>
       <c r="BD41" s="19"/>
       <c r="BE41" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BF41" s="19">
         <v>1</v>
@@ -27244,7 +27304,7 @@
       <c r="BQ41" s="20"/>
       <c r="BR41" s="19"/>
       <c r="BS41" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BT41" s="19">
         <v>1</v>
@@ -27265,7 +27325,7 @@
       <c r="CE41" s="20"/>
       <c r="CF41" s="19"/>
       <c r="CG41" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CH41" s="19">
         <v>1</v>
@@ -27273,8 +27333,12 @@
       <c r="CI41" s="20"/>
       <c r="CK41" s="20"/>
       <c r="CL41" s="19"/>
-      <c r="CM41" s="20"/>
-      <c r="CN41" s="19"/>
+      <c r="CM41" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="CN41" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="CO41" s="20"/>
       <c r="CP41" s="19"/>
       <c r="CQ41" s="20"/>
@@ -27638,7 +27702,7 @@
     </row>
     <row r="42" spans="1:480" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="13">
@@ -28094,7 +28158,7 @@
     </row>
     <row r="43" spans="1:480" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B43" s="14">
         <f>SUM(E43:RK43)+SUM(E44:RK44)</f>
@@ -28209,7 +28273,7 @@
       <c r="CE43" s="20"/>
       <c r="CF43" s="21"/>
       <c r="CG43" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CH43" s="21">
         <v>0.5</v>
@@ -28611,7 +28675,7 @@
     </row>
     <row r="44" spans="1:480" s="13" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="13">
@@ -29101,7 +29165,7 @@
     </row>
     <row r="45" spans="1:480" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B45" s="14">
         <f>SUM(E45:RK45)+SUM(E46:RK46)</f>
@@ -29198,7 +29262,7 @@
       <c r="BQ45" s="20"/>
       <c r="BR45" s="21"/>
       <c r="BS45" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BT45" s="21">
         <v>0.5</v>
@@ -29212,7 +29276,7 @@
         <v>0.5</v>
       </c>
       <c r="BY45" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BZ45" s="21">
         <v>0.5</v>
@@ -29224,7 +29288,7 @@
       <c r="CE45" s="20"/>
       <c r="CF45" s="21"/>
       <c r="CG45" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CH45" s="21">
         <v>0.5</v>
@@ -29626,7 +29690,7 @@
     </row>
     <row r="46" spans="1:480" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B46" s="14"/>
       <c r="C46" s="13">
@@ -30082,19 +30146,19 @@
     </row>
     <row r="47" spans="1:480" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B47" s="14">
         <f>SUM(E47:RK47)+SUM(E48:RK48)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="19"/>
@@ -30194,8 +30258,12 @@
       <c r="BT47" s="19"/>
       <c r="BU47" s="20"/>
       <c r="BV47" s="19"/>
-      <c r="BW47" s="20"/>
-      <c r="BX47" s="19"/>
+      <c r="BW47" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="BX47" s="19" t="s">
+        <v>11</v>
+      </c>
       <c r="BY47" s="20" t="s">
         <v>55</v>
       </c>
@@ -30222,10 +30290,18 @@
       <c r="CJ47" s="19"/>
       <c r="CK47" s="20"/>
       <c r="CL47" s="19"/>
-      <c r="CM47" s="20"/>
-      <c r="CN47" s="19"/>
-      <c r="CO47" s="20"/>
-      <c r="CP47" s="19"/>
+      <c r="CM47" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="CN47" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO47" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP47" s="19">
+        <v>1</v>
+      </c>
       <c r="CQ47" s="20"/>
       <c r="CR47" s="19"/>
       <c r="CS47" s="20"/>
@@ -30615,12 +30691,12 @@
     </row>
     <row r="48" spans="1:480" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B48" s="14"/>
       <c r="C48" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="13">
         <f t="shared" si="0"/>
@@ -30712,8 +30788,12 @@
       <c r="CJ48" s="19"/>
       <c r="CK48" s="20"/>
       <c r="CL48" s="19"/>
-      <c r="CM48" s="20"/>
-      <c r="CN48" s="19"/>
+      <c r="CM48" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="CN48" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="CO48" s="20"/>
       <c r="CP48" s="19"/>
       <c r="CQ48" s="20"/>
@@ -31105,7 +31185,7 @@
     </row>
     <row r="49" spans="1:480" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B49" s="14">
         <f>SUM(E49:RK49)+SUM(E50:RK50)</f>
@@ -31622,7 +31702,7 @@
     </row>
     <row r="50" spans="1:480" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B50" s="14"/>
       <c r="C50" s="13">
@@ -32078,7 +32158,7 @@
     </row>
     <row r="51" spans="1:480" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B51" s="14">
         <f>SUM(E51:RK51)+SUM(E52:RK52)</f>
@@ -32144,7 +32224,7 @@
       <c r="BA51" s="20"/>
       <c r="BB51" s="19"/>
       <c r="BC51" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BD51" s="19" t="s">
         <v>12</v>
@@ -32186,7 +32266,7 @@
       <c r="CC51" s="20"/>
       <c r="CD51" s="19"/>
       <c r="CE51" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CF51" s="19">
         <v>0.5</v>
@@ -32561,7 +32641,7 @@
     </row>
     <row r="52" spans="1:480" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B52" s="14"/>
       <c r="C52" s="13">
@@ -33017,7 +33097,7 @@
     </row>
     <row r="53" spans="1:480" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B53" s="14">
         <f>SUM(E53:RK53)+SUM(E54:RK54)</f>
@@ -33086,7 +33166,7 @@
       <c r="BA53" s="20"/>
       <c r="BB53" s="21"/>
       <c r="BC53" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BD53" s="21" t="s">
         <v>12</v>
@@ -33108,7 +33188,7 @@
       <c r="BO53" s="20"/>
       <c r="BP53" s="21"/>
       <c r="BQ53" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BR53" s="21">
         <v>0.5</v>
@@ -33130,7 +33210,7 @@
       <c r="CC53" s="20"/>
       <c r="CD53" s="21"/>
       <c r="CE53" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CF53" s="21">
         <v>0.5</v>
@@ -33534,7 +33614,7 @@
     </row>
     <row r="54" spans="1:480" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="13">
@@ -33990,7 +34070,7 @@
     </row>
     <row r="55" spans="1:480" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B55" s="14">
         <f>SUM(E55:RK55)+SUM(E56:RK56)</f>
@@ -34043,7 +34123,7 @@
       <c r="AO55" s="20"/>
       <c r="AP55" s="21"/>
       <c r="AQ55" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AR55" s="21">
         <v>1</v>
@@ -34061,7 +34141,7 @@
       <c r="BC55" s="20"/>
       <c r="BD55" s="21"/>
       <c r="BE55" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BF55" s="21">
         <v>1</v>
@@ -34079,7 +34159,7 @@
       <c r="BQ55" s="20"/>
       <c r="BR55" s="21"/>
       <c r="BS55" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BT55" s="21" t="s">
         <v>10</v>
@@ -34097,7 +34177,7 @@
       <c r="CE55" s="20"/>
       <c r="CF55" s="21"/>
       <c r="CG55" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CH55" s="21">
         <v>1</v>
@@ -34499,7 +34579,7 @@
     </row>
     <row r="56" spans="1:480" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="13">
@@ -35042,8 +35122,12 @@
       <c r="CL57" s="19"/>
       <c r="CM57" s="20"/>
       <c r="CN57" s="19"/>
-      <c r="CO57" s="20"/>
-      <c r="CP57" s="19"/>
+      <c r="CO57" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="CP57" s="19">
+        <v>0.5</v>
+      </c>
       <c r="CQ57" s="20"/>
       <c r="CR57" s="19"/>
       <c r="CS57" s="20"/>
@@ -35492,8 +35576,12 @@
       <c r="CL58" s="19"/>
       <c r="CM58" s="20"/>
       <c r="CN58" s="19"/>
-      <c r="CO58" s="20"/>
-      <c r="CP58" s="19"/>
+      <c r="CO58" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="CP58" s="19">
+        <v>0.5</v>
+      </c>
       <c r="CQ58" s="20"/>
       <c r="CR58" s="19"/>
       <c r="CS58" s="20"/>
@@ -35942,8 +36030,12 @@
       <c r="CL59" s="19"/>
       <c r="CM59" s="20"/>
       <c r="CN59" s="19"/>
-      <c r="CO59" s="20"/>
-      <c r="CP59" s="19"/>
+      <c r="CO59" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="CP59" s="19">
+        <v>0.5</v>
+      </c>
       <c r="CQ59" s="20"/>
       <c r="CR59" s="19"/>
       <c r="CS59" s="20"/>
@@ -36305,7 +36397,7 @@
     </row>
     <row r="60" spans="1:480" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B60" s="14">
         <f>SUM(E60:RK60)+SUM(E61:RK61)+SUM(E63:RK63)</f>
@@ -36780,7 +36872,7 @@
     </row>
     <row r="61" spans="1:480" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="13">
@@ -37236,7 +37328,7 @@
     </row>
     <row r="62" spans="1:480" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B62" s="14"/>
       <c r="C62" s="13">
@@ -37690,7 +37782,7 @@
     </row>
     <row r="63" spans="1:480" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B63" s="14"/>
       <c r="C63" s="13">
@@ -41078,12 +41170,8 @@
       <c r="GQ70" s="20"/>
       <c r="GS70" s="20"/>
       <c r="GT70" s="19"/>
-      <c r="GU70" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="GV70" s="19">
-        <v>1</v>
-      </c>
+      <c r="GU70" s="20"/>
+      <c r="GV70" s="19"/>
       <c r="GW70" s="20"/>
       <c r="GX70" s="19"/>
       <c r="GY70" s="20"/>
@@ -47183,14 +47271,14 @@
         <v>2</v>
       </c>
       <c r="AQ81" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AR81" s="1">
         <f t="shared" ref="AR81:AR98" si="18">COUNTIF(AQ$5:AQ$77,AQ81)</f>
         <v>1</v>
       </c>
       <c r="AS81" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AT81" s="19">
         <f t="shared" ref="AT81:AT98" si="19">COUNTIF(AS$5:AS$77,AS81)</f>
@@ -47229,7 +47317,7 @@
         <v>2</v>
       </c>
       <c r="BE81" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BF81" s="1">
         <f t="shared" ref="BF81:BF98" si="25">COUNTIF(BE$5:BE$77,BE81)</f>
@@ -47272,7 +47360,7 @@
         <v>2</v>
       </c>
       <c r="BS81" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BT81" s="1">
         <f t="shared" ref="BT81:BT98" si="32">COUNTIF(BS$5:BS$77,BS81)</f>
@@ -47315,7 +47403,7 @@
         <v>2</v>
       </c>
       <c r="CG81" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CH81" s="1">
         <f t="shared" ref="CH81:CH98" si="39">COUNTIF(CG$5:CG$77,CG81)</f>
@@ -47337,14 +47425,14 @@
       </c>
       <c r="CN81" s="1">
         <f t="shared" ref="CN81:CN98" si="42">COUNTIF(CM$5:CM$77,CM81)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CO81" s="4" t="s">
         <v>65</v>
       </c>
       <c r="CP81" s="1">
         <f t="shared" ref="CP81:CP98" si="43">COUNTIF(CO$5:CO$77,CO81)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR81" s="1">
         <f t="shared" ref="CR81:CR98" si="44">COUNTIF(CQ$5:CQ$77,CQ81)</f>
@@ -47669,7 +47757,7 @@
       </c>
       <c r="GV81" s="1">
         <f t="shared" ref="GV81:GV98" si="98">COUNTIF(GU$5:GU$77,GU81)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GW81" s="4" t="s">
         <v>83</v>
@@ -48528,14 +48616,14 @@
         <v>2</v>
       </c>
       <c r="AQ82" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AR82" s="1">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AS82" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AT82" s="19">
         <f t="shared" si="19"/>
@@ -48574,7 +48662,7 @@
         <v>2</v>
       </c>
       <c r="BE82" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BF82" s="1">
         <f t="shared" si="25"/>
@@ -48617,7 +48705,7 @@
         <v>2</v>
       </c>
       <c r="BS82" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BT82" s="1">
         <f t="shared" si="32"/>
@@ -48660,7 +48748,7 @@
         <v>2</v>
       </c>
       <c r="CG82" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CH82" s="1">
         <f t="shared" si="39"/>
@@ -48689,7 +48777,7 @@
       </c>
       <c r="CP82" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CR82" s="1">
         <f t="shared" si="44"/>
@@ -49863,7 +49951,7 @@
         <v>2</v>
       </c>
       <c r="AQ83" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AR83" s="1">
         <f t="shared" si="18"/>
@@ -49906,7 +49994,7 @@
         <v>1</v>
       </c>
       <c r="BE83" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BF83" s="1">
         <f t="shared" si="25"/>
@@ -49949,7 +50037,7 @@
         <v>2</v>
       </c>
       <c r="BS83" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BT83" s="1">
         <f t="shared" si="32"/>
@@ -49992,7 +50080,7 @@
         <v>2</v>
       </c>
       <c r="CG83" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CH83" s="1">
         <f t="shared" si="39"/>
@@ -50021,7 +50109,7 @@
       </c>
       <c r="CP83" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR83" s="1">
         <f t="shared" si="44"/>
@@ -50035,7 +50123,7 @@
         <v>0</v>
       </c>
       <c r="CU83" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CV83" s="1">
         <f t="shared" si="46"/>
@@ -50073,7 +50161,7 @@
         <v>0</v>
       </c>
       <c r="DI83" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="DJ83" s="1">
         <f t="shared" si="53"/>
@@ -50116,7 +50204,7 @@
         <v>0</v>
       </c>
       <c r="DW83" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="DX83" s="1">
         <f t="shared" si="60"/>
@@ -50197,7 +50285,7 @@
         <v>0</v>
       </c>
       <c r="EY83" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="EZ83" s="1">
         <f t="shared" si="74"/>
@@ -50214,9 +50302,7 @@
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="FE83" s="38" t="s">
-        <v>68</v>
-      </c>
+      <c r="FE83" s="38"/>
       <c r="FF83" s="1">
         <f t="shared" si="77"/>
         <v>0</v>
@@ -50240,7 +50326,7 @@
         <v>0</v>
       </c>
       <c r="FM83" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="FN83" s="1">
         <f t="shared" si="81"/>
@@ -50321,7 +50407,7 @@
         <v>0</v>
       </c>
       <c r="GO83" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="GP83" s="1">
         <f t="shared" si="95"/>
@@ -50363,9 +50449,7 @@
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="HC83" s="32" t="s">
-        <v>107</v>
-      </c>
+      <c r="HC83" s="32"/>
       <c r="HD83" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
@@ -51487,9 +51571,7 @@
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="FE84" s="38" t="s">
-        <v>96</v>
-      </c>
+      <c r="FE84" s="38"/>
       <c r="FF84" s="1">
         <f t="shared" si="77"/>
         <v>0</v>
@@ -52548,7 +52630,7 @@
         <v>2</v>
       </c>
       <c r="BY85" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BZ85" s="1">
         <f t="shared" si="35"/>
@@ -53844,7 +53926,7 @@
         <v>1</v>
       </c>
       <c r="BY86" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BZ86" s="1">
         <f t="shared" si="35"/>
@@ -53895,7 +53977,7 @@
       </c>
       <c r="CP86" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR86" s="1">
         <f t="shared" si="44"/>
@@ -54050,7 +54132,9 @@
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="EW86" s="32"/>
+      <c r="EW86" s="32" t="s">
+        <v>131</v>
+      </c>
       <c r="EX86" s="1">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -54126,7 +54210,9 @@
         <f t="shared" si="86"/>
         <v>0</v>
       </c>
-      <c r="FY86" s="32"/>
+      <c r="FY86" s="32" t="s">
+        <v>138</v>
+      </c>
       <c r="FZ86" s="1">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -54185,11 +54271,11 @@
         <v>0</v>
       </c>
       <c r="GU86" s="38" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="GV86" s="1">
         <f t="shared" si="98"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GW86" s="32" t="s">
         <v>7</v>
@@ -54202,7 +54288,9 @@
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="HA86" s="32"/>
+      <c r="HA86" s="32" t="s">
+        <v>131</v>
+      </c>
       <c r="HB86" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
@@ -55019,7 +55107,7 @@
         <v>0</v>
       </c>
       <c r="BC87" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BD87" s="1">
         <f t="shared" si="24"/>
@@ -55056,7 +55144,7 @@
         <v>0</v>
       </c>
       <c r="BQ87" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BR87" s="1">
         <f t="shared" si="31"/>
@@ -55093,7 +55181,7 @@
         <v>0</v>
       </c>
       <c r="CE87" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CF87" s="1">
         <f t="shared" si="38"/>
@@ -55195,7 +55283,7 @@
         <v>0</v>
       </c>
       <c r="DU87" s="32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="DV87" s="1">
         <f t="shared" si="59"/>
@@ -56195,7 +56283,7 @@
         <v>0</v>
       </c>
       <c r="BI88" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BJ88" s="4">
         <f t="shared" si="27"/>
@@ -56276,7 +56364,7 @@
       </c>
       <c r="CN88" s="1">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP88" s="1">
         <f t="shared" si="43"/>
@@ -57347,7 +57435,7 @@
         <v>0</v>
       </c>
       <c r="BI89" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BJ89" s="4">
         <f t="shared" si="27"/>
@@ -57381,7 +57469,7 @@
         <v>0</v>
       </c>
       <c r="BW89" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BX89" s="1">
         <f t="shared" si="34"/>
@@ -57426,7 +57514,7 @@
       </c>
       <c r="CN89" s="1">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP89" s="1">
         <f t="shared" si="43"/>
@@ -57577,9 +57665,6 @@
       <c r="FB89" s="1">
         <f t="shared" si="75"/>
         <v>0</v>
-      </c>
-      <c r="FC89" s="18" t="s">
-        <v>92</v>
       </c>
       <c r="FD89" s="1">
         <f t="shared" si="76"/>
@@ -58500,7 +58585,7 @@
         <v>0</v>
       </c>
       <c r="BW90" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BX90" s="1">
         <f t="shared" si="34"/>
@@ -58545,7 +58630,7 @@
       </c>
       <c r="CN90" s="1">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP90" s="1">
         <f t="shared" si="43"/>
@@ -58697,9 +58782,6 @@
       <c r="FB90" s="1">
         <f t="shared" si="75"/>
         <v>0</v>
-      </c>
-      <c r="FC90" s="18" t="s">
-        <v>93</v>
       </c>
       <c r="FD90" s="1">
         <f t="shared" si="76"/>
@@ -59583,14 +59665,14 @@
         <v>0</v>
       </c>
       <c r="BI91" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BJ91" s="4">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="BK91" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BL91" s="1">
         <f t="shared" si="28"/>
@@ -59621,7 +59703,7 @@
         <v>0</v>
       </c>
       <c r="BY91" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BZ91" s="1">
         <f t="shared" si="35"/>
@@ -59652,7 +59734,7 @@
         <v>0</v>
       </c>
       <c r="CM91" s="38" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="CN91" s="1">
         <f t="shared" si="42"/>
@@ -59741,11 +59823,16 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
+      <c r="EA91" s="18" t="s">
+        <v>132</v>
+      </c>
       <c r="EB91" s="1">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="EC91" s="38"/>
+      <c r="EC91" s="38" t="s">
+        <v>134</v>
+      </c>
       <c r="ED91" s="1">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -59770,11 +59857,16 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
+      <c r="EO91" s="18" t="s">
+        <v>136</v>
+      </c>
       <c r="EP91" s="1">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="EQ91" s="38"/>
+      <c r="EQ91" s="38" t="s">
+        <v>134</v>
+      </c>
       <c r="ER91" s="1">
         <f t="shared" si="70"/>
         <v>0</v>
@@ -59828,11 +59920,16 @@
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
+      <c r="FQ91" s="18" t="s">
+        <v>133</v>
+      </c>
       <c r="FR91" s="1">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="FS91" s="38"/>
+      <c r="FS91" s="38" t="s">
+        <v>134</v>
+      </c>
       <c r="FT91" s="1">
         <f t="shared" si="84"/>
         <v>0</v>
@@ -59885,6 +59982,9 @@
       <c r="GR91" s="1">
         <f t="shared" si="96"/>
         <v>0</v>
+      </c>
+      <c r="GS91" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="GT91" s="1">
         <f t="shared" si="97"/>
@@ -60587,7 +60687,7 @@
         <v>0</v>
       </c>
       <c r="BI92" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BJ92" s="4">
         <f t="shared" si="27"/>
@@ -60654,7 +60754,7 @@
         <v>0</v>
       </c>
       <c r="CM92" s="38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="CN92" s="1">
         <f t="shared" si="42"/>
@@ -60717,7 +60817,7 @@
         <v>0</v>
       </c>
       <c r="DO92" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DP92" s="1">
         <f t="shared" si="56"/>
@@ -60743,11 +60843,16 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
+      <c r="EA92" s="18" t="s">
+        <v>133</v>
+      </c>
       <c r="EB92" s="1">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="EC92" s="38"/>
+      <c r="EC92" s="38" t="s">
+        <v>135</v>
+      </c>
       <c r="ED92" s="1">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -60772,11 +60877,16 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
+      <c r="EO92" s="18" t="s">
+        <v>133</v>
+      </c>
       <c r="EP92" s="1">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="EQ92" s="38"/>
+      <c r="EQ92" s="38" t="s">
+        <v>83</v>
+      </c>
       <c r="ER92" s="1">
         <f t="shared" si="70"/>
         <v>0</v>
@@ -60830,11 +60940,16 @@
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
+      <c r="FQ92" s="18" t="s">
+        <v>113</v>
+      </c>
       <c r="FR92" s="1">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="FS92" s="38"/>
+      <c r="FS92" s="38" t="s">
+        <v>83</v>
+      </c>
       <c r="FT92" s="1">
         <f t="shared" si="84"/>
         <v>0</v>
@@ -60887,6 +61002,9 @@
       <c r="GR92" s="1">
         <f t="shared" si="96"/>
         <v>0</v>
+      </c>
+      <c r="GS92" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="GT92" s="1">
         <f t="shared" si="97"/>
@@ -61624,7 +61742,7 @@
         <v>0</v>
       </c>
       <c r="BY93" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BZ93" s="1">
         <f t="shared" si="35"/>
@@ -61655,7 +61773,7 @@
         <v>0</v>
       </c>
       <c r="CM93" s="38" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CN93" s="1">
         <f t="shared" si="42"/>
@@ -61741,11 +61859,16 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
+      <c r="EA93" s="18" t="s">
+        <v>113</v>
+      </c>
       <c r="EB93" s="1">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="EC93" s="38"/>
+      <c r="EC93" s="38" t="s">
+        <v>110</v>
+      </c>
       <c r="ED93" s="1">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -61770,11 +61893,16 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
+      <c r="EO93" s="18" t="s">
+        <v>113</v>
+      </c>
       <c r="EP93" s="1">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="EQ93" s="32"/>
+      <c r="EQ93" s="38" t="s">
+        <v>84</v>
+      </c>
       <c r="ER93" s="1">
         <f t="shared" si="70"/>
         <v>0</v>
@@ -61828,11 +61956,16 @@
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
+      <c r="FQ93" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="FR93" s="1">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="FS93" s="32"/>
+      <c r="FS93" s="38" t="s">
+        <v>84</v>
+      </c>
       <c r="FT93" s="1">
         <f t="shared" si="84"/>
         <v>0</v>
@@ -61886,6 +62019,9 @@
       <c r="GR93" s="1">
         <f t="shared" si="96"/>
         <v>0</v>
+      </c>
+      <c r="GS93" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="GT93" s="1">
         <f t="shared" si="97"/>
@@ -62650,7 +62786,7 @@
         <v>0</v>
       </c>
       <c r="CM94" s="32" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="CN94" s="1">
         <f t="shared" si="42"/>
@@ -62738,7 +62874,9 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="EC94" s="38"/>
+      <c r="EC94" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="ED94" s="1">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -62762,6 +62900,9 @@
       <c r="EN94" s="1">
         <f t="shared" si="68"/>
         <v>0</v>
+      </c>
+      <c r="EO94" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="EP94" s="1">
         <f t="shared" si="69"/>
@@ -62821,11 +62962,16 @@
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
+      <c r="FQ94" s="18" t="s">
+        <v>127</v>
+      </c>
       <c r="FR94" s="1">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="FS94" s="4"/>
+      <c r="FS94" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="FT94" s="1">
         <f t="shared" si="84"/>
         <v>0</v>
@@ -62880,11 +63026,16 @@
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
+      <c r="GS94" s="18" t="s">
+        <v>113</v>
+      </c>
       <c r="GT94" s="1">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="GU94" s="4"/>
+      <c r="GU94" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="GV94" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
@@ -63870,11 +64021,16 @@
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
+      <c r="GS95" s="18" t="s">
+        <v>127</v>
+      </c>
       <c r="GT95" s="1">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="GU95" s="4"/>
+      <c r="GU95" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="GV95" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
@@ -64630,7 +64786,7 @@
         <v>0</v>
       </c>
       <c r="CM96" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="CN96" s="1">
         <f t="shared" si="42"/>
@@ -64863,7 +65019,9 @@
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="GU96" s="4"/>
+      <c r="GU96" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="GV96" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
@@ -65850,7 +66008,9 @@
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="GU97" s="4"/>
+      <c r="GU97" s="32" t="s">
+        <v>108</v>
+      </c>
       <c r="GV97" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
@@ -66838,7 +66998,9 @@
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="GU98" s="4"/>
+      <c r="GU98" s="32" t="s">
+        <v>109</v>
+      </c>
       <c r="GV98" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
@@ -68216,52 +68378,12 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="II1:IV1"/>
-    <mergeCell ref="II2:IV2"/>
-    <mergeCell ref="GE2:GR2"/>
-    <mergeCell ref="GS2:HF2"/>
-    <mergeCell ref="HG2:HT2"/>
-    <mergeCell ref="HU2:IH2"/>
-    <mergeCell ref="GE1:GR1"/>
-    <mergeCell ref="GS1:HF1"/>
-    <mergeCell ref="HG1:HT1"/>
-    <mergeCell ref="HU1:IH1"/>
-    <mergeCell ref="FQ2:GD2"/>
-    <mergeCell ref="EA1:EN1"/>
-    <mergeCell ref="EO1:FB1"/>
-    <mergeCell ref="FC1:FP1"/>
-    <mergeCell ref="FQ1:GD1"/>
-    <mergeCell ref="EA2:EN2"/>
-    <mergeCell ref="EO2:FB2"/>
-    <mergeCell ref="CY1:DL1"/>
-    <mergeCell ref="DM1:DZ1"/>
-    <mergeCell ref="AG1:AT1"/>
-    <mergeCell ref="AG2:AT2"/>
-    <mergeCell ref="FC2:FP2"/>
-    <mergeCell ref="BW2:CJ2"/>
-    <mergeCell ref="CK2:CX2"/>
-    <mergeCell ref="CY2:DL2"/>
-    <mergeCell ref="DM2:DZ2"/>
-    <mergeCell ref="CK1:CX1"/>
-    <mergeCell ref="AU1:BH1"/>
-    <mergeCell ref="BI1:BV1"/>
-    <mergeCell ref="AU2:BH2"/>
-    <mergeCell ref="BI2:BV2"/>
-    <mergeCell ref="E1:R1"/>
-    <mergeCell ref="E2:R2"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="BW1:CJ1"/>
-    <mergeCell ref="IW1:JJ1"/>
-    <mergeCell ref="JK1:JX1"/>
-    <mergeCell ref="JY1:KL1"/>
-    <mergeCell ref="KM1:KZ1"/>
-    <mergeCell ref="LA1:LN1"/>
-    <mergeCell ref="LO1:MB1"/>
-    <mergeCell ref="MC1:MP1"/>
-    <mergeCell ref="MQ1:ND1"/>
-    <mergeCell ref="NE1:NR1"/>
-    <mergeCell ref="NS1:OF1"/>
+    <mergeCell ref="QY1:RL1"/>
+    <mergeCell ref="QY2:RL2"/>
+    <mergeCell ref="PI2:PV2"/>
+    <mergeCell ref="PW2:QJ2"/>
+    <mergeCell ref="QK1:QX1"/>
+    <mergeCell ref="QK2:QX2"/>
     <mergeCell ref="OG1:OT1"/>
     <mergeCell ref="OU1:PH1"/>
     <mergeCell ref="PI1:PV1"/>
@@ -68278,12 +68400,52 @@
     <mergeCell ref="NS2:OF2"/>
     <mergeCell ref="OG2:OT2"/>
     <mergeCell ref="OU2:PH2"/>
-    <mergeCell ref="QY1:RL1"/>
-    <mergeCell ref="QY2:RL2"/>
-    <mergeCell ref="PI2:PV2"/>
-    <mergeCell ref="PW2:QJ2"/>
-    <mergeCell ref="QK1:QX1"/>
-    <mergeCell ref="QK2:QX2"/>
+    <mergeCell ref="LO1:MB1"/>
+    <mergeCell ref="MC1:MP1"/>
+    <mergeCell ref="MQ1:ND1"/>
+    <mergeCell ref="NE1:NR1"/>
+    <mergeCell ref="NS1:OF1"/>
+    <mergeCell ref="IW1:JJ1"/>
+    <mergeCell ref="JK1:JX1"/>
+    <mergeCell ref="JY1:KL1"/>
+    <mergeCell ref="KM1:KZ1"/>
+    <mergeCell ref="LA1:LN1"/>
+    <mergeCell ref="E1:R1"/>
+    <mergeCell ref="E2:R2"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="BW1:CJ1"/>
+    <mergeCell ref="CY1:DL1"/>
+    <mergeCell ref="DM1:DZ1"/>
+    <mergeCell ref="AG1:AT1"/>
+    <mergeCell ref="AG2:AT2"/>
+    <mergeCell ref="FC2:FP2"/>
+    <mergeCell ref="BW2:CJ2"/>
+    <mergeCell ref="CK2:CX2"/>
+    <mergeCell ref="CY2:DL2"/>
+    <mergeCell ref="DM2:DZ2"/>
+    <mergeCell ref="CK1:CX1"/>
+    <mergeCell ref="AU1:BH1"/>
+    <mergeCell ref="BI1:BV1"/>
+    <mergeCell ref="AU2:BH2"/>
+    <mergeCell ref="BI2:BV2"/>
+    <mergeCell ref="FQ2:GD2"/>
+    <mergeCell ref="EA1:EN1"/>
+    <mergeCell ref="EO1:FB1"/>
+    <mergeCell ref="FC1:FP1"/>
+    <mergeCell ref="FQ1:GD1"/>
+    <mergeCell ref="EA2:EN2"/>
+    <mergeCell ref="EO2:FB2"/>
+    <mergeCell ref="II1:IV1"/>
+    <mergeCell ref="II2:IV2"/>
+    <mergeCell ref="GE2:GR2"/>
+    <mergeCell ref="GS2:HF2"/>
+    <mergeCell ref="HG2:HT2"/>
+    <mergeCell ref="HU2:IH2"/>
+    <mergeCell ref="GE1:GR1"/>
+    <mergeCell ref="GS1:HF1"/>
+    <mergeCell ref="HG1:HT1"/>
+    <mergeCell ref="HU1:IH1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="M81:M98 K81:K98 E81:E98 Q81:Q98 O81:O98 I81:I98 G81:G98">
@@ -71717,13 +71879,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G77 RE5:RE77 RK5:RK77 RI5:RI77 RG5:RG77 RC5:RC77 RA5:RA77 QY5:QY77 QQ5:QQ77 QW5:QW77 QU5:QU77 QS5:QS77 QO5:QO77 QM5:QM77 QK5:QK77 QC5:QC77 QI5:QI77 QG5:QG77 QE5:QE77 QA5:QA77 PY5:PY77 PW5:PW77 PO5:PO77 PU5:PU77 PS5:PS77 PQ5:PQ77 PM5:PM77 PK5:PK77 PI5:PI77 PA5:PA77 PG5:PG77 PE5:PE77 PC5:PC77 OY5:OY77 OW5:OW77 OU5:OU77 OM5:OM77 OS5:OS77 OQ5:OQ77 OO5:OO77 OK5:OK77 OI5:OI77 OG5:OG77 NY5:NY77 OE5:OE77 OC5:OC77 OA5:OA77 NW5:NW77 NU5:NU77 NS5:NS77 NK5:NK77 NQ5:NQ77 NO5:NO77 NM5:NM77 NI5:NI77 NG5:NG77 NE5:NE77 MW5:MW77 NC5:NC77 NA5:NA77 MY5:MY77 MU5:MU77 MS5:MS77 MQ5:MQ77 MI5:MI77 MO5:MO77 MM5:MM77 MK5:MK77 MG5:MG77 ME5:ME77 MC5:MC77 LU5:LU77 MA5:MA77 LY5:LY77 LW5:LW77 LS5:LS77 LQ5:LQ77 LO5:LO77 LG5:LG77 LM5:LM77 LK5:LK77 LI5:LI77 LE5:LE77 LC5:LC77 LA5:LA77 KS5:KS77 KY5:KY77 KW5:KW77 KU5:KU77 KQ5:KQ77 KO5:KO77 KM5:KM77 KE5:KE77 KK5:KK77 KI5:KI77 KG5:KG77 KC5:KC77 KA5:KA77 JY5:JY77 JQ5:JQ77 JW5:JW77 JU5:JU77 JS5:JS77 JO5:JO77 JM5:JM77 JK5:JK77 JC5:JC77 JI5:JI77 JG5:JG77 JE5:JE77 JA5:JA77 IY5:IY77 IW5:IW77 E5:E77 IO5:IO77 IU5:IU77 IS5:IS77 IQ5:IQ77 IM5:IM77 IK5:IK77 II5:II77 IA5:IA77 IG5:IG77 IE5:IE77 IC5:IC77 HY5:HY77 HW5:HW77 HU5:HU77 HM5:HM77 HS5:HS77 HQ5:HQ77 HO5:HO77 HK5:HK77 HI5:HI77 HG5:HG77 GY5:GY77 HE5:HE77 HC5:HC77 HA5:HA77 GW5:GW77 GU5:GU77 GS5:GS77 GK5:GK77 GQ5:GQ77 GO5:GO77 GM5:GM77 GI5:GI77 GG5:GG77 GE5:GE77 FW5:FW77 GC5:GC77 GA5:GA77 FY5:FY77 FU5:FU77 FS5:FS77 FQ5:FQ77 FI5:FI77 FO5:FO77 FM5:FM77 FK5:FK77 FG5:FG77 FE5:FE77 FC5:FC77 EU5:EU77 FA5:FA77 EY5:EY77 EW5:EW77 ES5:ES77 EQ5:EQ77 EO5:EO77 EG5:EG77 EM5:EM77 EK5:EK77 EI5:EI77 EE5:EE77 EC5:EC77 EA5:EA77 DS5:DS77 DY5:DY77 DW5:DW77 DU5:DU77 DQ5:DQ77 DO5:DO77 DM5:DM77 DE5:DE77 DK5:DK77 DI5:DI77 DG5:DG77 DC5:DC77 DA5:DA77 CY5:CY77 CQ5:CQ77 CW5:CW77 CU5:CU77 CS5:CS77 CO5:CO77 CM5:CM77 CK5:CK77 CC5:CC77 CI5:CI77 CG5:CG77 CE5:CE77 CA5:CA77 BY5:BY77 BW5:BW77 BO5:BO77 BU5:BU77 BS5:BS77 BQ5:BQ77 BM5:BM77 BK5:BK77 BI5:BI77 BA5:BA77 BG5:BG77 BE5:BE77 BC5:BC77 AY5:AY77 AW5:AW77 AU5:AU77 AM5:AM77 AS5:AS77 AQ5:AQ77 AO5:AO77 AK5:AK77 AI5:AI77 AG5:AG77 Y5:Y77 AE5:AE77 AC5:AC77 AA5:AA77 W5:W77 U5:U77 S5:S77 K5:K77 Q5:Q77 O5:O77 M5:M77 I5:I77" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G77 RE5:RE77 RK5:RK77 RI5:RI77 RG5:RG77 RC5:RC77 RA5:RA77 QY5:QY77 QQ5:QQ77 QW5:QW77 QU5:QU77 QS5:QS77 QO5:QO77 QM5:QM77 QK5:QK77 QC5:QC77 QI5:QI77 QG5:QG77 QE5:QE77 QA5:QA77 PY5:PY77 PW5:PW77 PO5:PO77 PU5:PU77 PS5:PS77 PQ5:PQ77 PM5:PM77 PK5:PK77 PI5:PI77 PA5:PA77 PG5:PG77 PE5:PE77 PC5:PC77 OY5:OY77 OW5:OW77 OU5:OU77 OM5:OM77 OS5:OS77 OQ5:OQ77 OO5:OO77 OK5:OK77 OI5:OI77 OG5:OG77 NY5:NY77 OE5:OE77 OC5:OC77 OA5:OA77 NW5:NW77 NU5:NU77 NS5:NS77 NK5:NK77 NQ5:NQ77 NO5:NO77 NM5:NM77 NI5:NI77 NG5:NG77 NE5:NE77 MW5:MW77 NC5:NC77 NA5:NA77 MY5:MY77 MU5:MU77 MS5:MS77 MQ5:MQ77 MI5:MI77 MO5:MO77 MM5:MM77 MK5:MK77 MG5:MG77 ME5:ME77 MC5:MC77 LU5:LU77 MA5:MA77 LY5:LY77 LW5:LW77 LS5:LS77 LQ5:LQ77 LO5:LO77 LG5:LG77 LM5:LM77 LK5:LK77 LI5:LI77 LE5:LE77 LC5:LC77 LA5:LA77 KS5:KS77 KY5:KY77 KW5:KW77 KU5:KU77 KQ5:KQ77 KO5:KO77 KM5:KM77 KE5:KE77 KK5:KK77 KI5:KI77 KG5:KG77 KC5:KC77 KA5:KA77 JY5:JY77 JQ5:JQ77 JW5:JW77 JU5:JU77 JS5:JS77 JO5:JO77 JM5:JM77 JK5:JK77 JC5:JC77 JI5:JI77 JG5:JG77 JE5:JE77 JA5:JA77 IY5:IY77 IW5:IW77 E5:E77 IO5:IO77 IU5:IU77 IS5:IS77 IQ5:IQ77 IM5:IM77 IK5:IK77 II5:II77 IA5:IA77 IG5:IG77 IE5:IE77 IC5:IC77 HY5:HY77 HW5:HW77 HU5:HU77 HM5:HM77 HS5:HS77 HQ5:HQ77 HO5:HO77 HK5:HK77 HI5:HI77 HG5:HG77 GY5:GY77 HE5:HE77 HC5:HC77 HA5:HA77 GW5:GW77 GU5:GU77 GS5:GS77 GK5:GK77 GQ5:GQ77 GO5:GO77 GM5:GM77 GI5:GI77 GG5:GG77 GE5:GE77 FW5:FW77 GC5:GC77 GA5:GA77 FY5:FY77 FU5:FU77 FS5:FS77 FQ5:FQ77 FI5:FI77 FO5:FO77 FM5:FM77 FK5:FK77 FG5:FG77 FE5:FE77 FC5:FC77 EU5:EU77 FA5:FA77 EY5:EY77 EW5:EW77 ES5:ES77 EQ5:EQ77 EO5:EO77 EG5:EG77 EM5:EM77 EK5:EK77 EI5:EI77 EE5:EE77 EC5:EC77 EA5:EA77 DS5:DS77 DY5:DY77 DW5:DW77 DU5:DU77 DQ5:DQ77 DO5:DO77 DM5:DM77 DE5:DE77 DK5:DK77 DI5:DI77 DG5:DG77 DC5:DC77 DA5:DA77 CY5:CY77 CQ5:CQ77 CW5:CW77 CU5:CU77 CS5:CS77 CO5:CO77 CM5:CM77 CK5:CK77 CC5:CC77 CI5:CI77 CG5:CG77 CE5:CE77 CA5:CA77 BY5:BY77 BW5:BW77 BO5:BO77 BU5:BU77 BS5:BS77 BQ5:BQ77 BM5:BM77 BK5:BK77 BI5:BI77 BA5:BA77 BG5:BG77 BE5:BE77 BC5:BC77 AY5:AY77 AW5:AW77 AU5:AU77 AM5:AM77 AS5:AS77 AQ5:AQ77 AO5:AO77 AK5:AK77 AI5:AI77 AG5:AG77 Y5:Y77 AE5:AE77 AC5:AC77 AA5:AA77 W5:W77 U5:U77 S5:S77 K5:K77 Q5:Q77 O5:O77 M5:M77 I5:I77">
       <formula1>E$78:E$99</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IV5:IV77 QJ5:QJ77 QB5:QB77 PZ5:PZ77 QH5:QH77 QD5:QD77 QF5:QF77 PX5:PX77 PV5:PV77 PN5:PN77 PL5:PL77 PT5:PT77 PP5:PP77 PR5:PR77 PJ5:PJ77 PH5:PH77 OZ5:OZ77 OX5:OX77 PF5:PF77 PB5:PB77 PD5:PD77 OV5:OV77 OT5:OT77 OL5:OL77 OJ5:OJ77 OR5:OR77 ON5:ON77 OP5:OP77 OH5:OH77 OF5:OF77 NX5:NX77 NV5:NV77 OD5:OD77 NZ5:NZ77 OB5:OB77 NT5:NT77 NR5:NR77 NJ5:NJ77 NH5:NH77 NP5:NP77 NL5:NL77 NN5:NN77 NF5:NF77 ND5:ND77 MV5:MV77 MT5:MT77 NB5:NB77 MX5:MX77 MZ5:MZ77 MR5:MR77 MP5:MP77 MH5:MH77 MF5:MF77 MN5:MN77 MJ5:MJ77 ML5:ML77 MD5:MD77 MB5:MB77 LT5:LT77 LR5:LR77 LZ5:LZ77 LV5:LV77 LX5:LX77 LP5:LP77 LN5:LN77 LF5:LF77 LD5:LD77 LL5:LL77 LH5:LH77 LJ5:LJ77 LB5:LB77 KZ5:KZ77 KR5:KR77 KP5:KP77 KX5:KX77 KT5:KT77 KV5:KV77 KN5:KN77 KL5:KL77 KD5:KD77 KB5:KB77 KJ5:KJ77 KF5:KF77 KH5:KH77 JZ5:JZ77 JX5:JX77 JP5:JP77 JN5:JN77 JV5:JV77 JR5:JR77 JT5:JT77 JL5:JL77 JJ5:JJ77 JB5:JB77 IZ5:IZ77 JH5:JH77 JD5:JD77 JF5:JF77 IX5:IX77 F5:F77 N5:N77 L5:L77 P5:P77 H5:H77 J5:J77 R5:R77 T5:T77 AB5:AB77 Z5:Z77 AD5:AD77 V5:V77 X5:X77 AF5:AF77 AH5:AH77 AP5:AP77 AN5:AN77 AR5:AR77 AJ5:AJ77 AL5:AL77 AT5:AT77 AV5:AV77 BD5:BD77 BB5:BB77 BF5:BF77 AX5:AX77 AZ5:AZ77 BH5:BH77 BJ5:BJ77 BR5:BR77 BP5:BP77 BT5:BT77 BL5:BL77 BN5:BN77 BV5:BV77 BX5:BX77 CF5:CF77 CD5:CD77 CH5:CH77 BZ5:BZ77 CB5:CB77 CJ5:CJ77 CL5:CL77 CT5:CT77 CR5:CR77 CV5:CV77 CN5:CN77 CP5:CP77 CX5:CX77 CZ5:CZ77 DH5:DH77 DF5:DF77 DJ5:DJ77 DB5:DB77 DD5:DD77 DL5:DL77 DN5:DN77 DV5:DV77 DT5:DT77 DX5:DX77 DP5:DP77 DR5:DR77 DZ5:DZ77 EB5:EB77 EJ5:EJ77 EH5:EH77 EL5:EL77 ED5:ED77 EF5:EF77 EN5:EN77 EP5:EP77 EX5:EX77 EV5:EV77 EZ5:EZ77 ER5:ER77 ET5:ET77 FB5:FB77 FD5:FD77 FL5:FL77 FJ5:FJ77 FN5:FN77 FF5:FF77 FH5:FH77 FP5:FP77 FR5:FR77 FZ5:FZ77 FX5:FX77 GB5:GB77 FT5:FT77 FV5:FV77 GD5:GD77 GF5:GF77 GN5:GN77 GL5:GL77 GP5:GP77 GH5:GH77 GJ5:GJ77 GR5:GR77 GT5:GT77 HB5:HB77 GZ5:GZ77 HD5:HD77 GV5:GV77 GX5:GX77 HF5:HF77 HH5:HH77 HP5:HP77 HN5:HN77 HR5:HR77 HJ5:HJ77 HL5:HL77 HT5:HT77 HV5:HV77 ID5:ID77 IB5:IB77 IF5:IF77 HX5:HX77 HZ5:HZ77 IH5:IH77 IJ5:IJ77 IR5:IR77 IP5:IP77 IT5:IT77 IL5:IL77 IN5:IN77 QX5:QX77 QP5:QP77 QN5:QN77 QV5:QV77 QR5:QR77 QT5:QT77 QL5:QL77 RL5:RL77 RD5:RD77 RB5:RB77 RJ5:RJ77 RF5:RF77 RH5:RH77 QZ5:QZ77" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IV5:IV77 QJ5:QJ77 QB5:QB77 PZ5:PZ77 QH5:QH77 QD5:QD77 QF5:QF77 PX5:PX77 PV5:PV77 PN5:PN77 PL5:PL77 PT5:PT77 PP5:PP77 PR5:PR77 PJ5:PJ77 PH5:PH77 OZ5:OZ77 OX5:OX77 PF5:PF77 PB5:PB77 PD5:PD77 OV5:OV77 OT5:OT77 OL5:OL77 OJ5:OJ77 OR5:OR77 ON5:ON77 OP5:OP77 OH5:OH77 OF5:OF77 NX5:NX77 NV5:NV77 OD5:OD77 NZ5:NZ77 OB5:OB77 NT5:NT77 NR5:NR77 NJ5:NJ77 NH5:NH77 NP5:NP77 NL5:NL77 NN5:NN77 NF5:NF77 ND5:ND77 MV5:MV77 MT5:MT77 NB5:NB77 MX5:MX77 MZ5:MZ77 MR5:MR77 MP5:MP77 MH5:MH77 MF5:MF77 MN5:MN77 MJ5:MJ77 ML5:ML77 MD5:MD77 MB5:MB77 LT5:LT77 LR5:LR77 LZ5:LZ77 LV5:LV77 LX5:LX77 LP5:LP77 LN5:LN77 LF5:LF77 LD5:LD77 LL5:LL77 LH5:LH77 LJ5:LJ77 LB5:LB77 KZ5:KZ77 KR5:KR77 KP5:KP77 KX5:KX77 KT5:KT77 KV5:KV77 KN5:KN77 KL5:KL77 KD5:KD77 KB5:KB77 KJ5:KJ77 KF5:KF77 KH5:KH77 JZ5:JZ77 JX5:JX77 JP5:JP77 JN5:JN77 JV5:JV77 JR5:JR77 JT5:JT77 JL5:JL77 JJ5:JJ77 JB5:JB77 IZ5:IZ77 JH5:JH77 JD5:JD77 JF5:JF77 IX5:IX77 F5:F77 N5:N77 L5:L77 P5:P77 H5:H77 J5:J77 R5:R77 T5:T77 AB5:AB77 Z5:Z77 AD5:AD77 V5:V77 X5:X77 AF5:AF77 AH5:AH77 AP5:AP77 AN5:AN77 AR5:AR77 AJ5:AJ77 AL5:AL77 AT5:AT77 AV5:AV77 BD5:BD77 BB5:BB77 BF5:BF77 AX5:AX77 AZ5:AZ77 BH5:BH77 BJ5:BJ77 BR5:BR77 BP5:BP77 BT5:BT77 BL5:BL77 BN5:BN77 BV5:BV77 BX5:BX77 CF5:CF77 CD5:CD77 CH5:CH77 BZ5:BZ77 CB5:CB77 CJ5:CJ77 CL5:CL77 CT5:CT77 CR5:CR77 CV5:CV77 CN5:CN77 CP5:CP77 CX5:CX77 CZ5:CZ77 DH5:DH77 DF5:DF77 DJ5:DJ77 DB5:DB77 DD5:DD77 DL5:DL77 DN5:DN77 DV5:DV77 DT5:DT77 DX5:DX77 DP5:DP77 DR5:DR77 DZ5:DZ77 EB5:EB77 EJ5:EJ77 EH5:EH77 EL5:EL77 ED5:ED77 EF5:EF77 EN5:EN77 EP5:EP77 EX5:EX77 EV5:EV77 EZ5:EZ77 ER5:ER77 ET5:ET77 FB5:FB77 FD5:FD77 FL5:FL77 FJ5:FJ77 FN5:FN77 FF5:FF77 FH5:FH77 FP5:FP77 FR5:FR77 FZ5:FZ77 FX5:FX77 GB5:GB77 FT5:FT77 FV5:FV77 GD5:GD77 GF5:GF77 GN5:GN77 GL5:GL77 GP5:GP77 GH5:GH77 GJ5:GJ77 GR5:GR77 GT5:GT77 HB5:HB77 GZ5:GZ77 HD5:HD77 GV5:GV77 GX5:GX77 HF5:HF77 HH5:HH77 HP5:HP77 HN5:HN77 HR5:HR77 HJ5:HJ77 HL5:HL77 HT5:HT77 HV5:HV77 ID5:ID77 IB5:IB77 IF5:IF77 HX5:HX77 HZ5:HZ77 IH5:IH77 IJ5:IJ77 IR5:IR77 IP5:IP77 IT5:IT77 IL5:IL77 IN5:IN77 QX5:QX77 QP5:QP77 QN5:QN77 QV5:QV77 QR5:QR77 QT5:QT77 QL5:QL77 RL5:RL77 RD5:RD77 RB5:RB77 RJ5:RJ77 RF5:RF77 RH5:RH77 QZ5:QZ77">
       <formula1>Type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:C3" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:C3">
       <formula1>$M$78:$M$88</formula1>
     </dataValidation>
   </dataValidations>
@@ -71735,7 +71897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -71747,7 +71909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -71759,7 +71921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/RingetteSchedule/Master.xlsx
+++ b/RingetteSchedule/Master.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{776A957F-ED95-40CA-B015-4A095C48346D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D043CF-7944-416D-8B65-85DCAE38D46F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="163" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="163" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisions" sheetId="7" r:id="rId1"/>
@@ -260,9 +260,6 @@
     <t>Elastigirls (Gore)</t>
   </si>
   <si>
-    <t>Lasergirls (Peltzer)</t>
-  </si>
-  <si>
     <t>Spidergirls (O'Donnell)</t>
   </si>
   <si>
@@ -504,6 +501,9 @@
   </si>
   <si>
     <t>Paw Patrol (McBride-Alderwick)</t>
+  </si>
+  <si>
+    <t>Lasergirls (Alderwick)</t>
   </si>
 </sst>
 </file>
@@ -8481,12 +8481,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="94.109375" customWidth="1"/>
+    <col min="2" max="2" width="94.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>4</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -8502,29 +8502,29 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>56</v>
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H6" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
     </row>
   </sheetData>
@@ -8542,499 +8542,499 @@
   <dimension ref="A1:RM103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="ED17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="ED5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="FF31" sqref="FF31"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="4" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="11" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="12" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="12" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="18" style="4" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="5.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="5.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="15.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="3.6640625" style="13" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" style="12" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="3.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" style="12" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="3.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="16.5546875" style="4" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="4.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="18.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="16.44140625" style="4" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="4.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="16.5546875" style="4" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="3.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="16.88671875" style="4" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="3.6640625" style="13" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="18.88671875" style="12" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="4.5546875" style="4" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="17.109375" style="12" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="4.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="17.44140625" style="4" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="4.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="15.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="3.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="16.44140625" style="4" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="4.5546875" style="1" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="21.109375" style="4" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="4.5546875" style="1" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="18.109375" style="4" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="3.6640625" style="13" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="19.33203125" style="12" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="3.7109375" style="13" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="3.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="18.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="4.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="4.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="16.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="3.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="16.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="3.7109375" style="13" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="18.85546875" style="12" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="4.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="17.140625" style="12" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="4.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="17.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="4.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="15.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="3.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="16.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="4.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="21.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="4.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="18.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="3.7109375" style="13" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="19.28515625" style="12" hidden="1" customWidth="1"/>
     <col min="49" max="49" width="4" style="4" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="17.33203125" style="12" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="4.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="16.88671875" style="4" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="4.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="18.44140625" style="4" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="6.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="17.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="17.28515625" style="12" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="4.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="16.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="4.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="18.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="6.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="17.28515625" style="4" hidden="1" customWidth="1"/>
     <col min="57" max="57" width="5" style="1" hidden="1" customWidth="1"/>
     <col min="58" max="58" width="20" style="4" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="5.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="60" max="60" width="17.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="3.6640625" style="13" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="18.88671875" style="12" customWidth="1"/>
-    <col min="63" max="63" width="4.44140625" style="4" customWidth="1"/>
+    <col min="59" max="59" width="5.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="17.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="3.7109375" style="13" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="18.85546875" style="12" customWidth="1"/>
+    <col min="63" max="63" width="4.42578125" style="4" customWidth="1"/>
     <col min="64" max="64" width="18" style="12" customWidth="1"/>
-    <col min="65" max="65" width="4.109375" style="1" customWidth="1"/>
-    <col min="66" max="66" width="16.88671875" style="4" customWidth="1"/>
-    <col min="67" max="67" width="4.88671875" style="1" customWidth="1"/>
-    <col min="68" max="68" width="17.77734375" style="4" customWidth="1"/>
-    <col min="69" max="69" width="4.6640625" style="1" customWidth="1"/>
-    <col min="70" max="70" width="15.5546875" style="4" customWidth="1"/>
-    <col min="71" max="71" width="4.88671875" style="1" customWidth="1"/>
+    <col min="65" max="65" width="4.140625" style="1" customWidth="1"/>
+    <col min="66" max="66" width="16.85546875" style="4" customWidth="1"/>
+    <col min="67" max="67" width="4.85546875" style="1" customWidth="1"/>
+    <col min="68" max="68" width="17.7109375" style="4" customWidth="1"/>
+    <col min="69" max="69" width="4.7109375" style="1" customWidth="1"/>
+    <col min="70" max="70" width="15.5703125" style="4" customWidth="1"/>
+    <col min="71" max="71" width="4.85546875" style="1" customWidth="1"/>
     <col min="72" max="72" width="21" style="4" customWidth="1"/>
-    <col min="73" max="73" width="4.44140625" style="1" customWidth="1"/>
-    <col min="74" max="74" width="15.6640625" style="4" customWidth="1"/>
-    <col min="75" max="75" width="6.44140625" style="13" customWidth="1"/>
-    <col min="76" max="76" width="18.5546875" style="12" customWidth="1"/>
-    <col min="77" max="77" width="4.44140625" style="4" customWidth="1"/>
+    <col min="73" max="73" width="4.42578125" style="1" customWidth="1"/>
+    <col min="74" max="74" width="15.7109375" style="4" customWidth="1"/>
+    <col min="75" max="75" width="6.42578125" style="13" customWidth="1"/>
+    <col min="76" max="76" width="18.5703125" style="12" customWidth="1"/>
+    <col min="77" max="77" width="4.42578125" style="4" customWidth="1"/>
     <col min="78" max="78" width="19" style="12" customWidth="1"/>
-    <col min="79" max="79" width="4.5546875" style="1" customWidth="1"/>
+    <col min="79" max="79" width="4.5703125" style="1" customWidth="1"/>
     <col min="80" max="80" width="17" style="4" customWidth="1"/>
     <col min="81" max="81" width="5" style="1" customWidth="1"/>
-    <col min="82" max="82" width="16.77734375" style="4" customWidth="1"/>
-    <col min="83" max="83" width="5.44140625" style="1" customWidth="1"/>
-    <col min="84" max="84" width="16.88671875" style="4" customWidth="1"/>
-    <col min="85" max="85" width="4.5546875" style="1" customWidth="1"/>
-    <col min="86" max="86" width="17.44140625" style="4" customWidth="1"/>
-    <col min="87" max="87" width="4.5546875" style="1" customWidth="1"/>
-    <col min="88" max="88" width="17.44140625" style="4" customWidth="1"/>
-    <col min="89" max="89" width="4.88671875" style="13" customWidth="1"/>
-    <col min="90" max="90" width="19.77734375" style="12" customWidth="1"/>
+    <col min="82" max="82" width="16.7109375" style="4" customWidth="1"/>
+    <col min="83" max="83" width="5.42578125" style="1" customWidth="1"/>
+    <col min="84" max="84" width="16.85546875" style="4" customWidth="1"/>
+    <col min="85" max="85" width="4.5703125" style="1" customWidth="1"/>
+    <col min="86" max="86" width="17.42578125" style="4" customWidth="1"/>
+    <col min="87" max="87" width="4.5703125" style="1" customWidth="1"/>
+    <col min="88" max="88" width="17.42578125" style="4" customWidth="1"/>
+    <col min="89" max="89" width="4.85546875" style="13" customWidth="1"/>
+    <col min="90" max="90" width="19.7109375" style="12" customWidth="1"/>
     <col min="91" max="91" width="5" style="4" customWidth="1"/>
-    <col min="92" max="92" width="19.21875" style="12" customWidth="1"/>
-    <col min="93" max="93" width="5.88671875" style="1" customWidth="1"/>
-    <col min="94" max="94" width="18.44140625" style="4" customWidth="1"/>
-    <col min="95" max="95" width="4.5546875" style="1" customWidth="1"/>
-    <col min="96" max="96" width="17.109375" style="4" customWidth="1"/>
-    <col min="97" max="97" width="4.6640625" style="1" customWidth="1"/>
-    <col min="98" max="98" width="15.6640625" style="4" customWidth="1"/>
-    <col min="99" max="99" width="4.88671875" style="1" customWidth="1"/>
-    <col min="100" max="100" width="18.88671875" style="4" customWidth="1"/>
+    <col min="92" max="92" width="19.28515625" style="12" customWidth="1"/>
+    <col min="93" max="93" width="5.85546875" style="1" customWidth="1"/>
+    <col min="94" max="94" width="18.42578125" style="4" customWidth="1"/>
+    <col min="95" max="95" width="4.5703125" style="1" customWidth="1"/>
+    <col min="96" max="96" width="17.140625" style="4" customWidth="1"/>
+    <col min="97" max="97" width="4.7109375" style="1" customWidth="1"/>
+    <col min="98" max="98" width="15.7109375" style="4" customWidth="1"/>
+    <col min="99" max="99" width="4.85546875" style="1" customWidth="1"/>
+    <col min="100" max="100" width="18.85546875" style="4" customWidth="1"/>
     <col min="101" max="101" width="5" style="1" customWidth="1"/>
-    <col min="102" max="102" width="15.6640625" style="4" customWidth="1"/>
+    <col min="102" max="102" width="15.7109375" style="4" customWidth="1"/>
     <col min="103" max="103" width="7" style="13" customWidth="1"/>
-    <col min="104" max="104" width="18.44140625" style="12" customWidth="1"/>
+    <col min="104" max="104" width="18.42578125" style="12" customWidth="1"/>
     <col min="105" max="105" width="6" style="4" customWidth="1"/>
-    <col min="106" max="106" width="17.109375" style="12" customWidth="1"/>
-    <col min="107" max="107" width="4.88671875" style="1" customWidth="1"/>
-    <col min="108" max="108" width="15.6640625" style="4" customWidth="1"/>
-    <col min="109" max="109" width="5.21875" style="1" customWidth="1"/>
-    <col min="110" max="110" width="15.6640625" style="4" customWidth="1"/>
-    <col min="111" max="111" width="6.21875" style="1" customWidth="1"/>
-    <col min="112" max="112" width="15.6640625" style="4" customWidth="1"/>
-    <col min="113" max="113" width="5.109375" style="1" customWidth="1"/>
-    <col min="114" max="114" width="17.5546875" style="4" customWidth="1"/>
-    <col min="115" max="115" width="5.109375" style="1" customWidth="1"/>
-    <col min="116" max="116" width="15.6640625" style="4" customWidth="1"/>
-    <col min="117" max="117" width="5.21875" style="13" customWidth="1"/>
+    <col min="106" max="106" width="17.140625" style="12" customWidth="1"/>
+    <col min="107" max="107" width="4.85546875" style="1" customWidth="1"/>
+    <col min="108" max="108" width="15.7109375" style="4" customWidth="1"/>
+    <col min="109" max="109" width="5.28515625" style="1" customWidth="1"/>
+    <col min="110" max="110" width="15.7109375" style="4" customWidth="1"/>
+    <col min="111" max="111" width="6.28515625" style="1" customWidth="1"/>
+    <col min="112" max="112" width="15.7109375" style="4" customWidth="1"/>
+    <col min="113" max="113" width="5.140625" style="1" customWidth="1"/>
+    <col min="114" max="114" width="17.5703125" style="4" customWidth="1"/>
+    <col min="115" max="115" width="5.140625" style="1" customWidth="1"/>
+    <col min="116" max="116" width="15.7109375" style="4" customWidth="1"/>
+    <col min="117" max="117" width="5.28515625" style="13" customWidth="1"/>
     <col min="118" max="118" width="19" style="12" customWidth="1"/>
-    <col min="119" max="119" width="4.5546875" style="4" customWidth="1"/>
+    <col min="119" max="119" width="4.5703125" style="4" customWidth="1"/>
     <col min="120" max="120" width="24" style="12" customWidth="1"/>
-    <col min="121" max="121" width="4.44140625" style="1" customWidth="1"/>
-    <col min="122" max="122" width="19.21875" style="4" customWidth="1"/>
-    <col min="123" max="123" width="5.21875" style="1" customWidth="1"/>
-    <col min="124" max="124" width="15.6640625" style="4" customWidth="1"/>
-    <col min="125" max="125" width="5.6640625" style="1" customWidth="1"/>
-    <col min="126" max="126" width="15.6640625" style="4" customWidth="1"/>
+    <col min="121" max="121" width="4.42578125" style="1" customWidth="1"/>
+    <col min="122" max="122" width="19.28515625" style="4" customWidth="1"/>
+    <col min="123" max="123" width="5.28515625" style="1" customWidth="1"/>
+    <col min="124" max="124" width="15.7109375" style="4" customWidth="1"/>
+    <col min="125" max="125" width="5.7109375" style="1" customWidth="1"/>
+    <col min="126" max="126" width="15.7109375" style="4" customWidth="1"/>
     <col min="127" max="127" width="5" style="1" customWidth="1"/>
-    <col min="128" max="128" width="18.77734375" style="4" customWidth="1"/>
-    <col min="129" max="129" width="4.109375" style="1" customWidth="1"/>
-    <col min="130" max="130" width="15.6640625" style="4" customWidth="1"/>
-    <col min="131" max="131" width="5.109375" style="13" customWidth="1"/>
-    <col min="132" max="132" width="18.44140625" style="12" customWidth="1"/>
-    <col min="133" max="133" width="4.109375" style="4" customWidth="1"/>
-    <col min="134" max="134" width="23.33203125" style="12" customWidth="1"/>
-    <col min="135" max="135" width="4.44140625" style="1" customWidth="1"/>
-    <col min="136" max="136" width="15.6640625" style="4" customWidth="1"/>
-    <col min="137" max="137" width="4.88671875" style="1" customWidth="1"/>
-    <col min="138" max="138" width="15.6640625" style="4" customWidth="1"/>
-    <col min="139" max="139" width="3.6640625" style="1" customWidth="1"/>
-    <col min="140" max="140" width="15.6640625" style="4" customWidth="1"/>
-    <col min="141" max="141" width="4.5546875" style="1" customWidth="1"/>
-    <col min="142" max="142" width="17.44140625" style="4" customWidth="1"/>
-    <col min="143" max="143" width="4.33203125" style="1" customWidth="1"/>
-    <col min="144" max="144" width="15.6640625" style="4" customWidth="1"/>
-    <col min="145" max="145" width="3.6640625" style="13" customWidth="1"/>
-    <col min="146" max="146" width="19.33203125" style="12" customWidth="1"/>
-    <col min="147" max="147" width="4.109375" style="4" customWidth="1"/>
-    <col min="148" max="148" width="23.5546875" style="12" customWidth="1"/>
-    <col min="149" max="149" width="5.6640625" style="1" customWidth="1"/>
-    <col min="150" max="150" width="15.6640625" style="4" customWidth="1"/>
-    <col min="151" max="151" width="4.88671875" style="1" customWidth="1"/>
-    <col min="152" max="152" width="15.6640625" style="4" customWidth="1"/>
-    <col min="153" max="153" width="3.6640625" style="1" customWidth="1"/>
-    <col min="154" max="154" width="15.6640625" style="4" customWidth="1"/>
-    <col min="155" max="155" width="4.88671875" style="1" customWidth="1"/>
-    <col min="156" max="156" width="18.77734375" style="4" customWidth="1"/>
-    <col min="157" max="157" width="4.44140625" style="1" customWidth="1"/>
-    <col min="158" max="158" width="15.6640625" style="4" customWidth="1"/>
-    <col min="159" max="159" width="3.6640625" style="13" customWidth="1"/>
-    <col min="160" max="160" width="18.5546875" style="12" customWidth="1"/>
+    <col min="128" max="128" width="18.7109375" style="4" customWidth="1"/>
+    <col min="129" max="129" width="4.140625" style="1" customWidth="1"/>
+    <col min="130" max="130" width="15.7109375" style="4" customWidth="1"/>
+    <col min="131" max="131" width="5.140625" style="13" customWidth="1"/>
+    <col min="132" max="132" width="18.42578125" style="12" customWidth="1"/>
+    <col min="133" max="133" width="4.140625" style="4" customWidth="1"/>
+    <col min="134" max="134" width="23.28515625" style="12" customWidth="1"/>
+    <col min="135" max="135" width="4.42578125" style="1" customWidth="1"/>
+    <col min="136" max="136" width="15.7109375" style="4" customWidth="1"/>
+    <col min="137" max="137" width="4.85546875" style="1" customWidth="1"/>
+    <col min="138" max="138" width="15.7109375" style="4" customWidth="1"/>
+    <col min="139" max="139" width="3.7109375" style="1" customWidth="1"/>
+    <col min="140" max="140" width="15.7109375" style="4" customWidth="1"/>
+    <col min="141" max="141" width="4.5703125" style="1" customWidth="1"/>
+    <col min="142" max="142" width="17.42578125" style="4" customWidth="1"/>
+    <col min="143" max="143" width="4.28515625" style="1" customWidth="1"/>
+    <col min="144" max="144" width="15.7109375" style="4" customWidth="1"/>
+    <col min="145" max="145" width="3.7109375" style="13" customWidth="1"/>
+    <col min="146" max="146" width="19.28515625" style="12" customWidth="1"/>
+    <col min="147" max="147" width="4.140625" style="4" customWidth="1"/>
+    <col min="148" max="148" width="23.5703125" style="12" customWidth="1"/>
+    <col min="149" max="149" width="5.7109375" style="1" customWidth="1"/>
+    <col min="150" max="150" width="15.7109375" style="4" customWidth="1"/>
+    <col min="151" max="151" width="4.85546875" style="1" customWidth="1"/>
+    <col min="152" max="152" width="15.7109375" style="4" customWidth="1"/>
+    <col min="153" max="153" width="3.7109375" style="1" customWidth="1"/>
+    <col min="154" max="154" width="15.7109375" style="4" customWidth="1"/>
+    <col min="155" max="155" width="4.85546875" style="1" customWidth="1"/>
+    <col min="156" max="156" width="18.7109375" style="4" customWidth="1"/>
+    <col min="157" max="157" width="4.42578125" style="1" customWidth="1"/>
+    <col min="158" max="158" width="15.7109375" style="4" customWidth="1"/>
+    <col min="159" max="159" width="3.7109375" style="13" customWidth="1"/>
+    <col min="160" max="160" width="18.5703125" style="12" customWidth="1"/>
     <col min="161" max="161" width="5" style="4" customWidth="1"/>
-    <col min="162" max="162" width="23.88671875" style="12" customWidth="1"/>
-    <col min="163" max="163" width="5.33203125" style="1" customWidth="1"/>
-    <col min="164" max="164" width="15.6640625" style="4" customWidth="1"/>
-    <col min="165" max="165" width="5.21875" style="1" customWidth="1"/>
-    <col min="166" max="166" width="15.6640625" style="4" customWidth="1"/>
-    <col min="167" max="167" width="3.6640625" style="1" customWidth="1"/>
-    <col min="168" max="168" width="15.6640625" style="4" customWidth="1"/>
-    <col min="169" max="169" width="4.5546875" style="1" customWidth="1"/>
-    <col min="170" max="170" width="17.5546875" style="4" customWidth="1"/>
+    <col min="162" max="162" width="23.85546875" style="12" customWidth="1"/>
+    <col min="163" max="163" width="5.28515625" style="1" customWidth="1"/>
+    <col min="164" max="164" width="15.7109375" style="4" customWidth="1"/>
+    <col min="165" max="165" width="5.28515625" style="1" customWidth="1"/>
+    <col min="166" max="166" width="15.7109375" style="4" customWidth="1"/>
+    <col min="167" max="167" width="3.7109375" style="1" customWidth="1"/>
+    <col min="168" max="168" width="15.7109375" style="4" customWidth="1"/>
+    <col min="169" max="169" width="4.5703125" style="1" customWidth="1"/>
+    <col min="170" max="170" width="17.5703125" style="4" customWidth="1"/>
     <col min="171" max="171" width="5" style="1" customWidth="1"/>
-    <col min="172" max="172" width="15.6640625" style="4" customWidth="1"/>
-    <col min="173" max="173" width="3.6640625" style="13" customWidth="1"/>
-    <col min="174" max="174" width="18.44140625" style="12" customWidth="1"/>
-    <col min="175" max="175" width="5.109375" style="4" customWidth="1"/>
+    <col min="172" max="172" width="15.7109375" style="4" customWidth="1"/>
+    <col min="173" max="173" width="3.7109375" style="13" customWidth="1"/>
+    <col min="174" max="174" width="18.42578125" style="12" customWidth="1"/>
+    <col min="175" max="175" width="5.140625" style="4" customWidth="1"/>
     <col min="176" max="176" width="23" style="12" customWidth="1"/>
-    <col min="177" max="177" width="4.5546875" style="1" customWidth="1"/>
-    <col min="178" max="178" width="15.6640625" style="4" customWidth="1"/>
-    <col min="179" max="179" width="3.6640625" style="1" customWidth="1"/>
-    <col min="180" max="180" width="15.6640625" style="4" customWidth="1"/>
-    <col min="181" max="181" width="3.6640625" style="1" customWidth="1"/>
-    <col min="182" max="182" width="15.6640625" style="4" customWidth="1"/>
-    <col min="183" max="183" width="4.44140625" style="1" customWidth="1"/>
-    <col min="184" max="184" width="17.109375" style="4" customWidth="1"/>
-    <col min="185" max="185" width="4.6640625" style="1" customWidth="1"/>
-    <col min="186" max="186" width="17.33203125" style="4" customWidth="1"/>
-    <col min="187" max="187" width="3.6640625" style="13" customWidth="1"/>
-    <col min="188" max="188" width="19.109375" style="12" customWidth="1"/>
-    <col min="189" max="189" width="4.88671875" style="4" customWidth="1"/>
-    <col min="190" max="190" width="23.6640625" style="12" customWidth="1"/>
-    <col min="191" max="191" width="4.44140625" style="1" customWidth="1"/>
-    <col min="192" max="192" width="15.6640625" style="4" customWidth="1"/>
-    <col min="193" max="193" width="3.6640625" style="1" customWidth="1"/>
-    <col min="194" max="194" width="15.6640625" style="4" customWidth="1"/>
-    <col min="195" max="195" width="3.6640625" style="1" customWidth="1"/>
-    <col min="196" max="196" width="15.6640625" style="4" customWidth="1"/>
+    <col min="177" max="177" width="4.5703125" style="1" customWidth="1"/>
+    <col min="178" max="178" width="15.7109375" style="4" customWidth="1"/>
+    <col min="179" max="179" width="3.7109375" style="1" customWidth="1"/>
+    <col min="180" max="180" width="15.7109375" style="4" customWidth="1"/>
+    <col min="181" max="181" width="3.7109375" style="1" customWidth="1"/>
+    <col min="182" max="182" width="15.7109375" style="4" customWidth="1"/>
+    <col min="183" max="183" width="4.42578125" style="1" customWidth="1"/>
+    <col min="184" max="184" width="17.140625" style="4" customWidth="1"/>
+    <col min="185" max="185" width="4.7109375" style="1" customWidth="1"/>
+    <col min="186" max="186" width="17.28515625" style="4" customWidth="1"/>
+    <col min="187" max="187" width="3.7109375" style="13" customWidth="1"/>
+    <col min="188" max="188" width="19.140625" style="12" customWidth="1"/>
+    <col min="189" max="189" width="4.85546875" style="4" customWidth="1"/>
+    <col min="190" max="190" width="23.7109375" style="12" customWidth="1"/>
+    <col min="191" max="191" width="4.42578125" style="1" customWidth="1"/>
+    <col min="192" max="192" width="15.7109375" style="4" customWidth="1"/>
+    <col min="193" max="193" width="3.7109375" style="1" customWidth="1"/>
+    <col min="194" max="194" width="15.7109375" style="4" customWidth="1"/>
+    <col min="195" max="195" width="3.7109375" style="1" customWidth="1"/>
+    <col min="196" max="196" width="15.7109375" style="4" customWidth="1"/>
     <col min="197" max="197" width="5" style="1" customWidth="1"/>
-    <col min="198" max="198" width="19.33203125" style="4" customWidth="1"/>
-    <col min="199" max="199" width="5.33203125" style="1" customWidth="1"/>
-    <col min="200" max="200" width="15.6640625" style="4" customWidth="1"/>
-    <col min="201" max="201" width="3.6640625" style="13" customWidth="1"/>
-    <col min="202" max="202" width="19.6640625" style="12" customWidth="1"/>
-    <col min="203" max="203" width="5.21875" style="4" customWidth="1"/>
-    <col min="204" max="204" width="23.5546875" style="12" customWidth="1"/>
-    <col min="205" max="205" width="5.44140625" style="1" customWidth="1"/>
-    <col min="206" max="206" width="15.6640625" style="4" customWidth="1"/>
-    <col min="207" max="207" width="3.6640625" style="1" customWidth="1"/>
-    <col min="208" max="208" width="15.6640625" style="4" customWidth="1"/>
-    <col min="209" max="209" width="3.6640625" style="1" customWidth="1"/>
-    <col min="210" max="210" width="15.6640625" style="4" customWidth="1"/>
-    <col min="211" max="211" width="4.44140625" style="1" customWidth="1"/>
-    <col min="212" max="212" width="16.33203125" style="4" customWidth="1"/>
+    <col min="198" max="198" width="19.28515625" style="4" customWidth="1"/>
+    <col min="199" max="199" width="5.28515625" style="1" customWidth="1"/>
+    <col min="200" max="200" width="15.7109375" style="4" customWidth="1"/>
+    <col min="201" max="201" width="3.7109375" style="13" customWidth="1"/>
+    <col min="202" max="202" width="19.7109375" style="12" customWidth="1"/>
+    <col min="203" max="203" width="5.28515625" style="4" customWidth="1"/>
+    <col min="204" max="204" width="23.5703125" style="12" customWidth="1"/>
+    <col min="205" max="205" width="5.42578125" style="1" customWidth="1"/>
+    <col min="206" max="206" width="15.7109375" style="4" customWidth="1"/>
+    <col min="207" max="207" width="3.7109375" style="1" customWidth="1"/>
+    <col min="208" max="208" width="15.7109375" style="4" customWidth="1"/>
+    <col min="209" max="209" width="3.7109375" style="1" customWidth="1"/>
+    <col min="210" max="210" width="15.7109375" style="4" customWidth="1"/>
+    <col min="211" max="211" width="4.42578125" style="1" customWidth="1"/>
+    <col min="212" max="212" width="16.28515625" style="4" customWidth="1"/>
     <col min="213" max="213" width="5" style="1" customWidth="1"/>
-    <col min="214" max="214" width="15.6640625" style="4" customWidth="1"/>
-    <col min="215" max="215" width="3.6640625" style="13" customWidth="1"/>
+    <col min="214" max="214" width="15.7109375" style="4" customWidth="1"/>
+    <col min="215" max="215" width="3.7109375" style="13" customWidth="1"/>
     <col min="216" max="216" width="19" style="12" customWidth="1"/>
-    <col min="217" max="217" width="5.88671875" style="4" customWidth="1"/>
-    <col min="218" max="218" width="23.6640625" style="12" customWidth="1"/>
-    <col min="219" max="219" width="4.5546875" style="1" customWidth="1"/>
-    <col min="220" max="220" width="15.6640625" style="4" customWidth="1"/>
-    <col min="221" max="221" width="3.6640625" style="1" customWidth="1"/>
-    <col min="222" max="222" width="15.6640625" style="4" customWidth="1"/>
-    <col min="223" max="223" width="3.6640625" style="1" customWidth="1"/>
-    <col min="224" max="224" width="15.6640625" style="4" customWidth="1"/>
-    <col min="225" max="225" width="4.44140625" style="1" customWidth="1"/>
-    <col min="226" max="226" width="17.109375" style="4" customWidth="1"/>
-    <col min="227" max="227" width="5.5546875" style="1" customWidth="1"/>
-    <col min="228" max="228" width="15.6640625" style="4" customWidth="1"/>
-    <col min="229" max="229" width="3.6640625" style="13" customWidth="1"/>
-    <col min="230" max="230" width="18.33203125" style="12" customWidth="1"/>
-    <col min="231" max="231" width="5.109375" style="4" customWidth="1"/>
-    <col min="232" max="232" width="23.44140625" style="12" customWidth="1"/>
-    <col min="233" max="233" width="4.44140625" style="1" customWidth="1"/>
-    <col min="234" max="234" width="15.6640625" style="4" customWidth="1"/>
-    <col min="235" max="235" width="5.21875" style="1" customWidth="1"/>
-    <col min="236" max="236" width="15.6640625" style="4" customWidth="1"/>
-    <col min="237" max="237" width="3.6640625" style="1" customWidth="1"/>
-    <col min="238" max="238" width="15.6640625" style="4" customWidth="1"/>
+    <col min="217" max="217" width="5.85546875" style="4" customWidth="1"/>
+    <col min="218" max="218" width="23.7109375" style="12" customWidth="1"/>
+    <col min="219" max="219" width="4.5703125" style="1" customWidth="1"/>
+    <col min="220" max="220" width="15.7109375" style="4" customWidth="1"/>
+    <col min="221" max="221" width="3.7109375" style="1" customWidth="1"/>
+    <col min="222" max="222" width="15.7109375" style="4" customWidth="1"/>
+    <col min="223" max="223" width="3.7109375" style="1" customWidth="1"/>
+    <col min="224" max="224" width="15.7109375" style="4" customWidth="1"/>
+    <col min="225" max="225" width="4.42578125" style="1" customWidth="1"/>
+    <col min="226" max="226" width="17.140625" style="4" customWidth="1"/>
+    <col min="227" max="227" width="5.5703125" style="1" customWidth="1"/>
+    <col min="228" max="228" width="15.7109375" style="4" customWidth="1"/>
+    <col min="229" max="229" width="3.7109375" style="13" customWidth="1"/>
+    <col min="230" max="230" width="18.28515625" style="12" customWidth="1"/>
+    <col min="231" max="231" width="5.140625" style="4" customWidth="1"/>
+    <col min="232" max="232" width="23.42578125" style="12" customWidth="1"/>
+    <col min="233" max="233" width="4.42578125" style="1" customWidth="1"/>
+    <col min="234" max="234" width="15.7109375" style="4" customWidth="1"/>
+    <col min="235" max="235" width="5.28515625" style="1" customWidth="1"/>
+    <col min="236" max="236" width="15.7109375" style="4" customWidth="1"/>
+    <col min="237" max="237" width="3.7109375" style="1" customWidth="1"/>
+    <col min="238" max="238" width="15.7109375" style="4" customWidth="1"/>
     <col min="239" max="239" width="5" style="1" customWidth="1"/>
     <col min="240" max="240" width="20" style="4" customWidth="1"/>
-    <col min="241" max="241" width="5.21875" style="1" customWidth="1"/>
-    <col min="242" max="242" width="15.6640625" style="4" customWidth="1"/>
-    <col min="243" max="243" width="3.6640625" style="13" customWidth="1"/>
+    <col min="241" max="241" width="5.28515625" style="1" customWidth="1"/>
+    <col min="242" max="242" width="15.7109375" style="4" customWidth="1"/>
+    <col min="243" max="243" width="3.7109375" style="13" customWidth="1"/>
     <col min="244" max="244" width="19" style="12" customWidth="1"/>
-    <col min="245" max="245" width="5.77734375" style="4" customWidth="1"/>
-    <col min="246" max="246" width="23.33203125" style="12" customWidth="1"/>
-    <col min="247" max="247" width="6.33203125" style="1" customWidth="1"/>
-    <col min="248" max="248" width="19.44140625" style="4" customWidth="1"/>
+    <col min="245" max="245" width="5.7109375" style="4" customWidth="1"/>
+    <col min="246" max="246" width="23.28515625" style="12" customWidth="1"/>
+    <col min="247" max="247" width="6.28515625" style="1" customWidth="1"/>
+    <col min="248" max="248" width="19.42578125" style="4" customWidth="1"/>
     <col min="249" max="249" width="5" style="1" customWidth="1"/>
-    <col min="250" max="250" width="15.6640625" style="4" customWidth="1"/>
-    <col min="251" max="251" width="3.6640625" style="1" customWidth="1"/>
-    <col min="252" max="252" width="17.6640625" style="4" customWidth="1"/>
-    <col min="253" max="253" width="4.44140625" style="1" customWidth="1"/>
-    <col min="254" max="254" width="18.44140625" style="4" customWidth="1"/>
-    <col min="255" max="255" width="3.6640625" style="1" customWidth="1"/>
-    <col min="256" max="256" width="15.6640625" style="4" customWidth="1"/>
-    <col min="257" max="257" width="3.6640625" style="13"/>
-    <col min="258" max="258" width="18.44140625" style="12" customWidth="1"/>
-    <col min="259" max="259" width="4.44140625" style="4" customWidth="1"/>
+    <col min="250" max="250" width="15.7109375" style="4" customWidth="1"/>
+    <col min="251" max="251" width="3.7109375" style="1" customWidth="1"/>
+    <col min="252" max="252" width="17.7109375" style="4" customWidth="1"/>
+    <col min="253" max="253" width="4.42578125" style="1" customWidth="1"/>
+    <col min="254" max="254" width="18.42578125" style="4" customWidth="1"/>
+    <col min="255" max="255" width="3.7109375" style="1" customWidth="1"/>
+    <col min="256" max="256" width="15.7109375" style="4" customWidth="1"/>
+    <col min="257" max="257" width="3.7109375" style="13"/>
+    <col min="258" max="258" width="18.42578125" style="12" customWidth="1"/>
+    <col min="259" max="259" width="4.42578125" style="4" customWidth="1"/>
     <col min="260" max="260" width="20" style="12" customWidth="1"/>
-    <col min="261" max="261" width="5.33203125" style="1" customWidth="1"/>
-    <col min="262" max="262" width="15.6640625" style="4" customWidth="1"/>
-    <col min="263" max="263" width="3.6640625" style="1" customWidth="1"/>
-    <col min="264" max="264" width="15.6640625" style="4" customWidth="1"/>
-    <col min="265" max="265" width="3.6640625" style="1" customWidth="1"/>
-    <col min="266" max="266" width="15.6640625" style="4" customWidth="1"/>
-    <col min="267" max="267" width="4.88671875" style="1" customWidth="1"/>
-    <col min="268" max="268" width="16.6640625" style="4" customWidth="1"/>
-    <col min="269" max="269" width="3.88671875" style="1" customWidth="1"/>
-    <col min="270" max="270" width="15.6640625" style="4" customWidth="1"/>
-    <col min="271" max="271" width="3.6640625" style="13" customWidth="1"/>
-    <col min="272" max="272" width="19.6640625" style="12" customWidth="1"/>
-    <col min="273" max="273" width="4.6640625" style="4" customWidth="1"/>
+    <col min="261" max="261" width="5.28515625" style="1" customWidth="1"/>
+    <col min="262" max="262" width="15.7109375" style="4" customWidth="1"/>
+    <col min="263" max="263" width="3.7109375" style="1" customWidth="1"/>
+    <col min="264" max="264" width="15.7109375" style="4" customWidth="1"/>
+    <col min="265" max="265" width="3.7109375" style="1" customWidth="1"/>
+    <col min="266" max="266" width="15.7109375" style="4" customWidth="1"/>
+    <col min="267" max="267" width="4.85546875" style="1" customWidth="1"/>
+    <col min="268" max="268" width="16.7109375" style="4" customWidth="1"/>
+    <col min="269" max="269" width="3.85546875" style="1" customWidth="1"/>
+    <col min="270" max="270" width="15.7109375" style="4" customWidth="1"/>
+    <col min="271" max="271" width="3.7109375" style="13" customWidth="1"/>
+    <col min="272" max="272" width="19.7109375" style="12" customWidth="1"/>
+    <col min="273" max="273" width="4.7109375" style="4" customWidth="1"/>
     <col min="274" max="274" width="24" style="12" customWidth="1"/>
-    <col min="275" max="275" width="4.88671875" style="1" customWidth="1"/>
-    <col min="276" max="276" width="15.6640625" style="4" customWidth="1"/>
-    <col min="277" max="277" width="3.6640625" style="1" customWidth="1"/>
-    <col min="278" max="278" width="15.6640625" style="4" customWidth="1"/>
-    <col min="279" max="279" width="3.6640625" style="1" customWidth="1"/>
-    <col min="280" max="280" width="15.6640625" style="4" customWidth="1"/>
+    <col min="275" max="275" width="4.85546875" style="1" customWidth="1"/>
+    <col min="276" max="276" width="15.7109375" style="4" customWidth="1"/>
+    <col min="277" max="277" width="3.7109375" style="1" customWidth="1"/>
+    <col min="278" max="278" width="15.7109375" style="4" customWidth="1"/>
+    <col min="279" max="279" width="3.7109375" style="1" customWidth="1"/>
+    <col min="280" max="280" width="15.7109375" style="4" customWidth="1"/>
     <col min="281" max="281" width="5" style="1" customWidth="1"/>
     <col min="282" max="282" width="17" style="4" customWidth="1"/>
-    <col min="283" max="283" width="4.6640625" style="1" customWidth="1"/>
-    <col min="284" max="284" width="15.6640625" style="4" customWidth="1"/>
-    <col min="285" max="285" width="3.6640625" style="13" customWidth="1"/>
-    <col min="286" max="286" width="18.44140625" style="12" customWidth="1"/>
-    <col min="287" max="287" width="4.44140625" style="4" customWidth="1"/>
-    <col min="288" max="288" width="23.6640625" style="12" customWidth="1"/>
-    <col min="289" max="289" width="4.44140625" style="1" customWidth="1"/>
-    <col min="290" max="290" width="15.6640625" style="4" customWidth="1"/>
-    <col min="291" max="291" width="3.6640625" style="1" customWidth="1"/>
-    <col min="292" max="292" width="15.6640625" style="4" customWidth="1"/>
-    <col min="293" max="293" width="3.6640625" style="1" customWidth="1"/>
-    <col min="294" max="294" width="15.6640625" style="4" customWidth="1"/>
-    <col min="295" max="295" width="4.6640625" style="1" customWidth="1"/>
-    <col min="296" max="296" width="16.6640625" style="4" customWidth="1"/>
-    <col min="297" max="297" width="4.6640625" style="1" customWidth="1"/>
-    <col min="298" max="298" width="15.6640625" style="4" customWidth="1"/>
-    <col min="299" max="299" width="3.6640625" style="13" customWidth="1"/>
-    <col min="300" max="300" width="18.44140625" style="12" customWidth="1"/>
+    <col min="283" max="283" width="4.7109375" style="1" customWidth="1"/>
+    <col min="284" max="284" width="15.7109375" style="4" customWidth="1"/>
+    <col min="285" max="285" width="3.7109375" style="13" customWidth="1"/>
+    <col min="286" max="286" width="18.42578125" style="12" customWidth="1"/>
+    <col min="287" max="287" width="4.42578125" style="4" customWidth="1"/>
+    <col min="288" max="288" width="23.7109375" style="12" customWidth="1"/>
+    <col min="289" max="289" width="4.42578125" style="1" customWidth="1"/>
+    <col min="290" max="290" width="15.7109375" style="4" customWidth="1"/>
+    <col min="291" max="291" width="3.7109375" style="1" customWidth="1"/>
+    <col min="292" max="292" width="15.7109375" style="4" customWidth="1"/>
+    <col min="293" max="293" width="3.7109375" style="1" customWidth="1"/>
+    <col min="294" max="294" width="15.7109375" style="4" customWidth="1"/>
+    <col min="295" max="295" width="4.7109375" style="1" customWidth="1"/>
+    <col min="296" max="296" width="16.7109375" style="4" customWidth="1"/>
+    <col min="297" max="297" width="4.7109375" style="1" customWidth="1"/>
+    <col min="298" max="298" width="15.7109375" style="4" customWidth="1"/>
+    <col min="299" max="299" width="3.7109375" style="13" customWidth="1"/>
+    <col min="300" max="300" width="18.42578125" style="12" customWidth="1"/>
     <col min="301" max="301" width="5" style="4" customWidth="1"/>
-    <col min="302" max="302" width="23.33203125" style="12" customWidth="1"/>
-    <col min="303" max="303" width="4.6640625" style="1" customWidth="1"/>
-    <col min="304" max="304" width="15.6640625" style="4" customWidth="1"/>
-    <col min="305" max="305" width="3.6640625" style="1" customWidth="1"/>
-    <col min="306" max="306" width="15.6640625" style="4" customWidth="1"/>
-    <col min="307" max="307" width="3.6640625" style="1" customWidth="1"/>
-    <col min="308" max="308" width="15.6640625" style="4" customWidth="1"/>
-    <col min="309" max="309" width="4.6640625" style="1" customWidth="1"/>
-    <col min="310" max="310" width="16.88671875" style="4" customWidth="1"/>
-    <col min="311" max="311" width="4.88671875" style="1" customWidth="1"/>
-    <col min="312" max="312" width="15.6640625" style="4" customWidth="1"/>
-    <col min="313" max="313" width="3.6640625" style="13" customWidth="1"/>
-    <col min="314" max="314" width="18.44140625" style="12" customWidth="1"/>
-    <col min="315" max="315" width="4.6640625" style="4" customWidth="1"/>
-    <col min="316" max="316" width="24.109375" style="12" customWidth="1"/>
-    <col min="317" max="317" width="4.44140625" style="1" customWidth="1"/>
-    <col min="318" max="318" width="15.6640625" style="4" customWidth="1"/>
-    <col min="319" max="319" width="3.6640625" style="1" customWidth="1"/>
-    <col min="320" max="320" width="15.6640625" style="4" customWidth="1"/>
-    <col min="321" max="321" width="3.6640625" style="1" customWidth="1"/>
-    <col min="322" max="322" width="15.6640625" style="4" customWidth="1"/>
-    <col min="323" max="323" width="4.33203125" style="1" customWidth="1"/>
-    <col min="324" max="324" width="16.6640625" style="4" customWidth="1"/>
-    <col min="325" max="325" width="4.44140625" style="1" customWidth="1"/>
-    <col min="326" max="326" width="15.6640625" style="4" customWidth="1"/>
-    <col min="327" max="327" width="3.6640625" style="13" customWidth="1"/>
-    <col min="328" max="328" width="18.44140625" style="12" customWidth="1"/>
-    <col min="329" max="329" width="4.6640625" style="4" customWidth="1"/>
-    <col min="330" max="330" width="24.6640625" style="12" customWidth="1"/>
-    <col min="331" max="331" width="4.6640625" style="1" customWidth="1"/>
-    <col min="332" max="332" width="15.6640625" style="4" customWidth="1"/>
+    <col min="302" max="302" width="23.28515625" style="12" customWidth="1"/>
+    <col min="303" max="303" width="4.7109375" style="1" customWidth="1"/>
+    <col min="304" max="304" width="15.7109375" style="4" customWidth="1"/>
+    <col min="305" max="305" width="3.7109375" style="1" customWidth="1"/>
+    <col min="306" max="306" width="15.7109375" style="4" customWidth="1"/>
+    <col min="307" max="307" width="3.7109375" style="1" customWidth="1"/>
+    <col min="308" max="308" width="15.7109375" style="4" customWidth="1"/>
+    <col min="309" max="309" width="4.7109375" style="1" customWidth="1"/>
+    <col min="310" max="310" width="16.85546875" style="4" customWidth="1"/>
+    <col min="311" max="311" width="4.85546875" style="1" customWidth="1"/>
+    <col min="312" max="312" width="15.7109375" style="4" customWidth="1"/>
+    <col min="313" max="313" width="3.7109375" style="13" customWidth="1"/>
+    <col min="314" max="314" width="18.42578125" style="12" customWidth="1"/>
+    <col min="315" max="315" width="4.7109375" style="4" customWidth="1"/>
+    <col min="316" max="316" width="24.140625" style="12" customWidth="1"/>
+    <col min="317" max="317" width="4.42578125" style="1" customWidth="1"/>
+    <col min="318" max="318" width="15.7109375" style="4" customWidth="1"/>
+    <col min="319" max="319" width="3.7109375" style="1" customWidth="1"/>
+    <col min="320" max="320" width="15.7109375" style="4" customWidth="1"/>
+    <col min="321" max="321" width="3.7109375" style="1" customWidth="1"/>
+    <col min="322" max="322" width="15.7109375" style="4" customWidth="1"/>
+    <col min="323" max="323" width="4.28515625" style="1" customWidth="1"/>
+    <col min="324" max="324" width="16.7109375" style="4" customWidth="1"/>
+    <col min="325" max="325" width="4.42578125" style="1" customWidth="1"/>
+    <col min="326" max="326" width="15.7109375" style="4" customWidth="1"/>
+    <col min="327" max="327" width="3.7109375" style="13" customWidth="1"/>
+    <col min="328" max="328" width="18.42578125" style="12" customWidth="1"/>
+    <col min="329" max="329" width="4.7109375" style="4" customWidth="1"/>
+    <col min="330" max="330" width="24.7109375" style="12" customWidth="1"/>
+    <col min="331" max="331" width="4.7109375" style="1" customWidth="1"/>
+    <col min="332" max="332" width="15.7109375" style="4" customWidth="1"/>
     <col min="333" max="333" width="5" style="1" customWidth="1"/>
-    <col min="334" max="334" width="15.6640625" style="4" customWidth="1"/>
+    <col min="334" max="334" width="15.7109375" style="4" customWidth="1"/>
     <col min="335" max="335" width="4" style="1" customWidth="1"/>
-    <col min="336" max="336" width="15.6640625" style="4" customWidth="1"/>
-    <col min="337" max="337" width="4.88671875" style="1" customWidth="1"/>
-    <col min="338" max="338" width="16.6640625" style="4" customWidth="1"/>
-    <col min="339" max="339" width="5.33203125" style="1" customWidth="1"/>
-    <col min="340" max="340" width="15.6640625" style="4" customWidth="1"/>
-    <col min="341" max="341" width="4.44140625" style="13" customWidth="1"/>
+    <col min="336" max="336" width="15.7109375" style="4" customWidth="1"/>
+    <col min="337" max="337" width="4.85546875" style="1" customWidth="1"/>
+    <col min="338" max="338" width="16.7109375" style="4" customWidth="1"/>
+    <col min="339" max="339" width="5.28515625" style="1" customWidth="1"/>
+    <col min="340" max="340" width="15.7109375" style="4" customWidth="1"/>
+    <col min="341" max="341" width="4.42578125" style="13" customWidth="1"/>
     <col min="342" max="342" width="19" style="12" customWidth="1"/>
-    <col min="343" max="343" width="5.33203125" style="4" customWidth="1"/>
+    <col min="343" max="343" width="5.28515625" style="4" customWidth="1"/>
     <col min="344" max="344" width="25" style="12" customWidth="1"/>
     <col min="345" max="345" width="5" style="1" customWidth="1"/>
-    <col min="346" max="346" width="15.6640625" style="4" customWidth="1"/>
-    <col min="347" max="347" width="4.88671875" style="1" customWidth="1"/>
-    <col min="348" max="348" width="15.6640625" style="4" customWidth="1"/>
-    <col min="349" max="349" width="3.6640625" style="1" customWidth="1"/>
-    <col min="350" max="350" width="15.6640625" style="4" customWidth="1"/>
-    <col min="351" max="351" width="4.44140625" style="1" customWidth="1"/>
-    <col min="352" max="352" width="15.6640625" style="4" customWidth="1"/>
-    <col min="353" max="353" width="4.6640625" style="1" customWidth="1"/>
-    <col min="354" max="354" width="15.6640625" style="4" customWidth="1"/>
-    <col min="355" max="355" width="3.6640625" style="13" customWidth="1"/>
-    <col min="356" max="356" width="18.44140625" style="12" customWidth="1"/>
+    <col min="346" max="346" width="15.7109375" style="4" customWidth="1"/>
+    <col min="347" max="347" width="4.85546875" style="1" customWidth="1"/>
+    <col min="348" max="348" width="15.7109375" style="4" customWidth="1"/>
+    <col min="349" max="349" width="3.7109375" style="1" customWidth="1"/>
+    <col min="350" max="350" width="15.7109375" style="4" customWidth="1"/>
+    <col min="351" max="351" width="4.42578125" style="1" customWidth="1"/>
+    <col min="352" max="352" width="15.7109375" style="4" customWidth="1"/>
+    <col min="353" max="353" width="4.7109375" style="1" customWidth="1"/>
+    <col min="354" max="354" width="15.7109375" style="4" customWidth="1"/>
+    <col min="355" max="355" width="3.7109375" style="13" customWidth="1"/>
+    <col min="356" max="356" width="18.42578125" style="12" customWidth="1"/>
     <col min="357" max="357" width="5" style="4" customWidth="1"/>
-    <col min="358" max="358" width="23.109375" style="12" customWidth="1"/>
-    <col min="359" max="359" width="4.6640625" style="1" customWidth="1"/>
-    <col min="360" max="360" width="15.6640625" style="4" customWidth="1"/>
-    <col min="361" max="361" width="4.33203125" style="1" customWidth="1"/>
-    <col min="362" max="362" width="15.6640625" style="4" customWidth="1"/>
-    <col min="363" max="363" width="3.6640625" style="1" customWidth="1"/>
-    <col min="364" max="364" width="16.33203125" style="4" customWidth="1"/>
-    <col min="365" max="365" width="4.44140625" style="1" customWidth="1"/>
-    <col min="366" max="366" width="16.5546875" style="4" customWidth="1"/>
-    <col min="367" max="367" width="4.6640625" style="1" customWidth="1"/>
-    <col min="368" max="368" width="15.6640625" style="4" customWidth="1"/>
-    <col min="369" max="369" width="3.6640625" style="13" customWidth="1"/>
-    <col min="370" max="370" width="19.33203125" style="12" customWidth="1"/>
-    <col min="371" max="371" width="4.88671875" style="4" customWidth="1"/>
-    <col min="372" max="372" width="23.44140625" style="12" customWidth="1"/>
-    <col min="373" max="373" width="4.88671875" style="1" customWidth="1"/>
-    <col min="374" max="374" width="15.6640625" style="4" customWidth="1"/>
+    <col min="358" max="358" width="23.140625" style="12" customWidth="1"/>
+    <col min="359" max="359" width="4.7109375" style="1" customWidth="1"/>
+    <col min="360" max="360" width="15.7109375" style="4" customWidth="1"/>
+    <col min="361" max="361" width="4.28515625" style="1" customWidth="1"/>
+    <col min="362" max="362" width="15.7109375" style="4" customWidth="1"/>
+    <col min="363" max="363" width="3.7109375" style="1" customWidth="1"/>
+    <col min="364" max="364" width="16.28515625" style="4" customWidth="1"/>
+    <col min="365" max="365" width="4.42578125" style="1" customWidth="1"/>
+    <col min="366" max="366" width="16.5703125" style="4" customWidth="1"/>
+    <col min="367" max="367" width="4.7109375" style="1" customWidth="1"/>
+    <col min="368" max="368" width="15.7109375" style="4" customWidth="1"/>
+    <col min="369" max="369" width="3.7109375" style="13" customWidth="1"/>
+    <col min="370" max="370" width="19.28515625" style="12" customWidth="1"/>
+    <col min="371" max="371" width="4.85546875" style="4" customWidth="1"/>
+    <col min="372" max="372" width="23.42578125" style="12" customWidth="1"/>
+    <col min="373" max="373" width="4.85546875" style="1" customWidth="1"/>
+    <col min="374" max="374" width="15.7109375" style="4" customWidth="1"/>
     <col min="375" max="375" width="5" style="1" customWidth="1"/>
-    <col min="376" max="376" width="15.6640625" style="4" customWidth="1"/>
-    <col min="377" max="377" width="3.6640625" style="1" customWidth="1"/>
-    <col min="378" max="378" width="15.6640625" style="4" customWidth="1"/>
+    <col min="376" max="376" width="15.7109375" style="4" customWidth="1"/>
+    <col min="377" max="377" width="3.7109375" style="1" customWidth="1"/>
+    <col min="378" max="378" width="15.7109375" style="4" customWidth="1"/>
     <col min="379" max="379" width="5" style="1" customWidth="1"/>
-    <col min="380" max="380" width="17.33203125" style="4" customWidth="1"/>
-    <col min="381" max="381" width="4.88671875" style="1" customWidth="1"/>
-    <col min="382" max="382" width="15.6640625" style="4" customWidth="1"/>
-    <col min="383" max="383" width="3.6640625" style="13" customWidth="1"/>
-    <col min="384" max="384" width="18.5546875" style="12" customWidth="1"/>
-    <col min="385" max="385" width="4.88671875" style="4" customWidth="1"/>
-    <col min="386" max="386" width="15.6640625" style="12" customWidth="1"/>
-    <col min="387" max="387" width="3.6640625" style="1" customWidth="1"/>
-    <col min="388" max="388" width="15.6640625" style="4" customWidth="1"/>
-    <col min="389" max="389" width="5.44140625" style="1" customWidth="1"/>
-    <col min="390" max="390" width="15.6640625" style="4" customWidth="1"/>
-    <col min="391" max="391" width="3.6640625" style="1" customWidth="1"/>
-    <col min="392" max="392" width="15.6640625" style="4" customWidth="1"/>
-    <col min="393" max="393" width="4.6640625" style="1" customWidth="1"/>
-    <col min="394" max="394" width="15.6640625" style="4" customWidth="1"/>
-    <col min="395" max="395" width="3.6640625" style="1" customWidth="1"/>
-    <col min="396" max="396" width="15.6640625" style="4" customWidth="1"/>
-    <col min="397" max="397" width="3.6640625" style="13" customWidth="1"/>
-    <col min="398" max="398" width="18.44140625" style="12" customWidth="1"/>
-    <col min="399" max="399" width="5.88671875" style="4" customWidth="1"/>
+    <col min="380" max="380" width="17.28515625" style="4" customWidth="1"/>
+    <col min="381" max="381" width="4.85546875" style="1" customWidth="1"/>
+    <col min="382" max="382" width="15.7109375" style="4" customWidth="1"/>
+    <col min="383" max="383" width="3.7109375" style="13" customWidth="1"/>
+    <col min="384" max="384" width="18.5703125" style="12" customWidth="1"/>
+    <col min="385" max="385" width="4.85546875" style="4" customWidth="1"/>
+    <col min="386" max="386" width="15.7109375" style="12" customWidth="1"/>
+    <col min="387" max="387" width="3.7109375" style="1" customWidth="1"/>
+    <col min="388" max="388" width="15.7109375" style="4" customWidth="1"/>
+    <col min="389" max="389" width="5.42578125" style="1" customWidth="1"/>
+    <col min="390" max="390" width="15.7109375" style="4" customWidth="1"/>
+    <col min="391" max="391" width="3.7109375" style="1" customWidth="1"/>
+    <col min="392" max="392" width="15.7109375" style="4" customWidth="1"/>
+    <col min="393" max="393" width="4.7109375" style="1" customWidth="1"/>
+    <col min="394" max="394" width="15.7109375" style="4" customWidth="1"/>
+    <col min="395" max="395" width="3.7109375" style="1" customWidth="1"/>
+    <col min="396" max="396" width="15.7109375" style="4" customWidth="1"/>
+    <col min="397" max="397" width="3.7109375" style="13" customWidth="1"/>
+    <col min="398" max="398" width="18.42578125" style="12" customWidth="1"/>
+    <col min="399" max="399" width="5.85546875" style="4" customWidth="1"/>
     <col min="400" max="400" width="17" style="12" customWidth="1"/>
-    <col min="401" max="401" width="3.6640625" style="1" customWidth="1"/>
-    <col min="402" max="402" width="18.44140625" style="4" customWidth="1"/>
+    <col min="401" max="401" width="3.7109375" style="1" customWidth="1"/>
+    <col min="402" max="402" width="18.42578125" style="4" customWidth="1"/>
     <col min="403" max="403" width="5" style="1" customWidth="1"/>
-    <col min="404" max="404" width="15.6640625" style="4" customWidth="1"/>
-    <col min="405" max="405" width="3.6640625" style="1" customWidth="1"/>
-    <col min="406" max="406" width="15.6640625" style="4" customWidth="1"/>
-    <col min="407" max="407" width="3.6640625" style="1" customWidth="1"/>
-    <col min="408" max="408" width="15.6640625" style="4" customWidth="1"/>
-    <col min="409" max="409" width="3.6640625" style="1" customWidth="1"/>
-    <col min="410" max="410" width="15.6640625" style="4" customWidth="1"/>
-    <col min="411" max="411" width="3.6640625" style="13" customWidth="1"/>
+    <col min="404" max="404" width="15.7109375" style="4" customWidth="1"/>
+    <col min="405" max="405" width="3.7109375" style="1" customWidth="1"/>
+    <col min="406" max="406" width="15.7109375" style="4" customWidth="1"/>
+    <col min="407" max="407" width="3.7109375" style="1" customWidth="1"/>
+    <col min="408" max="408" width="15.7109375" style="4" customWidth="1"/>
+    <col min="409" max="409" width="3.7109375" style="1" customWidth="1"/>
+    <col min="410" max="410" width="15.7109375" style="4" customWidth="1"/>
+    <col min="411" max="411" width="3.7109375" style="13" customWidth="1"/>
     <col min="412" max="412" width="19" style="12" customWidth="1"/>
-    <col min="413" max="413" width="3.6640625" style="4" customWidth="1"/>
-    <col min="414" max="414" width="17.33203125" style="12" customWidth="1"/>
+    <col min="413" max="413" width="3.7109375" style="4" customWidth="1"/>
+    <col min="414" max="414" width="17.28515625" style="12" customWidth="1"/>
     <col min="415" max="415" width="5" style="1" customWidth="1"/>
-    <col min="416" max="416" width="15.6640625" style="4" customWidth="1"/>
-    <col min="417" max="417" width="4.33203125" style="1" customWidth="1"/>
-    <col min="418" max="418" width="15.6640625" style="4" customWidth="1"/>
-    <col min="419" max="419" width="3.6640625" style="1" customWidth="1"/>
-    <col min="420" max="420" width="15.6640625" style="4" customWidth="1"/>
-    <col min="421" max="421" width="4.88671875" style="1" customWidth="1"/>
-    <col min="422" max="422" width="15.6640625" style="4" customWidth="1"/>
-    <col min="423" max="423" width="5.88671875" style="1" customWidth="1"/>
-    <col min="424" max="424" width="15.6640625" style="4" customWidth="1"/>
-    <col min="425" max="425" width="3.6640625" style="13" customWidth="1"/>
-    <col min="426" max="426" width="18.44140625" style="12" customWidth="1"/>
-    <col min="427" max="427" width="4.88671875" style="4" customWidth="1"/>
-    <col min="428" max="428" width="17.6640625" style="12" customWidth="1"/>
-    <col min="429" max="429" width="3.6640625" style="1" customWidth="1"/>
-    <col min="430" max="430" width="15.6640625" style="4" customWidth="1"/>
-    <col min="431" max="431" width="3.6640625" style="1" customWidth="1"/>
-    <col min="432" max="432" width="15.6640625" style="4" customWidth="1"/>
-    <col min="433" max="433" width="3.6640625" style="1" customWidth="1"/>
-    <col min="434" max="434" width="15.6640625" style="4" customWidth="1"/>
-    <col min="435" max="435" width="3.6640625" style="1" customWidth="1"/>
-    <col min="436" max="436" width="15.6640625" style="4" customWidth="1"/>
-    <col min="437" max="437" width="3.6640625" style="1" customWidth="1"/>
-    <col min="438" max="438" width="15.6640625" style="4" customWidth="1"/>
-    <col min="439" max="439" width="3.6640625" style="13" customWidth="1"/>
-    <col min="440" max="440" width="18.5546875" style="12" customWidth="1"/>
-    <col min="441" max="441" width="3.6640625" style="4" customWidth="1"/>
-    <col min="442" max="442" width="19.109375" style="12" customWidth="1"/>
-    <col min="443" max="443" width="3.6640625" style="1" customWidth="1"/>
-    <col min="444" max="444" width="15.6640625" style="4" customWidth="1"/>
-    <col min="445" max="445" width="3.6640625" style="1" customWidth="1"/>
-    <col min="446" max="446" width="15.6640625" style="4" customWidth="1"/>
-    <col min="447" max="447" width="3.6640625" style="1" customWidth="1"/>
-    <col min="448" max="448" width="15.6640625" style="4" customWidth="1"/>
-    <col min="449" max="449" width="3.6640625" style="1" customWidth="1"/>
-    <col min="450" max="450" width="15.6640625" style="4" customWidth="1"/>
-    <col min="451" max="451" width="3.6640625" style="1" customWidth="1"/>
-    <col min="452" max="452" width="15.109375" style="4" customWidth="1"/>
-    <col min="453" max="453" width="3.6640625" style="13" customWidth="1"/>
+    <col min="416" max="416" width="15.7109375" style="4" customWidth="1"/>
+    <col min="417" max="417" width="4.28515625" style="1" customWidth="1"/>
+    <col min="418" max="418" width="15.7109375" style="4" customWidth="1"/>
+    <col min="419" max="419" width="3.7109375" style="1" customWidth="1"/>
+    <col min="420" max="420" width="15.7109375" style="4" customWidth="1"/>
+    <col min="421" max="421" width="4.85546875" style="1" customWidth="1"/>
+    <col min="422" max="422" width="15.7109375" style="4" customWidth="1"/>
+    <col min="423" max="423" width="5.85546875" style="1" customWidth="1"/>
+    <col min="424" max="424" width="15.7109375" style="4" customWidth="1"/>
+    <col min="425" max="425" width="3.7109375" style="13" customWidth="1"/>
+    <col min="426" max="426" width="18.42578125" style="12" customWidth="1"/>
+    <col min="427" max="427" width="4.85546875" style="4" customWidth="1"/>
+    <col min="428" max="428" width="17.7109375" style="12" customWidth="1"/>
+    <col min="429" max="429" width="3.7109375" style="1" customWidth="1"/>
+    <col min="430" max="430" width="15.7109375" style="4" customWidth="1"/>
+    <col min="431" max="431" width="3.7109375" style="1" customWidth="1"/>
+    <col min="432" max="432" width="15.7109375" style="4" customWidth="1"/>
+    <col min="433" max="433" width="3.7109375" style="1" customWidth="1"/>
+    <col min="434" max="434" width="15.7109375" style="4" customWidth="1"/>
+    <col min="435" max="435" width="3.7109375" style="1" customWidth="1"/>
+    <col min="436" max="436" width="15.7109375" style="4" customWidth="1"/>
+    <col min="437" max="437" width="3.7109375" style="1" customWidth="1"/>
+    <col min="438" max="438" width="15.7109375" style="4" customWidth="1"/>
+    <col min="439" max="439" width="3.7109375" style="13" customWidth="1"/>
+    <col min="440" max="440" width="18.5703125" style="12" customWidth="1"/>
+    <col min="441" max="441" width="3.7109375" style="4" customWidth="1"/>
+    <col min="442" max="442" width="19.140625" style="12" customWidth="1"/>
+    <col min="443" max="443" width="3.7109375" style="1" customWidth="1"/>
+    <col min="444" max="444" width="15.7109375" style="4" customWidth="1"/>
+    <col min="445" max="445" width="3.7109375" style="1" customWidth="1"/>
+    <col min="446" max="446" width="15.7109375" style="4" customWidth="1"/>
+    <col min="447" max="447" width="3.7109375" style="1" customWidth="1"/>
+    <col min="448" max="448" width="15.7109375" style="4" customWidth="1"/>
+    <col min="449" max="449" width="3.7109375" style="1" customWidth="1"/>
+    <col min="450" max="450" width="15.7109375" style="4" customWidth="1"/>
+    <col min="451" max="451" width="3.7109375" style="1" customWidth="1"/>
+    <col min="452" max="452" width="15.140625" style="4" customWidth="1"/>
+    <col min="453" max="453" width="3.7109375" style="13" customWidth="1"/>
     <col min="454" max="454" width="17" style="12" customWidth="1"/>
-    <col min="455" max="455" width="3.6640625" style="4" customWidth="1"/>
-    <col min="456" max="456" width="15.6640625" style="12" customWidth="1"/>
-    <col min="457" max="457" width="3.6640625" style="1" customWidth="1"/>
-    <col min="458" max="458" width="15.6640625" style="4" customWidth="1"/>
-    <col min="459" max="459" width="3.6640625" style="1" customWidth="1"/>
-    <col min="460" max="460" width="15.6640625" style="4" customWidth="1"/>
-    <col min="461" max="461" width="3.6640625" style="1" customWidth="1"/>
-    <col min="462" max="462" width="15.6640625" style="4" customWidth="1"/>
-    <col min="463" max="463" width="3.6640625" style="1" customWidth="1"/>
-    <col min="464" max="464" width="15.6640625" style="4" customWidth="1"/>
-    <col min="465" max="465" width="3.6640625" style="1" customWidth="1"/>
-    <col min="466" max="466" width="15.6640625" style="4" customWidth="1"/>
-    <col min="467" max="467" width="3.6640625" style="13" customWidth="1"/>
-    <col min="468" max="468" width="13.6640625" style="12" customWidth="1"/>
-    <col min="469" max="469" width="3.6640625" style="4" customWidth="1"/>
-    <col min="470" max="470" width="17.109375" style="12" customWidth="1"/>
-    <col min="471" max="471" width="3.6640625" style="1" customWidth="1"/>
-    <col min="472" max="472" width="15.6640625" style="4" customWidth="1"/>
-    <col min="473" max="473" width="3.6640625" style="1" customWidth="1"/>
-    <col min="474" max="474" width="15.6640625" style="4" customWidth="1"/>
-    <col min="475" max="475" width="3.6640625" style="1" customWidth="1"/>
-    <col min="476" max="476" width="15.6640625" style="4" customWidth="1"/>
-    <col min="477" max="477" width="3.6640625" style="1" customWidth="1"/>
-    <col min="478" max="478" width="15.6640625" style="4" customWidth="1"/>
-    <col min="479" max="479" width="3.6640625" style="1" customWidth="1"/>
-    <col min="480" max="480" width="17.33203125" style="4" customWidth="1"/>
-    <col min="481" max="481" width="3.6640625" style="13" customWidth="1"/>
-    <col min="482" max="16384" width="3.6640625" style="13"/>
+    <col min="455" max="455" width="3.7109375" style="4" customWidth="1"/>
+    <col min="456" max="456" width="15.7109375" style="12" customWidth="1"/>
+    <col min="457" max="457" width="3.7109375" style="1" customWidth="1"/>
+    <col min="458" max="458" width="15.7109375" style="4" customWidth="1"/>
+    <col min="459" max="459" width="3.7109375" style="1" customWidth="1"/>
+    <col min="460" max="460" width="15.7109375" style="4" customWidth="1"/>
+    <col min="461" max="461" width="3.7109375" style="1" customWidth="1"/>
+    <col min="462" max="462" width="15.7109375" style="4" customWidth="1"/>
+    <col min="463" max="463" width="3.7109375" style="1" customWidth="1"/>
+    <col min="464" max="464" width="15.7109375" style="4" customWidth="1"/>
+    <col min="465" max="465" width="3.7109375" style="1" customWidth="1"/>
+    <col min="466" max="466" width="15.7109375" style="4" customWidth="1"/>
+    <col min="467" max="467" width="3.7109375" style="13" customWidth="1"/>
+    <col min="468" max="468" width="13.7109375" style="12" customWidth="1"/>
+    <col min="469" max="469" width="3.7109375" style="4" customWidth="1"/>
+    <col min="470" max="470" width="17.140625" style="12" customWidth="1"/>
+    <col min="471" max="471" width="3.7109375" style="1" customWidth="1"/>
+    <col min="472" max="472" width="15.7109375" style="4" customWidth="1"/>
+    <col min="473" max="473" width="3.7109375" style="1" customWidth="1"/>
+    <col min="474" max="474" width="15.7109375" style="4" customWidth="1"/>
+    <col min="475" max="475" width="3.7109375" style="1" customWidth="1"/>
+    <col min="476" max="476" width="15.7109375" style="4" customWidth="1"/>
+    <col min="477" max="477" width="3.7109375" style="1" customWidth="1"/>
+    <col min="478" max="478" width="15.7109375" style="4" customWidth="1"/>
+    <col min="479" max="479" width="3.7109375" style="1" customWidth="1"/>
+    <col min="480" max="480" width="17.28515625" style="4" customWidth="1"/>
+    <col min="481" max="481" width="3.7109375" style="13" customWidth="1"/>
+    <col min="482" max="16384" width="3.7109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:481" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:481" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -9583,7 +9583,7 @@
       <c r="RL1" s="45"/>
       <c r="RM1" s="46"/>
     </row>
-    <row r="2" spans="1:481" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:481" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="47" t="s">
         <v>62</v>
       </c>
@@ -10065,7 +10065,7 @@
       <c r="RL2" s="45"/>
       <c r="RM2" s="46"/>
     </row>
-    <row r="3" spans="1:481" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:481" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3"/>
       <c r="C3" s="6"/>
       <c r="D3"/>
@@ -11022,7 +11022,7 @@
       </c>
       <c r="RM3" s="19"/>
     </row>
-    <row r="4" spans="1:481" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:481" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="b">
         <f>AND(LEN($F$5)&gt;1,LEN($G$5)=0)</f>
         <v>0</v>
@@ -12226,12 +12226,12 @@
       </c>
       <c r="RM4" s="23"/>
     </row>
-    <row r="5" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="10">
         <f>SUM(F5:RL5)</f>
@@ -12722,12 +12722,12 @@
       <c r="RK5" s="13"/>
       <c r="RL5" s="14"/>
     </row>
-    <row r="6" spans="1:481" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:481" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="10">
         <f t="shared" ref="C6:C22" si="0">SUM(F6:RL6)</f>
@@ -13258,9 +13258,9 @@
       <c r="RL6" s="14"/>
       <c r="RM6" s="13"/>
     </row>
-    <row r="7" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>72</v>
@@ -13794,9 +13794,9 @@
       <c r="RL7" s="14"/>
       <c r="RM7" s="13"/>
     </row>
-    <row r="8" spans="1:481" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:481" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>73</v>
@@ -13921,7 +13921,7 @@
       <c r="CX8" s="14"/>
       <c r="CY8" s="13"/>
       <c r="CZ8" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="DA8" s="13">
         <v>0.5</v>
@@ -13953,13 +13953,13 @@
       <c r="DZ8" s="14"/>
       <c r="EA8" s="13"/>
       <c r="EB8" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="EC8" s="13">
         <v>0.5</v>
       </c>
       <c r="ED8" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="EE8" s="13">
         <v>0.5</v>
@@ -13975,13 +13975,13 @@
       <c r="EN8" s="14"/>
       <c r="EO8" s="13"/>
       <c r="EP8" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="EQ8" s="15">
         <v>0.5</v>
       </c>
       <c r="ET8" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="EU8" s="13">
         <v>0.5</v>
@@ -13997,13 +13997,13 @@
       <c r="FD8" s="14"/>
       <c r="FE8" s="13"/>
       <c r="FF8" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="FG8" s="13">
         <v>0.5</v>
       </c>
       <c r="FH8" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="FI8" s="13">
         <v>0.5</v>
@@ -14325,9 +14325,9 @@
       <c r="RL8" s="14"/>
       <c r="RM8" s="13"/>
     </row>
-    <row r="9" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>74</v>
@@ -14453,7 +14453,7 @@
       <c r="CX9" s="14"/>
       <c r="CY9" s="13"/>
       <c r="DB9" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="DC9" s="15">
         <v>0.5</v>
@@ -14485,7 +14485,7 @@
       <c r="EB9" s="14"/>
       <c r="EC9" s="15"/>
       <c r="EF9" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="EG9" s="15">
         <v>0.5</v>
@@ -14495,7 +14495,7 @@
       <c r="EJ9" s="14"/>
       <c r="EK9" s="15"/>
       <c r="EL9" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="EM9" s="15">
         <v>0.5</v>
@@ -14503,13 +14503,13 @@
       <c r="EN9" s="14"/>
       <c r="EO9" s="13"/>
       <c r="EP9" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="EQ9" s="13">
         <v>0.5</v>
       </c>
       <c r="ER9" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="ES9" s="13">
         <v>0.5</v>
@@ -14525,7 +14525,7 @@
       <c r="FB9" s="14"/>
       <c r="FC9" s="13"/>
       <c r="FD9" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="FE9" s="15">
         <v>0.5</v>
@@ -14533,7 +14533,7 @@
       <c r="FF9" s="14"/>
       <c r="FG9" s="15"/>
       <c r="FH9" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="FI9" s="15">
         <v>0.5</v>
@@ -14853,12 +14853,12 @@
       <c r="RL9" s="14"/>
       <c r="RM9" s="13"/>
     </row>
-    <row r="10" spans="1:481" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:481" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="C10" s="10">
         <f t="shared" si="0"/>
@@ -14970,13 +14970,13 @@
       <c r="CX10" s="14"/>
       <c r="CY10" s="13"/>
       <c r="CZ10" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="DA10" s="15">
         <v>0.5</v>
       </c>
       <c r="DB10" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="DC10" s="13">
         <v>0.5</v>
@@ -15006,19 +15006,19 @@
       <c r="DZ10" s="14"/>
       <c r="EA10" s="13"/>
       <c r="EB10" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="EC10" s="13">
         <v>0.5</v>
       </c>
       <c r="ED10" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="EE10" s="15">
         <v>0.5</v>
       </c>
       <c r="EF10" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="EG10" s="13">
         <v>0.5</v>
@@ -15028,7 +15028,7 @@
       <c r="EJ10" s="14"/>
       <c r="EK10" s="13"/>
       <c r="EL10" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="EM10" s="13">
         <v>0.5</v>
@@ -15036,13 +15036,13 @@
       <c r="EN10" s="14"/>
       <c r="EO10" s="13"/>
       <c r="ER10" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="ES10" s="13">
         <v>0.5</v>
       </c>
       <c r="ET10" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="EU10" s="13">
         <v>0.5</v>
@@ -15056,13 +15056,13 @@
       <c r="FB10" s="14"/>
       <c r="FC10" s="13"/>
       <c r="FD10" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="FE10" s="13">
         <v>0.5</v>
       </c>
       <c r="FF10" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="FG10" s="13">
         <v>0.5</v>
@@ -15385,12 +15385,12 @@
       <c r="RL10" s="14"/>
       <c r="RM10" s="13"/>
     </row>
-    <row r="11" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="10">
         <f t="shared" si="0"/>
@@ -15515,13 +15515,13 @@
       <c r="CX11" s="14"/>
       <c r="CY11" s="13"/>
       <c r="CZ11" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DA11" s="15">
         <v>0.5</v>
       </c>
       <c r="DB11" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="DC11" s="13">
         <v>0.5</v>
@@ -15547,7 +15547,7 @@
       <c r="DV11" s="14"/>
       <c r="DW11" s="15"/>
       <c r="DX11" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="DY11" s="15">
         <v>0.5</v>
@@ -15555,7 +15555,7 @@
       <c r="DZ11" s="14"/>
       <c r="EA11" s="13"/>
       <c r="EF11" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EG11" s="15">
         <v>0.5</v>
@@ -15569,13 +15569,13 @@
       <c r="EN11" s="14"/>
       <c r="EO11" s="13"/>
       <c r="EP11" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="EQ11" s="15">
         <v>0.5</v>
       </c>
       <c r="ER11" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="ES11" s="13">
         <v>0.5</v>
@@ -15591,7 +15591,7 @@
       <c r="FB11" s="14"/>
       <c r="FC11" s="13"/>
       <c r="FD11" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="FE11" s="13">
         <v>0.5</v>
@@ -15599,7 +15599,7 @@
       <c r="FF11" s="14"/>
       <c r="FG11" s="15"/>
       <c r="FH11" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FI11" s="15">
         <v>0.5</v>
@@ -15917,12 +15917,12 @@
       <c r="RL11" s="14"/>
       <c r="RM11" s="13"/>
     </row>
-    <row r="12" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="10">
         <f t="shared" si="0"/>
@@ -16047,7 +16047,7 @@
       <c r="CX12" s="14"/>
       <c r="CY12" s="13"/>
       <c r="DB12" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="DC12" s="15">
         <v>0.5</v>
@@ -16073,7 +16073,7 @@
       <c r="DV12" s="14"/>
       <c r="DW12" s="15"/>
       <c r="DX12" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="DY12" s="13">
         <v>0.5</v>
@@ -16081,19 +16081,19 @@
       <c r="DZ12" s="14"/>
       <c r="EA12" s="13"/>
       <c r="EB12" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="EC12" s="15">
         <v>0.5</v>
       </c>
       <c r="ED12" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="EE12" s="15">
         <v>0.5</v>
       </c>
       <c r="EF12" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EG12" s="13">
         <v>0.5</v>
@@ -16117,13 +16117,13 @@
       <c r="FB12" s="14"/>
       <c r="FC12" s="13"/>
       <c r="FF12" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="FG12" s="15">
         <v>0.5</v>
       </c>
       <c r="FH12" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FI12" s="15">
         <v>0.5</v>
@@ -16439,12 +16439,12 @@
       <c r="RL12" s="14"/>
       <c r="RM12" s="13"/>
     </row>
-    <row r="13" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="10">
         <f t="shared" si="0"/>
@@ -16558,7 +16558,7 @@
       <c r="CW13" s="13"/>
       <c r="CX13" s="14"/>
       <c r="CZ13" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DA13" s="15">
         <v>0.5</v>
@@ -16586,13 +16586,13 @@
       <c r="DW13" s="13"/>
       <c r="DZ13" s="14"/>
       <c r="EB13" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="EC13" s="15">
         <v>0.5</v>
       </c>
       <c r="ED13" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="EE13" s="15">
         <v>0.5</v>
@@ -16605,13 +16605,13 @@
       <c r="EK13" s="13"/>
       <c r="EN13" s="14"/>
       <c r="EP13" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="EQ13" s="13">
         <v>0.5</v>
       </c>
       <c r="ER13" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="ES13" s="13">
         <v>0.5</v>
@@ -16624,13 +16624,13 @@
       <c r="EY13" s="13"/>
       <c r="FB13" s="14"/>
       <c r="FD13" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="FE13" s="13">
         <v>0.5</v>
       </c>
       <c r="FF13" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="FG13" s="13">
         <v>0.5</v>
@@ -16919,12 +16919,12 @@
       <c r="RK13" s="13"/>
       <c r="RL13" s="14"/>
     </row>
-    <row r="14" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="10">
         <f t="shared" si="0"/>
@@ -17046,7 +17046,7 @@
       <c r="CW14" s="13"/>
       <c r="CX14" s="14"/>
       <c r="CZ14" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="DA14" s="13">
         <v>0.5</v>
@@ -17078,13 +17078,13 @@
       <c r="DY14" s="13"/>
       <c r="DZ14" s="14"/>
       <c r="EB14" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="EC14" s="13">
         <v>0.5</v>
       </c>
       <c r="ED14" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="EE14" s="13">
         <v>0.5</v>
@@ -17097,13 +17097,13 @@
       <c r="EM14" s="13"/>
       <c r="EN14" s="14"/>
       <c r="EP14" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="EQ14" s="13">
         <v>0.5</v>
       </c>
       <c r="ER14" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="ES14" s="13">
         <v>0.5</v>
@@ -17118,13 +17118,13 @@
       <c r="FA14" s="13"/>
       <c r="FB14" s="14"/>
       <c r="FD14" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="FE14" s="13">
         <v>0.5</v>
       </c>
       <c r="FF14" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="FG14" s="13">
         <v>0.5</v>
@@ -17425,12 +17425,12 @@
       <c r="RK14" s="13"/>
       <c r="RL14" s="14"/>
     </row>
-    <row r="15" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="10">
         <f t="shared" si="0"/>
@@ -17552,7 +17552,7 @@
       <c r="CW15" s="13"/>
       <c r="CX15" s="14"/>
       <c r="CZ15" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="DA15" s="13">
         <v>0.5</v>
@@ -17584,13 +17584,13 @@
       <c r="DY15" s="13"/>
       <c r="DZ15" s="14"/>
       <c r="EB15" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="EC15" s="13">
         <v>0.5</v>
       </c>
       <c r="ED15" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="EE15" s="13">
         <v>0.5</v>
@@ -17603,13 +17603,13 @@
       <c r="EM15" s="13"/>
       <c r="EN15" s="14"/>
       <c r="EP15" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="EQ15" s="13">
         <v>0.5</v>
       </c>
       <c r="ER15" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="ES15" s="13">
         <v>0.5</v>
@@ -17624,13 +17624,13 @@
       <c r="FA15" s="13"/>
       <c r="FB15" s="14"/>
       <c r="FD15" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="FE15" s="13">
         <v>0.5</v>
       </c>
       <c r="FF15" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="FG15" s="13">
         <v>0.5</v>
@@ -17931,12 +17931,12 @@
       <c r="RK15" s="13"/>
       <c r="RL15" s="14"/>
     </row>
-    <row r="16" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="10">
         <f t="shared" si="0"/>
@@ -18060,7 +18060,7 @@
       <c r="DB16" s="14"/>
       <c r="DC16" s="13"/>
       <c r="DD16" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="DE16" s="15">
         <v>0.5</v>
@@ -18088,13 +18088,13 @@
       <c r="DY16" s="13"/>
       <c r="DZ16" s="14"/>
       <c r="EB16" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="EC16" s="13">
         <v>0.5</v>
       </c>
       <c r="ED16" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="EE16" s="13">
         <v>0.5</v>
@@ -18107,13 +18107,13 @@
       <c r="EM16" s="13"/>
       <c r="EN16" s="14"/>
       <c r="EP16" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="EQ16" s="13">
         <v>0.5</v>
       </c>
       <c r="ER16" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="ES16" s="13">
         <v>0.5</v>
@@ -18128,13 +18128,13 @@
       <c r="FA16" s="13"/>
       <c r="FB16" s="14"/>
       <c r="FD16" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="FE16" s="13">
         <v>0.5</v>
       </c>
       <c r="FF16" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="FG16" s="13">
         <v>0.5</v>
@@ -18435,12 +18435,12 @@
       <c r="RK16" s="13"/>
       <c r="RL16" s="14"/>
     </row>
-    <row r="17" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="10">
         <f t="shared" si="0"/>
@@ -18562,7 +18562,7 @@
       <c r="DB17" s="14"/>
       <c r="DC17" s="13"/>
       <c r="DD17" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="DE17" s="13">
         <v>0.5</v>
@@ -18590,13 +18590,13 @@
       <c r="DY17" s="13"/>
       <c r="DZ17" s="14"/>
       <c r="EB17" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="EC17" s="13">
         <v>0.5</v>
       </c>
       <c r="ED17" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="EE17" s="13">
         <v>0.5</v>
@@ -18609,13 +18609,13 @@
       <c r="EM17" s="13"/>
       <c r="EN17" s="14"/>
       <c r="EP17" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="EQ17" s="13">
         <v>0.5</v>
       </c>
       <c r="ER17" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="ES17" s="13">
         <v>0.5</v>
@@ -18630,13 +18630,13 @@
       <c r="FA17" s="13"/>
       <c r="FB17" s="14"/>
       <c r="FD17" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="FE17" s="13">
         <v>0.5</v>
       </c>
       <c r="FF17" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="FG17" s="13">
         <v>0.5</v>
@@ -18937,12 +18937,12 @@
       <c r="RK17" s="13"/>
       <c r="RL17" s="14"/>
     </row>
-    <row r="18" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18" s="10">
         <f t="shared" si="0"/>
@@ -19075,7 +19075,7 @@
       <c r="DB18" s="14"/>
       <c r="DC18" s="15"/>
       <c r="DD18" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="DE18" s="15">
         <v>0.5</v>
@@ -19093,7 +19093,7 @@
       <c r="DP18" s="14"/>
       <c r="DQ18" s="15"/>
       <c r="DR18" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="DS18" s="15">
         <v>0.5</v>
@@ -19107,19 +19107,19 @@
       <c r="DZ18" s="14"/>
       <c r="EA18" s="13"/>
       <c r="EB18" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="EC18" s="15">
         <v>0.5</v>
       </c>
       <c r="ED18" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="EE18" s="15">
         <v>0.5</v>
       </c>
       <c r="EF18" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="EG18" s="15">
         <v>0.5</v>
@@ -19133,13 +19133,13 @@
       <c r="EN18" s="14"/>
       <c r="EO18" s="13"/>
       <c r="EP18" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="EQ18" s="15">
         <v>0.5</v>
       </c>
       <c r="ER18" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="ES18" s="15">
         <v>0.5</v>
@@ -19155,13 +19155,13 @@
       <c r="FB18" s="14"/>
       <c r="FC18" s="13"/>
       <c r="FD18" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="FE18" s="15">
         <v>0.5</v>
       </c>
       <c r="FF18" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="FG18" s="13">
         <v>0.5</v>
@@ -19483,12 +19483,12 @@
       <c r="RL18" s="14"/>
       <c r="RM18" s="13"/>
     </row>
-    <row r="19" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C19" s="10">
         <f t="shared" si="0"/>
@@ -19621,7 +19621,7 @@
       <c r="DB19" s="14"/>
       <c r="DC19" s="15"/>
       <c r="DD19" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="DE19" s="15">
         <v>0.5</v>
@@ -19639,7 +19639,7 @@
       <c r="DP19" s="14"/>
       <c r="DQ19" s="15"/>
       <c r="DR19" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="DS19" s="15">
         <v>0.5</v>
@@ -19653,19 +19653,19 @@
       <c r="DZ19" s="14"/>
       <c r="EA19" s="13"/>
       <c r="EB19" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="EC19" s="15">
         <v>0.5</v>
       </c>
       <c r="ED19" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="EE19" s="15">
         <v>0.5</v>
       </c>
       <c r="EF19" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="EG19" s="15">
         <v>0.5</v>
@@ -19679,13 +19679,13 @@
       <c r="EN19" s="14"/>
       <c r="EO19" s="13"/>
       <c r="EP19" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="EQ19" s="13">
         <v>0.5</v>
       </c>
       <c r="ER19" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="ES19" s="15">
         <v>0.5</v>
@@ -19701,7 +19701,7 @@
       <c r="FB19" s="14"/>
       <c r="FC19" s="13"/>
       <c r="FD19" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="FE19" s="15">
         <v>0.5</v>
@@ -19709,7 +19709,7 @@
       <c r="FF19" s="14"/>
       <c r="FG19" s="15"/>
       <c r="FH19" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="FI19" s="15">
         <v>0.5</v>
@@ -20031,12 +20031,12 @@
       <c r="RL19" s="14"/>
       <c r="RM19" s="13"/>
     </row>
-    <row r="20" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="10">
         <f t="shared" si="0"/>
@@ -20165,7 +20165,7 @@
       <c r="CX20" s="14"/>
       <c r="CY20" s="13"/>
       <c r="CZ20" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="DA20" s="13">
         <v>0.5</v>
@@ -20185,7 +20185,7 @@
       <c r="DP20" s="14"/>
       <c r="DQ20" s="15"/>
       <c r="DR20" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="DS20" s="15">
         <v>0.5</v>
@@ -20199,13 +20199,13 @@
       <c r="DZ20" s="14"/>
       <c r="EA20" s="13"/>
       <c r="EB20" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="EC20" s="15">
         <v>0.5</v>
       </c>
       <c r="ED20" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="EE20" s="15">
         <v>0.5</v>
@@ -20219,13 +20219,13 @@
       <c r="EN20" s="14"/>
       <c r="EO20" s="13"/>
       <c r="EP20" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="EQ20" s="15">
         <v>0.5</v>
       </c>
       <c r="ER20" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="ES20" s="15">
         <v>0.5</v>
@@ -20241,13 +20241,13 @@
       <c r="FB20" s="14"/>
       <c r="FC20" s="13"/>
       <c r="FD20" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="FE20" s="15">
         <v>0.5</v>
       </c>
       <c r="FF20" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="FG20" s="15">
         <v>0.5</v>
@@ -20569,12 +20569,12 @@
       <c r="RL20" s="14"/>
       <c r="RM20" s="13"/>
     </row>
-    <row r="21" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21" s="10">
         <f t="shared" si="0"/>
@@ -20694,7 +20694,7 @@
       <c r="CW21" s="13"/>
       <c r="CX21" s="14"/>
       <c r="CZ21" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="DA21" s="13">
         <v>0.5</v>
@@ -20713,7 +20713,7 @@
       <c r="DP21" s="14"/>
       <c r="DQ21" s="13"/>
       <c r="DR21" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="DS21" s="13">
         <v>0.5</v>
@@ -20726,13 +20726,13 @@
       <c r="DY21" s="13"/>
       <c r="DZ21" s="14"/>
       <c r="EB21" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="EC21" s="13">
         <v>0.5</v>
       </c>
       <c r="ED21" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="EE21" s="13">
         <v>0.5</v>
@@ -20745,13 +20745,13 @@
       <c r="EM21" s="13"/>
       <c r="EN21" s="14"/>
       <c r="EP21" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="EQ21" s="13">
         <v>0.5</v>
       </c>
       <c r="ER21" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="ES21" s="13">
         <v>0.5</v>
@@ -20766,13 +20766,13 @@
       <c r="FA21" s="13"/>
       <c r="FB21" s="14"/>
       <c r="FD21" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="FE21" s="13">
         <v>0.5</v>
       </c>
       <c r="FH21" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="FI21" s="15">
         <v>0.5</v>
@@ -21071,12 +21071,12 @@
       <c r="RK21" s="13"/>
       <c r="RL21" s="14"/>
     </row>
-    <row r="22" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" s="10">
         <f t="shared" si="0"/>
@@ -21209,7 +21209,7 @@
       <c r="CT22" s="14"/>
       <c r="CU22" s="15"/>
       <c r="CV22" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CW22" s="13">
         <v>0.5</v>
@@ -21223,7 +21223,7 @@
       <c r="DF22" s="14"/>
       <c r="DG22" s="15"/>
       <c r="DH22" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="DI22" s="13">
         <v>0.5</v>
@@ -21237,7 +21237,7 @@
       <c r="DP22" s="14"/>
       <c r="DQ22" s="15"/>
       <c r="DR22" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="DS22" s="15">
         <v>0.5</v>
@@ -21249,7 +21249,7 @@
       <c r="DZ22" s="14"/>
       <c r="EA22" s="13"/>
       <c r="EB22" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EC22" s="15">
         <v>0.5</v>
@@ -21263,13 +21263,13 @@
       <c r="EN22" s="14"/>
       <c r="EO22" s="13"/>
       <c r="EP22" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="EQ22" s="15">
         <v>0.5</v>
       </c>
       <c r="ER22" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="ES22" s="13">
         <v>0.5</v>
@@ -21285,13 +21285,13 @@
       <c r="FB22" s="14"/>
       <c r="FC22" s="13"/>
       <c r="FD22" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="FE22" s="13">
         <v>0.5</v>
       </c>
       <c r="FF22" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="FG22" s="13">
         <v>0.5</v>
@@ -21613,12 +21613,12 @@
       <c r="RL22" s="14"/>
       <c r="RM22" s="13"/>
     </row>
-    <row r="23" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C23" s="10">
         <f>SUM(F23:RL23)</f>
@@ -21751,7 +21751,7 @@
       <c r="CT23" s="14"/>
       <c r="CU23" s="15"/>
       <c r="CV23" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CW23" s="13">
         <v>0.5</v>
@@ -21767,7 +21767,7 @@
       <c r="DF23" s="14"/>
       <c r="DG23" s="15"/>
       <c r="DH23" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="DI23" s="13">
         <v>0.5</v>
@@ -21781,7 +21781,7 @@
       <c r="DP23" s="14"/>
       <c r="DQ23" s="15"/>
       <c r="DR23" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="DS23" s="15">
         <v>0.5</v>
@@ -21793,7 +21793,7 @@
       <c r="DZ23" s="14"/>
       <c r="EA23" s="13"/>
       <c r="EB23" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EC23" s="15">
         <v>0.5</v>
@@ -21807,13 +21807,13 @@
       <c r="EN23" s="14"/>
       <c r="EO23" s="13"/>
       <c r="EP23" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="EQ23" s="15">
         <v>0.5</v>
       </c>
       <c r="ER23" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="ES23" s="13">
         <v>0.5</v>
@@ -21827,13 +21827,13 @@
       <c r="FB23" s="14"/>
       <c r="FC23" s="13"/>
       <c r="FD23" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="FE23" s="15">
         <v>0.5</v>
       </c>
       <c r="FF23" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="FG23" s="15">
         <v>0.5</v>
@@ -22155,12 +22155,12 @@
       <c r="RL23" s="14"/>
       <c r="RM23" s="13"/>
     </row>
-    <row r="24" spans="1:481" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:481" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="10">
         <f t="shared" ref="C24:C37" si="3">SUM(F24:RL24)</f>
@@ -22295,7 +22295,7 @@
       <c r="DB24" s="14"/>
       <c r="DC24" s="13"/>
       <c r="DD24" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DE24" s="15">
         <v>0.5</v>
@@ -22315,7 +22315,7 @@
       <c r="DT24" s="14"/>
       <c r="DU24" s="13"/>
       <c r="DV24" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="DW24" s="13">
         <v>0.5</v>
@@ -22325,13 +22325,13 @@
       <c r="DZ24" s="14"/>
       <c r="EA24" s="13"/>
       <c r="EB24" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="EC24" s="15">
         <v>0.5</v>
       </c>
       <c r="ED24" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EE24" s="15">
         <v>0.5</v>
@@ -22345,13 +22345,13 @@
       <c r="EN24" s="14"/>
       <c r="EO24" s="13"/>
       <c r="EP24" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EQ24" s="13">
         <v>0.5</v>
       </c>
       <c r="ER24" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="ES24" s="15">
         <v>0.5</v>
@@ -22361,7 +22361,7 @@
       <c r="EV24" s="14"/>
       <c r="EW24" s="13"/>
       <c r="EX24" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="EY24" s="13">
         <v>0.5</v>
@@ -22371,13 +22371,13 @@
       <c r="FB24" s="14"/>
       <c r="FC24" s="13"/>
       <c r="FD24" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="FE24" s="13">
         <v>0.5</v>
       </c>
       <c r="FF24" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="FG24" s="15">
         <v>0.5</v>
@@ -22697,12 +22697,12 @@
       <c r="RL24" s="14"/>
       <c r="RM24" s="13"/>
     </row>
-    <row r="25" spans="1:481" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:481" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="10">
         <f t="shared" si="3"/>
@@ -22837,7 +22837,7 @@
       <c r="DB25" s="14"/>
       <c r="DC25" s="13"/>
       <c r="DD25" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DE25" s="15">
         <v>0.5</v>
@@ -22857,7 +22857,7 @@
       <c r="DT25" s="14"/>
       <c r="DU25" s="13"/>
       <c r="DV25" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="DW25" s="13">
         <v>0.5</v>
@@ -22867,13 +22867,13 @@
       <c r="DZ25" s="14"/>
       <c r="EA25" s="13"/>
       <c r="EB25" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="EC25" s="15">
         <v>0.5</v>
       </c>
       <c r="ED25" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EE25" s="15">
         <v>0.5</v>
@@ -22887,13 +22887,13 @@
       <c r="EN25" s="14"/>
       <c r="EO25" s="13"/>
       <c r="EP25" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EQ25" s="15">
         <v>0.5</v>
       </c>
       <c r="ER25" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="ES25" s="15">
         <v>0.5</v>
@@ -22903,7 +22903,7 @@
       <c r="EV25" s="14"/>
       <c r="EW25" s="13"/>
       <c r="EX25" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="EY25" s="13">
         <v>0.5</v>
@@ -22913,13 +22913,13 @@
       <c r="FB25" s="14"/>
       <c r="FC25" s="13"/>
       <c r="FD25" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="FE25" s="15">
         <v>0.5</v>
       </c>
       <c r="FF25" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="FG25" s="13">
         <v>0.5</v>
@@ -23237,12 +23237,12 @@
       <c r="RL25" s="14"/>
       <c r="RM25" s="13"/>
     </row>
-    <row r="26" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" si="3"/>
@@ -23375,7 +23375,7 @@
       <c r="CX26" s="14"/>
       <c r="CY26" s="13"/>
       <c r="CZ26" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="DA26" s="15">
         <v>0.5</v>
@@ -23407,13 +23407,13 @@
       <c r="DZ26" s="14"/>
       <c r="EA26" s="13"/>
       <c r="EB26" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="EC26" s="15">
         <v>0.5</v>
       </c>
       <c r="ED26" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="EE26" s="15">
         <v>0.5</v>
@@ -23429,13 +23429,13 @@
       <c r="EN26" s="14"/>
       <c r="EO26" s="13"/>
       <c r="EP26" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="EQ26" s="15">
         <v>0.5</v>
       </c>
       <c r="ET26" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="EU26" s="15">
         <v>0.5</v>
@@ -23451,7 +23451,7 @@
       <c r="FD26" s="14"/>
       <c r="FE26" s="15"/>
       <c r="FF26" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="FG26" s="15">
         <v>0.5</v>
@@ -23771,12 +23771,12 @@
       <c r="RL26" s="14"/>
       <c r="RM26" s="13"/>
     </row>
-    <row r="27" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C27" s="10">
         <f t="shared" si="3"/>
@@ -23909,7 +23909,7 @@
       <c r="CX27" s="14"/>
       <c r="CY27" s="13"/>
       <c r="CZ27" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="DA27" s="15">
         <v>0.5</v>
@@ -23931,7 +23931,7 @@
       <c r="DP27" s="14"/>
       <c r="DQ27" s="15"/>
       <c r="DR27" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="DS27" s="15">
         <v>0.5</v>
@@ -23951,7 +23951,7 @@
       <c r="EH27" s="14"/>
       <c r="EI27" s="15"/>
       <c r="EJ27" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="EK27" s="13">
         <v>0.5</v>
@@ -23961,13 +23961,13 @@
       <c r="EN27" s="14"/>
       <c r="EO27" s="13"/>
       <c r="ER27" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="ES27" s="15">
         <v>0.5</v>
       </c>
       <c r="ET27" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="EU27" s="15">
         <v>0.5</v>
@@ -23981,13 +23981,13 @@
       <c r="FB27" s="14"/>
       <c r="FC27" s="13"/>
       <c r="FD27" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="FE27" s="15">
         <v>0.5</v>
       </c>
       <c r="FF27" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="FG27" s="13">
         <v>0.5</v>
@@ -24305,12 +24305,12 @@
       <c r="RL27" s="14"/>
       <c r="RM27" s="13"/>
     </row>
-    <row r="28" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C28" s="10">
         <f t="shared" si="3"/>
@@ -24450,7 +24450,7 @@
       <c r="DP28" s="14"/>
       <c r="DQ28" s="13"/>
       <c r="DR28" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="DS28" s="13">
         <v>0.5</v>
@@ -24463,13 +24463,13 @@
       <c r="DY28" s="13"/>
       <c r="DZ28" s="14"/>
       <c r="EB28" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="EC28" s="13">
         <v>0.5</v>
       </c>
       <c r="ED28" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="EE28" s="15">
         <v>0.5</v>
@@ -24479,7 +24479,7 @@
       <c r="EH28" s="14"/>
       <c r="EI28" s="13"/>
       <c r="EJ28" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="EK28" s="13">
         <v>0.5</v>
@@ -24488,13 +24488,13 @@
       <c r="EM28" s="13"/>
       <c r="EN28" s="14"/>
       <c r="EP28" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="EQ28" s="13">
         <v>0.5</v>
       </c>
       <c r="ER28" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="ES28" s="13">
         <v>0.5</v>
@@ -24509,7 +24509,7 @@
       <c r="FA28" s="13"/>
       <c r="FB28" s="14"/>
       <c r="FD28" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="FE28" s="13">
         <v>0.5</v>
@@ -24802,12 +24802,12 @@
       <c r="RK28" s="13"/>
       <c r="RL28" s="14"/>
     </row>
-    <row r="29" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="10">
         <f t="shared" si="3"/>
@@ -24882,7 +24882,7 @@
       <c r="BH29" s="12"/>
       <c r="BI29" s="13"/>
       <c r="BJ29" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BK29" s="13">
         <v>0.5</v>
@@ -24944,7 +24944,7 @@
       <c r="CX29" s="14"/>
       <c r="CY29" s="13"/>
       <c r="CZ29" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="DA29" s="15">
         <v>0.5</v>
@@ -24970,7 +24970,7 @@
       <c r="DP29" s="14"/>
       <c r="DQ29" s="15"/>
       <c r="DR29" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="DS29" s="15">
         <v>0.5</v>
@@ -24984,7 +24984,7 @@
       <c r="DZ29" s="14"/>
       <c r="EA29" s="13"/>
       <c r="EB29" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="EC29" s="15">
         <v>0.5</v>
@@ -24994,7 +24994,7 @@
       <c r="EH29" s="14"/>
       <c r="EI29" s="15"/>
       <c r="EJ29" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="EK29" s="15">
         <v>0.5</v>
@@ -25004,13 +25004,13 @@
       <c r="EN29" s="14"/>
       <c r="EO29" s="13"/>
       <c r="EP29" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="EQ29" s="15">
         <v>0.5</v>
       </c>
       <c r="ER29" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="ES29" s="15">
         <v>0.5</v>
@@ -25020,7 +25020,7 @@
       <c r="EV29" s="14"/>
       <c r="EW29" s="15"/>
       <c r="EX29" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="EY29" s="15">
         <v>0.5</v>
@@ -25030,13 +25030,13 @@
       <c r="FB29" s="14"/>
       <c r="FC29" s="13"/>
       <c r="FD29" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="FE29" s="15">
         <v>0.5</v>
       </c>
       <c r="FF29" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="FG29" s="15">
         <v>0.5</v>
@@ -25358,12 +25358,12 @@
       <c r="RL29" s="14"/>
       <c r="RM29" s="13"/>
     </row>
-    <row r="30" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="10">
         <f t="shared" si="3"/>
@@ -25438,7 +25438,7 @@
       <c r="BH30" s="12"/>
       <c r="BI30" s="13"/>
       <c r="BJ30" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BK30" s="13">
         <v>0.5</v>
@@ -25500,7 +25500,7 @@
       <c r="CX30" s="14"/>
       <c r="CY30" s="13"/>
       <c r="CZ30" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="DA30" s="15">
         <v>0.5</v>
@@ -25526,7 +25526,7 @@
       <c r="DP30" s="14"/>
       <c r="DQ30" s="15"/>
       <c r="DR30" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="DS30" s="15">
         <v>0.5</v>
@@ -25540,7 +25540,7 @@
       <c r="DZ30" s="14"/>
       <c r="EA30" s="13"/>
       <c r="EB30" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="EC30" s="15">
         <v>0.5</v>
@@ -25550,7 +25550,7 @@
       <c r="EH30" s="14"/>
       <c r="EI30" s="15"/>
       <c r="EJ30" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="EK30" s="15">
         <v>0.5</v>
@@ -25560,13 +25560,13 @@
       <c r="EN30" s="14"/>
       <c r="EO30" s="13"/>
       <c r="EP30" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="EQ30" s="15">
         <v>0.5</v>
       </c>
       <c r="ER30" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="ES30" s="15">
         <v>0.5</v>
@@ -25576,7 +25576,7 @@
       <c r="EV30" s="14"/>
       <c r="EW30" s="15"/>
       <c r="EX30" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="EY30" s="15">
         <v>0.5</v>
@@ -25586,13 +25586,13 @@
       <c r="FB30" s="14"/>
       <c r="FC30" s="13"/>
       <c r="FD30" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="FE30" s="15">
         <v>0.5</v>
       </c>
       <c r="FF30" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="FG30" s="15">
         <v>0.5</v>
@@ -25912,12 +25912,12 @@
       <c r="RL30" s="14"/>
       <c r="RM30" s="13"/>
     </row>
-    <row r="31" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" s="10">
         <f t="shared" si="3"/>
@@ -26014,7 +26014,7 @@
       <c r="BV31" s="12"/>
       <c r="BW31" s="13"/>
       <c r="BX31" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BY31" s="13">
         <v>0.5</v>
@@ -26058,7 +26058,7 @@
       <c r="CX31" s="14"/>
       <c r="CY31" s="13"/>
       <c r="CZ31" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="DA31" s="15">
         <v>0.5</v>
@@ -26088,7 +26088,7 @@
       <c r="DT31" s="14"/>
       <c r="DU31" s="15"/>
       <c r="DV31" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DW31" s="15">
         <v>0.5</v>
@@ -26098,13 +26098,13 @@
       <c r="DZ31" s="14"/>
       <c r="EA31" s="15"/>
       <c r="EB31" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="EC31" s="15">
         <v>0.5</v>
       </c>
       <c r="ED31" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="EE31" s="15">
         <v>0.5</v>
@@ -26120,7 +26120,7 @@
       <c r="EN31" s="14"/>
       <c r="EO31" s="13"/>
       <c r="EP31" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="EQ31" s="15">
         <v>0.5</v>
@@ -26128,7 +26128,7 @@
       <c r="ER31" s="14"/>
       <c r="ES31" s="15"/>
       <c r="ET31" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EU31" s="15">
         <v>0.5</v>
@@ -26140,7 +26140,7 @@
       <c r="FB31" s="14"/>
       <c r="FC31" s="13"/>
       <c r="FD31" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="FE31" s="15">
         <v>0.5</v>
@@ -26462,12 +26462,12 @@
       <c r="RL31" s="14"/>
       <c r="RM31" s="13"/>
     </row>
-    <row r="32" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="10">
         <f t="shared" si="3"/>
@@ -26564,7 +26564,7 @@
       <c r="BV32" s="12"/>
       <c r="BW32" s="13"/>
       <c r="BX32" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BY32" s="13">
         <v>0.5</v>
@@ -26608,7 +26608,7 @@
       <c r="CX32" s="14"/>
       <c r="CY32" s="13"/>
       <c r="CZ32" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="DA32" s="15">
         <v>0.5</v>
@@ -26638,7 +26638,7 @@
       <c r="DT32" s="14"/>
       <c r="DU32" s="15"/>
       <c r="DV32" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DW32" s="15">
         <v>0.5</v>
@@ -26648,13 +26648,13 @@
       <c r="DZ32" s="14"/>
       <c r="EA32" s="13"/>
       <c r="EB32" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="EC32" s="15">
         <v>0.5</v>
       </c>
       <c r="ED32" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="EE32" s="15">
         <v>0.5</v>
@@ -26668,7 +26668,7 @@
       <c r="EN32" s="14"/>
       <c r="EO32" s="13"/>
       <c r="EP32" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="EQ32" s="15">
         <v>0.5</v>
@@ -26676,7 +26676,7 @@
       <c r="ER32" s="14"/>
       <c r="ES32" s="15"/>
       <c r="ET32" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EU32" s="15">
         <v>0.5</v>
@@ -26690,7 +26690,7 @@
       <c r="FB32" s="14"/>
       <c r="FC32" s="13"/>
       <c r="FD32" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="FE32" s="15">
         <v>0.5</v>
@@ -27014,12 +27014,12 @@
       <c r="RL32" s="14"/>
       <c r="RM32" s="13"/>
     </row>
-    <row r="33" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" s="10">
         <f t="shared" si="3"/>
@@ -27154,7 +27154,7 @@
       <c r="CX33" s="14"/>
       <c r="CY33" s="13"/>
       <c r="CZ33" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DA33" s="15">
         <v>0.5</v>
@@ -27186,13 +27186,13 @@
       <c r="DZ33" s="14"/>
       <c r="EA33" s="13"/>
       <c r="EB33" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="EC33" s="15">
         <v>0.5</v>
       </c>
       <c r="ED33" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="EE33" s="15">
         <v>0.5</v>
@@ -27208,13 +27208,13 @@
       <c r="EN33" s="14"/>
       <c r="EO33" s="13"/>
       <c r="EP33" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="EQ33" s="15">
         <v>0.5</v>
       </c>
       <c r="ER33" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="ES33" s="15">
         <v>0.5</v>
@@ -27230,19 +27230,19 @@
       <c r="FB33" s="14"/>
       <c r="FC33" s="13"/>
       <c r="FD33" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="FE33" s="15">
         <v>0.5</v>
       </c>
       <c r="FF33" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="FG33" s="15">
         <v>0.5</v>
       </c>
       <c r="FH33" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="FI33" s="15">
         <v>0.5</v>
@@ -27564,12 +27564,12 @@
       <c r="RL33" s="14"/>
       <c r="RM33" s="13"/>
     </row>
-    <row r="34" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="10">
         <f t="shared" si="3"/>
@@ -27692,7 +27692,7 @@
       <c r="CW34" s="13"/>
       <c r="CX34" s="14"/>
       <c r="CZ34" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="DA34" s="13">
         <v>0.5</v>
@@ -27700,7 +27700,7 @@
       <c r="DB34" s="14"/>
       <c r="DC34" s="13"/>
       <c r="DD34" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="DE34" s="13">
         <v>0.5</v>
@@ -27719,7 +27719,7 @@
         <v>0.5</v>
       </c>
       <c r="DP34" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="DQ34" s="13">
         <v>0.5</v>
@@ -27734,13 +27734,13 @@
       <c r="DY34" s="13"/>
       <c r="DZ34" s="14"/>
       <c r="EB34" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="EC34" s="13">
         <v>0.5</v>
       </c>
       <c r="EF34" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="EG34" s="15">
         <v>0.5</v>
@@ -27757,7 +27757,7 @@
       <c r="ER34" s="14"/>
       <c r="ES34" s="13"/>
       <c r="ET34" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="EU34" s="13">
         <v>0.5</v>
@@ -27767,7 +27767,7 @@
       <c r="EX34" s="14"/>
       <c r="EY34" s="13"/>
       <c r="EZ34" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="FA34" s="13">
         <v>0.5</v>
@@ -27776,7 +27776,7 @@
       <c r="FD34" s="14"/>
       <c r="FE34" s="13"/>
       <c r="FF34" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="FG34" s="13">
         <v>0.5</v>
@@ -28075,12 +28075,12 @@
       <c r="RK34" s="13"/>
       <c r="RL34" s="14"/>
     </row>
-    <row r="35" spans="1:481" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:481" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="10">
         <f t="shared" si="3"/>
@@ -28215,7 +28215,7 @@
       <c r="CX35" s="14"/>
       <c r="CY35" s="13"/>
       <c r="CZ35" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="DA35" s="13">
         <v>0.5</v>
@@ -28229,7 +28229,7 @@
       <c r="DH35" s="14"/>
       <c r="DI35" s="13"/>
       <c r="DJ35" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="DK35" s="13">
         <v>0.5</v>
@@ -28243,7 +28243,7 @@
         <v>0.5</v>
       </c>
       <c r="DP35" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="DQ35" s="13">
         <v>0.5</v>
@@ -28259,13 +28259,13 @@
       <c r="DZ35" s="14"/>
       <c r="EA35" s="13"/>
       <c r="EB35" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="EC35" s="13">
         <v>0.5</v>
       </c>
       <c r="ED35" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="EE35" s="13">
         <v>0.5</v>
@@ -28281,7 +28281,7 @@
       <c r="EN35" s="14"/>
       <c r="EO35" s="13"/>
       <c r="EP35" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="EQ35" s="13">
         <v>0.5</v>
@@ -28289,7 +28289,7 @@
       <c r="ER35" s="14"/>
       <c r="ES35" s="15"/>
       <c r="ET35" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="EU35" s="15">
         <v>0.5</v>
@@ -28299,7 +28299,7 @@
       <c r="EX35" s="14"/>
       <c r="EY35" s="13"/>
       <c r="EZ35" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="FA35" s="15">
         <v>0.5</v>
@@ -28307,7 +28307,7 @@
       <c r="FB35" s="14"/>
       <c r="FC35" s="13"/>
       <c r="FD35" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="FE35" s="13">
         <v>0.5</v>
@@ -28631,12 +28631,12 @@
       <c r="RL35" s="14"/>
       <c r="RM35" s="13"/>
     </row>
-    <row r="36" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" s="10">
         <f t="shared" si="3"/>
@@ -28775,7 +28775,7 @@
       <c r="DB36" s="14"/>
       <c r="DC36" s="15"/>
       <c r="DD36" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="DE36" s="15">
         <v>0.5</v>
@@ -28785,7 +28785,7 @@
       <c r="DH36" s="14"/>
       <c r="DI36" s="15"/>
       <c r="DJ36" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="DK36" s="15">
         <v>0.5</v>
@@ -28799,7 +28799,7 @@
         <v>0.5</v>
       </c>
       <c r="DP36" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="DQ36" s="15">
         <v>0.5</v>
@@ -28815,13 +28815,13 @@
       <c r="DZ36" s="14"/>
       <c r="EA36" s="13"/>
       <c r="ED36" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="EE36" s="15">
         <v>0.5</v>
       </c>
       <c r="EF36" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="EG36" s="15">
         <v>0.5</v>
@@ -28835,7 +28835,7 @@
       <c r="EN36" s="14"/>
       <c r="EO36" s="13"/>
       <c r="EP36" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="EQ36" s="15">
         <v>0.5</v>
@@ -28849,13 +28849,13 @@
       <c r="FB36" s="14"/>
       <c r="FC36" s="13"/>
       <c r="FD36" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="FE36" s="15">
         <v>0.5</v>
       </c>
       <c r="FF36" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="FG36" s="15">
         <v>0.5</v>
@@ -29175,12 +29175,12 @@
       <c r="RL36" s="14"/>
       <c r="RM36" s="13"/>
     </row>
-    <row r="37" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="10">
         <f t="shared" si="3"/>
@@ -29315,7 +29315,7 @@
       <c r="CX37" s="14"/>
       <c r="CY37" s="13"/>
       <c r="CZ37" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DA37" s="15">
         <v>0.5</v>
@@ -29347,13 +29347,13 @@
       <c r="DZ37" s="14"/>
       <c r="EA37" s="13"/>
       <c r="EB37" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="EC37" s="15">
         <v>0.5</v>
       </c>
       <c r="ED37" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="EE37" s="15">
         <v>0.5</v>
@@ -29369,13 +29369,13 @@
       <c r="EN37" s="14"/>
       <c r="EO37" s="13"/>
       <c r="EP37" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="EQ37" s="15">
         <v>0.5</v>
       </c>
       <c r="ER37" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="ES37" s="15">
         <v>0.5</v>
@@ -29391,19 +29391,19 @@
       <c r="FB37" s="14"/>
       <c r="FC37" s="13"/>
       <c r="FD37" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="FE37" s="15">
         <v>0.5</v>
       </c>
       <c r="FF37" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="FG37" s="15">
         <v>0.5</v>
       </c>
       <c r="FH37" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="FI37" s="15">
         <v>0.5</v>
@@ -29725,9 +29725,9 @@
       <c r="RL37" s="14"/>
       <c r="RM37" s="13"/>
     </row>
-    <row r="38" spans="1:481" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:481" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C38" s="10">
         <f t="shared" ref="C38" si="4">SUM(F38:RL38)</f>
@@ -29851,7 +29851,7 @@
       <c r="DB38" s="14"/>
       <c r="DC38" s="13"/>
       <c r="DD38" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="DE38" s="13">
         <v>1</v>
@@ -29859,7 +29859,7 @@
       <c r="DF38" s="14"/>
       <c r="DG38" s="13"/>
       <c r="DH38" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="DI38" s="13">
         <v>1</v>
@@ -29876,7 +29876,7 @@
       <c r="DT38" s="14"/>
       <c r="DU38" s="13"/>
       <c r="DV38" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="DW38" s="13">
         <v>1</v>
@@ -29889,7 +29889,7 @@
       <c r="ED38" s="14"/>
       <c r="EE38" s="13"/>
       <c r="EF38" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="EG38" s="13">
         <v>1</v>
@@ -29897,7 +29897,7 @@
       <c r="EH38" s="14"/>
       <c r="EI38" s="13"/>
       <c r="EJ38" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="EK38" s="13">
         <v>1</v>
@@ -29910,7 +29910,7 @@
       <c r="ER38" s="14"/>
       <c r="ES38" s="13"/>
       <c r="ET38" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="EU38" s="13">
         <v>1</v>
@@ -29918,7 +29918,7 @@
       <c r="EV38" s="14"/>
       <c r="EW38" s="13"/>
       <c r="EX38" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="EY38" s="13">
         <v>1</v>
@@ -29931,7 +29931,7 @@
       <c r="FF38" s="14"/>
       <c r="FG38" s="13"/>
       <c r="FH38" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="FI38" s="13">
         <v>1</v>
@@ -29939,7 +29939,7 @@
       <c r="FJ38" s="14"/>
       <c r="FK38" s="13"/>
       <c r="FL38" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="FM38" s="13">
         <v>1</v>
@@ -29952,7 +29952,7 @@
       <c r="FT38" s="14"/>
       <c r="FU38" s="13"/>
       <c r="FV38" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="FW38" s="13">
         <v>1</v>
@@ -29960,7 +29960,7 @@
       <c r="FX38" s="14"/>
       <c r="FY38" s="13"/>
       <c r="FZ38" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="GA38" s="13">
         <v>1</v>
@@ -29973,7 +29973,7 @@
       <c r="GH38" s="14"/>
       <c r="GI38" s="13"/>
       <c r="GJ38" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="GK38" s="13">
         <v>1</v>
@@ -29981,7 +29981,7 @@
       <c r="GL38" s="14"/>
       <c r="GM38" s="13"/>
       <c r="GN38" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="GO38" s="13">
         <v>1</v>
@@ -29994,7 +29994,7 @@
       <c r="GV38" s="14"/>
       <c r="GW38" s="13"/>
       <c r="GX38" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="GY38" s="13">
         <v>1</v>
@@ -30002,7 +30002,7 @@
       <c r="GZ38" s="14"/>
       <c r="HA38" s="13"/>
       <c r="HB38" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="HC38" s="13">
         <v>1</v>
@@ -30015,7 +30015,7 @@
       <c r="HJ38" s="14"/>
       <c r="HK38" s="13"/>
       <c r="HL38" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="HM38" s="13">
         <v>1</v>
@@ -30023,7 +30023,7 @@
       <c r="HN38" s="14"/>
       <c r="HO38" s="13"/>
       <c r="HP38" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="HQ38" s="13">
         <v>1</v>
@@ -30036,7 +30036,7 @@
       <c r="HX38" s="14"/>
       <c r="HY38" s="13"/>
       <c r="HZ38" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="IA38" s="13">
         <v>1</v>
@@ -30044,7 +30044,7 @@
       <c r="IB38" s="14"/>
       <c r="IC38" s="13"/>
       <c r="ID38" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="IE38" s="13">
         <v>1</v>
@@ -30057,7 +30057,7 @@
       <c r="IL38" s="14"/>
       <c r="IM38" s="13"/>
       <c r="IN38" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="IO38" s="13">
         <v>1</v>
@@ -30065,7 +30065,7 @@
       <c r="IP38" s="14"/>
       <c r="IQ38" s="13"/>
       <c r="IR38" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="IS38" s="13">
         <v>1</v>
@@ -30282,7 +30282,7 @@
       <c r="RK38" s="13"/>
       <c r="RL38" s="14"/>
     </row>
-    <row r="39" spans="1:481" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:481" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="25"/>
       <c r="C39" s="10"/>
       <c r="D39" s="9"/>
@@ -30730,7 +30730,7 @@
       <c r="RK39" s="13"/>
       <c r="RL39" s="14"/>
     </row>
-    <row r="40" spans="1:481" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:481" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>19</v>
       </c>
@@ -31415,7 +31415,7 @@
       </c>
       <c r="RM40" s="17"/>
     </row>
-    <row r="41" spans="1:481" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:481" x14ac:dyDescent="0.25">
       <c r="F41" s="12" t="s">
         <v>12</v>
       </c>
@@ -32369,7 +32369,7 @@
       </c>
       <c r="RM41" s="17"/>
     </row>
-    <row r="42" spans="1:481" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:481" x14ac:dyDescent="0.25">
       <c r="F42" s="12" t="s">
         <v>14</v>
       </c>
@@ -33323,7 +33323,7 @@
       </c>
       <c r="RM42" s="17"/>
     </row>
-    <row r="43" spans="1:481" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:481" x14ac:dyDescent="0.25">
       <c r="G43" s="1"/>
       <c r="H43" s="28"/>
       <c r="J43" s="28"/>
@@ -33555,7 +33555,7 @@
         <v>0</v>
       </c>
       <c r="CV43" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CW43" s="13">
         <f t="shared" ref="CW43:CW60" si="43">COUNTIF(CV$5:CV$39,CV43)</f>
@@ -33566,21 +33566,21 @@
         <v>0</v>
       </c>
       <c r="CZ43" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="DA43" s="13">
         <f t="shared" ref="DA43:DA60" si="45">COUNTIF(CZ$5:CZ$39,CZ43)</f>
         <v>2</v>
       </c>
       <c r="DB43" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="DC43" s="13">
         <f t="shared" ref="DC43:DC60" si="46">COUNTIF(DB$5:DB$39,DB43)</f>
         <v>2</v>
       </c>
       <c r="DD43" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DE43" s="13">
         <f t="shared" ref="DE43:DE60" si="47">COUNTIF(DD$5:DD$39,DD43)</f>
@@ -33592,14 +33592,14 @@
         <v>0</v>
       </c>
       <c r="DH43" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="DI43" s="13">
         <f t="shared" ref="DI43:DI60" si="49">COUNTIF(DH$5:DH$39,DH43)</f>
         <v>2</v>
       </c>
       <c r="DJ43" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="DK43" s="13">
         <f t="shared" ref="DK43:DK60" si="50">COUNTIF(DJ$5:DJ$39,DJ43)</f>
@@ -33625,7 +33625,7 @@
         <v>2</v>
       </c>
       <c r="DR43" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="DS43" s="13">
         <f t="shared" ref="DS43:DS56" si="54">COUNTIF(DR$5:DR$39,DR43)</f>
@@ -33637,14 +33637,14 @@
         <v>0</v>
       </c>
       <c r="DV43" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="DW43" s="13">
         <f t="shared" ref="DW43:DW60" si="56">COUNTIF(DV$5:DV$39,DV43)</f>
         <v>2</v>
       </c>
       <c r="DX43" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="DY43" s="13">
         <f t="shared" ref="DY43:DY60" si="57">COUNTIF(DX$5:DX$39,DX43)</f>
@@ -33655,21 +33655,21 @@
         <v>0</v>
       </c>
       <c r="EB43" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="EC43" s="13">
         <f t="shared" ref="EC43:EC60" si="59">COUNTIF(EB$5:EB$39,EB43)</f>
         <v>2</v>
       </c>
       <c r="ED43" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="EE43" s="13">
         <f t="shared" ref="EE43:EE60" si="60">COUNTIF(ED$5:ED$39,ED43)</f>
         <v>2</v>
       </c>
       <c r="EF43" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EG43" s="13">
         <f t="shared" ref="EG43:EG60" si="61">COUNTIF(EF$5:EF$39,EF43)</f>
@@ -33680,14 +33680,14 @@
         <v>0</v>
       </c>
       <c r="EJ43" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="EK43" s="13">
         <f t="shared" ref="EK43:EK60" si="63">COUNTIF(EJ$5:EJ$39,EJ43)</f>
         <v>2</v>
       </c>
       <c r="EL43" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="EM43" s="13">
         <f t="shared" ref="EM43:EM60" si="64">COUNTIF(EL$5:EL$39,EL43)</f>
@@ -33698,21 +33698,21 @@
         <v>0</v>
       </c>
       <c r="EP43" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="EQ43" s="13">
         <f t="shared" ref="EQ43:EQ60" si="66">COUNTIF(EP$5:EP$39,EP43)</f>
         <v>2</v>
       </c>
       <c r="ER43" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="ES43" s="13">
         <f t="shared" ref="ES43:ES60" si="67">COUNTIF(ER$5:ER$39,ER43)</f>
         <v>2</v>
       </c>
       <c r="ET43" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EU43" s="13">
         <f t="shared" ref="EU43:EU60" si="68">COUNTIF(ET$5:ET$39,ET43)</f>
@@ -33723,14 +33723,14 @@
         <v>0</v>
       </c>
       <c r="EX43" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="EY43" s="13">
         <f t="shared" ref="EY43:EY60" si="70">COUNTIF(EX$5:EX$39,EX43)</f>
         <v>2</v>
       </c>
       <c r="EZ43" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="FA43" s="13">
         <f t="shared" ref="FA43:FA60" si="71">COUNTIF(EZ$5:EZ$39,EZ43)</f>
@@ -33741,21 +33741,21 @@
         <v>0</v>
       </c>
       <c r="FD43" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="FE43" s="13">
         <f t="shared" ref="FE43:FE60" si="73">COUNTIF(FD$5:FD$39,FD43)</f>
         <v>2</v>
       </c>
       <c r="FF43" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="FG43" s="13">
         <f t="shared" ref="FG43:FG60" si="74">COUNTIF(FF$5:FF$39,FF43)</f>
         <v>2</v>
       </c>
       <c r="FH43" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FI43" s="13">
         <f t="shared" ref="FI43:FI60" si="75">COUNTIF(FH$5:FH$39,FH43)</f>
@@ -33766,14 +33766,14 @@
         <v>0</v>
       </c>
       <c r="FL43" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="FM43" s="13">
         <f t="shared" ref="FM43:FM60" si="77">COUNTIF(FL$5:FL$39,FL43)</f>
         <v>0</v>
       </c>
       <c r="FN43" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="FO43" s="13">
         <f t="shared" ref="FO43:FO60" si="78">COUNTIF(FN$5:FN$39,FN43)</f>
@@ -33784,21 +33784,21 @@
         <v>0</v>
       </c>
       <c r="FR43" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="FS43" s="13">
         <f t="shared" ref="FS43:FS60" si="80">COUNTIF(FR$5:FR$39,FR43)</f>
         <v>0</v>
       </c>
       <c r="FT43" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="FU43" s="13">
         <f t="shared" ref="FU43:FU60" si="81">COUNTIF(FT$5:FT$39,FT43)</f>
         <v>0</v>
       </c>
       <c r="FV43" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FW43" s="13">
         <f t="shared" ref="FW43:FW60" si="82">COUNTIF(FV$5:FV$39,FV43)</f>
@@ -33809,14 +33809,14 @@
         <v>0</v>
       </c>
       <c r="FZ43" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="GA43" s="13">
         <f t="shared" ref="GA43:GA60" si="84">COUNTIF(FZ$5:FZ$39,FZ43)</f>
         <v>0</v>
       </c>
       <c r="GB43" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="GC43" s="13">
         <f t="shared" ref="GC43:GC60" si="85">COUNTIF(GB$5:GB$39,GB43)</f>
@@ -33827,21 +33827,21 @@
         <v>0</v>
       </c>
       <c r="GF43" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="GG43" s="13">
         <f t="shared" ref="GG43:GG60" si="87">COUNTIF(GF$5:GF$39,GF43)</f>
         <v>0</v>
       </c>
       <c r="GH43" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="GI43" s="13">
         <f t="shared" ref="GI43:GI60" si="88">COUNTIF(GH$5:GH$39,GH43)</f>
         <v>0</v>
       </c>
       <c r="GJ43" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="GK43" s="13">
         <f t="shared" ref="GK43:GK60" si="89">COUNTIF(GJ$5:GJ$39,GJ43)</f>
@@ -33852,14 +33852,14 @@
         <v>0</v>
       </c>
       <c r="GN43" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="GO43" s="13">
         <f t="shared" ref="GO43:GO60" si="91">COUNTIF(GN$5:GN$39,GN43)</f>
         <v>0</v>
       </c>
       <c r="GP43" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="GQ43" s="13">
         <f t="shared" ref="GQ43:GQ60" si="92">COUNTIF(GP$5:GP$39,GP43)</f>
@@ -33870,21 +33870,21 @@
         <v>0</v>
       </c>
       <c r="GT43" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="GU43" s="13">
         <f t="shared" ref="GU43:GU60" si="94">COUNTIF(GT$5:GT$39,GT43)</f>
         <v>0</v>
       </c>
       <c r="GV43" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="GW43" s="13">
         <f t="shared" ref="GW43:GW60" si="95">COUNTIF(GV$5:GV$39,GV43)</f>
         <v>0</v>
       </c>
       <c r="GX43" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="GY43" s="13">
         <f t="shared" ref="GY43:GY60" si="96">COUNTIF(GX$5:GX$39,GX43)</f>
@@ -33895,14 +33895,14 @@
         <v>0</v>
       </c>
       <c r="HB43" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="HC43" s="13">
         <f t="shared" ref="HC43:HC60" si="98">COUNTIF(HB$5:HB$39,HB43)</f>
         <v>0</v>
       </c>
       <c r="HD43" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="HE43" s="13">
         <f t="shared" ref="HE43:HE60" si="99">COUNTIF(HD$5:HD$39,HD43)</f>
@@ -33913,21 +33913,21 @@
         <v>0</v>
       </c>
       <c r="HH43" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="HI43" s="13">
         <f t="shared" ref="HI43:HI60" si="101">COUNTIF(HH$5:HH$39,HH43)</f>
         <v>0</v>
       </c>
       <c r="HJ43" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="HK43" s="13">
         <f t="shared" ref="HK43:HK60" si="102">COUNTIF(HJ$5:HJ$39,HJ43)</f>
         <v>0</v>
       </c>
       <c r="HL43" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="HM43" s="13">
         <f t="shared" ref="HM43:HM60" si="103">COUNTIF(HL$5:HL$39,HL43)</f>
@@ -33938,14 +33938,14 @@
         <v>0</v>
       </c>
       <c r="HP43" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="HQ43" s="13">
         <f t="shared" ref="HQ43:HQ60" si="105">COUNTIF(HP$5:HP$39,HP43)</f>
         <v>0</v>
       </c>
       <c r="HR43" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="HS43" s="13">
         <f t="shared" ref="HS43:HS60" si="106">COUNTIF(HR$5:HR$39,HR43)</f>
@@ -33956,21 +33956,21 @@
         <v>0</v>
       </c>
       <c r="HV43" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="HW43" s="13">
         <f t="shared" ref="HW43:HW60" si="108">COUNTIF(HV$5:HV$39,HV43)</f>
         <v>0</v>
       </c>
       <c r="HX43" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="HY43" s="13">
         <f t="shared" ref="HY43:HY60" si="109">COUNTIF(HX$5:HX$39,HX43)</f>
         <v>0</v>
       </c>
       <c r="HZ43" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="IA43" s="13">
         <f t="shared" ref="IA43:IA60" si="110">COUNTIF(HZ$5:HZ$39,HZ43)</f>
@@ -33981,14 +33981,14 @@
         <v>0</v>
       </c>
       <c r="ID43" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="IE43" s="13">
         <f t="shared" ref="IE43:IE60" si="112">COUNTIF(ID$5:ID$39,ID43)</f>
         <v>0</v>
       </c>
       <c r="IF43" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="IG43" s="13">
         <f t="shared" ref="IG43:IG60" si="113">COUNTIF(IF$5:IF$39,IF43)</f>
@@ -33999,21 +33999,21 @@
         <v>0</v>
       </c>
       <c r="IJ43" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="IK43" s="13">
         <f t="shared" ref="IK43:IK60" si="115">COUNTIF(IJ$5:IJ$39,IJ43)</f>
         <v>0</v>
       </c>
       <c r="IL43" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="IM43" s="13">
         <f t="shared" ref="IM43:IM60" si="116">COUNTIF(IL$5:IL$39,IL43)</f>
         <v>0</v>
       </c>
       <c r="IN43" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="IO43" s="13">
         <f t="shared" ref="IO43:IO60" si="117">COUNTIF(IN$5:IN$39,IN43)</f>
@@ -34024,14 +34024,14 @@
         <v>0</v>
       </c>
       <c r="IR43" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="IS43" s="13">
         <f t="shared" ref="IS43:IS60" si="119">COUNTIF(IR$5:IR$39,IR43)</f>
         <v>0</v>
       </c>
       <c r="IT43" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="IU43" s="13">
         <f t="shared" ref="IU43:IU60" si="120">COUNTIF(IT$5:IT$39,IT43)</f>
@@ -34126,7 +34126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:481" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:481" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>11</v>
       </c>
@@ -34372,21 +34372,21 @@
         <v>0</v>
       </c>
       <c r="CZ44" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DA44" s="13">
         <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="DB44" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="DC44" s="13">
         <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="DD44" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="DE44" s="13">
         <f t="shared" si="47"/>
@@ -34398,7 +34398,7 @@
         <v>0</v>
       </c>
       <c r="DH44" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="DI44" s="13">
         <f t="shared" si="49"/>
@@ -34429,7 +34429,7 @@
         <v>2</v>
       </c>
       <c r="DR44" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="DS44" s="13">
         <f t="shared" si="54"/>
@@ -34441,7 +34441,7 @@
         <v>0</v>
       </c>
       <c r="DV44" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DW44" s="13">
         <f t="shared" si="56"/>
@@ -34457,21 +34457,21 @@
         <v>0</v>
       </c>
       <c r="EB44" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="EC44" s="13">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
       <c r="ED44" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="EE44" s="13">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
       <c r="EF44" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="EG44" s="13">
         <f t="shared" si="61"/>
@@ -34483,7 +34483,7 @@
         <v>0</v>
       </c>
       <c r="EJ44" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="EK44" s="13">
         <f t="shared" si="63"/>
@@ -34499,21 +34499,21 @@
         <v>0</v>
       </c>
       <c r="EP44" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="EQ44" s="13">
         <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="ER44" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="ES44" s="13">
         <f t="shared" si="67"/>
         <v>2</v>
       </c>
       <c r="ET44" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="EU44" s="13">
         <f t="shared" si="68"/>
@@ -34525,7 +34525,7 @@
         <v>0</v>
       </c>
       <c r="EX44" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="EY44" s="13">
         <f t="shared" si="70"/>
@@ -34541,21 +34541,21 @@
         <v>0</v>
       </c>
       <c r="FD44" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="FE44" s="13">
         <f t="shared" si="73"/>
         <v>2</v>
       </c>
       <c r="FF44" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="FG44" s="13">
         <f t="shared" si="74"/>
         <v>2</v>
       </c>
       <c r="FH44" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="FI44" s="13">
         <f t="shared" si="75"/>
@@ -34567,7 +34567,7 @@
         <v>0</v>
       </c>
       <c r="FL44" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="FM44" s="13">
         <f t="shared" si="77"/>
@@ -34583,21 +34583,21 @@
         <v>0</v>
       </c>
       <c r="FR44" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="FS44" s="13">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="FT44" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="FU44" s="13">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="FV44" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="FW44" s="13">
         <f t="shared" si="82"/>
@@ -34609,7 +34609,7 @@
         <v>0</v>
       </c>
       <c r="FZ44" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="GA44" s="13">
         <f t="shared" si="84"/>
@@ -34625,21 +34625,21 @@
         <v>0</v>
       </c>
       <c r="GF44" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="GG44" s="13">
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="GH44" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="GI44" s="13">
         <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="GJ44" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="GK44" s="13">
         <f t="shared" si="89"/>
@@ -34651,7 +34651,7 @@
         <v>0</v>
       </c>
       <c r="GN44" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="GO44" s="13">
         <f t="shared" si="91"/>
@@ -34667,21 +34667,21 @@
         <v>0</v>
       </c>
       <c r="GT44" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="GU44" s="13">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="GV44" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="GW44" s="13">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="GX44" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="GY44" s="13">
         <f t="shared" si="96"/>
@@ -34693,7 +34693,7 @@
         <v>0</v>
       </c>
       <c r="HB44" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="HC44" s="13">
         <f t="shared" si="98"/>
@@ -34709,21 +34709,21 @@
         <v>0</v>
       </c>
       <c r="HH44" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="HI44" s="13">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="HJ44" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="HK44" s="13">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="HL44" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="HM44" s="13">
         <f t="shared" si="103"/>
@@ -34735,7 +34735,7 @@
         <v>0</v>
       </c>
       <c r="HP44" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="HQ44" s="13">
         <f t="shared" si="105"/>
@@ -34751,21 +34751,21 @@
         <v>0</v>
       </c>
       <c r="HV44" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="HW44" s="13">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="HX44" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="HY44" s="13">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="HZ44" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="IA44" s="13">
         <f t="shared" si="110"/>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="ID44" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="IE44" s="13">
         <f t="shared" si="112"/>
@@ -34793,21 +34793,21 @@
         <v>0</v>
       </c>
       <c r="IJ44" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="IK44" s="13">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="IL44" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="IM44" s="13">
         <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="IN44" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="IO44" s="13">
         <f t="shared" si="117"/>
@@ -34819,7 +34819,7 @@
         <v>0</v>
       </c>
       <c r="IR44" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="IS44" s="13">
         <f t="shared" si="119"/>
@@ -34919,7 +34919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:481" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:481" x14ac:dyDescent="0.25">
       <c r="B45" s="42">
         <v>1</v>
       </c>
@@ -35163,7 +35163,7 @@
         <v>0</v>
       </c>
       <c r="CZ45" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="DA45" s="13">
         <f t="shared" si="45"/>
@@ -35177,7 +35177,7 @@
         <v>1</v>
       </c>
       <c r="DD45" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="DE45" s="13">
         <f t="shared" si="47"/>
@@ -35211,14 +35211,14 @@
         <v>3</v>
       </c>
       <c r="DP45" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="DQ45" s="13">
         <f t="shared" si="53"/>
         <v>3</v>
       </c>
       <c r="DR45" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="DS45" s="13">
         <f t="shared" si="54"/>
@@ -35230,7 +35230,7 @@
         <v>0</v>
       </c>
       <c r="DV45" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="DW45" s="13">
         <f t="shared" si="56"/>
@@ -35246,21 +35246,21 @@
         <v>0</v>
       </c>
       <c r="EB45" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="EC45" s="13">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
       <c r="ED45" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="EE45" s="13">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
       <c r="EF45" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="EG45" s="13">
         <f t="shared" si="61"/>
@@ -35271,7 +35271,7 @@
         <v>0</v>
       </c>
       <c r="EJ45" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="EK45" s="13">
         <f t="shared" si="63"/>
@@ -35287,21 +35287,21 @@
         <v>0</v>
       </c>
       <c r="EP45" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="EQ45" s="13">
         <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="ER45" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="ES45" s="13">
         <f t="shared" si="67"/>
         <v>2</v>
       </c>
       <c r="ET45" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="EU45" s="13">
         <f t="shared" si="68"/>
@@ -35312,7 +35312,7 @@
         <v>0</v>
       </c>
       <c r="EX45" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="EY45" s="13">
         <f t="shared" si="70"/>
@@ -35328,21 +35328,21 @@
         <v>0</v>
       </c>
       <c r="FD45" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="FE45" s="13">
         <f t="shared" si="73"/>
         <v>2</v>
       </c>
       <c r="FF45" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="FG45" s="13">
         <f t="shared" si="74"/>
         <v>2</v>
       </c>
       <c r="FH45" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="FI45" s="13">
         <f t="shared" si="75"/>
@@ -35353,7 +35353,7 @@
         <v>0</v>
       </c>
       <c r="FL45" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="FM45" s="13">
         <f t="shared" si="77"/>
@@ -35369,21 +35369,21 @@
         <v>0</v>
       </c>
       <c r="FR45" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="FS45" s="13">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="FT45" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="FU45" s="13">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="FV45" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="FW45" s="13">
         <f t="shared" si="82"/>
@@ -35394,7 +35394,7 @@
         <v>0</v>
       </c>
       <c r="FZ45" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="GA45" s="13">
         <f t="shared" si="84"/>
@@ -35410,21 +35410,21 @@
         <v>0</v>
       </c>
       <c r="GF45" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="GG45" s="13">
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="GH45" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="GI45" s="13">
         <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="GJ45" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="GK45" s="13">
         <f t="shared" si="89"/>
@@ -35435,7 +35435,7 @@
         <v>0</v>
       </c>
       <c r="GN45" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="GO45" s="13">
         <f t="shared" si="91"/>
@@ -35451,21 +35451,21 @@
         <v>0</v>
       </c>
       <c r="GT45" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="GU45" s="13">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="GV45" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="GW45" s="13">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="GX45" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="GY45" s="13">
         <f t="shared" si="96"/>
@@ -35476,7 +35476,7 @@
         <v>0</v>
       </c>
       <c r="HB45" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="HC45" s="13">
         <f t="shared" si="98"/>
@@ -35492,21 +35492,21 @@
         <v>0</v>
       </c>
       <c r="HH45" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="HI45" s="13">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="HJ45" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="HK45" s="13">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="HL45" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="HM45" s="13">
         <f t="shared" si="103"/>
@@ -35517,7 +35517,7 @@
         <v>0</v>
       </c>
       <c r="HP45" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="HQ45" s="13">
         <f t="shared" si="105"/>
@@ -35533,21 +35533,21 @@
         <v>0</v>
       </c>
       <c r="HV45" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="HW45" s="13">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="HX45" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="HY45" s="13">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="HZ45" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="IA45" s="13">
         <f t="shared" si="110"/>
@@ -35558,7 +35558,7 @@
         <v>0</v>
       </c>
       <c r="ID45" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="IE45" s="13">
         <f t="shared" si="112"/>
@@ -35574,21 +35574,21 @@
         <v>0</v>
       </c>
       <c r="IJ45" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="IK45" s="13">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="IL45" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="IM45" s="13">
         <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="IN45" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="IO45" s="13">
         <f t="shared" si="117"/>
@@ -35599,7 +35599,7 @@
         <v>0</v>
       </c>
       <c r="IR45" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="IS45" s="13">
         <f t="shared" si="119"/>
@@ -35684,7 +35684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:481" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:481" x14ac:dyDescent="0.25">
       <c r="B46" s="42">
         <v>0.5</v>
       </c>
@@ -35787,7 +35787,7 @@
         <v>0</v>
       </c>
       <c r="BJ46" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BK46" s="4">
         <f t="shared" si="24"/>
@@ -35895,7 +35895,7 @@
         <v>0</v>
       </c>
       <c r="CZ46" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="DA46" s="13">
         <f t="shared" si="45"/>
@@ -35909,7 +35909,7 @@
         <v>1</v>
       </c>
       <c r="DD46" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="DE46" s="13">
         <f t="shared" si="47"/>
@@ -35946,7 +35946,7 @@
         <v>0</v>
       </c>
       <c r="DR46" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="DS46" s="13">
         <f t="shared" si="54"/>
@@ -35971,21 +35971,21 @@
         <v>0</v>
       </c>
       <c r="EB46" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="EC46" s="13">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
       <c r="ED46" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EE46" s="13">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
       <c r="EF46" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="EG46" s="13">
         <f t="shared" si="61"/>
@@ -36009,21 +36009,21 @@
         <v>0</v>
       </c>
       <c r="EP46" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="EQ46" s="13">
         <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="ER46" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="ES46" s="13">
         <f t="shared" si="67"/>
         <v>2</v>
       </c>
       <c r="ET46" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="EU46" s="13">
         <f t="shared" si="68"/>
@@ -36047,21 +36047,21 @@
         <v>0</v>
       </c>
       <c r="FD46" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="FE46" s="13">
         <f t="shared" si="73"/>
         <v>2</v>
       </c>
       <c r="FF46" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="FG46" s="13">
         <f t="shared" si="74"/>
         <v>2</v>
       </c>
       <c r="FH46" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="FI46" s="13">
         <f t="shared" si="75"/>
@@ -36085,21 +36085,21 @@
         <v>0</v>
       </c>
       <c r="FR46" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="FS46" s="13">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="FT46" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="FU46" s="13">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="FV46" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="FW46" s="13">
         <f t="shared" si="82"/>
@@ -36123,21 +36123,21 @@
         <v>0</v>
       </c>
       <c r="GF46" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="GG46" s="13">
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="GH46" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="GI46" s="13">
         <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="GJ46" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="GK46" s="13">
         <f t="shared" si="89"/>
@@ -36161,21 +36161,21 @@
         <v>0</v>
       </c>
       <c r="GT46" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="GU46" s="13">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="GV46" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="GW46" s="13">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="GX46" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="GY46" s="13">
         <f t="shared" si="96"/>
@@ -36199,21 +36199,21 @@
         <v>0</v>
       </c>
       <c r="HH46" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="HI46" s="13">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="HJ46" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="HK46" s="13">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="HL46" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="HM46" s="13">
         <f t="shared" si="103"/>
@@ -36237,21 +36237,21 @@
         <v>0</v>
       </c>
       <c r="HV46" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="HW46" s="13">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="HX46" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="HY46" s="13">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="HZ46" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="IA46" s="13">
         <f t="shared" si="110"/>
@@ -36275,21 +36275,21 @@
         <v>0</v>
       </c>
       <c r="IJ46" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="IK46" s="13">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="IL46" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="IM46" s="13">
         <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="IN46" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="IO46" s="13">
         <f t="shared" si="117"/>
@@ -36370,7 +36370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:481" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:481" x14ac:dyDescent="0.25">
       <c r="B47" s="42" t="s">
         <v>8</v>
       </c>
@@ -36579,7 +36579,7 @@
         <v>0</v>
       </c>
       <c r="CZ47" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="DA47" s="13">
         <f t="shared" si="45"/>
@@ -36593,7 +36593,7 @@
         <v>1</v>
       </c>
       <c r="DD47" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="DE47" s="13">
         <f t="shared" si="47"/>
@@ -36630,7 +36630,7 @@
         <v>0</v>
       </c>
       <c r="DR47" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="DS47" s="13">
         <f t="shared" si="54"/>
@@ -36655,7 +36655,7 @@
         <v>0</v>
       </c>
       <c r="EB47" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EC47" s="13">
         <f t="shared" si="59"/>
@@ -36669,7 +36669,7 @@
         <v>1</v>
       </c>
       <c r="EF47" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="EG47" s="13">
         <f t="shared" si="61"/>
@@ -36693,7 +36693,7 @@
         <v>0</v>
       </c>
       <c r="EP47" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EQ47" s="13">
         <f t="shared" si="66"/>
@@ -36707,7 +36707,7 @@
         <v>1</v>
       </c>
       <c r="ET47" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="EU47" s="13">
         <f t="shared" si="68"/>
@@ -36731,7 +36731,7 @@
         <v>0</v>
       </c>
       <c r="FD47" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="FE47" s="13">
         <f t="shared" si="73"/>
@@ -36745,7 +36745,7 @@
         <v>1</v>
       </c>
       <c r="FH47" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="FI47" s="13">
         <f t="shared" si="75"/>
@@ -36769,7 +36769,7 @@
         <v>0</v>
       </c>
       <c r="FR47" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="FS47" s="13">
         <f t="shared" si="80"/>
@@ -36783,7 +36783,7 @@
         <v>1</v>
       </c>
       <c r="FV47" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="FW47" s="13">
         <f t="shared" si="82"/>
@@ -36807,7 +36807,7 @@
         <v>0</v>
       </c>
       <c r="GF47" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="GG47" s="13">
         <f t="shared" si="87"/>
@@ -36821,7 +36821,7 @@
         <v>1</v>
       </c>
       <c r="GJ47" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="GK47" s="13">
         <f t="shared" si="89"/>
@@ -36845,7 +36845,7 @@
         <v>0</v>
       </c>
       <c r="GT47" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="GU47" s="13">
         <f t="shared" si="94"/>
@@ -36859,7 +36859,7 @@
         <v>1</v>
       </c>
       <c r="GX47" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="GY47" s="13">
         <f t="shared" si="96"/>
@@ -36883,7 +36883,7 @@
         <v>0</v>
       </c>
       <c r="HH47" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="HI47" s="13">
         <f t="shared" si="101"/>
@@ -36897,7 +36897,7 @@
         <v>1</v>
       </c>
       <c r="HL47" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="HM47" s="13">
         <f t="shared" si="103"/>
@@ -36921,7 +36921,7 @@
         <v>0</v>
       </c>
       <c r="HV47" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="HW47" s="13">
         <f t="shared" si="108"/>
@@ -36935,7 +36935,7 @@
         <v>1</v>
       </c>
       <c r="HZ47" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="IA47" s="13">
         <f t="shared" si="110"/>
@@ -36959,7 +36959,7 @@
         <v>0</v>
       </c>
       <c r="IJ47" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="IK47" s="13">
         <f t="shared" si="115"/>
@@ -36973,7 +36973,7 @@
         <v>1</v>
       </c>
       <c r="IN47" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="IO47" s="13">
         <f t="shared" si="117"/>
@@ -37052,7 +37052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:481" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:481" x14ac:dyDescent="0.25">
       <c r="B48" s="42" t="s">
         <v>9</v>
       </c>
@@ -37258,7 +37258,7 @@
         <v>0</v>
       </c>
       <c r="CZ48" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DA48" s="13">
         <f t="shared" si="45"/>
@@ -37328,7 +37328,7 @@
         <v>0</v>
       </c>
       <c r="EB48" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="EC48" s="13">
         <f t="shared" si="59"/>
@@ -37364,7 +37364,7 @@
         <v>0</v>
       </c>
       <c r="EP48" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="EQ48" s="13">
         <f t="shared" si="66"/>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="FD48" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="FE48" s="13">
         <f t="shared" si="73"/>
@@ -37436,7 +37436,7 @@
         <v>0</v>
       </c>
       <c r="FR48" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="FS48" s="13">
         <f t="shared" si="80"/>
@@ -37472,7 +37472,7 @@
         <v>0</v>
       </c>
       <c r="GF48" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="GG48" s="13">
         <f t="shared" si="87"/>
@@ -37508,7 +37508,7 @@
         <v>0</v>
       </c>
       <c r="GT48" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="GU48" s="13">
         <f t="shared" si="94"/>
@@ -37544,7 +37544,7 @@
         <v>0</v>
       </c>
       <c r="HH48" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="HI48" s="13">
         <f t="shared" si="101"/>
@@ -37580,7 +37580,7 @@
         <v>0</v>
       </c>
       <c r="HV48" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="HW48" s="13">
         <f t="shared" si="108"/>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="IJ48" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="IK48" s="13">
         <f t="shared" si="115"/>
@@ -37706,7 +37706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:481" x14ac:dyDescent="0.25">
       <c r="B49" s="42" t="s">
         <v>10</v>
       </c>
@@ -37905,7 +37905,7 @@
         <v>0</v>
       </c>
       <c r="CZ49" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="DA49" s="13">
         <f t="shared" si="45"/>
@@ -37975,7 +37975,7 @@
         <v>0</v>
       </c>
       <c r="EB49" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="EC49" s="13">
         <f t="shared" si="59"/>
@@ -38010,7 +38010,7 @@
         <v>0</v>
       </c>
       <c r="EP49" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="EQ49" s="13">
         <f t="shared" si="66"/>
@@ -38045,7 +38045,7 @@
         <v>0</v>
       </c>
       <c r="FD49" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="FE49" s="13">
         <f t="shared" si="73"/>
@@ -38080,7 +38080,7 @@
         <v>0</v>
       </c>
       <c r="FR49" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="FS49" s="13">
         <f t="shared" si="80"/>
@@ -38115,7 +38115,7 @@
         <v>0</v>
       </c>
       <c r="GF49" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="GG49" s="13">
         <f t="shared" si="87"/>
@@ -38150,7 +38150,7 @@
         <v>0</v>
       </c>
       <c r="GT49" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="GU49" s="13">
         <f t="shared" si="94"/>
@@ -38185,7 +38185,7 @@
         <v>0</v>
       </c>
       <c r="HH49" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="HI49" s="13">
         <f t="shared" si="101"/>
@@ -38220,7 +38220,7 @@
         <v>0</v>
       </c>
       <c r="HV49" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="HW49" s="13">
         <f t="shared" si="108"/>
@@ -38255,7 +38255,7 @@
         <v>0</v>
       </c>
       <c r="IJ49" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="IK49" s="13">
         <f t="shared" si="115"/>
@@ -38324,7 +38324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:481" x14ac:dyDescent="0.25">
       <c r="H50" s="28"/>
       <c r="S50" s="13">
         <f t="shared" si="5"/>
@@ -38523,7 +38523,7 @@
         <v>0</v>
       </c>
       <c r="CZ50" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="DA50" s="13">
         <f t="shared" si="45"/>
@@ -38593,14 +38593,14 @@
         <v>0</v>
       </c>
       <c r="EB50" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="EC50" s="13">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
       <c r="ED50" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="EE50" s="13">
         <f t="shared" si="60"/>
@@ -38628,14 +38628,14 @@
         <v>0</v>
       </c>
       <c r="EP50" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="EQ50" s="13">
         <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="ER50" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="ES50" s="13">
         <f t="shared" si="67"/>
@@ -38663,14 +38663,14 @@
         <v>0</v>
       </c>
       <c r="FD50" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="FE50" s="13">
         <f t="shared" si="73"/>
         <v>2</v>
       </c>
       <c r="FF50" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="FG50" s="13">
         <f t="shared" si="74"/>
@@ -38698,14 +38698,14 @@
         <v>0</v>
       </c>
       <c r="FR50" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="FS50" s="13">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="FT50" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="FU50" s="13">
         <f t="shared" si="81"/>
@@ -38733,14 +38733,14 @@
         <v>0</v>
       </c>
       <c r="GF50" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="GG50" s="13">
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="GH50" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="GI50" s="13">
         <f t="shared" si="88"/>
@@ -38768,14 +38768,14 @@
         <v>0</v>
       </c>
       <c r="GT50" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="GU50" s="13">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="GV50" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="GW50" s="13">
         <f t="shared" si="95"/>
@@ -38803,14 +38803,14 @@
         <v>0</v>
       </c>
       <c r="HH50" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="HI50" s="13">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="HJ50" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="HK50" s="13">
         <f t="shared" si="102"/>
@@ -38838,14 +38838,14 @@
         <v>0</v>
       </c>
       <c r="HV50" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="HW50" s="13">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="HX50" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="HY50" s="13">
         <f t="shared" si="109"/>
@@ -38873,14 +38873,14 @@
         <v>0</v>
       </c>
       <c r="IJ50" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="IK50" s="13">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="IL50" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="IM50" s="13">
         <f t="shared" si="116"/>
@@ -38942,7 +38942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:481" x14ac:dyDescent="0.25">
       <c r="F51" s="27"/>
       <c r="H51" s="28"/>
       <c r="S51" s="13">
@@ -39069,7 +39069,7 @@
         <v>0</v>
       </c>
       <c r="BX51" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BY51" s="13">
         <f t="shared" si="31"/>
@@ -39136,7 +39136,7 @@
         <v>0</v>
       </c>
       <c r="CZ51" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="DA51" s="13">
         <f t="shared" si="45"/>
@@ -39206,14 +39206,14 @@
         <v>0</v>
       </c>
       <c r="EB51" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="EC51" s="13">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
       <c r="ED51" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="EE51" s="13">
         <f t="shared" si="60"/>
@@ -39241,14 +39241,14 @@
         <v>0</v>
       </c>
       <c r="EP51" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="EQ51" s="13">
         <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="ER51" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="ES51" s="13">
         <f t="shared" si="67"/>
@@ -39276,14 +39276,14 @@
         <v>0</v>
       </c>
       <c r="FD51" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="FE51" s="13">
         <f t="shared" si="73"/>
         <v>2</v>
       </c>
       <c r="FF51" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="FG51" s="13">
         <f t="shared" si="74"/>
@@ -39311,14 +39311,14 @@
         <v>0</v>
       </c>
       <c r="FR51" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="FS51" s="13">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="FT51" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="FU51" s="13">
         <f t="shared" si="81"/>
@@ -39346,14 +39346,14 @@
         <v>0</v>
       </c>
       <c r="GF51" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="GG51" s="13">
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="GH51" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="GI51" s="13">
         <f t="shared" si="88"/>
@@ -39381,14 +39381,14 @@
         <v>0</v>
       </c>
       <c r="GT51" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="GU51" s="13">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="GV51" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="GW51" s="13">
         <f t="shared" si="95"/>
@@ -39416,14 +39416,14 @@
         <v>0</v>
       </c>
       <c r="HH51" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="HI51" s="13">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="HJ51" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="HK51" s="13">
         <f t="shared" si="102"/>
@@ -39451,14 +39451,14 @@
         <v>0</v>
       </c>
       <c r="HV51" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="HW51" s="13">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="HX51" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="HY51" s="13">
         <f t="shared" si="109"/>
@@ -39486,14 +39486,14 @@
         <v>0</v>
       </c>
       <c r="IJ51" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="IK51" s="13">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="IL51" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="IM51" s="13">
         <f t="shared" si="116"/>
@@ -39561,7 +39561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:481" x14ac:dyDescent="0.25">
       <c r="F52" s="27"/>
       <c r="H52" s="28"/>
       <c r="S52" s="13">
@@ -39820,14 +39820,14 @@
         <v>0</v>
       </c>
       <c r="EB52" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="EC52" s="13">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
       <c r="ED52" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="EE52" s="13">
         <f t="shared" si="60"/>
@@ -39855,14 +39855,14 @@
         <v>0</v>
       </c>
       <c r="EP52" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="EQ52" s="13">
         <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="ER52" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="ES52" s="13">
         <f t="shared" si="67"/>
@@ -39890,14 +39890,14 @@
         <v>0</v>
       </c>
       <c r="FD52" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="FE52" s="13">
         <f t="shared" si="73"/>
         <v>2</v>
       </c>
       <c r="FF52" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="FG52" s="13">
         <f t="shared" si="74"/>
@@ -39925,14 +39925,14 @@
         <v>0</v>
       </c>
       <c r="FR52" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="FS52" s="13">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="FT52" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="FU52" s="13">
         <f t="shared" si="81"/>
@@ -39960,14 +39960,14 @@
         <v>0</v>
       </c>
       <c r="GF52" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="GG52" s="13">
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="GH52" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="GI52" s="13">
         <f t="shared" si="88"/>
@@ -39995,14 +39995,14 @@
         <v>0</v>
       </c>
       <c r="GT52" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="GU52" s="13">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="GV52" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="GW52" s="13">
         <f t="shared" si="95"/>
@@ -40030,14 +40030,14 @@
         <v>0</v>
       </c>
       <c r="HH52" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="HI52" s="13">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="HJ52" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="HK52" s="13">
         <f t="shared" si="102"/>
@@ -40065,14 +40065,14 @@
         <v>0</v>
       </c>
       <c r="HV52" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="HW52" s="13">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="HX52" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="HY52" s="13">
         <f t="shared" si="109"/>
@@ -40100,14 +40100,14 @@
         <v>0</v>
       </c>
       <c r="IJ52" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="IK52" s="13">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="IL52" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="IM52" s="13">
         <f t="shared" si="116"/>
@@ -40175,7 +40175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:481" x14ac:dyDescent="0.25">
       <c r="H53" s="28"/>
       <c r="S53" s="13">
         <f t="shared" si="5"/>
@@ -40430,14 +40430,14 @@
         <v>0</v>
       </c>
       <c r="EB53" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="EC53" s="13">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
       <c r="ED53" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="EE53" s="13">
         <f t="shared" si="60"/>
@@ -40465,14 +40465,14 @@
         <v>0</v>
       </c>
       <c r="EP53" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="EQ53" s="13">
         <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="ER53" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="ES53" s="13">
         <f t="shared" si="67"/>
@@ -40500,14 +40500,14 @@
         <v>0</v>
       </c>
       <c r="FD53" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="FE53" s="13">
         <f t="shared" si="73"/>
         <v>2</v>
       </c>
       <c r="FF53" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="FG53" s="13">
         <f t="shared" si="74"/>
@@ -40535,14 +40535,14 @@
         <v>0</v>
       </c>
       <c r="FR53" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="FS53" s="13">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="FT53" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="FU53" s="13">
         <f t="shared" si="81"/>
@@ -40570,14 +40570,14 @@
         <v>0</v>
       </c>
       <c r="GF53" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="GG53" s="13">
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="GH53" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="GI53" s="13">
         <f t="shared" si="88"/>
@@ -40605,14 +40605,14 @@
         <v>0</v>
       </c>
       <c r="GT53" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="GU53" s="13">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="GV53" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="GW53" s="13">
         <f t="shared" si="95"/>
@@ -40640,14 +40640,14 @@
         <v>0</v>
       </c>
       <c r="HH53" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="HI53" s="13">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="HJ53" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="HK53" s="13">
         <f t="shared" si="102"/>
@@ -40675,14 +40675,14 @@
         <v>0</v>
       </c>
       <c r="HV53" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="HW53" s="13">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="HX53" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="HY53" s="13">
         <f t="shared" si="109"/>
@@ -40710,14 +40710,14 @@
         <v>0</v>
       </c>
       <c r="IJ53" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="IK53" s="13">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="IL53" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="IM53" s="13">
         <f t="shared" si="116"/>
@@ -40783,7 +40783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:481" x14ac:dyDescent="0.25">
       <c r="H54" s="28"/>
       <c r="S54" s="13">
         <f t="shared" si="5"/>
@@ -41038,14 +41038,14 @@
         <v>0</v>
       </c>
       <c r="EB54" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="EC54" s="13">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
       <c r="ED54" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="EE54" s="13">
         <f t="shared" si="60"/>
@@ -41073,14 +41073,14 @@
         <v>0</v>
       </c>
       <c r="EP54" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="EQ54" s="13">
         <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="ER54" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="ES54" s="13">
         <f t="shared" si="67"/>
@@ -41108,14 +41108,14 @@
         <v>0</v>
       </c>
       <c r="FD54" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="FE54" s="13">
         <f t="shared" si="73"/>
         <v>2</v>
       </c>
       <c r="FF54" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="FG54" s="13">
         <f t="shared" si="74"/>
@@ -41143,14 +41143,14 @@
         <v>0</v>
       </c>
       <c r="FR54" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="FS54" s="13">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="FT54" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="FU54" s="13">
         <f t="shared" si="81"/>
@@ -41178,14 +41178,14 @@
         <v>0</v>
       </c>
       <c r="GF54" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="GG54" s="13">
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="GH54" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="GI54" s="13">
         <f t="shared" si="88"/>
@@ -41213,14 +41213,14 @@
         <v>0</v>
       </c>
       <c r="GT54" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="GU54" s="13">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="GV54" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="GW54" s="13">
         <f t="shared" si="95"/>
@@ -41248,14 +41248,14 @@
         <v>0</v>
       </c>
       <c r="HH54" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="HI54" s="13">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="HJ54" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="HK54" s="13">
         <f t="shared" si="102"/>
@@ -41283,14 +41283,14 @@
         <v>0</v>
       </c>
       <c r="HV54" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="HW54" s="13">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="HX54" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="HY54" s="13">
         <f t="shared" si="109"/>
@@ -41318,14 +41318,14 @@
         <v>0</v>
       </c>
       <c r="IJ54" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="IK54" s="13">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="IL54" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="IM54" s="13">
         <f t="shared" si="116"/>
@@ -41391,7 +41391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:481" x14ac:dyDescent="0.25">
       <c r="H55" s="28"/>
       <c r="S55" s="13">
         <f t="shared" si="5"/>
@@ -41642,14 +41642,14 @@
         <v>0</v>
       </c>
       <c r="EB55" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="EC55" s="13">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
       <c r="ED55" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="EE55" s="13">
         <f t="shared" si="60"/>
@@ -41677,14 +41677,14 @@
         <v>0</v>
       </c>
       <c r="EP55" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="EQ55" s="13">
         <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="ER55" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="ES55" s="13">
         <f t="shared" si="67"/>
@@ -41712,14 +41712,14 @@
         <v>0</v>
       </c>
       <c r="FD55" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="FE55" s="13">
         <f t="shared" si="73"/>
         <v>2</v>
       </c>
       <c r="FF55" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="FG55" s="13">
         <f t="shared" si="74"/>
@@ -41747,14 +41747,14 @@
         <v>0</v>
       </c>
       <c r="FR55" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="FS55" s="13">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="FT55" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="FU55" s="13">
         <f t="shared" si="81"/>
@@ -41782,14 +41782,14 @@
         <v>0</v>
       </c>
       <c r="GF55" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="GG55" s="13">
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="GH55" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="GI55" s="13">
         <f t="shared" si="88"/>
@@ -41817,14 +41817,14 @@
         <v>0</v>
       </c>
       <c r="GT55" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="GU55" s="13">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="GV55" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="GW55" s="13">
         <f t="shared" si="95"/>
@@ -41852,14 +41852,14 @@
         <v>0</v>
       </c>
       <c r="HH55" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="HI55" s="13">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="HJ55" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="HK55" s="13">
         <f t="shared" si="102"/>
@@ -41887,14 +41887,14 @@
         <v>0</v>
       </c>
       <c r="HV55" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="HW55" s="13">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="HX55" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="HY55" s="13">
         <f t="shared" si="109"/>
@@ -41922,14 +41922,14 @@
         <v>0</v>
       </c>
       <c r="IJ55" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="IK55" s="13">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="IL55" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="IM55" s="13">
         <f t="shared" si="116"/>
@@ -41989,7 +41989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:481" x14ac:dyDescent="0.25">
       <c r="H56" s="28"/>
       <c r="S56" s="13">
         <f t="shared" si="5"/>
@@ -42244,7 +42244,7 @@
         <v>0</v>
       </c>
       <c r="ED56" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="EE56" s="13">
         <f t="shared" si="60"/>
@@ -42277,7 +42277,7 @@
         <v>0</v>
       </c>
       <c r="ER56" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="ES56" s="13">
         <f t="shared" si="67"/>
@@ -42310,7 +42310,7 @@
         <v>0</v>
       </c>
       <c r="FF56" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="FG56" s="13">
         <f t="shared" si="74"/>
@@ -42342,7 +42342,7 @@
         <v>0</v>
       </c>
       <c r="FT56" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="FU56" s="13">
         <f t="shared" si="81"/>
@@ -42374,7 +42374,7 @@
         <v>0</v>
       </c>
       <c r="GH56" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="GI56" s="13">
         <f t="shared" si="88"/>
@@ -42406,7 +42406,7 @@
         <v>0</v>
       </c>
       <c r="GV56" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="GW56" s="13">
         <f t="shared" si="95"/>
@@ -42438,7 +42438,7 @@
         <v>0</v>
       </c>
       <c r="HJ56" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="HK56" s="13">
         <f t="shared" si="102"/>
@@ -42470,7 +42470,7 @@
         <v>0</v>
       </c>
       <c r="HX56" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="HY56" s="13">
         <f t="shared" si="109"/>
@@ -42502,7 +42502,7 @@
         <v>0</v>
       </c>
       <c r="IL56" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="IM56" s="13">
         <f t="shared" si="116"/>
@@ -42562,7 +42562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:481" x14ac:dyDescent="0.25">
       <c r="H57" s="28"/>
       <c r="S57" s="13">
         <f t="shared" si="5"/>
@@ -43114,7 +43114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:481" x14ac:dyDescent="0.25">
       <c r="H58" s="4"/>
       <c r="S58" s="13">
         <f t="shared" si="5"/>
@@ -43649,7 +43649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:481" x14ac:dyDescent="0.25">
       <c r="H59" s="4"/>
       <c r="S59" s="13">
         <f t="shared" si="5"/>
@@ -44186,7 +44186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:481" x14ac:dyDescent="0.25">
       <c r="H60" s="4"/>
       <c r="S60" s="13">
         <f t="shared" si="5"/>
@@ -44723,7 +44723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:481" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>20</v>
       </c>
@@ -45499,7 +45499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:481" x14ac:dyDescent="0.25">
       <c r="NI62" s="1">
         <f>COUNTIF(NH$5:NH$39,NH57)</f>
         <v>0</v>
@@ -45529,7 +45529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:481" x14ac:dyDescent="0.25">
       <c r="NI63" s="1">
         <f>COUNTIF(NH$5:NH$39,NH58)</f>
         <v>0</v>
@@ -45543,7 +45543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:481" x14ac:dyDescent="0.25">
       <c r="NI64" s="1">
         <f>COUNTIF(NH$5:NH$39,NH59)</f>
         <v>0</v>
@@ -45557,7 +45557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="102:427" x14ac:dyDescent="0.3">
+    <row r="65" spans="102:427" x14ac:dyDescent="0.25">
       <c r="CX65" s="4">
         <f>COUNTA(CP43:CX60)</f>
         <v>73</v>
@@ -45611,21 +45611,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="102:427" x14ac:dyDescent="0.3">
+    <row r="66" spans="102:427" x14ac:dyDescent="0.25">
       <c r="PK66" s="4">
         <f t="shared" si="127"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="102:427" x14ac:dyDescent="0.3">
+    <row r="69" spans="102:427" x14ac:dyDescent="0.25">
       <c r="IR69" s="4">
         <f>SUM(CX65:IV65)</f>
         <v>1620</v>
       </c>
     </row>
-    <row r="70" spans="102:427" x14ac:dyDescent="0.3">
+    <row r="70" spans="102:427" x14ac:dyDescent="0.25">
       <c r="IP70" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="IR70" s="4">
         <v>-21</v>
@@ -45635,224 +45635,184 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="102:427" x14ac:dyDescent="0.3">
+    <row r="71" spans="102:427" x14ac:dyDescent="0.25">
       <c r="IP71" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="IR71" s="4">
         <v>-11</v>
       </c>
     </row>
-    <row r="72" spans="102:427" x14ac:dyDescent="0.3">
+    <row r="72" spans="102:427" x14ac:dyDescent="0.25">
       <c r="IR72" s="4">
         <f>SUM(IR69:IR71)</f>
         <v>1588</v>
       </c>
     </row>
-    <row r="74" spans="102:427" x14ac:dyDescent="0.3">
+    <row r="74" spans="102:427" x14ac:dyDescent="0.25">
       <c r="IP74" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="IR74" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="102:427" x14ac:dyDescent="0.3">
+    <row r="75" spans="102:427" x14ac:dyDescent="0.25">
       <c r="IP75" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="IR75" s="24">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="102:427" x14ac:dyDescent="0.3">
+    <row r="76" spans="102:427" x14ac:dyDescent="0.25">
       <c r="IP76" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="IR76" s="24">
         <v>290</v>
       </c>
     </row>
-    <row r="78" spans="102:427" x14ac:dyDescent="0.3">
+    <row r="78" spans="102:427" x14ac:dyDescent="0.25">
       <c r="IP78" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="IR78" s="24">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="102:427" x14ac:dyDescent="0.3">
+    <row r="79" spans="102:427" x14ac:dyDescent="0.25">
       <c r="IP79" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="IR79" s="24">
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="102:427" x14ac:dyDescent="0.3">
+    <row r="80" spans="102:427" x14ac:dyDescent="0.25">
       <c r="IP80" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="IR80" s="24">
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="4:252" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:252" x14ac:dyDescent="0.25">
       <c r="IP82" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="IR82" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="4:252" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:252" x14ac:dyDescent="0.25">
       <c r="IP83" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="IR83" s="24">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="4:252" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:252" x14ac:dyDescent="0.25">
       <c r="D84" s="11"/>
       <c r="E84" s="6"/>
       <c r="IP84" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="IR84" s="24">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="4:252" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:252" x14ac:dyDescent="0.25">
       <c r="D85" s="11"/>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" spans="4:252" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:252" x14ac:dyDescent="0.25">
       <c r="D86" s="11"/>
       <c r="E86" s="6"/>
       <c r="IP86" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="IR86" s="24">
         <v>340</v>
       </c>
     </row>
-    <row r="87" spans="4:252" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:252" x14ac:dyDescent="0.25">
       <c r="D87" s="11"/>
       <c r="E87" s="6"/>
     </row>
-    <row r="88" spans="4:252" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:252" x14ac:dyDescent="0.25">
       <c r="D88" s="11"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="4:252" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:252" x14ac:dyDescent="0.25">
       <c r="D89" s="11"/>
       <c r="E89" s="6"/>
     </row>
-    <row r="90" spans="4:252" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:252" x14ac:dyDescent="0.25">
       <c r="D90" s="11"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="4:252" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:252" x14ac:dyDescent="0.25">
       <c r="D91" s="11"/>
       <c r="E91" s="6"/>
     </row>
-    <row r="92" spans="4:252" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:252" x14ac:dyDescent="0.25">
       <c r="D92" s="11"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="4:252" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:252" x14ac:dyDescent="0.25">
       <c r="D93" s="11"/>
       <c r="E93" s="6"/>
     </row>
-    <row r="94" spans="4:252" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:252" x14ac:dyDescent="0.25">
       <c r="D94" s="11"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="4:252" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:252" x14ac:dyDescent="0.25">
       <c r="D95" s="11"/>
       <c r="E95" s="6"/>
     </row>
-    <row r="96" spans="4:252" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:252" x14ac:dyDescent="0.25">
       <c r="D96" s="11"/>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D97" s="11"/>
       <c r="E97" s="6"/>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D98" s="11"/>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D99" s="11"/>
       <c r="E99" s="6"/>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D100" s="11"/>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D101" s="11"/>
       <c r="E101" s="6"/>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D102" s="11"/>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D103" s="11"/>
       <c r="E103" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="IJ1:IW1"/>
-    <mergeCell ref="IJ2:IW2"/>
-    <mergeCell ref="GF2:GS2"/>
-    <mergeCell ref="GT2:HG2"/>
-    <mergeCell ref="HH2:HU2"/>
-    <mergeCell ref="HV2:II2"/>
-    <mergeCell ref="GF1:GS1"/>
-    <mergeCell ref="GT1:HG1"/>
-    <mergeCell ref="HH1:HU1"/>
-    <mergeCell ref="HV1:II1"/>
-    <mergeCell ref="FR2:GE2"/>
-    <mergeCell ref="EB1:EO1"/>
-    <mergeCell ref="EP1:FC1"/>
-    <mergeCell ref="FD1:FQ1"/>
-    <mergeCell ref="FR1:GE1"/>
-    <mergeCell ref="EB2:EO2"/>
-    <mergeCell ref="EP2:FC2"/>
-    <mergeCell ref="CZ1:DM1"/>
-    <mergeCell ref="DN1:EA1"/>
-    <mergeCell ref="AH1:AU1"/>
-    <mergeCell ref="AH2:AU2"/>
-    <mergeCell ref="FD2:FQ2"/>
-    <mergeCell ref="BX2:CK2"/>
-    <mergeCell ref="CL2:CY2"/>
-    <mergeCell ref="CZ2:DM2"/>
-    <mergeCell ref="DN2:EA2"/>
-    <mergeCell ref="CL1:CY1"/>
-    <mergeCell ref="AV1:BI1"/>
-    <mergeCell ref="BJ1:BW1"/>
-    <mergeCell ref="AV2:BI2"/>
-    <mergeCell ref="BJ2:BW2"/>
-    <mergeCell ref="F1:S1"/>
-    <mergeCell ref="F2:S2"/>
-    <mergeCell ref="T1:AG1"/>
-    <mergeCell ref="T2:AG2"/>
-    <mergeCell ref="BX1:CK1"/>
-    <mergeCell ref="IX1:JK1"/>
-    <mergeCell ref="JL1:JY1"/>
-    <mergeCell ref="JZ1:KM1"/>
-    <mergeCell ref="KN1:LA1"/>
-    <mergeCell ref="LB1:LO1"/>
-    <mergeCell ref="LP1:MC1"/>
-    <mergeCell ref="MD1:MQ1"/>
-    <mergeCell ref="MR1:NE1"/>
-    <mergeCell ref="NF1:NS1"/>
-    <mergeCell ref="NT1:OG1"/>
+    <mergeCell ref="QZ1:RM1"/>
+    <mergeCell ref="QZ2:RM2"/>
+    <mergeCell ref="PJ2:PW2"/>
+    <mergeCell ref="PX2:QK2"/>
+    <mergeCell ref="QL1:QY1"/>
+    <mergeCell ref="QL2:QY2"/>
     <mergeCell ref="OH1:OU1"/>
     <mergeCell ref="OV1:PI1"/>
     <mergeCell ref="PJ1:PW1"/>
@@ -45869,12 +45829,52 @@
     <mergeCell ref="NT2:OG2"/>
     <mergeCell ref="OH2:OU2"/>
     <mergeCell ref="OV2:PI2"/>
-    <mergeCell ref="QZ1:RM1"/>
-    <mergeCell ref="QZ2:RM2"/>
-    <mergeCell ref="PJ2:PW2"/>
-    <mergeCell ref="PX2:QK2"/>
-    <mergeCell ref="QL1:QY1"/>
-    <mergeCell ref="QL2:QY2"/>
+    <mergeCell ref="LP1:MC1"/>
+    <mergeCell ref="MD1:MQ1"/>
+    <mergeCell ref="MR1:NE1"/>
+    <mergeCell ref="NF1:NS1"/>
+    <mergeCell ref="NT1:OG1"/>
+    <mergeCell ref="IX1:JK1"/>
+    <mergeCell ref="JL1:JY1"/>
+    <mergeCell ref="JZ1:KM1"/>
+    <mergeCell ref="KN1:LA1"/>
+    <mergeCell ref="LB1:LO1"/>
+    <mergeCell ref="F1:S1"/>
+    <mergeCell ref="F2:S2"/>
+    <mergeCell ref="T1:AG1"/>
+    <mergeCell ref="T2:AG2"/>
+    <mergeCell ref="BX1:CK1"/>
+    <mergeCell ref="CZ1:DM1"/>
+    <mergeCell ref="DN1:EA1"/>
+    <mergeCell ref="AH1:AU1"/>
+    <mergeCell ref="AH2:AU2"/>
+    <mergeCell ref="FD2:FQ2"/>
+    <mergeCell ref="BX2:CK2"/>
+    <mergeCell ref="CL2:CY2"/>
+    <mergeCell ref="CZ2:DM2"/>
+    <mergeCell ref="DN2:EA2"/>
+    <mergeCell ref="CL1:CY1"/>
+    <mergeCell ref="AV1:BI1"/>
+    <mergeCell ref="BJ1:BW1"/>
+    <mergeCell ref="AV2:BI2"/>
+    <mergeCell ref="BJ2:BW2"/>
+    <mergeCell ref="FR2:GE2"/>
+    <mergeCell ref="EB1:EO1"/>
+    <mergeCell ref="EP1:FC1"/>
+    <mergeCell ref="FD1:FQ1"/>
+    <mergeCell ref="FR1:GE1"/>
+    <mergeCell ref="EB2:EO2"/>
+    <mergeCell ref="EP2:FC2"/>
+    <mergeCell ref="IJ1:IW1"/>
+    <mergeCell ref="IJ2:IW2"/>
+    <mergeCell ref="GF2:GS2"/>
+    <mergeCell ref="GT2:HG2"/>
+    <mergeCell ref="HH2:HU2"/>
+    <mergeCell ref="HV2:II2"/>
+    <mergeCell ref="GF1:GS1"/>
+    <mergeCell ref="GT1:HG1"/>
+    <mergeCell ref="HH1:HU1"/>
+    <mergeCell ref="HV1:II1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N46:N47 L43:L60 R43:R60 P46:P60 F43:F50 H47:H60 N49:N60 F53:F60 J45:J60 FR57:FR60 OH43:OH50 OV43:OV50 NH43:NH44 BZ59:BZ60 BL57:BL58 BL60 GH57:GH60 GF57:GF60 HH57:HH60 JZ43:JZ52 JZ55 MD43:MD52 MD55 MR43:MR52 MR55 NF43:NF52 NF55 HJ57:HJ60 MF43:MF48 MF52:MF55 PL54:PL57 PL59:PL60 BF46 BD47:BD60 BF48:BF60 DR43:DR56 DR59:DR60">
@@ -51126,7 +51126,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -51139,7 +51139,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -51152,7 +51152,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/RingetteSchedule/Master.xlsx
+++ b/RingetteSchedule/Master.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5FD913-ED27-4A42-BCFE-5701E0DEC20F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA98A16F-A794-4D36-82C8-C7CC3B4EA61D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="163" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="163" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisions" sheetId="7" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Season!$B:$B,Season!$3:$4</definedName>
-    <definedName name="Type">Season!$B$45:$B$49</definedName>
+    <definedName name="Type">Season!$B$45:$B$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="159">
   <si>
     <t>Sat</t>
   </si>
@@ -505,6 +505,12 @@
   <si>
     <t>Lasergirls (Alderwick)</t>
   </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T0.5</t>
+  </si>
 </sst>
 </file>
 
@@ -8593,12 +8599,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="94.109375" customWidth="1"/>
+    <col min="2" max="2" width="94.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>4</v>
       </c>
@@ -8606,7 +8612,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -8614,29 +8620,29 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>56</v>
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H6" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
     </row>
   </sheetData>
@@ -8654,499 +8660,499 @@
   <dimension ref="A1:RM103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="DB59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="FD26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="DD74" sqref="DD74"/>
+      <selection pane="bottomRight" activeCell="FU38" sqref="FU38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="4" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="11" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="12" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="12" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="18" style="4" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="5.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="5.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="15.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="3.6640625" style="13" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" style="12" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="3.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" style="12" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="3.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="16.5546875" style="4" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="4.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="18.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="16.44140625" style="4" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="4.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="16.5546875" style="4" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="3.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="16.88671875" style="4" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="3.6640625" style="13" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="18.88671875" style="12" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="4.5546875" style="4" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="17.109375" style="12" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="4.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="17.44140625" style="4" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="4.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="15.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="3.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="16.44140625" style="4" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="4.5546875" style="1" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="21.109375" style="4" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="4.5546875" style="1" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="18.109375" style="4" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="3.6640625" style="13" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="19.33203125" style="12" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="3.7109375" style="13" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="3.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="18.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="4.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="4.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="16.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="3.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="16.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="3.7109375" style="13" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="18.85546875" style="12" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="4.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="17.140625" style="12" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="4.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="17.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="4.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="15.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="3.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="16.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="4.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="21.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="4.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="18.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="3.7109375" style="13" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="19.28515625" style="12" hidden="1" customWidth="1"/>
     <col min="49" max="49" width="4" style="4" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="17.33203125" style="12" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="4.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="16.88671875" style="4" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="4.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="18.44140625" style="4" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="6.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="17.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="17.28515625" style="12" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="4.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="16.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="4.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="18.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="6.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="17.28515625" style="4" hidden="1" customWidth="1"/>
     <col min="57" max="57" width="5" style="1" hidden="1" customWidth="1"/>
     <col min="58" max="58" width="20" style="4" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="5.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="60" max="60" width="17.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="3.6640625" style="13" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="18.88671875" style="12" customWidth="1"/>
-    <col min="63" max="63" width="4.44140625" style="4" customWidth="1"/>
+    <col min="59" max="59" width="5.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="17.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="3.7109375" style="13" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="18.85546875" style="12" customWidth="1"/>
+    <col min="63" max="63" width="4.42578125" style="4" customWidth="1"/>
     <col min="64" max="64" width="18" style="12" customWidth="1"/>
-    <col min="65" max="65" width="4.109375" style="1" customWidth="1"/>
-    <col min="66" max="66" width="16.88671875" style="4" customWidth="1"/>
-    <col min="67" max="67" width="4.88671875" style="1" customWidth="1"/>
-    <col min="68" max="68" width="17.77734375" style="4" customWidth="1"/>
-    <col min="69" max="69" width="4.6640625" style="1" customWidth="1"/>
-    <col min="70" max="70" width="15.5546875" style="4" customWidth="1"/>
-    <col min="71" max="71" width="4.88671875" style="1" customWidth="1"/>
+    <col min="65" max="65" width="4.140625" style="1" customWidth="1"/>
+    <col min="66" max="66" width="16.85546875" style="4" customWidth="1"/>
+    <col min="67" max="67" width="4.85546875" style="1" customWidth="1"/>
+    <col min="68" max="68" width="17.7109375" style="4" customWidth="1"/>
+    <col min="69" max="69" width="4.7109375" style="1" customWidth="1"/>
+    <col min="70" max="70" width="15.5703125" style="4" customWidth="1"/>
+    <col min="71" max="71" width="4.85546875" style="1" customWidth="1"/>
     <col min="72" max="72" width="21" style="4" customWidth="1"/>
-    <col min="73" max="73" width="4.44140625" style="1" customWidth="1"/>
-    <col min="74" max="74" width="15.6640625" style="4" customWidth="1"/>
-    <col min="75" max="75" width="6.44140625" style="13" customWidth="1"/>
-    <col min="76" max="76" width="18.5546875" style="12" customWidth="1"/>
-    <col min="77" max="77" width="4.44140625" style="4" customWidth="1"/>
+    <col min="73" max="73" width="4.42578125" style="1" customWidth="1"/>
+    <col min="74" max="74" width="15.7109375" style="4" customWidth="1"/>
+    <col min="75" max="75" width="6.42578125" style="13" customWidth="1"/>
+    <col min="76" max="76" width="18.5703125" style="12" customWidth="1"/>
+    <col min="77" max="77" width="4.42578125" style="4" customWidth="1"/>
     <col min="78" max="78" width="19" style="12" customWidth="1"/>
-    <col min="79" max="79" width="4.5546875" style="1" customWidth="1"/>
+    <col min="79" max="79" width="4.5703125" style="1" customWidth="1"/>
     <col min="80" max="80" width="17" style="4" customWidth="1"/>
     <col min="81" max="81" width="5" style="1" customWidth="1"/>
-    <col min="82" max="82" width="16.77734375" style="4" customWidth="1"/>
-    <col min="83" max="83" width="5.44140625" style="1" customWidth="1"/>
-    <col min="84" max="84" width="16.88671875" style="4" customWidth="1"/>
-    <col min="85" max="85" width="4.5546875" style="1" customWidth="1"/>
-    <col min="86" max="86" width="17.44140625" style="4" customWidth="1"/>
-    <col min="87" max="87" width="4.5546875" style="1" customWidth="1"/>
-    <col min="88" max="88" width="17.44140625" style="4" customWidth="1"/>
-    <col min="89" max="89" width="4.88671875" style="13" customWidth="1"/>
-    <col min="90" max="90" width="19.77734375" style="12" customWidth="1"/>
+    <col min="82" max="82" width="16.7109375" style="4" customWidth="1"/>
+    <col min="83" max="83" width="5.42578125" style="1" customWidth="1"/>
+    <col min="84" max="84" width="16.85546875" style="4" customWidth="1"/>
+    <col min="85" max="85" width="4.5703125" style="1" customWidth="1"/>
+    <col min="86" max="86" width="17.42578125" style="4" customWidth="1"/>
+    <col min="87" max="87" width="4.5703125" style="1" customWidth="1"/>
+    <col min="88" max="88" width="17.42578125" style="4" customWidth="1"/>
+    <col min="89" max="89" width="4.85546875" style="13" customWidth="1"/>
+    <col min="90" max="90" width="19.7109375" style="12" customWidth="1"/>
     <col min="91" max="91" width="5" style="4" customWidth="1"/>
-    <col min="92" max="92" width="19.21875" style="12" customWidth="1"/>
-    <col min="93" max="93" width="5.88671875" style="1" customWidth="1"/>
-    <col min="94" max="94" width="18.44140625" style="4" customWidth="1"/>
-    <col min="95" max="95" width="4.5546875" style="1" customWidth="1"/>
-    <col min="96" max="96" width="17.109375" style="4" customWidth="1"/>
-    <col min="97" max="97" width="4.6640625" style="1" customWidth="1"/>
-    <col min="98" max="98" width="15.6640625" style="4" customWidth="1"/>
-    <col min="99" max="99" width="4.88671875" style="1" customWidth="1"/>
-    <col min="100" max="100" width="18.88671875" style="4" customWidth="1"/>
+    <col min="92" max="92" width="19.28515625" style="12" customWidth="1"/>
+    <col min="93" max="93" width="5.85546875" style="1" customWidth="1"/>
+    <col min="94" max="94" width="18.42578125" style="4" customWidth="1"/>
+    <col min="95" max="95" width="4.5703125" style="1" customWidth="1"/>
+    <col min="96" max="96" width="17.140625" style="4" customWidth="1"/>
+    <col min="97" max="97" width="4.7109375" style="1" customWidth="1"/>
+    <col min="98" max="98" width="15.7109375" style="4" customWidth="1"/>
+    <col min="99" max="99" width="4.85546875" style="1" customWidth="1"/>
+    <col min="100" max="100" width="18.85546875" style="4" customWidth="1"/>
     <col min="101" max="101" width="5" style="1" customWidth="1"/>
-    <col min="102" max="102" width="15.6640625" style="4" customWidth="1"/>
+    <col min="102" max="102" width="15.7109375" style="4" customWidth="1"/>
     <col min="103" max="103" width="7" style="13" customWidth="1"/>
-    <col min="104" max="104" width="18.44140625" style="12" customWidth="1"/>
+    <col min="104" max="104" width="18.42578125" style="12" customWidth="1"/>
     <col min="105" max="105" width="6" style="4" customWidth="1"/>
-    <col min="106" max="106" width="17.109375" style="12" customWidth="1"/>
-    <col min="107" max="107" width="4.88671875" style="1" customWidth="1"/>
-    <col min="108" max="108" width="15.6640625" style="4" customWidth="1"/>
-    <col min="109" max="109" width="5.21875" style="1" customWidth="1"/>
-    <col min="110" max="110" width="15.6640625" style="4" customWidth="1"/>
-    <col min="111" max="111" width="6.21875" style="1" customWidth="1"/>
-    <col min="112" max="112" width="15.6640625" style="4" customWidth="1"/>
-    <col min="113" max="113" width="5.109375" style="1" customWidth="1"/>
-    <col min="114" max="114" width="17.5546875" style="4" customWidth="1"/>
-    <col min="115" max="115" width="5.109375" style="1" customWidth="1"/>
-    <col min="116" max="116" width="15.6640625" style="4" customWidth="1"/>
-    <col min="117" max="117" width="5.21875" style="13" customWidth="1"/>
+    <col min="106" max="106" width="17.140625" style="12" customWidth="1"/>
+    <col min="107" max="107" width="4.85546875" style="1" customWidth="1"/>
+    <col min="108" max="108" width="15.7109375" style="4" customWidth="1"/>
+    <col min="109" max="109" width="5.28515625" style="1" customWidth="1"/>
+    <col min="110" max="110" width="15.7109375" style="4" customWidth="1"/>
+    <col min="111" max="111" width="6.28515625" style="1" customWidth="1"/>
+    <col min="112" max="112" width="15.7109375" style="4" customWidth="1"/>
+    <col min="113" max="113" width="5.140625" style="1" customWidth="1"/>
+    <col min="114" max="114" width="17.5703125" style="4" customWidth="1"/>
+    <col min="115" max="115" width="5.140625" style="1" customWidth="1"/>
+    <col min="116" max="116" width="15.7109375" style="4" customWidth="1"/>
+    <col min="117" max="117" width="5.28515625" style="13" customWidth="1"/>
     <col min="118" max="118" width="19" style="12" customWidth="1"/>
-    <col min="119" max="119" width="4.5546875" style="4" customWidth="1"/>
+    <col min="119" max="119" width="4.5703125" style="4" customWidth="1"/>
     <col min="120" max="120" width="24" style="12" customWidth="1"/>
-    <col min="121" max="121" width="4.44140625" style="1" customWidth="1"/>
-    <col min="122" max="122" width="19.21875" style="4" customWidth="1"/>
-    <col min="123" max="123" width="5.21875" style="1" customWidth="1"/>
-    <col min="124" max="124" width="15.6640625" style="4" customWidth="1"/>
-    <col min="125" max="125" width="5.6640625" style="1" customWidth="1"/>
-    <col min="126" max="126" width="15.6640625" style="4" customWidth="1"/>
+    <col min="121" max="121" width="4.42578125" style="1" customWidth="1"/>
+    <col min="122" max="122" width="19.28515625" style="4" customWidth="1"/>
+    <col min="123" max="123" width="5.28515625" style="1" customWidth="1"/>
+    <col min="124" max="124" width="15.7109375" style="4" customWidth="1"/>
+    <col min="125" max="125" width="5.7109375" style="1" customWidth="1"/>
+    <col min="126" max="126" width="15.7109375" style="4" customWidth="1"/>
     <col min="127" max="127" width="5" style="1" customWidth="1"/>
-    <col min="128" max="128" width="18.77734375" style="4" customWidth="1"/>
-    <col min="129" max="129" width="4.109375" style="1" customWidth="1"/>
-    <col min="130" max="130" width="15.6640625" style="4" customWidth="1"/>
-    <col min="131" max="131" width="5.109375" style="13" customWidth="1"/>
-    <col min="132" max="132" width="18.44140625" style="12" customWidth="1"/>
-    <col min="133" max="133" width="4.109375" style="4" customWidth="1"/>
-    <col min="134" max="134" width="23.33203125" style="12" customWidth="1"/>
-    <col min="135" max="135" width="4.44140625" style="1" customWidth="1"/>
-    <col min="136" max="136" width="15.6640625" style="4" customWidth="1"/>
-    <col min="137" max="137" width="4.88671875" style="1" customWidth="1"/>
-    <col min="138" max="138" width="15.6640625" style="4" customWidth="1"/>
-    <col min="139" max="139" width="3.6640625" style="1" customWidth="1"/>
-    <col min="140" max="140" width="15.6640625" style="4" customWidth="1"/>
-    <col min="141" max="141" width="4.5546875" style="1" customWidth="1"/>
-    <col min="142" max="142" width="17.44140625" style="4" customWidth="1"/>
-    <col min="143" max="143" width="4.33203125" style="1" customWidth="1"/>
-    <col min="144" max="144" width="15.6640625" style="4" customWidth="1"/>
-    <col min="145" max="145" width="3.6640625" style="13" customWidth="1"/>
-    <col min="146" max="146" width="19.33203125" style="12" customWidth="1"/>
-    <col min="147" max="147" width="4.109375" style="4" customWidth="1"/>
-    <col min="148" max="148" width="23.5546875" style="12" customWidth="1"/>
-    <col min="149" max="149" width="5.6640625" style="1" customWidth="1"/>
-    <col min="150" max="150" width="15.6640625" style="4" customWidth="1"/>
-    <col min="151" max="151" width="4.88671875" style="1" customWidth="1"/>
-    <col min="152" max="152" width="15.6640625" style="4" customWidth="1"/>
-    <col min="153" max="153" width="3.6640625" style="1" customWidth="1"/>
-    <col min="154" max="154" width="15.6640625" style="4" customWidth="1"/>
-    <col min="155" max="155" width="4.88671875" style="1" customWidth="1"/>
-    <col min="156" max="156" width="18.77734375" style="4" customWidth="1"/>
-    <col min="157" max="157" width="4.44140625" style="1" customWidth="1"/>
-    <col min="158" max="158" width="15.6640625" style="4" customWidth="1"/>
-    <col min="159" max="159" width="3.6640625" style="13" customWidth="1"/>
-    <col min="160" max="160" width="18.5546875" style="12" customWidth="1"/>
+    <col min="128" max="128" width="18.7109375" style="4" customWidth="1"/>
+    <col min="129" max="129" width="4.140625" style="1" customWidth="1"/>
+    <col min="130" max="130" width="15.7109375" style="4" customWidth="1"/>
+    <col min="131" max="131" width="5.140625" style="13" customWidth="1"/>
+    <col min="132" max="132" width="18.42578125" style="12" customWidth="1"/>
+    <col min="133" max="133" width="4.140625" style="4" customWidth="1"/>
+    <col min="134" max="134" width="23.28515625" style="12" customWidth="1"/>
+    <col min="135" max="135" width="4.42578125" style="1" customWidth="1"/>
+    <col min="136" max="136" width="15.7109375" style="4" customWidth="1"/>
+    <col min="137" max="137" width="4.85546875" style="1" customWidth="1"/>
+    <col min="138" max="138" width="15.7109375" style="4" customWidth="1"/>
+    <col min="139" max="139" width="3.7109375" style="1" customWidth="1"/>
+    <col min="140" max="140" width="15.7109375" style="4" customWidth="1"/>
+    <col min="141" max="141" width="4.5703125" style="1" customWidth="1"/>
+    <col min="142" max="142" width="17.42578125" style="4" customWidth="1"/>
+    <col min="143" max="143" width="4.28515625" style="1" customWidth="1"/>
+    <col min="144" max="144" width="15.7109375" style="4" customWidth="1"/>
+    <col min="145" max="145" width="3.7109375" style="13" customWidth="1"/>
+    <col min="146" max="146" width="19.28515625" style="12" customWidth="1"/>
+    <col min="147" max="147" width="4.140625" style="4" customWidth="1"/>
+    <col min="148" max="148" width="23.5703125" style="12" customWidth="1"/>
+    <col min="149" max="149" width="5.7109375" style="1" customWidth="1"/>
+    <col min="150" max="150" width="15.7109375" style="4" customWidth="1"/>
+    <col min="151" max="151" width="4.85546875" style="1" customWidth="1"/>
+    <col min="152" max="152" width="15.7109375" style="4" customWidth="1"/>
+    <col min="153" max="153" width="3.7109375" style="1" customWidth="1"/>
+    <col min="154" max="154" width="15.7109375" style="4" customWidth="1"/>
+    <col min="155" max="155" width="4.85546875" style="1" customWidth="1"/>
+    <col min="156" max="156" width="18.7109375" style="4" customWidth="1"/>
+    <col min="157" max="157" width="4.42578125" style="1" customWidth="1"/>
+    <col min="158" max="158" width="15.7109375" style="4" customWidth="1"/>
+    <col min="159" max="159" width="3.7109375" style="13" customWidth="1"/>
+    <col min="160" max="160" width="18.5703125" style="12" customWidth="1"/>
     <col min="161" max="161" width="5" style="4" customWidth="1"/>
-    <col min="162" max="162" width="23.88671875" style="12" customWidth="1"/>
-    <col min="163" max="163" width="5.33203125" style="1" customWidth="1"/>
-    <col min="164" max="164" width="15.6640625" style="4" customWidth="1"/>
-    <col min="165" max="165" width="5.21875" style="1" customWidth="1"/>
-    <col min="166" max="166" width="15.6640625" style="4" customWidth="1"/>
-    <col min="167" max="167" width="3.6640625" style="1" customWidth="1"/>
-    <col min="168" max="168" width="15.6640625" style="4" customWidth="1"/>
-    <col min="169" max="169" width="4.5546875" style="1" customWidth="1"/>
-    <col min="170" max="170" width="17.5546875" style="4" customWidth="1"/>
+    <col min="162" max="162" width="23.85546875" style="12" customWidth="1"/>
+    <col min="163" max="163" width="5.28515625" style="1" customWidth="1"/>
+    <col min="164" max="164" width="15.7109375" style="4" customWidth="1"/>
+    <col min="165" max="165" width="5.28515625" style="1" customWidth="1"/>
+    <col min="166" max="166" width="15.7109375" style="4" customWidth="1"/>
+    <col min="167" max="167" width="3.7109375" style="1" customWidth="1"/>
+    <col min="168" max="168" width="15.7109375" style="4" customWidth="1"/>
+    <col min="169" max="169" width="4.5703125" style="1" customWidth="1"/>
+    <col min="170" max="170" width="17.5703125" style="4" customWidth="1"/>
     <col min="171" max="171" width="5" style="1" customWidth="1"/>
-    <col min="172" max="172" width="15.6640625" style="4" customWidth="1"/>
-    <col min="173" max="173" width="3.6640625" style="13" customWidth="1"/>
-    <col min="174" max="174" width="18.44140625" style="12" customWidth="1"/>
-    <col min="175" max="175" width="5.109375" style="4" customWidth="1"/>
+    <col min="172" max="172" width="15.7109375" style="4" customWidth="1"/>
+    <col min="173" max="173" width="3.7109375" style="13" customWidth="1"/>
+    <col min="174" max="174" width="18.42578125" style="12" customWidth="1"/>
+    <col min="175" max="175" width="5.140625" style="4" customWidth="1"/>
     <col min="176" max="176" width="23" style="12" customWidth="1"/>
-    <col min="177" max="177" width="4.5546875" style="1" customWidth="1"/>
-    <col min="178" max="178" width="15.6640625" style="4" customWidth="1"/>
-    <col min="179" max="179" width="3.6640625" style="1" customWidth="1"/>
-    <col min="180" max="180" width="15.6640625" style="4" customWidth="1"/>
-    <col min="181" max="181" width="3.6640625" style="1" customWidth="1"/>
-    <col min="182" max="182" width="15.6640625" style="4" customWidth="1"/>
-    <col min="183" max="183" width="4.44140625" style="1" customWidth="1"/>
-    <col min="184" max="184" width="17.109375" style="4" customWidth="1"/>
-    <col min="185" max="185" width="4.6640625" style="1" customWidth="1"/>
-    <col min="186" max="186" width="17.33203125" style="4" customWidth="1"/>
-    <col min="187" max="187" width="3.6640625" style="13" customWidth="1"/>
-    <col min="188" max="188" width="19.109375" style="12" customWidth="1"/>
-    <col min="189" max="189" width="4.88671875" style="4" customWidth="1"/>
-    <col min="190" max="190" width="23.6640625" style="12" customWidth="1"/>
-    <col min="191" max="191" width="4.44140625" style="1" customWidth="1"/>
-    <col min="192" max="192" width="15.6640625" style="4" customWidth="1"/>
-    <col min="193" max="193" width="3.6640625" style="1" customWidth="1"/>
-    <col min="194" max="194" width="15.6640625" style="4" customWidth="1"/>
-    <col min="195" max="195" width="3.6640625" style="1" customWidth="1"/>
-    <col min="196" max="196" width="15.6640625" style="4" customWidth="1"/>
+    <col min="177" max="177" width="4.5703125" style="1" customWidth="1"/>
+    <col min="178" max="178" width="15.7109375" style="4" customWidth="1"/>
+    <col min="179" max="179" width="3.7109375" style="1" customWidth="1"/>
+    <col min="180" max="180" width="15.7109375" style="4" customWidth="1"/>
+    <col min="181" max="181" width="3.7109375" style="1" customWidth="1"/>
+    <col min="182" max="182" width="15.7109375" style="4" customWidth="1"/>
+    <col min="183" max="183" width="4.42578125" style="1" customWidth="1"/>
+    <col min="184" max="184" width="17.140625" style="4" customWidth="1"/>
+    <col min="185" max="185" width="4.7109375" style="1" customWidth="1"/>
+    <col min="186" max="186" width="17.28515625" style="4" customWidth="1"/>
+    <col min="187" max="187" width="3.7109375" style="13" customWidth="1"/>
+    <col min="188" max="188" width="19.140625" style="12" customWidth="1"/>
+    <col min="189" max="189" width="4.85546875" style="4" customWidth="1"/>
+    <col min="190" max="190" width="23.7109375" style="12" customWidth="1"/>
+    <col min="191" max="191" width="4.42578125" style="1" customWidth="1"/>
+    <col min="192" max="192" width="15.7109375" style="4" customWidth="1"/>
+    <col min="193" max="193" width="3.7109375" style="1" customWidth="1"/>
+    <col min="194" max="194" width="15.7109375" style="4" customWidth="1"/>
+    <col min="195" max="195" width="3.7109375" style="1" customWidth="1"/>
+    <col min="196" max="196" width="15.7109375" style="4" customWidth="1"/>
     <col min="197" max="197" width="5" style="1" customWidth="1"/>
-    <col min="198" max="198" width="19.33203125" style="4" customWidth="1"/>
-    <col min="199" max="199" width="5.33203125" style="1" customWidth="1"/>
-    <col min="200" max="200" width="15.6640625" style="4" customWidth="1"/>
-    <col min="201" max="201" width="3.6640625" style="13" customWidth="1"/>
-    <col min="202" max="202" width="19.6640625" style="12" customWidth="1"/>
-    <col min="203" max="203" width="5.21875" style="4" customWidth="1"/>
-    <col min="204" max="204" width="23.5546875" style="12" customWidth="1"/>
-    <col min="205" max="205" width="5.44140625" style="1" customWidth="1"/>
-    <col min="206" max="206" width="15.6640625" style="4" customWidth="1"/>
-    <col min="207" max="207" width="3.6640625" style="1" customWidth="1"/>
-    <col min="208" max="208" width="15.6640625" style="4" customWidth="1"/>
-    <col min="209" max="209" width="3.6640625" style="1" customWidth="1"/>
-    <col min="210" max="210" width="15.6640625" style="4" customWidth="1"/>
-    <col min="211" max="211" width="4.44140625" style="1" customWidth="1"/>
-    <col min="212" max="212" width="16.33203125" style="4" customWidth="1"/>
+    <col min="198" max="198" width="19.28515625" style="4" customWidth="1"/>
+    <col min="199" max="199" width="5.28515625" style="1" customWidth="1"/>
+    <col min="200" max="200" width="15.7109375" style="4" customWidth="1"/>
+    <col min="201" max="201" width="3.7109375" style="13" customWidth="1"/>
+    <col min="202" max="202" width="19.7109375" style="12" customWidth="1"/>
+    <col min="203" max="203" width="5.28515625" style="4" customWidth="1"/>
+    <col min="204" max="204" width="23.5703125" style="12" customWidth="1"/>
+    <col min="205" max="205" width="5.42578125" style="1" customWidth="1"/>
+    <col min="206" max="206" width="15.7109375" style="4" customWidth="1"/>
+    <col min="207" max="207" width="3.7109375" style="1" customWidth="1"/>
+    <col min="208" max="208" width="15.7109375" style="4" customWidth="1"/>
+    <col min="209" max="209" width="3.7109375" style="1" customWidth="1"/>
+    <col min="210" max="210" width="15.7109375" style="4" customWidth="1"/>
+    <col min="211" max="211" width="4.42578125" style="1" customWidth="1"/>
+    <col min="212" max="212" width="16.28515625" style="4" customWidth="1"/>
     <col min="213" max="213" width="5" style="1" customWidth="1"/>
-    <col min="214" max="214" width="15.6640625" style="4" customWidth="1"/>
-    <col min="215" max="215" width="3.6640625" style="13" customWidth="1"/>
+    <col min="214" max="214" width="15.7109375" style="4" customWidth="1"/>
+    <col min="215" max="215" width="3.7109375" style="13" customWidth="1"/>
     <col min="216" max="216" width="19" style="12" customWidth="1"/>
-    <col min="217" max="217" width="5.88671875" style="4" customWidth="1"/>
-    <col min="218" max="218" width="23.6640625" style="12" customWidth="1"/>
-    <col min="219" max="219" width="4.5546875" style="1" customWidth="1"/>
-    <col min="220" max="220" width="15.6640625" style="4" customWidth="1"/>
-    <col min="221" max="221" width="3.6640625" style="1" customWidth="1"/>
-    <col min="222" max="222" width="15.6640625" style="4" customWidth="1"/>
-    <col min="223" max="223" width="3.6640625" style="1" customWidth="1"/>
-    <col min="224" max="224" width="15.6640625" style="4" customWidth="1"/>
-    <col min="225" max="225" width="4.44140625" style="1" customWidth="1"/>
-    <col min="226" max="226" width="17.109375" style="4" customWidth="1"/>
-    <col min="227" max="227" width="5.5546875" style="1" customWidth="1"/>
-    <col min="228" max="228" width="15.6640625" style="4" customWidth="1"/>
-    <col min="229" max="229" width="3.6640625" style="13" customWidth="1"/>
-    <col min="230" max="230" width="18.33203125" style="12" customWidth="1"/>
-    <col min="231" max="231" width="5.109375" style="4" customWidth="1"/>
-    <col min="232" max="232" width="23.44140625" style="12" customWidth="1"/>
-    <col min="233" max="233" width="4.44140625" style="1" customWidth="1"/>
-    <col min="234" max="234" width="15.6640625" style="4" customWidth="1"/>
-    <col min="235" max="235" width="5.21875" style="1" customWidth="1"/>
-    <col min="236" max="236" width="15.6640625" style="4" customWidth="1"/>
-    <col min="237" max="237" width="3.6640625" style="1" customWidth="1"/>
-    <col min="238" max="238" width="15.6640625" style="4" customWidth="1"/>
+    <col min="217" max="217" width="5.85546875" style="4" customWidth="1"/>
+    <col min="218" max="218" width="23.7109375" style="12" customWidth="1"/>
+    <col min="219" max="219" width="4.5703125" style="1" customWidth="1"/>
+    <col min="220" max="220" width="15.7109375" style="4" customWidth="1"/>
+    <col min="221" max="221" width="3.7109375" style="1" customWidth="1"/>
+    <col min="222" max="222" width="15.7109375" style="4" customWidth="1"/>
+    <col min="223" max="223" width="3.7109375" style="1" customWidth="1"/>
+    <col min="224" max="224" width="15.7109375" style="4" customWidth="1"/>
+    <col min="225" max="225" width="4.42578125" style="1" customWidth="1"/>
+    <col min="226" max="226" width="17.140625" style="4" customWidth="1"/>
+    <col min="227" max="227" width="5.5703125" style="1" customWidth="1"/>
+    <col min="228" max="228" width="15.7109375" style="4" customWidth="1"/>
+    <col min="229" max="229" width="3.7109375" style="13" customWidth="1"/>
+    <col min="230" max="230" width="18.28515625" style="12" customWidth="1"/>
+    <col min="231" max="231" width="5.140625" style="4" customWidth="1"/>
+    <col min="232" max="232" width="23.42578125" style="12" customWidth="1"/>
+    <col min="233" max="233" width="4.42578125" style="1" customWidth="1"/>
+    <col min="234" max="234" width="15.7109375" style="4" customWidth="1"/>
+    <col min="235" max="235" width="5.28515625" style="1" customWidth="1"/>
+    <col min="236" max="236" width="15.7109375" style="4" customWidth="1"/>
+    <col min="237" max="237" width="3.7109375" style="1" customWidth="1"/>
+    <col min="238" max="238" width="15.7109375" style="4" customWidth="1"/>
     <col min="239" max="239" width="5" style="1" customWidth="1"/>
     <col min="240" max="240" width="20" style="4" customWidth="1"/>
-    <col min="241" max="241" width="5.21875" style="1" customWidth="1"/>
-    <col min="242" max="242" width="15.6640625" style="4" customWidth="1"/>
-    <col min="243" max="243" width="3.6640625" style="13" customWidth="1"/>
+    <col min="241" max="241" width="5.28515625" style="1" customWidth="1"/>
+    <col min="242" max="242" width="15.7109375" style="4" customWidth="1"/>
+    <col min="243" max="243" width="3.7109375" style="13" customWidth="1"/>
     <col min="244" max="244" width="19" style="12" customWidth="1"/>
-    <col min="245" max="245" width="5.77734375" style="4" customWidth="1"/>
-    <col min="246" max="246" width="23.33203125" style="12" customWidth="1"/>
-    <col min="247" max="247" width="6.33203125" style="1" customWidth="1"/>
-    <col min="248" max="248" width="19.44140625" style="4" customWidth="1"/>
+    <col min="245" max="245" width="5.7109375" style="4" customWidth="1"/>
+    <col min="246" max="246" width="23.28515625" style="12" customWidth="1"/>
+    <col min="247" max="247" width="6.28515625" style="1" customWidth="1"/>
+    <col min="248" max="248" width="19.42578125" style="4" customWidth="1"/>
     <col min="249" max="249" width="5" style="1" customWidth="1"/>
-    <col min="250" max="250" width="15.6640625" style="4" customWidth="1"/>
-    <col min="251" max="251" width="3.6640625" style="1" customWidth="1"/>
-    <col min="252" max="252" width="17.6640625" style="4" customWidth="1"/>
-    <col min="253" max="253" width="4.44140625" style="1" customWidth="1"/>
-    <col min="254" max="254" width="18.44140625" style="4" customWidth="1"/>
-    <col min="255" max="255" width="3.6640625" style="1" customWidth="1"/>
-    <col min="256" max="256" width="15.6640625" style="4" customWidth="1"/>
-    <col min="257" max="257" width="3.6640625" style="13"/>
-    <col min="258" max="258" width="18.44140625" style="12" customWidth="1"/>
-    <col min="259" max="259" width="4.44140625" style="4" customWidth="1"/>
+    <col min="250" max="250" width="15.7109375" style="4" customWidth="1"/>
+    <col min="251" max="251" width="3.7109375" style="1" customWidth="1"/>
+    <col min="252" max="252" width="17.7109375" style="4" customWidth="1"/>
+    <col min="253" max="253" width="4.42578125" style="1" customWidth="1"/>
+    <col min="254" max="254" width="18.42578125" style="4" customWidth="1"/>
+    <col min="255" max="255" width="3.7109375" style="1" customWidth="1"/>
+    <col min="256" max="256" width="15.7109375" style="4" customWidth="1"/>
+    <col min="257" max="257" width="3.7109375" style="13"/>
+    <col min="258" max="258" width="18.42578125" style="12" customWidth="1"/>
+    <col min="259" max="259" width="4.42578125" style="4" customWidth="1"/>
     <col min="260" max="260" width="20" style="12" customWidth="1"/>
-    <col min="261" max="261" width="5.33203125" style="1" customWidth="1"/>
-    <col min="262" max="262" width="15.6640625" style="4" customWidth="1"/>
-    <col min="263" max="263" width="3.6640625" style="1" customWidth="1"/>
-    <col min="264" max="264" width="15.6640625" style="4" customWidth="1"/>
-    <col min="265" max="265" width="3.6640625" style="1" customWidth="1"/>
-    <col min="266" max="266" width="15.6640625" style="4" customWidth="1"/>
-    <col min="267" max="267" width="4.88671875" style="1" customWidth="1"/>
-    <col min="268" max="268" width="16.6640625" style="4" customWidth="1"/>
-    <col min="269" max="269" width="3.88671875" style="1" customWidth="1"/>
-    <col min="270" max="270" width="15.6640625" style="4" customWidth="1"/>
-    <col min="271" max="271" width="3.6640625" style="13" customWidth="1"/>
-    <col min="272" max="272" width="19.6640625" style="12" customWidth="1"/>
-    <col min="273" max="273" width="4.6640625" style="4" customWidth="1"/>
+    <col min="261" max="261" width="5.28515625" style="1" customWidth="1"/>
+    <col min="262" max="262" width="15.7109375" style="4" customWidth="1"/>
+    <col min="263" max="263" width="3.7109375" style="1" customWidth="1"/>
+    <col min="264" max="264" width="15.7109375" style="4" customWidth="1"/>
+    <col min="265" max="265" width="3.7109375" style="1" customWidth="1"/>
+    <col min="266" max="266" width="15.7109375" style="4" customWidth="1"/>
+    <col min="267" max="267" width="4.85546875" style="1" customWidth="1"/>
+    <col min="268" max="268" width="16.7109375" style="4" customWidth="1"/>
+    <col min="269" max="269" width="3.85546875" style="1" customWidth="1"/>
+    <col min="270" max="270" width="15.7109375" style="4" customWidth="1"/>
+    <col min="271" max="271" width="3.7109375" style="13" customWidth="1"/>
+    <col min="272" max="272" width="19.7109375" style="12" customWidth="1"/>
+    <col min="273" max="273" width="4.7109375" style="4" customWidth="1"/>
     <col min="274" max="274" width="24" style="12" customWidth="1"/>
-    <col min="275" max="275" width="4.88671875" style="1" customWidth="1"/>
-    <col min="276" max="276" width="15.6640625" style="4" customWidth="1"/>
-    <col min="277" max="277" width="3.6640625" style="1" customWidth="1"/>
-    <col min="278" max="278" width="15.6640625" style="4" customWidth="1"/>
-    <col min="279" max="279" width="3.6640625" style="1" customWidth="1"/>
-    <col min="280" max="280" width="15.6640625" style="4" customWidth="1"/>
+    <col min="275" max="275" width="4.85546875" style="1" customWidth="1"/>
+    <col min="276" max="276" width="15.7109375" style="4" customWidth="1"/>
+    <col min="277" max="277" width="3.7109375" style="1" customWidth="1"/>
+    <col min="278" max="278" width="15.7109375" style="4" customWidth="1"/>
+    <col min="279" max="279" width="3.7109375" style="1" customWidth="1"/>
+    <col min="280" max="280" width="15.7109375" style="4" customWidth="1"/>
     <col min="281" max="281" width="5" style="1" customWidth="1"/>
     <col min="282" max="282" width="17" style="4" customWidth="1"/>
-    <col min="283" max="283" width="4.6640625" style="1" customWidth="1"/>
-    <col min="284" max="284" width="15.6640625" style="4" customWidth="1"/>
-    <col min="285" max="285" width="3.6640625" style="13" customWidth="1"/>
-    <col min="286" max="286" width="18.44140625" style="12" customWidth="1"/>
-    <col min="287" max="287" width="4.44140625" style="4" customWidth="1"/>
-    <col min="288" max="288" width="23.6640625" style="12" customWidth="1"/>
-    <col min="289" max="289" width="4.44140625" style="1" customWidth="1"/>
-    <col min="290" max="290" width="15.6640625" style="4" customWidth="1"/>
-    <col min="291" max="291" width="3.6640625" style="1" customWidth="1"/>
-    <col min="292" max="292" width="15.6640625" style="4" customWidth="1"/>
-    <col min="293" max="293" width="3.6640625" style="1" customWidth="1"/>
-    <col min="294" max="294" width="15.6640625" style="4" customWidth="1"/>
-    <col min="295" max="295" width="4.6640625" style="1" customWidth="1"/>
-    <col min="296" max="296" width="16.6640625" style="4" customWidth="1"/>
-    <col min="297" max="297" width="4.6640625" style="1" customWidth="1"/>
-    <col min="298" max="298" width="15.6640625" style="4" customWidth="1"/>
-    <col min="299" max="299" width="3.6640625" style="13" customWidth="1"/>
-    <col min="300" max="300" width="18.44140625" style="12" customWidth="1"/>
+    <col min="283" max="283" width="4.7109375" style="1" customWidth="1"/>
+    <col min="284" max="284" width="15.7109375" style="4" customWidth="1"/>
+    <col min="285" max="285" width="3.7109375" style="13" customWidth="1"/>
+    <col min="286" max="286" width="18.42578125" style="12" customWidth="1"/>
+    <col min="287" max="287" width="4.42578125" style="4" customWidth="1"/>
+    <col min="288" max="288" width="23.7109375" style="12" customWidth="1"/>
+    <col min="289" max="289" width="4.42578125" style="1" customWidth="1"/>
+    <col min="290" max="290" width="15.7109375" style="4" customWidth="1"/>
+    <col min="291" max="291" width="3.7109375" style="1" customWidth="1"/>
+    <col min="292" max="292" width="15.7109375" style="4" customWidth="1"/>
+    <col min="293" max="293" width="3.7109375" style="1" customWidth="1"/>
+    <col min="294" max="294" width="15.7109375" style="4" customWidth="1"/>
+    <col min="295" max="295" width="4.7109375" style="1" customWidth="1"/>
+    <col min="296" max="296" width="16.7109375" style="4" customWidth="1"/>
+    <col min="297" max="297" width="4.7109375" style="1" customWidth="1"/>
+    <col min="298" max="298" width="15.7109375" style="4" customWidth="1"/>
+    <col min="299" max="299" width="3.7109375" style="13" customWidth="1"/>
+    <col min="300" max="300" width="18.42578125" style="12" customWidth="1"/>
     <col min="301" max="301" width="5" style="4" customWidth="1"/>
-    <col min="302" max="302" width="23.33203125" style="12" customWidth="1"/>
-    <col min="303" max="303" width="4.6640625" style="1" customWidth="1"/>
-    <col min="304" max="304" width="15.6640625" style="4" customWidth="1"/>
-    <col min="305" max="305" width="3.6640625" style="1" customWidth="1"/>
-    <col min="306" max="306" width="15.6640625" style="4" customWidth="1"/>
-    <col min="307" max="307" width="3.6640625" style="1" customWidth="1"/>
-    <col min="308" max="308" width="15.6640625" style="4" customWidth="1"/>
-    <col min="309" max="309" width="4.6640625" style="1" customWidth="1"/>
-    <col min="310" max="310" width="16.88671875" style="4" customWidth="1"/>
-    <col min="311" max="311" width="4.88671875" style="1" customWidth="1"/>
-    <col min="312" max="312" width="15.6640625" style="4" customWidth="1"/>
-    <col min="313" max="313" width="3.6640625" style="13" customWidth="1"/>
-    <col min="314" max="314" width="18.44140625" style="12" customWidth="1"/>
-    <col min="315" max="315" width="4.6640625" style="4" customWidth="1"/>
-    <col min="316" max="316" width="24.109375" style="12" customWidth="1"/>
-    <col min="317" max="317" width="4.44140625" style="1" customWidth="1"/>
-    <col min="318" max="318" width="15.6640625" style="4" customWidth="1"/>
-    <col min="319" max="319" width="3.6640625" style="1" customWidth="1"/>
-    <col min="320" max="320" width="15.6640625" style="4" customWidth="1"/>
-    <col min="321" max="321" width="3.6640625" style="1" customWidth="1"/>
-    <col min="322" max="322" width="15.6640625" style="4" customWidth="1"/>
-    <col min="323" max="323" width="4.33203125" style="1" customWidth="1"/>
-    <col min="324" max="324" width="16.6640625" style="4" customWidth="1"/>
-    <col min="325" max="325" width="4.44140625" style="1" customWidth="1"/>
-    <col min="326" max="326" width="15.6640625" style="4" customWidth="1"/>
-    <col min="327" max="327" width="3.6640625" style="13" customWidth="1"/>
-    <col min="328" max="328" width="18.44140625" style="12" customWidth="1"/>
-    <col min="329" max="329" width="4.6640625" style="4" customWidth="1"/>
-    <col min="330" max="330" width="24.6640625" style="12" customWidth="1"/>
-    <col min="331" max="331" width="4.6640625" style="1" customWidth="1"/>
-    <col min="332" max="332" width="15.6640625" style="4" customWidth="1"/>
+    <col min="302" max="302" width="23.28515625" style="12" customWidth="1"/>
+    <col min="303" max="303" width="4.7109375" style="1" customWidth="1"/>
+    <col min="304" max="304" width="15.7109375" style="4" customWidth="1"/>
+    <col min="305" max="305" width="3.7109375" style="1" customWidth="1"/>
+    <col min="306" max="306" width="15.7109375" style="4" customWidth="1"/>
+    <col min="307" max="307" width="3.7109375" style="1" customWidth="1"/>
+    <col min="308" max="308" width="15.7109375" style="4" customWidth="1"/>
+    <col min="309" max="309" width="4.7109375" style="1" customWidth="1"/>
+    <col min="310" max="310" width="16.85546875" style="4" customWidth="1"/>
+    <col min="311" max="311" width="4.85546875" style="1" customWidth="1"/>
+    <col min="312" max="312" width="15.7109375" style="4" customWidth="1"/>
+    <col min="313" max="313" width="3.7109375" style="13" customWidth="1"/>
+    <col min="314" max="314" width="18.42578125" style="12" customWidth="1"/>
+    <col min="315" max="315" width="4.7109375" style="4" customWidth="1"/>
+    <col min="316" max="316" width="24.140625" style="12" customWidth="1"/>
+    <col min="317" max="317" width="4.42578125" style="1" customWidth="1"/>
+    <col min="318" max="318" width="15.7109375" style="4" customWidth="1"/>
+    <col min="319" max="319" width="3.7109375" style="1" customWidth="1"/>
+    <col min="320" max="320" width="15.7109375" style="4" customWidth="1"/>
+    <col min="321" max="321" width="3.7109375" style="1" customWidth="1"/>
+    <col min="322" max="322" width="15.7109375" style="4" customWidth="1"/>
+    <col min="323" max="323" width="4.28515625" style="1" customWidth="1"/>
+    <col min="324" max="324" width="16.7109375" style="4" customWidth="1"/>
+    <col min="325" max="325" width="4.42578125" style="1" customWidth="1"/>
+    <col min="326" max="326" width="15.7109375" style="4" customWidth="1"/>
+    <col min="327" max="327" width="3.7109375" style="13" customWidth="1"/>
+    <col min="328" max="328" width="18.42578125" style="12" customWidth="1"/>
+    <col min="329" max="329" width="4.7109375" style="4" customWidth="1"/>
+    <col min="330" max="330" width="24.7109375" style="12" customWidth="1"/>
+    <col min="331" max="331" width="4.7109375" style="1" customWidth="1"/>
+    <col min="332" max="332" width="15.7109375" style="4" customWidth="1"/>
     <col min="333" max="333" width="5" style="1" customWidth="1"/>
-    <col min="334" max="334" width="15.6640625" style="4" customWidth="1"/>
+    <col min="334" max="334" width="15.7109375" style="4" customWidth="1"/>
     <col min="335" max="335" width="4" style="1" customWidth="1"/>
-    <col min="336" max="336" width="15.6640625" style="4" customWidth="1"/>
-    <col min="337" max="337" width="4.88671875" style="1" customWidth="1"/>
-    <col min="338" max="338" width="16.6640625" style="4" customWidth="1"/>
-    <col min="339" max="339" width="5.33203125" style="1" customWidth="1"/>
-    <col min="340" max="340" width="15.6640625" style="4" customWidth="1"/>
-    <col min="341" max="341" width="4.44140625" style="13" customWidth="1"/>
+    <col min="336" max="336" width="15.7109375" style="4" customWidth="1"/>
+    <col min="337" max="337" width="4.85546875" style="1" customWidth="1"/>
+    <col min="338" max="338" width="16.7109375" style="4" customWidth="1"/>
+    <col min="339" max="339" width="5.28515625" style="1" customWidth="1"/>
+    <col min="340" max="340" width="15.7109375" style="4" customWidth="1"/>
+    <col min="341" max="341" width="4.42578125" style="13" customWidth="1"/>
     <col min="342" max="342" width="19" style="12" customWidth="1"/>
-    <col min="343" max="343" width="5.33203125" style="4" customWidth="1"/>
+    <col min="343" max="343" width="5.28515625" style="4" customWidth="1"/>
     <col min="344" max="344" width="25" style="12" customWidth="1"/>
     <col min="345" max="345" width="5" style="1" customWidth="1"/>
-    <col min="346" max="346" width="15.6640625" style="4" customWidth="1"/>
-    <col min="347" max="347" width="4.88671875" style="1" customWidth="1"/>
-    <col min="348" max="348" width="15.6640625" style="4" customWidth="1"/>
-    <col min="349" max="349" width="3.6640625" style="1" customWidth="1"/>
-    <col min="350" max="350" width="15.6640625" style="4" customWidth="1"/>
-    <col min="351" max="351" width="4.44140625" style="1" customWidth="1"/>
-    <col min="352" max="352" width="15.6640625" style="4" customWidth="1"/>
-    <col min="353" max="353" width="4.6640625" style="1" customWidth="1"/>
-    <col min="354" max="354" width="15.6640625" style="4" customWidth="1"/>
-    <col min="355" max="355" width="3.6640625" style="13" customWidth="1"/>
-    <col min="356" max="356" width="18.44140625" style="12" customWidth="1"/>
+    <col min="346" max="346" width="15.7109375" style="4" customWidth="1"/>
+    <col min="347" max="347" width="4.85546875" style="1" customWidth="1"/>
+    <col min="348" max="348" width="15.7109375" style="4" customWidth="1"/>
+    <col min="349" max="349" width="3.7109375" style="1" customWidth="1"/>
+    <col min="350" max="350" width="15.7109375" style="4" customWidth="1"/>
+    <col min="351" max="351" width="4.42578125" style="1" customWidth="1"/>
+    <col min="352" max="352" width="15.7109375" style="4" customWidth="1"/>
+    <col min="353" max="353" width="4.7109375" style="1" customWidth="1"/>
+    <col min="354" max="354" width="15.7109375" style="4" customWidth="1"/>
+    <col min="355" max="355" width="3.7109375" style="13" customWidth="1"/>
+    <col min="356" max="356" width="18.42578125" style="12" customWidth="1"/>
     <col min="357" max="357" width="5" style="4" customWidth="1"/>
-    <col min="358" max="358" width="23.109375" style="12" customWidth="1"/>
-    <col min="359" max="359" width="4.6640625" style="1" customWidth="1"/>
-    <col min="360" max="360" width="15.6640625" style="4" customWidth="1"/>
-    <col min="361" max="361" width="4.33203125" style="1" customWidth="1"/>
-    <col min="362" max="362" width="15.6640625" style="4" customWidth="1"/>
-    <col min="363" max="363" width="3.6640625" style="1" customWidth="1"/>
-    <col min="364" max="364" width="16.33203125" style="4" customWidth="1"/>
-    <col min="365" max="365" width="4.44140625" style="1" customWidth="1"/>
-    <col min="366" max="366" width="16.5546875" style="4" customWidth="1"/>
-    <col min="367" max="367" width="4.6640625" style="1" customWidth="1"/>
-    <col min="368" max="368" width="15.6640625" style="4" customWidth="1"/>
-    <col min="369" max="369" width="3.6640625" style="13" customWidth="1"/>
-    <col min="370" max="370" width="19.33203125" style="12" customWidth="1"/>
-    <col min="371" max="371" width="4.88671875" style="4" customWidth="1"/>
-    <col min="372" max="372" width="23.44140625" style="12" customWidth="1"/>
-    <col min="373" max="373" width="4.88671875" style="1" customWidth="1"/>
-    <col min="374" max="374" width="15.6640625" style="4" customWidth="1"/>
+    <col min="358" max="358" width="23.140625" style="12" customWidth="1"/>
+    <col min="359" max="359" width="4.7109375" style="1" customWidth="1"/>
+    <col min="360" max="360" width="15.7109375" style="4" customWidth="1"/>
+    <col min="361" max="361" width="4.28515625" style="1" customWidth="1"/>
+    <col min="362" max="362" width="15.7109375" style="4" customWidth="1"/>
+    <col min="363" max="363" width="3.7109375" style="1" customWidth="1"/>
+    <col min="364" max="364" width="16.28515625" style="4" customWidth="1"/>
+    <col min="365" max="365" width="4.42578125" style="1" customWidth="1"/>
+    <col min="366" max="366" width="16.5703125" style="4" customWidth="1"/>
+    <col min="367" max="367" width="4.7109375" style="1" customWidth="1"/>
+    <col min="368" max="368" width="15.7109375" style="4" customWidth="1"/>
+    <col min="369" max="369" width="3.7109375" style="13" customWidth="1"/>
+    <col min="370" max="370" width="19.28515625" style="12" customWidth="1"/>
+    <col min="371" max="371" width="4.85546875" style="4" customWidth="1"/>
+    <col min="372" max="372" width="23.42578125" style="12" customWidth="1"/>
+    <col min="373" max="373" width="4.85546875" style="1" customWidth="1"/>
+    <col min="374" max="374" width="15.7109375" style="4" customWidth="1"/>
     <col min="375" max="375" width="5" style="1" customWidth="1"/>
-    <col min="376" max="376" width="15.6640625" style="4" customWidth="1"/>
-    <col min="377" max="377" width="3.6640625" style="1" customWidth="1"/>
-    <col min="378" max="378" width="15.6640625" style="4" customWidth="1"/>
+    <col min="376" max="376" width="15.7109375" style="4" customWidth="1"/>
+    <col min="377" max="377" width="3.7109375" style="1" customWidth="1"/>
+    <col min="378" max="378" width="15.7109375" style="4" customWidth="1"/>
     <col min="379" max="379" width="5" style="1" customWidth="1"/>
-    <col min="380" max="380" width="17.33203125" style="4" customWidth="1"/>
-    <col min="381" max="381" width="4.88671875" style="1" customWidth="1"/>
-    <col min="382" max="382" width="15.6640625" style="4" customWidth="1"/>
-    <col min="383" max="383" width="3.6640625" style="13" customWidth="1"/>
-    <col min="384" max="384" width="18.5546875" style="12" customWidth="1"/>
-    <col min="385" max="385" width="4.88671875" style="4" customWidth="1"/>
-    <col min="386" max="386" width="15.6640625" style="12" customWidth="1"/>
-    <col min="387" max="387" width="3.6640625" style="1" customWidth="1"/>
-    <col min="388" max="388" width="15.6640625" style="4" customWidth="1"/>
-    <col min="389" max="389" width="5.44140625" style="1" customWidth="1"/>
-    <col min="390" max="390" width="15.6640625" style="4" customWidth="1"/>
-    <col min="391" max="391" width="3.6640625" style="1" customWidth="1"/>
-    <col min="392" max="392" width="15.6640625" style="4" customWidth="1"/>
-    <col min="393" max="393" width="4.6640625" style="1" customWidth="1"/>
-    <col min="394" max="394" width="15.6640625" style="4" customWidth="1"/>
-    <col min="395" max="395" width="3.6640625" style="1" customWidth="1"/>
-    <col min="396" max="396" width="15.6640625" style="4" customWidth="1"/>
-    <col min="397" max="397" width="3.6640625" style="13" customWidth="1"/>
-    <col min="398" max="398" width="18.44140625" style="12" customWidth="1"/>
-    <col min="399" max="399" width="5.88671875" style="4" customWidth="1"/>
+    <col min="380" max="380" width="17.28515625" style="4" customWidth="1"/>
+    <col min="381" max="381" width="4.85546875" style="1" customWidth="1"/>
+    <col min="382" max="382" width="15.7109375" style="4" customWidth="1"/>
+    <col min="383" max="383" width="3.7109375" style="13" customWidth="1"/>
+    <col min="384" max="384" width="18.5703125" style="12" customWidth="1"/>
+    <col min="385" max="385" width="4.85546875" style="4" customWidth="1"/>
+    <col min="386" max="386" width="15.7109375" style="12" customWidth="1"/>
+    <col min="387" max="387" width="3.7109375" style="1" customWidth="1"/>
+    <col min="388" max="388" width="15.7109375" style="4" customWidth="1"/>
+    <col min="389" max="389" width="5.42578125" style="1" customWidth="1"/>
+    <col min="390" max="390" width="15.7109375" style="4" customWidth="1"/>
+    <col min="391" max="391" width="3.7109375" style="1" customWidth="1"/>
+    <col min="392" max="392" width="15.7109375" style="4" customWidth="1"/>
+    <col min="393" max="393" width="4.7109375" style="1" customWidth="1"/>
+    <col min="394" max="394" width="15.7109375" style="4" customWidth="1"/>
+    <col min="395" max="395" width="3.7109375" style="1" customWidth="1"/>
+    <col min="396" max="396" width="15.7109375" style="4" customWidth="1"/>
+    <col min="397" max="397" width="3.7109375" style="13" customWidth="1"/>
+    <col min="398" max="398" width="18.42578125" style="12" customWidth="1"/>
+    <col min="399" max="399" width="5.85546875" style="4" customWidth="1"/>
     <col min="400" max="400" width="17" style="12" customWidth="1"/>
-    <col min="401" max="401" width="3.6640625" style="1" customWidth="1"/>
-    <col min="402" max="402" width="18.44140625" style="4" customWidth="1"/>
+    <col min="401" max="401" width="3.7109375" style="1" customWidth="1"/>
+    <col min="402" max="402" width="18.42578125" style="4" customWidth="1"/>
     <col min="403" max="403" width="5" style="1" customWidth="1"/>
-    <col min="404" max="404" width="15.6640625" style="4" customWidth="1"/>
-    <col min="405" max="405" width="3.6640625" style="1" customWidth="1"/>
-    <col min="406" max="406" width="15.6640625" style="4" customWidth="1"/>
-    <col min="407" max="407" width="3.6640625" style="1" customWidth="1"/>
-    <col min="408" max="408" width="15.6640625" style="4" customWidth="1"/>
-    <col min="409" max="409" width="3.6640625" style="1" customWidth="1"/>
-    <col min="410" max="410" width="15.6640625" style="4" customWidth="1"/>
-    <col min="411" max="411" width="3.6640625" style="13" customWidth="1"/>
+    <col min="404" max="404" width="15.7109375" style="4" customWidth="1"/>
+    <col min="405" max="405" width="3.7109375" style="1" customWidth="1"/>
+    <col min="406" max="406" width="15.7109375" style="4" customWidth="1"/>
+    <col min="407" max="407" width="3.7109375" style="1" customWidth="1"/>
+    <col min="408" max="408" width="15.7109375" style="4" customWidth="1"/>
+    <col min="409" max="409" width="3.7109375" style="1" customWidth="1"/>
+    <col min="410" max="410" width="15.7109375" style="4" customWidth="1"/>
+    <col min="411" max="411" width="3.7109375" style="13" customWidth="1"/>
     <col min="412" max="412" width="19" style="12" customWidth="1"/>
-    <col min="413" max="413" width="3.6640625" style="4" customWidth="1"/>
-    <col min="414" max="414" width="17.33203125" style="12" customWidth="1"/>
+    <col min="413" max="413" width="3.7109375" style="4" customWidth="1"/>
+    <col min="414" max="414" width="17.28515625" style="12" customWidth="1"/>
     <col min="415" max="415" width="5" style="1" customWidth="1"/>
-    <col min="416" max="416" width="15.6640625" style="4" customWidth="1"/>
-    <col min="417" max="417" width="4.33203125" style="1" customWidth="1"/>
-    <col min="418" max="418" width="15.6640625" style="4" customWidth="1"/>
-    <col min="419" max="419" width="3.6640625" style="1" customWidth="1"/>
-    <col min="420" max="420" width="15.6640625" style="4" customWidth="1"/>
-    <col min="421" max="421" width="4.88671875" style="1" customWidth="1"/>
-    <col min="422" max="422" width="15.6640625" style="4" customWidth="1"/>
-    <col min="423" max="423" width="5.88671875" style="1" customWidth="1"/>
-    <col min="424" max="424" width="15.6640625" style="4" customWidth="1"/>
-    <col min="425" max="425" width="3.6640625" style="13" customWidth="1"/>
-    <col min="426" max="426" width="18.44140625" style="12" customWidth="1"/>
-    <col min="427" max="427" width="4.88671875" style="4" customWidth="1"/>
-    <col min="428" max="428" width="17.6640625" style="12" customWidth="1"/>
-    <col min="429" max="429" width="3.6640625" style="1" customWidth="1"/>
-    <col min="430" max="430" width="15.6640625" style="4" customWidth="1"/>
-    <col min="431" max="431" width="3.6640625" style="1" customWidth="1"/>
-    <col min="432" max="432" width="15.6640625" style="4" customWidth="1"/>
-    <col min="433" max="433" width="3.6640625" style="1" customWidth="1"/>
-    <col min="434" max="434" width="15.6640625" style="4" customWidth="1"/>
-    <col min="435" max="435" width="3.6640625" style="1" customWidth="1"/>
-    <col min="436" max="436" width="15.6640625" style="4" customWidth="1"/>
-    <col min="437" max="437" width="3.6640625" style="1" customWidth="1"/>
-    <col min="438" max="438" width="15.6640625" style="4" customWidth="1"/>
-    <col min="439" max="439" width="3.6640625" style="13" customWidth="1"/>
-    <col min="440" max="440" width="18.5546875" style="12" customWidth="1"/>
-    <col min="441" max="441" width="3.6640625" style="4" customWidth="1"/>
-    <col min="442" max="442" width="19.109375" style="12" customWidth="1"/>
-    <col min="443" max="443" width="3.6640625" style="1" customWidth="1"/>
-    <col min="444" max="444" width="15.6640625" style="4" customWidth="1"/>
-    <col min="445" max="445" width="3.6640625" style="1" customWidth="1"/>
-    <col min="446" max="446" width="15.6640625" style="4" customWidth="1"/>
-    <col min="447" max="447" width="3.6640625" style="1" customWidth="1"/>
-    <col min="448" max="448" width="15.6640625" style="4" customWidth="1"/>
-    <col min="449" max="449" width="3.6640625" style="1" customWidth="1"/>
-    <col min="450" max="450" width="15.6640625" style="4" customWidth="1"/>
-    <col min="451" max="451" width="3.6640625" style="1" customWidth="1"/>
-    <col min="452" max="452" width="15.109375" style="4" customWidth="1"/>
-    <col min="453" max="453" width="3.6640625" style="13" customWidth="1"/>
+    <col min="416" max="416" width="15.7109375" style="4" customWidth="1"/>
+    <col min="417" max="417" width="4.28515625" style="1" customWidth="1"/>
+    <col min="418" max="418" width="15.7109375" style="4" customWidth="1"/>
+    <col min="419" max="419" width="3.7109375" style="1" customWidth="1"/>
+    <col min="420" max="420" width="15.7109375" style="4" customWidth="1"/>
+    <col min="421" max="421" width="4.85546875" style="1" customWidth="1"/>
+    <col min="422" max="422" width="15.7109375" style="4" customWidth="1"/>
+    <col min="423" max="423" width="5.85546875" style="1" customWidth="1"/>
+    <col min="424" max="424" width="15.7109375" style="4" customWidth="1"/>
+    <col min="425" max="425" width="3.7109375" style="13" customWidth="1"/>
+    <col min="426" max="426" width="18.42578125" style="12" customWidth="1"/>
+    <col min="427" max="427" width="4.85546875" style="4" customWidth="1"/>
+    <col min="428" max="428" width="17.7109375" style="12" customWidth="1"/>
+    <col min="429" max="429" width="3.7109375" style="1" customWidth="1"/>
+    <col min="430" max="430" width="15.7109375" style="4" customWidth="1"/>
+    <col min="431" max="431" width="3.7109375" style="1" customWidth="1"/>
+    <col min="432" max="432" width="15.7109375" style="4" customWidth="1"/>
+    <col min="433" max="433" width="3.7109375" style="1" customWidth="1"/>
+    <col min="434" max="434" width="15.7109375" style="4" customWidth="1"/>
+    <col min="435" max="435" width="3.7109375" style="1" customWidth="1"/>
+    <col min="436" max="436" width="15.7109375" style="4" customWidth="1"/>
+    <col min="437" max="437" width="3.7109375" style="1" customWidth="1"/>
+    <col min="438" max="438" width="15.7109375" style="4" customWidth="1"/>
+    <col min="439" max="439" width="3.7109375" style="13" customWidth="1"/>
+    <col min="440" max="440" width="18.5703125" style="12" customWidth="1"/>
+    <col min="441" max="441" width="3.7109375" style="4" customWidth="1"/>
+    <col min="442" max="442" width="19.140625" style="12" customWidth="1"/>
+    <col min="443" max="443" width="3.7109375" style="1" customWidth="1"/>
+    <col min="444" max="444" width="15.7109375" style="4" customWidth="1"/>
+    <col min="445" max="445" width="3.7109375" style="1" customWidth="1"/>
+    <col min="446" max="446" width="15.7109375" style="4" customWidth="1"/>
+    <col min="447" max="447" width="3.7109375" style="1" customWidth="1"/>
+    <col min="448" max="448" width="15.7109375" style="4" customWidth="1"/>
+    <col min="449" max="449" width="3.7109375" style="1" customWidth="1"/>
+    <col min="450" max="450" width="15.7109375" style="4" customWidth="1"/>
+    <col min="451" max="451" width="3.7109375" style="1" customWidth="1"/>
+    <col min="452" max="452" width="15.140625" style="4" customWidth="1"/>
+    <col min="453" max="453" width="3.7109375" style="13" customWidth="1"/>
     <col min="454" max="454" width="17" style="12" customWidth="1"/>
-    <col min="455" max="455" width="3.6640625" style="4" customWidth="1"/>
-    <col min="456" max="456" width="15.6640625" style="12" customWidth="1"/>
-    <col min="457" max="457" width="3.6640625" style="1" customWidth="1"/>
-    <col min="458" max="458" width="15.6640625" style="4" customWidth="1"/>
-    <col min="459" max="459" width="3.6640625" style="1" customWidth="1"/>
-    <col min="460" max="460" width="15.6640625" style="4" customWidth="1"/>
-    <col min="461" max="461" width="3.6640625" style="1" customWidth="1"/>
-    <col min="462" max="462" width="15.6640625" style="4" customWidth="1"/>
-    <col min="463" max="463" width="3.6640625" style="1" customWidth="1"/>
-    <col min="464" max="464" width="15.6640625" style="4" customWidth="1"/>
-    <col min="465" max="465" width="3.6640625" style="1" customWidth="1"/>
-    <col min="466" max="466" width="15.6640625" style="4" customWidth="1"/>
-    <col min="467" max="467" width="3.6640625" style="13" customWidth="1"/>
-    <col min="468" max="468" width="13.6640625" style="12" customWidth="1"/>
-    <col min="469" max="469" width="3.6640625" style="4" customWidth="1"/>
-    <col min="470" max="470" width="17.109375" style="12" customWidth="1"/>
-    <col min="471" max="471" width="3.6640625" style="1" customWidth="1"/>
-    <col min="472" max="472" width="15.6640625" style="4" customWidth="1"/>
-    <col min="473" max="473" width="3.6640625" style="1" customWidth="1"/>
-    <col min="474" max="474" width="15.6640625" style="4" customWidth="1"/>
-    <col min="475" max="475" width="3.6640625" style="1" customWidth="1"/>
-    <col min="476" max="476" width="15.6640625" style="4" customWidth="1"/>
-    <col min="477" max="477" width="3.6640625" style="1" customWidth="1"/>
-    <col min="478" max="478" width="15.6640625" style="4" customWidth="1"/>
-    <col min="479" max="479" width="3.6640625" style="1" customWidth="1"/>
-    <col min="480" max="480" width="17.33203125" style="4" customWidth="1"/>
-    <col min="481" max="481" width="3.6640625" style="13" customWidth="1"/>
-    <col min="482" max="16384" width="3.6640625" style="13"/>
+    <col min="455" max="455" width="3.7109375" style="4" customWidth="1"/>
+    <col min="456" max="456" width="15.7109375" style="12" customWidth="1"/>
+    <col min="457" max="457" width="3.7109375" style="1" customWidth="1"/>
+    <col min="458" max="458" width="15.7109375" style="4" customWidth="1"/>
+    <col min="459" max="459" width="3.7109375" style="1" customWidth="1"/>
+    <col min="460" max="460" width="15.7109375" style="4" customWidth="1"/>
+    <col min="461" max="461" width="3.7109375" style="1" customWidth="1"/>
+    <col min="462" max="462" width="15.7109375" style="4" customWidth="1"/>
+    <col min="463" max="463" width="3.7109375" style="1" customWidth="1"/>
+    <col min="464" max="464" width="15.7109375" style="4" customWidth="1"/>
+    <col min="465" max="465" width="3.7109375" style="1" customWidth="1"/>
+    <col min="466" max="466" width="15.7109375" style="4" customWidth="1"/>
+    <col min="467" max="467" width="3.7109375" style="13" customWidth="1"/>
+    <col min="468" max="468" width="13.7109375" style="12" customWidth="1"/>
+    <col min="469" max="469" width="3.7109375" style="4" customWidth="1"/>
+    <col min="470" max="470" width="17.140625" style="12" customWidth="1"/>
+    <col min="471" max="471" width="3.7109375" style="1" customWidth="1"/>
+    <col min="472" max="472" width="15.7109375" style="4" customWidth="1"/>
+    <col min="473" max="473" width="3.7109375" style="1" customWidth="1"/>
+    <col min="474" max="474" width="15.7109375" style="4" customWidth="1"/>
+    <col min="475" max="475" width="3.7109375" style="1" customWidth="1"/>
+    <col min="476" max="476" width="15.7109375" style="4" customWidth="1"/>
+    <col min="477" max="477" width="3.7109375" style="1" customWidth="1"/>
+    <col min="478" max="478" width="15.7109375" style="4" customWidth="1"/>
+    <col min="479" max="479" width="3.7109375" style="1" customWidth="1"/>
+    <col min="480" max="480" width="17.28515625" style="4" customWidth="1"/>
+    <col min="481" max="481" width="3.7109375" style="13" customWidth="1"/>
+    <col min="482" max="16384" width="3.7109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:481" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:481" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -9695,7 +9701,7 @@
       <c r="RL1" s="45"/>
       <c r="RM1" s="46"/>
     </row>
-    <row r="2" spans="1:481" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:481" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="47" t="s">
         <v>62</v>
       </c>
@@ -10177,7 +10183,7 @@
       <c r="RL2" s="45"/>
       <c r="RM2" s="46"/>
     </row>
-    <row r="3" spans="1:481" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:481" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3"/>
       <c r="C3" s="6"/>
       <c r="D3"/>
@@ -11134,7 +11140,7 @@
       </c>
       <c r="RM3" s="19"/>
     </row>
-    <row r="4" spans="1:481" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:481" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="b">
         <f>AND(LEN($F$5)&gt;1,LEN($G$5)=0)</f>
         <v>0</v>
@@ -12338,7 +12344,7 @@
       </c>
       <c r="RM4" s="23"/>
     </row>
-    <row r="5" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>91</v>
       </c>
@@ -12798,7 +12804,7 @@
       <c r="RK5" s="13"/>
       <c r="RL5" s="14"/>
     </row>
-    <row r="6" spans="1:481" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:481" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>92</v>
       </c>
@@ -13298,7 +13304,7 @@
       <c r="RL6" s="14"/>
       <c r="RM6" s="13"/>
     </row>
-    <row r="7" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>92</v>
       </c>
@@ -13798,7 +13804,7 @@
       <c r="RL7" s="14"/>
       <c r="RM7" s="13"/>
     </row>
-    <row r="8" spans="1:481" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:481" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
         <v>93</v>
       </c>
@@ -14317,7 +14323,7 @@
       <c r="RL8" s="14"/>
       <c r="RM8" s="13"/>
     </row>
-    <row r="9" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
         <v>93</v>
       </c>
@@ -14835,7 +14841,7 @@
       <c r="RL9" s="14"/>
       <c r="RM9" s="13"/>
     </row>
-    <row r="10" spans="1:481" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:481" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>93</v>
       </c>
@@ -15347,7 +15353,7 @@
       <c r="RL10" s="14"/>
       <c r="RM10" s="13"/>
     </row>
-    <row r="11" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>93</v>
       </c>
@@ -15857,7 +15863,7 @@
       <c r="RL11" s="14"/>
       <c r="RM11" s="13"/>
     </row>
-    <row r="12" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>93</v>
       </c>
@@ -16367,7 +16373,7 @@
       <c r="RL12" s="14"/>
       <c r="RM12" s="13"/>
     </row>
-    <row r="13" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>93</v>
       </c>
@@ -16835,7 +16841,7 @@
       <c r="RK13" s="13"/>
       <c r="RL13" s="14"/>
     </row>
-    <row r="14" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>98</v>
       </c>
@@ -17329,7 +17335,7 @@
       <c r="RK14" s="13"/>
       <c r="RL14" s="14"/>
     </row>
-    <row r="15" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>98</v>
       </c>
@@ -17823,7 +17829,7 @@
       <c r="RK15" s="13"/>
       <c r="RL15" s="14"/>
     </row>
-    <row r="16" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>98</v>
       </c>
@@ -18315,7 +18321,7 @@
       <c r="RK16" s="13"/>
       <c r="RL16" s="14"/>
     </row>
-    <row r="17" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>98</v>
       </c>
@@ -18805,7 +18811,7 @@
       <c r="RK17" s="13"/>
       <c r="RL17" s="14"/>
     </row>
-    <row r="18" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
         <v>94</v>
       </c>
@@ -19323,7 +19329,7 @@
       <c r="RL18" s="14"/>
       <c r="RM18" s="13"/>
     </row>
-    <row r="19" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>94</v>
       </c>
@@ -19855,7 +19861,7 @@
       <c r="RL19" s="14"/>
       <c r="RM19" s="13"/>
     </row>
-    <row r="20" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>94</v>
       </c>
@@ -20381,7 +20387,7 @@
       <c r="RL20" s="14"/>
       <c r="RM20" s="13"/>
     </row>
-    <row r="21" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>94</v>
       </c>
@@ -20871,7 +20877,7 @@
       <c r="RK21" s="13"/>
       <c r="RL21" s="14"/>
     </row>
-    <row r="22" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>95</v>
       </c>
@@ -21406,7 +21412,7 @@
       <c r="RL22" s="14"/>
       <c r="RM22" s="13"/>
     </row>
-    <row r="23" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>95</v>
       </c>
@@ -21942,7 +21948,7 @@
       <c r="RL23" s="14"/>
       <c r="RM23" s="13"/>
     </row>
-    <row r="24" spans="1:481" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:481" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>95</v>
       </c>
@@ -22468,7 +22474,7 @@
       <c r="RL24" s="14"/>
       <c r="RM24" s="13"/>
     </row>
-    <row r="25" spans="1:481" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:481" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>95</v>
       </c>
@@ -22992,7 +22998,7 @@
       <c r="RL25" s="14"/>
       <c r="RM25" s="13"/>
     </row>
-    <row r="26" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="38" t="s">
         <v>95</v>
       </c>
@@ -23518,7 +23524,7 @@
       <c r="RL26" s="14"/>
       <c r="RM26" s="13"/>
     </row>
-    <row r="27" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>95</v>
       </c>
@@ -24046,7 +24052,7 @@
       <c r="RL27" s="14"/>
       <c r="RM27" s="13"/>
     </row>
-    <row r="28" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
         <v>95</v>
       </c>
@@ -24531,7 +24537,7 @@
       <c r="RK28" s="13"/>
       <c r="RL28" s="14"/>
     </row>
-    <row r="29" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
         <v>96</v>
       </c>
@@ -25071,7 +25077,7 @@
       <c r="RL29" s="14"/>
       <c r="RM29" s="13"/>
     </row>
-    <row r="30" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
         <v>96</v>
       </c>
@@ -25609,7 +25615,7 @@
       <c r="RL30" s="14"/>
       <c r="RM30" s="13"/>
     </row>
-    <row r="31" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
         <v>96</v>
       </c>
@@ -26161,7 +26167,7 @@
       <c r="RL31" s="14"/>
       <c r="RM31" s="13"/>
     </row>
-    <row r="32" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
         <v>96</v>
       </c>
@@ -26705,7 +26711,7 @@
       <c r="RL32" s="14"/>
       <c r="RM32" s="13"/>
     </row>
-    <row r="33" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
         <v>96</v>
       </c>
@@ -27227,7 +27233,7 @@
       <c r="RL33" s="14"/>
       <c r="RM33" s="13"/>
     </row>
-    <row r="34" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:481" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
         <v>97</v>
       </c>
@@ -27734,7 +27740,7 @@
       <c r="RK34" s="13"/>
       <c r="RL34" s="14"/>
     </row>
-    <row r="35" spans="1:481" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:481" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
         <v>97</v>
       </c>
@@ -28284,7 +28290,7 @@
       <c r="RL35" s="14"/>
       <c r="RM35" s="13"/>
     </row>
-    <row r="36" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
         <v>97</v>
       </c>
@@ -28828,7 +28834,7 @@
       <c r="RL36" s="14"/>
       <c r="RM36" s="13"/>
     </row>
-    <row r="37" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:481" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="39" t="s">
         <v>97</v>
       </c>
@@ -29350,7 +29356,7 @@
       <c r="RL37" s="14"/>
       <c r="RM37" s="13"/>
     </row>
-    <row r="38" spans="1:481" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:481" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="32" t="s">
         <v>128</v>
       </c>
@@ -29560,10 +29566,18 @@
       <c r="FN38" s="14"/>
       <c r="FO38" s="13"/>
       <c r="FP38" s="14"/>
-      <c r="FR38" s="14"/>
-      <c r="FS38" s="13"/>
-      <c r="FT38" s="14"/>
-      <c r="FU38" s="13"/>
+      <c r="FR38" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="FS38" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="FT38" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="FU38" s="13" t="s">
+        <v>158</v>
+      </c>
       <c r="FV38" s="14" t="s">
         <v>102</v>
       </c>
@@ -29895,7 +29909,7 @@
       <c r="RK38" s="13"/>
       <c r="RL38" s="14"/>
     </row>
-    <row r="39" spans="1:481" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:481" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="25"/>
       <c r="C39" s="10"/>
       <c r="D39" s="9"/>
@@ -30343,7 +30357,7 @@
       <c r="RK39" s="13"/>
       <c r="RL39" s="14"/>
     </row>
-    <row r="40" spans="1:481" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:481" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>19</v>
       </c>
@@ -31028,7 +31042,7 @@
       </c>
       <c r="RM40" s="17"/>
     </row>
-    <row r="41" spans="1:481" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:481" x14ac:dyDescent="0.25">
       <c r="F41" s="12" t="s">
         <v>12</v>
       </c>
@@ -31982,7 +31996,7 @@
       </c>
       <c r="RM41" s="17"/>
     </row>
-    <row r="42" spans="1:481" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:481" x14ac:dyDescent="0.25">
       <c r="F42" s="12" t="s">
         <v>14</v>
       </c>
@@ -32936,7 +32950,7 @@
       </c>
       <c r="RM42" s="17"/>
     </row>
-    <row r="43" spans="1:481" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:481" x14ac:dyDescent="0.25">
       <c r="G43" s="1"/>
       <c r="H43" s="28"/>
       <c r="J43" s="28"/>
@@ -33731,7 +33745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:481" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:481" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>11</v>
       </c>
@@ -34199,7 +34213,7 @@
       </c>
       <c r="FU44" s="13">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV44" s="28" t="s">
         <v>120</v>
@@ -34524,7 +34538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:481" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:481" x14ac:dyDescent="0.25">
       <c r="B45" s="42">
         <v>1</v>
       </c>
@@ -35276,7 +35290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:481" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:481" x14ac:dyDescent="0.25">
       <c r="B46" s="42">
         <v>0.5</v>
       </c>
@@ -35953,7 +35967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:481" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:481" x14ac:dyDescent="0.25">
       <c r="B47" s="42" t="s">
         <v>8</v>
       </c>
@@ -36347,7 +36361,7 @@
       </c>
       <c r="FS47" s="13">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT47" s="28" t="s">
         <v>63</v>
@@ -36626,7 +36640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:481" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:481" x14ac:dyDescent="0.25">
       <c r="B48" s="42" t="s">
         <v>9</v>
       </c>
@@ -37280,7 +37294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:481" x14ac:dyDescent="0.25">
       <c r="B49" s="42" t="s">
         <v>10</v>
       </c>
@@ -37898,7 +37912,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:481" x14ac:dyDescent="0.25">
+      <c r="B50" s="42" t="s">
+        <v>157</v>
+      </c>
       <c r="H50" s="28"/>
       <c r="S50" s="13">
         <f t="shared" si="5"/>
@@ -38516,7 +38533,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:481" x14ac:dyDescent="0.25">
+      <c r="B51" s="42" t="s">
+        <v>158</v>
+      </c>
       <c r="F51" s="27"/>
       <c r="H51" s="28"/>
       <c r="S51" s="13">
@@ -39135,7 +39155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:481" x14ac:dyDescent="0.25">
       <c r="F52" s="27"/>
       <c r="H52" s="28"/>
       <c r="S52" s="13">
@@ -39749,7 +39769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:481" x14ac:dyDescent="0.25">
       <c r="H53" s="28"/>
       <c r="S53" s="13">
         <f t="shared" si="5"/>
@@ -40357,7 +40377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:481" x14ac:dyDescent="0.25">
       <c r="H54" s="28"/>
       <c r="S54" s="13">
         <f t="shared" si="5"/>
@@ -40963,7 +40983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:481" x14ac:dyDescent="0.25">
       <c r="H55" s="28"/>
       <c r="S55" s="13">
         <f t="shared" si="5"/>
@@ -41557,7 +41577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:481" x14ac:dyDescent="0.25">
       <c r="H56" s="28"/>
       <c r="S56" s="13">
         <f t="shared" si="5"/>
@@ -42128,7 +42148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:481" x14ac:dyDescent="0.25">
       <c r="H57" s="28"/>
       <c r="S57" s="13">
         <f t="shared" si="5"/>
@@ -42680,7 +42700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:481" x14ac:dyDescent="0.25">
       <c r="H58" s="4"/>
       <c r="S58" s="13">
         <f t="shared" si="5"/>
@@ -43215,7 +43235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:481" x14ac:dyDescent="0.25">
       <c r="H59" s="4"/>
       <c r="S59" s="13">
         <f t="shared" si="5"/>
@@ -43752,7 +43772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:481" x14ac:dyDescent="0.25">
       <c r="H60" s="4"/>
       <c r="S60" s="13">
         <f t="shared" si="5"/>
@@ -44289,7 +44309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:481" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>20</v>
       </c>
@@ -45065,7 +45085,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:481" x14ac:dyDescent="0.25">
       <c r="NI62" s="1">
         <f>COUNTIF(NH$5:NH$39,NH57)</f>
         <v>0</v>
@@ -45095,7 +45115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:481" x14ac:dyDescent="0.25">
       <c r="NI63" s="1">
         <f>COUNTIF(NH$5:NH$39,NH58)</f>
         <v>0</v>
@@ -45109,7 +45129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:481" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:481" x14ac:dyDescent="0.25">
       <c r="NI64" s="1">
         <f>COUNTIF(NH$5:NH$39,NH59)</f>
         <v>0</v>
@@ -45123,7 +45143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:427" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:427" x14ac:dyDescent="0.25">
       <c r="CX65" s="4">
         <f>COUNTA(CP43:CX60)</f>
         <v>73</v>
@@ -45169,13 +45189,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:427" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:427" x14ac:dyDescent="0.25">
       <c r="PK66" s="4">
         <f t="shared" si="137"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:427" ht="27" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:427" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>91</v>
       </c>
@@ -45191,7 +45211,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="70" spans="1:427" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:427" x14ac:dyDescent="0.25">
       <c r="A70" s="43" t="s">
         <v>92</v>
       </c>
@@ -45213,7 +45233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:427" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:427" x14ac:dyDescent="0.25">
       <c r="A71" s="43" t="s">
         <v>92</v>
       </c>
@@ -45231,7 +45251,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="72" spans="1:427" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:427" x14ac:dyDescent="0.25">
       <c r="A72" s="41" t="s">
         <v>93</v>
       </c>
@@ -45247,7 +45267,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="73" spans="1:427" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:427" x14ac:dyDescent="0.25">
       <c r="A73" s="41" t="s">
         <v>93</v>
       </c>
@@ -45259,7 +45279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:427" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:427" x14ac:dyDescent="0.25">
       <c r="A74" s="41" t="s">
         <v>93</v>
       </c>
@@ -45277,7 +45297,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:427" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:427" x14ac:dyDescent="0.25">
       <c r="A75" s="40" t="s">
         <v>93</v>
       </c>
@@ -45295,7 +45315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:427" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:427" x14ac:dyDescent="0.25">
       <c r="A76" s="40" t="s">
         <v>93</v>
       </c>
@@ -45313,7 +45333,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="77" spans="1:427" ht="27" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:427" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A77" s="40" t="s">
         <v>93</v>
       </c>
@@ -45325,7 +45345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:427" ht="27" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:427" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A78" s="33" t="s">
         <v>98</v>
       </c>
@@ -45343,7 +45363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:427" ht="27" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:427" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A79" s="33" t="s">
         <v>98</v>
       </c>
@@ -45361,7 +45381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:427" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:427" x14ac:dyDescent="0.25">
       <c r="A80" s="33" t="s">
         <v>98</v>
       </c>
@@ -45379,7 +45399,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:252" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:252" x14ac:dyDescent="0.25">
       <c r="A81" s="33" t="s">
         <v>98</v>
       </c>
@@ -45391,7 +45411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:252" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:252" x14ac:dyDescent="0.25">
       <c r="A82" s="34" t="s">
         <v>94</v>
       </c>
@@ -45409,7 +45429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:252" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:252" x14ac:dyDescent="0.25">
       <c r="A83" s="34" t="s">
         <v>94</v>
       </c>
@@ -45427,7 +45447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:252" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:252" x14ac:dyDescent="0.25">
       <c r="A84" s="34" t="s">
         <v>94</v>
       </c>
@@ -45447,7 +45467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:252" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:252" x14ac:dyDescent="0.25">
       <c r="A85" s="34" t="s">
         <v>94</v>
       </c>
@@ -45461,7 +45481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:252" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:252" x14ac:dyDescent="0.25">
       <c r="A86" s="35" t="s">
         <v>95</v>
       </c>
@@ -45481,7 +45501,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="87" spans="1:252" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:252" x14ac:dyDescent="0.25">
       <c r="A87" s="35" t="s">
         <v>95</v>
       </c>
@@ -45495,7 +45515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:252" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:252" x14ac:dyDescent="0.25">
       <c r="A88" s="35" t="s">
         <v>95</v>
       </c>
@@ -45509,7 +45529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:252" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:252" x14ac:dyDescent="0.25">
       <c r="A89" s="35" t="s">
         <v>95</v>
       </c>
@@ -45523,7 +45543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:252" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:252" x14ac:dyDescent="0.25">
       <c r="A90" s="38" t="s">
         <v>95</v>
       </c>
@@ -45537,7 +45557,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="91" spans="1:252" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:252" x14ac:dyDescent="0.25">
       <c r="A91" s="38" t="s">
         <v>95</v>
       </c>
@@ -45551,7 +45571,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="92" spans="1:252" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:252" x14ac:dyDescent="0.25">
       <c r="A92" s="38" t="s">
         <v>95</v>
       </c>
@@ -45565,7 +45585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:252" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:252" x14ac:dyDescent="0.25">
       <c r="A93" s="36" t="s">
         <v>96</v>
       </c>
@@ -45579,7 +45599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:252" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:252" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
         <v>96</v>
       </c>
@@ -45593,7 +45613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:252" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:252" x14ac:dyDescent="0.25">
       <c r="A95" s="36" t="s">
         <v>96</v>
       </c>
@@ -45607,7 +45627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:252" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:252" x14ac:dyDescent="0.25">
       <c r="A96" s="36" t="s">
         <v>96</v>
       </c>
@@ -45621,7 +45641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A97" s="39" t="s">
         <v>96</v>
       </c>
@@ -45635,7 +45655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A98" s="37" t="s">
         <v>97</v>
       </c>
@@ -45649,7 +45669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A99" s="37" t="s">
         <v>97</v>
       </c>
@@ -45663,7 +45683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A100" s="37" t="s">
         <v>97</v>
       </c>
@@ -45677,7 +45697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:108" ht="27" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:108" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A101" s="39" t="s">
         <v>97</v>
       </c>
@@ -45691,22 +45711,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:108" x14ac:dyDescent="0.25">
       <c r="D102" s="11"/>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:108" x14ac:dyDescent="0.25">
       <c r="D103" s="11"/>
       <c r="E103" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="QZ1:RM1"/>
-    <mergeCell ref="QZ2:RM2"/>
-    <mergeCell ref="PJ2:PW2"/>
-    <mergeCell ref="PX2:QK2"/>
-    <mergeCell ref="QL1:QY1"/>
-    <mergeCell ref="QL2:QY2"/>
+    <mergeCell ref="IJ1:IW1"/>
+    <mergeCell ref="IJ2:IW2"/>
+    <mergeCell ref="GF2:GS2"/>
+    <mergeCell ref="GT2:HG2"/>
+    <mergeCell ref="HH2:HU2"/>
+    <mergeCell ref="HV2:II2"/>
+    <mergeCell ref="GF1:GS1"/>
+    <mergeCell ref="GT1:HG1"/>
+    <mergeCell ref="HH1:HU1"/>
+    <mergeCell ref="HV1:II1"/>
+    <mergeCell ref="FR2:GE2"/>
+    <mergeCell ref="EB1:EO1"/>
+    <mergeCell ref="EP1:FC1"/>
+    <mergeCell ref="FD1:FQ1"/>
+    <mergeCell ref="FR1:GE1"/>
+    <mergeCell ref="EB2:EO2"/>
+    <mergeCell ref="EP2:FC2"/>
+    <mergeCell ref="CZ1:DM1"/>
+    <mergeCell ref="DN1:EA1"/>
+    <mergeCell ref="AH1:AU1"/>
+    <mergeCell ref="AH2:AU2"/>
+    <mergeCell ref="FD2:FQ2"/>
+    <mergeCell ref="BX2:CK2"/>
+    <mergeCell ref="CL2:CY2"/>
+    <mergeCell ref="CZ2:DM2"/>
+    <mergeCell ref="DN2:EA2"/>
+    <mergeCell ref="CL1:CY1"/>
+    <mergeCell ref="AV1:BI1"/>
+    <mergeCell ref="BJ1:BW1"/>
+    <mergeCell ref="AV2:BI2"/>
+    <mergeCell ref="BJ2:BW2"/>
+    <mergeCell ref="F1:S1"/>
+    <mergeCell ref="F2:S2"/>
+    <mergeCell ref="T1:AG1"/>
+    <mergeCell ref="T2:AG2"/>
+    <mergeCell ref="BX1:CK1"/>
+    <mergeCell ref="IX1:JK1"/>
+    <mergeCell ref="JL1:JY1"/>
+    <mergeCell ref="JZ1:KM1"/>
+    <mergeCell ref="KN1:LA1"/>
+    <mergeCell ref="LB1:LO1"/>
+    <mergeCell ref="LP1:MC1"/>
+    <mergeCell ref="MD1:MQ1"/>
+    <mergeCell ref="MR1:NE1"/>
+    <mergeCell ref="NF1:NS1"/>
+    <mergeCell ref="NT1:OG1"/>
     <mergeCell ref="OH1:OU1"/>
     <mergeCell ref="OV1:PI1"/>
     <mergeCell ref="PJ1:PW1"/>
@@ -45723,52 +45783,12 @@
     <mergeCell ref="NT2:OG2"/>
     <mergeCell ref="OH2:OU2"/>
     <mergeCell ref="OV2:PI2"/>
-    <mergeCell ref="LP1:MC1"/>
-    <mergeCell ref="MD1:MQ1"/>
-    <mergeCell ref="MR1:NE1"/>
-    <mergeCell ref="NF1:NS1"/>
-    <mergeCell ref="NT1:OG1"/>
-    <mergeCell ref="IX1:JK1"/>
-    <mergeCell ref="JL1:JY1"/>
-    <mergeCell ref="JZ1:KM1"/>
-    <mergeCell ref="KN1:LA1"/>
-    <mergeCell ref="LB1:LO1"/>
-    <mergeCell ref="F1:S1"/>
-    <mergeCell ref="F2:S2"/>
-    <mergeCell ref="T1:AG1"/>
-    <mergeCell ref="T2:AG2"/>
-    <mergeCell ref="BX1:CK1"/>
-    <mergeCell ref="CZ1:DM1"/>
-    <mergeCell ref="DN1:EA1"/>
-    <mergeCell ref="AH1:AU1"/>
-    <mergeCell ref="AH2:AU2"/>
-    <mergeCell ref="FD2:FQ2"/>
-    <mergeCell ref="BX2:CK2"/>
-    <mergeCell ref="CL2:CY2"/>
-    <mergeCell ref="CZ2:DM2"/>
-    <mergeCell ref="DN2:EA2"/>
-    <mergeCell ref="CL1:CY1"/>
-    <mergeCell ref="AV1:BI1"/>
-    <mergeCell ref="BJ1:BW1"/>
-    <mergeCell ref="AV2:BI2"/>
-    <mergeCell ref="BJ2:BW2"/>
-    <mergeCell ref="FR2:GE2"/>
-    <mergeCell ref="EB1:EO1"/>
-    <mergeCell ref="EP1:FC1"/>
-    <mergeCell ref="FD1:FQ1"/>
-    <mergeCell ref="FR1:GE1"/>
-    <mergeCell ref="EB2:EO2"/>
-    <mergeCell ref="EP2:FC2"/>
-    <mergeCell ref="IJ1:IW1"/>
-    <mergeCell ref="IJ2:IW2"/>
-    <mergeCell ref="GF2:GS2"/>
-    <mergeCell ref="GT2:HG2"/>
-    <mergeCell ref="HH2:HU2"/>
-    <mergeCell ref="HV2:II2"/>
-    <mergeCell ref="GF1:GS1"/>
-    <mergeCell ref="GT1:HG1"/>
-    <mergeCell ref="HH1:HU1"/>
-    <mergeCell ref="HV1:II1"/>
+    <mergeCell ref="QZ1:RM1"/>
+    <mergeCell ref="QZ2:RM2"/>
+    <mergeCell ref="PJ2:PW2"/>
+    <mergeCell ref="PX2:QK2"/>
+    <mergeCell ref="QL1:QY1"/>
+    <mergeCell ref="QL2:QY2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N46:N47 L43:L60 R43:R60 P46:P60 F43:F50 H47:H60 N49:N60 F53:F60 J45:J60 FR57:FR60 OH43:OH50 OV43:OV50 NH43:NH44 BZ59:BZ60 BL57:BL58 BL60 GH57:GH60 GF57:GF60 HH57:HH60 JZ43:JZ52 JZ55 MD43:MD52 MD55 MR43:MR52 MR55 NF43:NF52 NF55 HJ57:HJ60 MF43:MF48 MF52:MF55 PL54:PL57 PL59:PL60 BF46 BD47:BD60 BF48:BF60 DR43:DR56 DR59:DR60 EB56:EB60 EB43:EB53 ED57:ED60 ED53:ED54">
@@ -51100,7 +51120,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -51113,7 +51133,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -51126,7 +51146,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/RingetteSchedule/Master.xlsx
+++ b/RingetteSchedule/Master.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A57BF290-A40D-4B3F-A38F-B0B2CC8EE112}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F6B8EB-752E-449E-A73E-DA09F005E53C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="163" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="163" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisions" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="175">
   <si>
     <t>Sat</t>
   </si>
@@ -9210,10 +9210,10 @@
   <dimension ref="A1:RO103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="II11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="ID20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="IM27" sqref="IM27"/>
+      <selection pane="bottomRight" activeCell="IL22" sqref="IL22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15622,7 +15622,7 @@
       </c>
       <c r="E10" s="10">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" si="1"/>
@@ -15891,12 +15891,8 @@
       <c r="HG10" s="13"/>
       <c r="HH10" s="14"/>
       <c r="HI10" s="13"/>
-      <c r="HJ10" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="HK10" s="13">
-        <v>0.5</v>
-      </c>
+      <c r="HJ10" s="14"/>
+      <c r="HK10" s="13"/>
       <c r="HL10" s="14"/>
       <c r="HM10" s="13"/>
       <c r="HN10" s="14" t="s">
@@ -22685,7 +22681,7 @@
       <c r="HZ22" s="14"/>
       <c r="IA22" s="15"/>
       <c r="IB22" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="IC22" s="15">
         <v>0.5</v>
@@ -22699,7 +22695,7 @@
       <c r="IJ22" s="14"/>
       <c r="IK22" s="13"/>
       <c r="IL22" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="IM22" s="13">
         <v>0.5</v>
@@ -23861,7 +23857,7 @@
       <c r="HZ24" s="14"/>
       <c r="IA24" s="13"/>
       <c r="IB24" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="IC24" s="13">
         <v>0.5</v>
@@ -24463,7 +24459,7 @@
       <c r="IJ25" s="14"/>
       <c r="IK25" s="13"/>
       <c r="IL25" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="IM25" s="13">
         <v>0.5</v>
@@ -38177,7 +38173,7 @@
       </c>
       <c r="HK46" s="13">
         <f t="shared" si="101"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="HL46" s="28" t="s">
         <v>109</v>

--- a/RingetteSchedule/Master.xlsx
+++ b/RingetteSchedule/Master.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B29FD9-8E93-FA4D-A0EF-9D6798426CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0FDEE1-AAC8-1841-916A-6B52F6305505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30760" yWindow="500" windowWidth="29400" windowHeight="18380" tabRatio="163" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="900" windowWidth="29100" windowHeight="18080" tabRatio="163" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisions" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2799" uniqueCount="195">
   <si>
     <t>Sat</t>
   </si>
@@ -584,12 +584,6 @@
     <t>Ottawa Ice - FUN2 - Shah</t>
   </si>
   <si>
-    <t>Ottawa Ice - U12C1</t>
-  </si>
-  <si>
-    <t>Ottawa Ice - U12C2</t>
-  </si>
-  <si>
     <t>FUNdamentals</t>
   </si>
   <si>
@@ -615,6 +609,12 @@
   </si>
   <si>
     <t>Wlakley 17:15</t>
+  </si>
+  <si>
+    <t>Ottawa Ice - U12C - Kelly</t>
+  </si>
+  <si>
+    <t>Ottawa Ice - U12C - Telewiak</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1448,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="149">
+  <dxfs count="158">
     <dxf>
       <fill>
         <patternFill>
@@ -1515,14 +1515,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1550,13 +1550,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1565,6 +1558,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1634,13 +1634,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1649,6 +1642,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1732,13 +1732,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -1747,13 +1740,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1795,6 +1781,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1810,6 +1810,27 @@
       <fill>
         <patternFill>
           <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1900,6 +1921,104 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1908,6 +2027,48 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1949,20 +2110,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1991,6 +2138,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2012,28 +2180,28 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor indexed="42"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor indexed="42"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2069,174 +2237,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2285,6 +2285,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2300,6 +2321,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2356,6 +2391,34 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2894,10 +2957,10 @@
   <dimension ref="A1:TV139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="4" topLeftCell="CS43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="4" topLeftCell="DQ50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CZ60" sqref="CZ60"/>
+      <selection pane="bottomRight" activeCell="DX59" sqref="DX59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3029,7 +3092,7 @@
     <col min="125" max="125" width="15.6640625" customWidth="1"/>
     <col min="126" max="126" width="5.33203125" customWidth="1"/>
     <col min="127" max="127" width="24.6640625" customWidth="1"/>
-    <col min="128" max="128" width="4.5" customWidth="1"/>
+    <col min="128" max="128" width="6.5" customWidth="1"/>
     <col min="129" max="129" width="24" customWidth="1"/>
     <col min="130" max="130" width="4.5" customWidth="1"/>
     <col min="131" max="131" width="19.33203125" customWidth="1"/>
@@ -3173,7 +3236,7 @@
     <col min="270" max="270" width="5.33203125" customWidth="1"/>
     <col min="271" max="271" width="17.33203125" customWidth="1"/>
     <col min="272" max="272" width="4.6640625" customWidth="1"/>
-    <col min="273" max="273" width="15.6640625" customWidth="1"/>
+    <col min="273" max="273" width="20.1640625" customWidth="1"/>
     <col min="274" max="274" width="3.6640625" customWidth="1"/>
     <col min="275" max="275" width="18.5" customWidth="1"/>
     <col min="276" max="276" width="4.83203125" customWidth="1"/>
@@ -16587,7 +16650,7 @@
       </c>
       <c r="D22" s="17">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22">
         <f t="shared" si="7"/>
@@ -16607,7 +16670,7 @@
       </c>
       <c r="I22" s="17">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O22" s="8"/>
       <c r="P22" s="9"/>
@@ -16737,12 +16800,8 @@
       </c>
       <c r="CS22" s="8"/>
       <c r="CT22" s="9"/>
-      <c r="CU22" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="CV22" s="9">
-        <v>1</v>
-      </c>
+      <c r="CU22" s="8"/>
+      <c r="CV22" s="9"/>
       <c r="CW22" s="8" t="s">
         <v>101</v>
       </c>
@@ -17756,7 +17815,7 @@
       </c>
       <c r="D24" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <f t="shared" si="7"/>
@@ -17776,7 +17835,7 @@
       </c>
       <c r="I24" s="17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="8"/>
       <c r="P24" s="9"/>
@@ -17861,8 +17920,12 @@
       <c r="CR24" s="9"/>
       <c r="CS24" s="8"/>
       <c r="CT24" s="9"/>
-      <c r="CU24" s="8"/>
-      <c r="CV24" s="9"/>
+      <c r="CU24" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="CV24" s="9">
+        <v>1</v>
+      </c>
       <c r="CW24" s="8"/>
       <c r="CX24" s="9"/>
       <c r="CY24" s="8"/>
@@ -25973,10 +26036,10 @@
     </row>
     <row r="39" spans="1:542" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" t="s">
         <v>186</v>
-      </c>
-      <c r="B39" t="s">
-        <v>188</v>
       </c>
       <c r="D39" s="17">
         <f t="shared" si="6"/>
@@ -26613,7 +26676,7 @@
     </row>
     <row r="40" spans="1:542" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B40" t="s">
         <v>180</v>
@@ -26624,7 +26687,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F40">
         <f t="shared" si="8"/>
@@ -26640,7 +26703,7 @@
       </c>
       <c r="I40" s="17">
         <f t="shared" si="5"/>
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="M40">
         <f t="shared" si="11"/>
@@ -26757,10 +26820,10 @@
       <c r="DU40" s="8"/>
       <c r="DV40" s="9"/>
       <c r="DW40" s="8" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="DX40" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="DY40" s="8"/>
       <c r="DZ40" s="9"/>
@@ -26841,7 +26904,7 @@
       <c r="GM40" s="8"/>
       <c r="GN40" s="9"/>
       <c r="GO40" s="8" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="GP40" s="9">
         <v>0.5</v>
@@ -27231,7 +27294,7 @@
     </row>
     <row r="41" spans="1:542" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B41" t="s">
         <v>181</v>
@@ -27242,7 +27305,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F41">
         <f t="shared" si="8"/>
@@ -27258,7 +27321,7 @@
       </c>
       <c r="I41" s="17">
         <f t="shared" si="5"/>
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="M41">
         <f t="shared" si="11"/>
@@ -27375,10 +27438,10 @@
       <c r="DU41" s="8"/>
       <c r="DV41" s="9"/>
       <c r="DW41" s="8" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="DX41" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="DY41" s="8"/>
       <c r="DZ41" s="9"/>
@@ -27405,7 +27468,7 @@
       <c r="EW41" s="8"/>
       <c r="EX41" s="9"/>
       <c r="EY41" s="8" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="EZ41" s="9">
         <v>0.5</v>
@@ -27459,7 +27522,7 @@
       <c r="GM41" s="8"/>
       <c r="GN41" s="9"/>
       <c r="GO41" s="8" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="GP41" s="9">
         <v>0.5</v>
@@ -27477,7 +27540,7 @@
       <c r="HA41" s="8"/>
       <c r="HB41" s="9"/>
       <c r="HC41" s="8" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="HD41" s="9">
         <v>0.5</v>
@@ -27512,7 +27575,7 @@
       <c r="IC41" s="8"/>
       <c r="ID41" s="9"/>
       <c r="IE41" s="8" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="IF41" s="9">
         <v>0.5</v>
@@ -27849,7 +27912,7 @@
     </row>
     <row r="42" spans="1:542" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B42" t="s">
         <v>182</v>
@@ -27860,7 +27923,7 @@
       </c>
       <c r="E42">
         <f>SUM(DO42:FX42)</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F42">
         <f>SUM(DY42:IF42)</f>
@@ -27876,7 +27939,7 @@
       </c>
       <c r="I42" s="17">
         <f>SUM(BI42:RL42)</f>
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="M42">
         <f>COUNTIF(O42:PV42,"H")</f>
@@ -27996,7 +28059,7 @@
         <v>80</v>
       </c>
       <c r="DX42" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="DY42" s="8"/>
       <c r="DZ42" s="9"/>
@@ -28023,7 +28086,7 @@
       <c r="EW42" s="8"/>
       <c r="EX42" s="9"/>
       <c r="EY42" s="8" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="EZ42" s="9">
         <v>0.5</v>
@@ -28130,7 +28193,7 @@
       <c r="IC42" s="8"/>
       <c r="ID42" s="9"/>
       <c r="IE42" s="8" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="IF42" s="9">
         <v>0.5</v>
@@ -28467,7 +28530,7 @@
     </row>
     <row r="43" spans="1:542" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B43" t="s">
         <v>183</v>
@@ -28478,7 +28541,7 @@
       </c>
       <c r="E43">
         <f>SUM(DO43:FX43)</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F43">
         <f>SUM(DY43:IF43)</f>
@@ -28494,7 +28557,7 @@
       </c>
       <c r="I43" s="17">
         <f>SUM(BI43:RL43)</f>
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="M43">
         <f>COUNTIF(O43:PV43,"H")</f>
@@ -28614,7 +28677,7 @@
         <v>95</v>
       </c>
       <c r="DX43" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="DY43" s="8"/>
       <c r="DZ43" s="9"/>
@@ -28713,7 +28776,7 @@
       <c r="HA43" s="8"/>
       <c r="HB43" s="9"/>
       <c r="HC43" s="8" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="HD43" s="9">
         <v>0.5</v>
@@ -29085,7 +29148,7 @@
     </row>
     <row r="44" spans="1:542" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>162</v>
@@ -29093,15 +29156,15 @@
       <c r="C44" s="17"/>
       <c r="D44" s="17">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F44">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G44">
         <f t="shared" si="9"/>
@@ -29113,7 +29176,7 @@
       </c>
       <c r="I44" s="17">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="M44">
         <f t="shared" si="11"/>
@@ -29230,8 +29293,12 @@
       <c r="DH44" s="9"/>
       <c r="DI44" s="8"/>
       <c r="DJ44" s="9"/>
-      <c r="DK44" s="8"/>
-      <c r="DL44" s="9"/>
+      <c r="DK44" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="DL44" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DM44" s="8"/>
       <c r="DN44" s="9"/>
       <c r="DO44" s="8"/>
@@ -29244,8 +29311,12 @@
       <c r="DV44" s="9"/>
       <c r="DW44" s="8"/>
       <c r="DX44" s="9"/>
-      <c r="DY44" s="8"/>
-      <c r="DZ44" s="9"/>
+      <c r="DY44" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="DZ44" s="9">
+        <v>0.5</v>
+      </c>
       <c r="EA44" s="8"/>
       <c r="EB44" s="9"/>
       <c r="EC44" s="8"/>
@@ -29649,7 +29720,7 @@
     </row>
     <row r="45" spans="1:542" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>168</v>
@@ -29657,7 +29728,7 @@
       <c r="C45" s="17"/>
       <c r="D45" s="17">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E45">
         <f t="shared" si="7"/>
@@ -29677,7 +29748,7 @@
       </c>
       <c r="I45" s="17">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M45">
         <f t="shared" si="11"/>
@@ -29794,8 +29865,12 @@
       <c r="DH45" s="9"/>
       <c r="DI45" s="8"/>
       <c r="DJ45" s="9"/>
-      <c r="DK45" s="8"/>
-      <c r="DL45" s="9"/>
+      <c r="DK45" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="DL45" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DM45" s="8"/>
       <c r="DN45" s="9"/>
       <c r="DO45" s="8"/>
@@ -30212,7 +30287,7 @@
     </row>
     <row r="46" spans="1:542" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>169</v>
@@ -30220,7 +30295,7 @@
       <c r="C46" s="17"/>
       <c r="D46" s="17">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <f t="shared" si="7"/>
@@ -30240,7 +30315,7 @@
       </c>
       <c r="I46" s="17">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M46">
         <f t="shared" si="11"/>
@@ -30358,8 +30433,12 @@
       <c r="DH46" s="9"/>
       <c r="DI46" s="8"/>
       <c r="DJ46" s="9"/>
-      <c r="DK46" s="8"/>
-      <c r="DL46" s="9"/>
+      <c r="DK46" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="DL46" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DM46" s="8"/>
       <c r="DN46" s="9"/>
       <c r="DO46" s="8"/>
@@ -30786,7 +30865,7 @@
     </row>
     <row r="47" spans="1:542" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>170</v>
@@ -30794,15 +30873,15 @@
       <c r="C47" s="17"/>
       <c r="D47" s="17">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E47">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F47">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G47">
         <f t="shared" si="9"/>
@@ -30814,7 +30893,7 @@
       </c>
       <c r="I47" s="17">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="M47">
         <f t="shared" si="11"/>
@@ -30933,8 +31012,12 @@
       <c r="DH47" s="9"/>
       <c r="DI47" s="8"/>
       <c r="DJ47" s="9"/>
-      <c r="DK47" s="8"/>
-      <c r="DL47" s="9"/>
+      <c r="DK47" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="DL47" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DM47" s="8"/>
       <c r="DN47" s="9"/>
       <c r="DO47" s="8"/>
@@ -30947,8 +31030,12 @@
       <c r="DV47" s="9"/>
       <c r="DW47" s="8"/>
       <c r="DX47" s="9"/>
-      <c r="DY47" s="8"/>
-      <c r="DZ47" s="9"/>
+      <c r="DY47" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="DZ47" s="9">
+        <v>0.5</v>
+      </c>
       <c r="EA47" s="8"/>
       <c r="EB47" s="9"/>
       <c r="EC47" s="8"/>
@@ -31367,15 +31454,15 @@
       <c r="C48" s="17"/>
       <c r="D48" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E48">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G48">
         <f t="shared" si="9"/>
@@ -31387,7 +31474,7 @@
       </c>
       <c r="I48" s="17">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M48">
         <f t="shared" si="11"/>
@@ -31511,8 +31598,12 @@
       <c r="DH48" s="9"/>
       <c r="DI48" s="8"/>
       <c r="DJ48" s="9"/>
-      <c r="DK48" s="8"/>
-      <c r="DL48" s="9"/>
+      <c r="DK48" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="DL48" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DM48" s="8"/>
       <c r="DN48" s="9"/>
       <c r="DO48" s="8"/>
@@ -31524,8 +31615,12 @@
       <c r="DV48" s="9"/>
       <c r="DW48" s="8"/>
       <c r="DX48" s="9"/>
-      <c r="DY48" s="8"/>
-      <c r="DZ48" s="9"/>
+      <c r="DY48" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="DZ48" s="9">
+        <v>0.5</v>
+      </c>
       <c r="EB48" s="1"/>
       <c r="EC48" s="8"/>
       <c r="ED48" s="9"/>
@@ -31940,24 +32035,24 @@
         <v>65</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C49" s="17"/>
       <c r="D49" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F49">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G49">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <f t="shared" si="10"/>
@@ -31965,7 +32060,7 @@
       </c>
       <c r="I49" s="17">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="M49">
         <f t="shared" si="11"/>
@@ -32077,8 +32172,12 @@
       <c r="CX49" s="9">
         <v>0.5</v>
       </c>
-      <c r="CY49" s="8"/>
-      <c r="CZ49" s="9"/>
+      <c r="CY49" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="CZ49" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DA49" s="8"/>
       <c r="DB49" s="9"/>
       <c r="DC49" s="8"/>
@@ -32089,8 +32188,12 @@
       <c r="DH49" s="9"/>
       <c r="DI49" s="8"/>
       <c r="DJ49" s="9"/>
-      <c r="DK49" s="8"/>
-      <c r="DL49" s="9"/>
+      <c r="DK49" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="DL49" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DM49" s="8"/>
       <c r="DN49" s="9"/>
       <c r="DO49" s="8"/>
@@ -32103,8 +32206,12 @@
       <c r="DV49" s="9"/>
       <c r="DW49" s="8"/>
       <c r="DX49" s="9"/>
-      <c r="DY49" s="8"/>
-      <c r="DZ49" s="1"/>
+      <c r="DY49" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="DZ49" s="9">
+        <v>0.5</v>
+      </c>
       <c r="EB49" s="1"/>
       <c r="EC49" s="8"/>
       <c r="ED49" s="9"/>
@@ -32112,8 +32219,12 @@
       <c r="EF49" s="9"/>
       <c r="EG49" s="8"/>
       <c r="EH49" s="9"/>
-      <c r="EI49" s="8"/>
-      <c r="EJ49" s="9"/>
+      <c r="EI49" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="EJ49" s="9">
+        <v>1</v>
+      </c>
       <c r="EK49" s="8"/>
       <c r="EL49" s="9"/>
       <c r="EM49" s="8"/>
@@ -32136,8 +32247,12 @@
       <c r="FD49" s="9"/>
       <c r="FE49" s="8"/>
       <c r="FF49" s="9"/>
-      <c r="FG49" s="8"/>
-      <c r="FH49" s="9"/>
+      <c r="FG49" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="FH49" s="9">
+        <v>1</v>
+      </c>
       <c r="FI49" s="8"/>
       <c r="FJ49" s="9"/>
       <c r="FK49" s="8"/>
@@ -32246,8 +32361,12 @@
       <c r="JJ49" s="9"/>
       <c r="JK49" s="8"/>
       <c r="JL49" s="9"/>
-      <c r="JM49" s="8"/>
-      <c r="JN49" s="9"/>
+      <c r="JM49" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="JN49" s="9">
+        <v>1</v>
+      </c>
       <c r="JO49" s="8"/>
       <c r="JP49" s="9"/>
       <c r="JQ49" s="8"/>
@@ -32535,20 +32654,20 @@
         <v>65</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C50" s="17"/>
       <c r="D50" s="17">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G50">
         <f t="shared" si="9"/>
@@ -32560,7 +32679,7 @@
       </c>
       <c r="I50" s="17">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="M50">
         <f t="shared" si="11"/>
@@ -32672,8 +32791,12 @@
       <c r="DH50" s="9"/>
       <c r="DI50" s="8"/>
       <c r="DJ50" s="9"/>
-      <c r="DK50" s="8"/>
-      <c r="DL50" s="9"/>
+      <c r="DK50" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="DL50" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DM50" s="8"/>
       <c r="DN50" s="9"/>
       <c r="DO50" s="8"/>
@@ -32682,12 +32805,20 @@
       <c r="DR50" s="9"/>
       <c r="DS50" s="8"/>
       <c r="DT50" s="9"/>
-      <c r="DU50" s="8"/>
-      <c r="DV50" s="9"/>
+      <c r="DU50" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="DV50" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DW50" s="8"/>
       <c r="DX50" s="9"/>
-      <c r="DY50" s="8"/>
-      <c r="DZ50" s="1"/>
+      <c r="DY50" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="DZ50" s="9">
+        <v>0.5</v>
+      </c>
       <c r="EA50" s="8"/>
       <c r="EB50" s="9"/>
       <c r="EC50" s="8"/>
@@ -33101,20 +33232,20 @@
         <v>65</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G51">
         <f t="shared" si="9"/>
@@ -33126,7 +33257,7 @@
       </c>
       <c r="I51" s="17">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="M51">
         <f t="shared" si="11"/>
@@ -33240,20 +33371,32 @@
       <c r="DH51" s="9"/>
       <c r="DI51" s="8"/>
       <c r="DJ51" s="9"/>
-      <c r="DK51" s="8"/>
-      <c r="DL51" s="9"/>
+      <c r="DK51" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="DL51" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DO51" s="8"/>
       <c r="DP51" s="9"/>
       <c r="DQ51" s="8"/>
       <c r="DR51" s="9"/>
       <c r="DS51" s="8"/>
       <c r="DT51" s="9"/>
-      <c r="DU51" s="8"/>
-      <c r="DV51" s="9"/>
+      <c r="DU51" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="DV51" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DW51" s="8"/>
       <c r="DX51" s="9"/>
-      <c r="DY51" s="8"/>
-      <c r="DZ51" s="9"/>
+      <c r="DY51" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="DZ51" s="9">
+        <v>0.5</v>
+      </c>
       <c r="EA51" s="8"/>
       <c r="EB51" s="9"/>
       <c r="EC51" s="8"/>
@@ -33667,20 +33810,20 @@
         <v>65</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C52" s="17"/>
       <c r="D52" s="17">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F52">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G52">
         <f t="shared" si="9"/>
@@ -33692,7 +33835,7 @@
       </c>
       <c r="I52" s="17">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="M52">
         <f t="shared" si="11"/>
@@ -33806,10 +33949,18 @@
       <c r="DH52" s="9"/>
       <c r="DI52" s="8"/>
       <c r="DJ52" s="9"/>
-      <c r="DK52" s="8"/>
-      <c r="DL52" s="9"/>
-      <c r="DM52" s="8"/>
-      <c r="DN52" s="9"/>
+      <c r="DK52" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="DL52" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="DM52" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="DN52" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DO52" s="8"/>
       <c r="DP52" s="9"/>
       <c r="DQ52" s="8"/>
@@ -33820,8 +33971,12 @@
       <c r="DV52" s="9"/>
       <c r="DW52" s="8"/>
       <c r="DX52" s="9"/>
-      <c r="DY52" s="8"/>
-      <c r="DZ52" s="9"/>
+      <c r="DY52" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="DZ52" s="9">
+        <v>0.5</v>
+      </c>
       <c r="EA52" s="8"/>
       <c r="EB52" s="9"/>
       <c r="EC52" s="8"/>
@@ -34237,20 +34392,20 @@
         <v>65</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E53">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F53">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G53">
         <f t="shared" si="9"/>
@@ -34262,7 +34417,7 @@
       </c>
       <c r="I53" s="17">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="M53">
         <f t="shared" si="11"/>
@@ -34376,8 +34531,18 @@
       <c r="DH53" s="9"/>
       <c r="DI53" s="8"/>
       <c r="DJ53" s="9"/>
-      <c r="DK53" s="8"/>
-      <c r="DL53" s="9"/>
+      <c r="DK53" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="DL53" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="DM53" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="DN53" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DO53" s="8"/>
       <c r="DP53" s="9"/>
       <c r="DQ53" s="8"/>
@@ -34388,8 +34553,12 @@
       <c r="DV53" s="9"/>
       <c r="DW53" s="8"/>
       <c r="DX53" s="9"/>
-      <c r="DY53" s="8"/>
-      <c r="DZ53" s="9"/>
+      <c r="DY53" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="DZ53" s="9">
+        <v>0.5</v>
+      </c>
       <c r="EA53" s="8"/>
       <c r="EB53" s="9"/>
       <c r="EC53" s="8"/>
@@ -34806,11 +34975,11 @@
       </c>
       <c r="D54" s="17">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E54">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
         <f t="shared" si="8"/>
@@ -34826,7 +34995,7 @@
       </c>
       <c r="I54" s="17">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="M54">
         <f t="shared" si="11"/>
@@ -34946,21 +35115,33 @@
       <c r="DF54" s="9"/>
       <c r="DG54" s="8"/>
       <c r="DH54" s="9"/>
-      <c r="DI54" s="8"/>
-      <c r="DJ54" s="9"/>
+      <c r="DI54" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="DJ54" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DK54" s="8"/>
       <c r="DL54" s="9"/>
       <c r="DM54" s="8"/>
       <c r="DN54" s="9"/>
-      <c r="DO54" s="8"/>
-      <c r="DP54" s="9"/>
+      <c r="DO54" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="DP54" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DQ54" s="8"/>
       <c r="DR54" s="9"/>
       <c r="DT54" s="1"/>
       <c r="DU54" s="8"/>
       <c r="DV54" s="9"/>
-      <c r="DW54" s="8"/>
-      <c r="DX54" s="9"/>
+      <c r="DW54" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="DX54" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DY54" s="8"/>
       <c r="DZ54" s="9"/>
       <c r="EA54" s="8"/>
@@ -35380,15 +35561,15 @@
       </c>
       <c r="D55" s="17">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E55">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G55">
         <f t="shared" si="9"/>
@@ -35400,7 +35581,7 @@
       </c>
       <c r="I55" s="17">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="M55">
         <f t="shared" si="11"/>
@@ -35520,14 +35701,22 @@
       <c r="DF55" s="9"/>
       <c r="DG55" s="8"/>
       <c r="DH55" s="9"/>
-      <c r="DI55" s="8"/>
-      <c r="DJ55" s="9"/>
+      <c r="DI55" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="DJ55" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DK55" s="8"/>
       <c r="DL55" s="9"/>
       <c r="DM55" s="8"/>
       <c r="DN55" s="9"/>
-      <c r="DO55" s="8"/>
-      <c r="DP55" s="9"/>
+      <c r="DO55" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="DP55" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DQ55" s="8"/>
       <c r="DR55" s="9"/>
       <c r="DT55" s="1"/>
@@ -35535,8 +35724,12 @@
       <c r="DV55" s="9"/>
       <c r="DW55" s="8"/>
       <c r="DX55" s="9"/>
-      <c r="DY55" s="8"/>
-      <c r="DZ55" s="9"/>
+      <c r="DY55" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="DZ55" s="9">
+        <v>0.5</v>
+      </c>
       <c r="EA55" s="8"/>
       <c r="EB55" s="9"/>
       <c r="EC55" s="8"/>
@@ -35950,16 +36143,16 @@
         <v>56</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="17">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E56">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F56">
         <f t="shared" si="8"/>
@@ -35975,7 +36168,7 @@
       </c>
       <c r="I56" s="17">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="M56">
         <f t="shared" si="11"/>
@@ -36097,10 +36290,18 @@
       <c r="DH56" s="9"/>
       <c r="DI56" s="8"/>
       <c r="DJ56" s="9"/>
-      <c r="DK56" s="8"/>
-      <c r="DL56" s="9"/>
-      <c r="DM56" s="8"/>
-      <c r="DN56" s="9"/>
+      <c r="DK56" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="DL56" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="DM56" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="DN56" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DO56" s="8"/>
       <c r="DP56" s="9"/>
       <c r="DQ56" s="8"/>
@@ -36109,8 +36310,12 @@
       <c r="DT56" s="9"/>
       <c r="DU56" s="8"/>
       <c r="DV56" s="9"/>
-      <c r="DW56" s="8"/>
-      <c r="DX56" s="9"/>
+      <c r="DW56" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="DX56" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DY56" s="8"/>
       <c r="DZ56" s="9"/>
       <c r="EA56" s="8"/>
@@ -36530,15 +36735,15 @@
       </c>
       <c r="D57" s="17">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E57">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F57">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G57">
         <f t="shared" si="9"/>
@@ -36550,7 +36755,7 @@
       </c>
       <c r="I57" s="17">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="M57">
         <f t="shared" si="11"/>
@@ -36670,12 +36875,20 @@
       <c r="DF57" s="9"/>
       <c r="DG57" s="8"/>
       <c r="DH57" s="9"/>
-      <c r="DI57" s="8"/>
-      <c r="DJ57" s="9"/>
+      <c r="DI57" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="DJ57" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DK57" s="8"/>
       <c r="DL57" s="9"/>
-      <c r="DM57" s="8"/>
-      <c r="DN57" s="9"/>
+      <c r="DM57" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="DN57" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DO57" s="8"/>
       <c r="DP57" s="9"/>
       <c r="DQ57" s="8"/>
@@ -36686,8 +36899,12 @@
       <c r="DV57" s="9"/>
       <c r="DW57" s="8"/>
       <c r="DX57" s="9"/>
-      <c r="DY57" s="8"/>
-      <c r="DZ57" s="9"/>
+      <c r="DY57" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="DZ57" s="9">
+        <v>0.5</v>
+      </c>
       <c r="EA57" s="8"/>
       <c r="EB57" s="9"/>
       <c r="EC57" s="8"/>
@@ -37105,15 +37322,15 @@
       </c>
       <c r="D58" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E58">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F58">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <f t="shared" si="9"/>
@@ -37125,7 +37342,7 @@
       </c>
       <c r="I58" s="17">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M58">
         <f t="shared" si="11"/>
@@ -37249,14 +37466,22 @@
       <c r="DF58" s="9"/>
       <c r="DG58" s="8"/>
       <c r="DH58" s="9"/>
-      <c r="DI58" s="8"/>
-      <c r="DJ58" s="9"/>
+      <c r="DI58" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ58" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DK58" s="8"/>
       <c r="DL58" s="9"/>
       <c r="DM58" s="8"/>
       <c r="DN58" s="9"/>
-      <c r="DO58" s="8"/>
-      <c r="DP58" s="9"/>
+      <c r="DO58" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="DP58" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DQ58" s="8"/>
       <c r="DR58" s="9"/>
       <c r="DS58" s="8"/>
@@ -37265,10 +37490,18 @@
       <c r="DV58" s="9"/>
       <c r="DW58" s="8"/>
       <c r="DX58" s="9"/>
-      <c r="DY58" s="8"/>
-      <c r="DZ58" s="9"/>
-      <c r="EA58" s="8"/>
-      <c r="EB58" s="9"/>
+      <c r="DY58" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="DZ58" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="EA58" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="EB58" s="9">
+        <v>0.5</v>
+      </c>
       <c r="EC58" s="8"/>
       <c r="ED58" s="9"/>
       <c r="EE58" s="8"/>
@@ -37685,11 +37918,11 @@
       </c>
       <c r="D59" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E59">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F59">
         <f t="shared" si="8"/>
@@ -37705,7 +37938,7 @@
       </c>
       <c r="I59" s="17">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M59">
         <f t="shared" si="11"/>
@@ -37827,8 +38060,12 @@
       <c r="DF59" s="9"/>
       <c r="DG59" s="8"/>
       <c r="DH59" s="9"/>
-      <c r="DI59" s="8"/>
-      <c r="DJ59" s="9"/>
+      <c r="DI59" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ59" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DK59" s="8"/>
       <c r="DL59" s="9"/>
       <c r="DM59" s="8"/>
@@ -37841,8 +38078,12 @@
       <c r="DT59" s="9"/>
       <c r="DU59" s="8"/>
       <c r="DV59" s="9"/>
-      <c r="DW59" s="8"/>
-      <c r="DX59" s="9"/>
+      <c r="DW59" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="DX59" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DY59" s="8"/>
       <c r="DZ59" s="9"/>
       <c r="EA59" s="8"/>
@@ -38268,7 +38509,7 @@
       </c>
       <c r="E60">
         <f>SUM(DO60:FX60)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F60">
         <f>SUM(DY60:IF60)</f>
@@ -38284,7 +38525,7 @@
       </c>
       <c r="I60" s="17">
         <f>SUM(BI60:RL60)</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M60">
         <f>COUNTIF(O60:PV60,"H")</f>
@@ -38418,8 +38659,12 @@
       <c r="DR60" s="9"/>
       <c r="DS60" s="8"/>
       <c r="DT60" s="9"/>
-      <c r="DU60" s="8"/>
-      <c r="DV60" s="9"/>
+      <c r="DU60" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="DV60" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DW60" s="8"/>
       <c r="DX60" s="9"/>
       <c r="DY60" s="8"/>
@@ -38843,15 +39088,15 @@
       </c>
       <c r="D61" s="17">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E61">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G61">
         <f t="shared" si="9"/>
@@ -38863,7 +39108,7 @@
       </c>
       <c r="I61" s="17">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="M61">
         <f t="shared" si="11"/>
@@ -38985,10 +39230,18 @@
       <c r="DJ61" s="9"/>
       <c r="DK61" s="8"/>
       <c r="DL61" s="9"/>
-      <c r="DM61" s="8"/>
-      <c r="DN61" s="9"/>
-      <c r="DO61" s="8"/>
-      <c r="DP61" s="9"/>
+      <c r="DM61" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="DN61" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="DO61" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="DP61" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DQ61" s="8"/>
       <c r="DR61" s="9"/>
       <c r="DS61" s="8"/>
@@ -38999,8 +39252,12 @@
       <c r="DX61" s="9"/>
       <c r="DY61" s="8"/>
       <c r="DZ61" s="9"/>
-      <c r="EA61" s="8"/>
-      <c r="EB61" s="9"/>
+      <c r="EA61" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="EB61" s="9">
+        <v>0.5</v>
+      </c>
       <c r="EC61" s="8"/>
       <c r="ED61" s="9"/>
       <c r="EE61" s="8"/>
@@ -39417,15 +39674,15 @@
       </c>
       <c r="D62" s="17">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G62">
         <f t="shared" si="9"/>
@@ -39437,7 +39694,7 @@
       </c>
       <c r="I62" s="17">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M62">
         <f t="shared" si="11"/>
@@ -39541,12 +39798,8 @@
       <c r="CX62" s="9">
         <v>0.5</v>
       </c>
-      <c r="CY62" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="CZ62" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="CY62" s="8"/>
+      <c r="CZ62" s="9"/>
       <c r="DA62" s="8"/>
       <c r="DB62" s="9"/>
       <c r="DC62" s="8"/>
@@ -39561,8 +39814,12 @@
       <c r="DL62" s="9"/>
       <c r="DM62" s="8"/>
       <c r="DN62" s="9"/>
-      <c r="DO62" s="8"/>
-      <c r="DP62" s="9"/>
+      <c r="DO62" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="DP62" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DQ62" s="8"/>
       <c r="DR62" s="9"/>
       <c r="DS62" s="8"/>
@@ -39573,8 +39830,12 @@
       <c r="DX62" s="9"/>
       <c r="DY62" s="8"/>
       <c r="DZ62" s="9"/>
-      <c r="EA62" s="8"/>
-      <c r="EB62" s="9"/>
+      <c r="EA62" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="EB62" s="9">
+        <v>0.5</v>
+      </c>
       <c r="EC62" s="8"/>
       <c r="ED62" s="9"/>
       <c r="EE62" s="8"/>
@@ -39991,15 +40252,15 @@
       </c>
       <c r="D63" s="17">
         <f>SUM(BG63:DN63)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E63">
         <f>SUM(DO63:FX63)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
         <f>SUM(DY63:IF63)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G63">
         <f>SUM(IG63:KP63)</f>
@@ -40011,7 +40272,7 @@
       </c>
       <c r="I63" s="17">
         <f>SUM(BI63:RL63)</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="M63">
         <f>COUNTIF(O63:PV63,"H")</f>
@@ -40133,10 +40394,18 @@
       <c r="DJ63" s="9"/>
       <c r="DK63" s="8"/>
       <c r="DL63" s="9"/>
-      <c r="DM63" s="8"/>
-      <c r="DN63" s="9"/>
-      <c r="DO63" s="8"/>
-      <c r="DP63" s="9"/>
+      <c r="DM63" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="DN63" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="DO63" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="DP63" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DQ63" s="8"/>
       <c r="DR63" s="9"/>
       <c r="DS63" s="8"/>
@@ -40147,8 +40416,12 @@
       <c r="DX63" s="9"/>
       <c r="DY63" s="8"/>
       <c r="DZ63" s="9"/>
-      <c r="EA63" s="8"/>
-      <c r="EB63" s="9"/>
+      <c r="EA63" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="EB63" s="9">
+        <v>0.5</v>
+      </c>
       <c r="EC63" s="8"/>
       <c r="ED63" s="9"/>
       <c r="EE63" s="8"/>
@@ -40565,15 +40838,15 @@
       </c>
       <c r="D64" s="17">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="E64">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F64">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G64">
         <f t="shared" si="9"/>
@@ -40585,7 +40858,7 @@
       </c>
       <c r="I64" s="17">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="M64">
         <f t="shared" si="11"/>
@@ -40737,28 +41010,45 @@
       <c r="DF64" s="9"/>
       <c r="DG64" s="8"/>
       <c r="DH64" s="9"/>
-      <c r="DI64" s="8"/>
-      <c r="DJ64" s="9"/>
+      <c r="DI64" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="DJ64" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DK64" s="8"/>
       <c r="DL64" s="9"/>
       <c r="DM64" s="8"/>
+      <c r="DN64" s="9"/>
       <c r="DO64" s="8"/>
       <c r="DP64" s="9"/>
-      <c r="DQ64" s="8"/>
-      <c r="DR64" s="9"/>
+      <c r="DQ64" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="DR64" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DS64" s="8"/>
       <c r="DT64" s="9"/>
       <c r="DU64" s="8"/>
       <c r="DV64" s="9"/>
       <c r="DW64" s="8"/>
       <c r="DX64" s="9"/>
-      <c r="DY64" s="8"/>
-      <c r="DZ64" s="9"/>
+      <c r="DY64" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="DZ64" s="9">
+        <v>1</v>
+      </c>
       <c r="EA64" s="8"/>
       <c r="EB64" s="9"/>
       <c r="EC64" s="8"/>
-      <c r="EE64" s="8"/>
-      <c r="EF64" s="9"/>
+      <c r="EE64" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="EF64" s="9">
+        <v>0.5</v>
+      </c>
       <c r="EG64" s="8"/>
       <c r="EH64" s="9"/>
       <c r="EI64" s="8"/>
@@ -41168,15 +41458,15 @@
       </c>
       <c r="D65" s="17">
         <f t="shared" si="6"/>
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="E65">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F65">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G65">
         <f t="shared" si="9"/>
@@ -41188,7 +41478,7 @@
       </c>
       <c r="I65" s="17">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M65">
         <f t="shared" si="11"/>
@@ -41332,29 +41622,45 @@
       <c r="DF65" s="9"/>
       <c r="DG65" s="8"/>
       <c r="DH65" s="9"/>
-      <c r="DI65" s="8"/>
-      <c r="DJ65" s="9"/>
+      <c r="DI65" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="DJ65" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DK65" s="8"/>
       <c r="DL65" s="9"/>
       <c r="DM65" s="8"/>
       <c r="DN65" s="9"/>
       <c r="DO65" s="8"/>
       <c r="DP65" s="9"/>
-      <c r="DQ65" s="8"/>
-      <c r="DR65" s="9"/>
+      <c r="DQ65" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="DR65" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DS65" s="8"/>
       <c r="DT65" s="9"/>
       <c r="DU65" s="8"/>
       <c r="DV65" s="9"/>
-      <c r="DW65" s="8"/>
-      <c r="DX65" s="9"/>
+      <c r="DW65" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="DX65" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DY65" s="8"/>
       <c r="DZ65" s="9"/>
       <c r="EA65" s="8"/>
       <c r="EB65" s="9"/>
       <c r="EC65" s="8"/>
-      <c r="EE65" s="8"/>
-      <c r="EF65" s="9"/>
+      <c r="EE65" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="EF65" s="9">
+        <v>0.5</v>
+      </c>
       <c r="EG65" s="8"/>
       <c r="EH65" s="9"/>
       <c r="EI65" s="8"/>
@@ -41760,15 +42066,15 @@
       </c>
       <c r="D66" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E66">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F66">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G66">
         <f t="shared" si="9"/>
@@ -41780,7 +42086,7 @@
       </c>
       <c r="I66" s="17">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="M66">
         <f t="shared" si="11"/>
@@ -41926,18 +42232,30 @@
       <c r="DH66" s="9"/>
       <c r="DI66" s="8"/>
       <c r="DJ66" s="9"/>
-      <c r="DK66" s="8"/>
-      <c r="DL66" s="9"/>
+      <c r="DK66" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="DL66" s="9">
+        <v>1</v>
+      </c>
       <c r="DM66" s="8"/>
       <c r="DN66" s="9"/>
       <c r="DO66" s="8"/>
       <c r="DP66" s="9"/>
-      <c r="DQ66" s="8"/>
-      <c r="DR66" s="9"/>
+      <c r="DQ66" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="DR66" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DS66" s="8"/>
       <c r="DT66" s="9"/>
-      <c r="DU66" s="8"/>
-      <c r="DV66" s="9"/>
+      <c r="DU66" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="DV66" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DW66" s="8"/>
       <c r="DX66" s="9"/>
       <c r="DY66" s="8"/>
@@ -41946,8 +42264,12 @@
       <c r="EB66" s="9"/>
       <c r="EC66" s="8"/>
       <c r="ED66" s="9"/>
-      <c r="EE66" s="8"/>
-      <c r="EF66" s="9"/>
+      <c r="EE66" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="EF66" s="9">
+        <v>0.5</v>
+      </c>
       <c r="EG66" s="8"/>
       <c r="EH66" s="9"/>
       <c r="EI66" s="8"/>
@@ -42355,15 +42677,15 @@
       </c>
       <c r="D67" s="17">
         <f t="shared" si="6"/>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="E67">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F67">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G67">
         <f t="shared" si="9"/>
@@ -42375,7 +42697,7 @@
       </c>
       <c r="I67" s="17">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="M67">
         <f t="shared" si="11"/>
@@ -42517,18 +42839,30 @@
       <c r="DH67" s="9"/>
       <c r="DI67" s="8"/>
       <c r="DJ67" s="9"/>
-      <c r="DK67" s="8"/>
-      <c r="DL67" s="9"/>
+      <c r="DK67" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="DL67" s="9">
+        <v>1</v>
+      </c>
       <c r="DM67" s="8"/>
       <c r="DN67" s="9"/>
       <c r="DO67" s="8"/>
       <c r="DP67" s="9"/>
-      <c r="DQ67" s="8"/>
-      <c r="DR67" s="9"/>
+      <c r="DQ67" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="DR67" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DS67" s="8"/>
       <c r="DT67" s="9"/>
-      <c r="DU67" s="8"/>
-      <c r="DV67" s="9"/>
+      <c r="DU67" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="DV67" s="9">
+        <v>0.5</v>
+      </c>
       <c r="DW67" s="8"/>
       <c r="DX67" s="9"/>
       <c r="DY67" s="8"/>
@@ -42537,8 +42871,12 @@
       <c r="EB67" s="9"/>
       <c r="EC67" s="8"/>
       <c r="ED67" s="9"/>
-      <c r="EE67" s="8"/>
-      <c r="EF67" s="9"/>
+      <c r="EE67" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="EF67" s="9">
+        <v>0.5</v>
+      </c>
       <c r="EG67" s="8"/>
       <c r="EH67" s="9"/>
       <c r="EI67" s="8"/>
@@ -43036,6 +43374,7 @@
       <c r="DG68" s="8"/>
       <c r="DI68" s="8"/>
       <c r="DK68" s="8"/>
+      <c r="DL68" s="9"/>
       <c r="DM68" s="8"/>
       <c r="DN68" s="9"/>
       <c r="DO68" s="8"/>
@@ -50434,7 +50773,7 @@
       </c>
       <c r="DL79">
         <f t="shared" ref="DL79:DL84" si="62">COUNTIF(DK$5:DK$75,DK79)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DM79" t="s">
         <v>62</v>
@@ -50448,14 +50787,14 @@
       </c>
       <c r="DP79">
         <f t="shared" ref="DP79:DP96" si="64">COUNTIF(DO$5:DO$75,DO79)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DQ79" t="s">
         <v>100</v>
       </c>
       <c r="DR79">
         <f t="shared" ref="DR79:DR96" si="65">COUNTIF(DQ$5:DQ$75,DQ79)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DT79">
         <f t="shared" ref="DT79:DT96" si="66">COUNTIF(DS$5:DS$75,DS79)</f>
@@ -50466,7 +50805,7 @@
       </c>
       <c r="DV79">
         <f t="shared" ref="DV79:DV96" si="67">COUNTIF(DU$5:DU$75,DU79)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DW79" t="s">
         <v>97</v>
@@ -50480,14 +50819,14 @@
       </c>
       <c r="DZ79">
         <f t="shared" ref="DZ79:DZ84" si="69">COUNTIF(DY$5:DY$75,DY79)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EA79" t="s">
         <v>62</v>
       </c>
       <c r="EB79">
         <f t="shared" ref="EB79:EB96" si="70">COUNTIF(EA$5:EA$75,EA79)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="ED79">
         <f t="shared" ref="ED79:ED96" si="71">COUNTIF(EC$5:EC$75,EC79)</f>
@@ -50498,15 +50837,18 @@
       </c>
       <c r="EF79">
         <f t="shared" ref="EF79:EF96" si="72">COUNTIF(EE$5:EE$75,EE79)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EH79">
         <f t="shared" ref="EH79:EH96" si="73">COUNTIF(EG$5:EG$75,EG79)</f>
         <v>0</v>
       </c>
+      <c r="EI79" t="s">
+        <v>92</v>
+      </c>
       <c r="EJ79">
         <f t="shared" ref="EJ79:EJ96" si="74">COUNTIF(EI$5:EI$75,EI79)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL79">
         <f t="shared" ref="EL79:EL96" si="75">COUNTIF(EK$5:EK$75,EK79)</f>
@@ -50904,9 +51246,12 @@
         <f t="shared" ref="JL79:JL96" si="136">COUNTIF(JK$5:JK$75,JK79)</f>
         <v>0</v>
       </c>
+      <c r="JM79" t="s">
+        <v>139</v>
+      </c>
       <c r="JN79">
         <f t="shared" ref="JN79:JN96" si="137">COUNTIF(JM$5:JM$75,JM79)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JO79" t="s">
         <v>100</v>
@@ -51420,7 +51765,7 @@
         <v>0</v>
       </c>
       <c r="QI79" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="QJ79">
         <f t="shared" ref="QJ79:QJ96" si="222">COUNTIF(QI$5:QI$75,QI79)</f>
@@ -51933,7 +52278,7 @@
       </c>
       <c r="DL80">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DM80" t="s">
         <v>63</v>
@@ -51947,14 +52292,14 @@
       </c>
       <c r="DP80">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DQ80" t="s">
         <v>145</v>
       </c>
       <c r="DR80">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DT80">
         <f t="shared" si="66"/>
@@ -51965,7 +52310,7 @@
       </c>
       <c r="DV80">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW80" t="s">
         <v>98</v>
@@ -51979,14 +52324,14 @@
       </c>
       <c r="DZ80">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EA80" t="s">
         <v>63</v>
       </c>
       <c r="EB80">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="ED80">
         <f t="shared" si="71"/>
@@ -51997,7 +52342,7 @@
       </c>
       <c r="EF80">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EH80">
         <f t="shared" si="73"/>
@@ -53423,14 +53768,14 @@
       </c>
       <c r="DJ81">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DK81" t="s">
         <v>104</v>
       </c>
       <c r="DL81">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM81" t="s">
         <v>92</v>
@@ -53444,7 +53789,7 @@
       </c>
       <c r="DP81">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DR81">
         <f t="shared" si="65"/>
@@ -53459,7 +53804,7 @@
       </c>
       <c r="DV81">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DW81" t="s">
         <v>99</v>
@@ -53473,7 +53818,7 @@
       </c>
       <c r="DZ81">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA81" t="s">
         <v>92</v>
@@ -53554,9 +53899,12 @@
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
+      <c r="FG81" t="s">
+        <v>146</v>
+      </c>
       <c r="FH81">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ81">
         <f>COUNTIF(FI$5:FI$75,#REF!)</f>
@@ -55125,7 +55473,7 @@
         <v>0</v>
       </c>
       <c r="HE82" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="HF82">
         <f t="shared" ref="HF82:HF95" si="273">COUNTIF(HE$5:HE$75,HE83)</f>
@@ -55297,7 +55645,7 @@
         <v>0</v>
       </c>
       <c r="JI82" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="JJ82">
         <f t="shared" ref="JJ82:JJ90" si="274">COUNTIF(JI$5:JI$75,JI83)</f>
@@ -57602,7 +57950,7 @@
       </c>
       <c r="DJ84">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DK84" t="s">
         <v>99</v>
@@ -57616,7 +57964,7 @@
       </c>
       <c r="DN84">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DP84">
         <f t="shared" si="64"/>
@@ -58832,7 +59180,7 @@
         <v>0</v>
       </c>
       <c r="DK85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="DL85">
         <f t="shared" ref="DL85:DL95" si="278">COUNTIF(DK$5:DK$75,DK86)</f>
@@ -58843,7 +59191,7 @@
       </c>
       <c r="DN85">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DP85">
         <f t="shared" si="64"/>
@@ -58866,10 +59214,10 @@
       </c>
       <c r="DX85">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="DZ85">
         <f t="shared" ref="DZ85:DZ95" si="279">COUNTIF(DY$5:DY$75,DY86)</f>
@@ -58937,7 +59285,7 @@
         <v>0</v>
       </c>
       <c r="FA85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="FB85">
         <f t="shared" ref="FB85:FB94" si="280">COUNTIF(FA$5:FA$75,FA86)</f>
@@ -58974,7 +59322,7 @@
         <v>0</v>
       </c>
       <c r="FO85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="FP85">
         <f t="shared" ref="FP85:FP95" si="281">COUNTIF(FO$5:FO$75,FO86)</f>
@@ -59042,7 +59390,7 @@
         <v>0</v>
       </c>
       <c r="GQ85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="GR85">
         <f t="shared" ref="GR85:GR94" si="283">COUNTIF(GQ$5:GQ$75,GQ86)</f>
@@ -59172,7 +59520,7 @@
         <v>0</v>
       </c>
       <c r="IU85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="IV85">
         <f t="shared" ref="IV85:IV95" si="284">COUNTIF(IU$5:IU$75,IU86)</f>
@@ -59299,7 +59647,7 @@
         <v>0</v>
       </c>
       <c r="KY85" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="KZ85">
         <f t="shared" ref="KZ85:KZ95" si="285">COUNTIF(KY$5:KY$75,KY86)</f>
@@ -59367,7 +59715,7 @@
         <v>0</v>
       </c>
       <c r="MA85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="MB85">
         <f t="shared" ref="MB85:MB95" si="286">COUNTIF(MA$5:MA$75,MA86)</f>
@@ -59469,7 +59817,7 @@
         <v>0</v>
       </c>
       <c r="NQ85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="NR85">
         <f>COUNTIF(NQ$5:NQ$75,#REF!)</f>
@@ -59537,7 +59885,7 @@
         <v>0</v>
       </c>
       <c r="OS85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="OT85">
         <f t="shared" ref="OT85:OT95" si="287">COUNTIF(OS$5:OS$75,OS86)</f>
@@ -60016,7 +60364,7 @@
       </c>
       <c r="CV86">
         <f t="shared" si="54"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CW86" t="s">
         <v>100</v>
@@ -60067,7 +60415,7 @@
       </c>
       <c r="DN86">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DP86">
         <f t="shared" si="64"/>
@@ -61277,7 +61625,7 @@
       </c>
       <c r="DL87">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN87">
         <f t="shared" si="63"/>
@@ -61311,7 +61659,7 @@
       </c>
       <c r="DZ87">
         <f t="shared" si="279"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB87">
         <f t="shared" si="70"/>
@@ -62423,7 +62771,7 @@
       </c>
       <c r="CV88">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW88" t="s">
         <v>116</v>
@@ -62464,7 +62812,7 @@
       </c>
       <c r="DL88">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DN88">
         <f t="shared" si="63"/>
@@ -62498,7 +62846,7 @@
       </c>
       <c r="DZ88">
         <f t="shared" si="279"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EB88">
         <f t="shared" si="70"/>
@@ -63648,7 +63996,7 @@
       </c>
       <c r="DL89">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DN89">
         <f t="shared" si="63"/>
@@ -64823,7 +65171,7 @@
       </c>
       <c r="DL90">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DN90">
         <f t="shared" si="63"/>
@@ -64857,7 +65205,7 @@
       </c>
       <c r="DZ90">
         <f t="shared" si="279"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EB90">
         <f t="shared" si="70"/>
@@ -65989,7 +66337,7 @@
       </c>
       <c r="DL91">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN91">
         <f t="shared" si="63"/>
@@ -66023,7 +66371,7 @@
       </c>
       <c r="DZ91">
         <f t="shared" si="279"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EB91">
         <f t="shared" si="70"/>
@@ -67142,7 +67490,7 @@
       </c>
       <c r="DJ92">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK92" t="s">
         <v>89</v>
@@ -67176,7 +67524,7 @@
       </c>
       <c r="DX92">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY92" t="s">
         <v>89</v>
@@ -68275,7 +68623,7 @@
       </c>
       <c r="DJ93">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DK93" t="s">
         <v>161</v>
@@ -68309,7 +68657,7 @@
       </c>
       <c r="DX93">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DZ93">
         <f t="shared" si="279"/>
@@ -73738,641 +74086,680 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="O79:O96">
-    <cfRule type="expression" dxfId="148" priority="9489" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="9499" stopIfTrue="1">
       <formula>(P79=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q79:Q96">
-    <cfRule type="expression" dxfId="147" priority="9495" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="9505" stopIfTrue="1">
       <formula>(R79=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S79:S96">
-    <cfRule type="expression" dxfId="146" priority="9501" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="9511" stopIfTrue="1">
       <formula>(T79=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U79:U96 AA79:AA96">
-    <cfRule type="expression" dxfId="145" priority="12627" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="12637" stopIfTrue="1">
       <formula>(V79=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W79:W96">
-    <cfRule type="expression" dxfId="144" priority="9490" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="9500" stopIfTrue="1">
       <formula>(X79=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y79:Y96">
-    <cfRule type="expression" dxfId="143" priority="9507" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="9517" stopIfTrue="1">
       <formula>(Z79=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC79:AC96 AI79:AI96 AO79:AO96">
-    <cfRule type="expression" dxfId="142" priority="10804" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="10814" stopIfTrue="1">
       <formula>(AD79=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE79:AE96">
-    <cfRule type="expression" dxfId="141" priority="10426" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="10436" stopIfTrue="1">
       <formula>(AF79=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG79:AG96">
-    <cfRule type="expression" dxfId="140" priority="10395" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="10405" stopIfTrue="1">
       <formula>(AH79=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK79:AK96">
-    <cfRule type="expression" dxfId="139" priority="10689" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="10699" stopIfTrue="1">
       <formula>(AL79=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM79:AM96">
-    <cfRule type="expression" dxfId="138" priority="10332" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="10342" stopIfTrue="1">
       <formula>(AN79=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ79:AQ96">
-    <cfRule type="expression" dxfId="137" priority="10329" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="10339" stopIfTrue="1">
       <formula>(AR79=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS79:AS96">
-    <cfRule type="expression" dxfId="136" priority="10425" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="10435" stopIfTrue="1">
       <formula>(AT79=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU79:AU96">
-    <cfRule type="expression" dxfId="135" priority="8649" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="8659" stopIfTrue="1">
       <formula>(AV79=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW79:AW96">
-    <cfRule type="expression" dxfId="134" priority="10801" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="10811" stopIfTrue="1">
       <formula>(AX79=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY79:AY96">
-    <cfRule type="expression" dxfId="133" priority="5472" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="5482" stopIfTrue="1">
       <formula>(AZ79=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA79:BA96">
-    <cfRule type="expression" dxfId="132" priority="10688" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="10698" stopIfTrue="1">
       <formula>(BB79=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG79:BG96 BK79:BK96 BO79:BO96 BS79:BS96 DK79:DK85 FO79:FO85 CE79:CE96 CM79:CM96 CQ79:CQ96 DC79:DC96 DG79:DG96 DO79:DO96 DS79:DS96 DW79:DW96 EE79:EE96 EI79:EI96 EM79:EM96 EQ79:EQ96 EY79:EY96 FG79:FG96 FK79:FK96 FS79:FS96 FW79:FW96 GA79:GA96 GE79:GE96 GI79:GI96 GM79:GM96">
-    <cfRule type="expression" dxfId="131" priority="147">
+  <conditionalFormatting sqref="BG79:BG96 BK79:BK96 BO79:BO96 BS79:BS96 FO79:FO85 CE79:CE96 CM79:CM96 CQ79:CQ96 DC79:DC96 DG79:DG96 DO79:DO96 DS79:DS96 DW79:DW96 EE79:EE96 EI79:EI96 EM79:EM96 EQ79:EQ96 EY79:EY96 FG79:FG96 FK79:FK96 FS79:FS96 FW79:FW96 GA79:GA96 GE79:GE96 GI79:GI96 GM79:GM96">
+    <cfRule type="expression" dxfId="140" priority="157">
       <formula>(BH79=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG79:BG96">
-    <cfRule type="expression" dxfId="130" priority="146">
+    <cfRule type="expression" dxfId="139" priority="156">
       <formula>(BH79=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI79:BI96">
-    <cfRule type="expression" dxfId="129" priority="98" stopIfTrue="1">
-      <formula>(BJ79&gt;2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="96">
+    <cfRule type="expression" dxfId="138" priority="106">
       <formula>(BJ79=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="97">
+    <cfRule type="expression" dxfId="137" priority="107">
       <formula>(BJ79=2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="108" stopIfTrue="1">
+      <formula>(BJ79&gt;2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK79:BK96">
-    <cfRule type="expression" dxfId="126" priority="95">
+    <cfRule type="expression" dxfId="135" priority="105">
       <formula>(BL79=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM79:BM96">
-    <cfRule type="expression" dxfId="125" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="104" stopIfTrue="1">
       <formula>(BN79&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="93">
+    <cfRule type="expression" dxfId="133" priority="102">
+      <formula>(BN79=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="103">
       <formula>(BN79=2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="92">
-      <formula>(BN79=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO79:BO96">
-    <cfRule type="expression" dxfId="122" priority="91">
+    <cfRule type="expression" dxfId="131" priority="101">
       <formula>(BP79=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ79:BQ96">
-    <cfRule type="expression" dxfId="121" priority="88">
-      <formula>(BR79=1)</formula>
+    <cfRule type="expression" dxfId="130" priority="100" stopIfTrue="1">
+      <formula>(BR79&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="89">
+    <cfRule type="expression" dxfId="129" priority="99">
       <formula>(BR79=2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="90" stopIfTrue="1">
-      <formula>(BR79&gt;2)</formula>
+    <cfRule type="expression" dxfId="128" priority="98">
+      <formula>(BR79=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS79:BS96">
-    <cfRule type="expression" dxfId="118" priority="87">
+    <cfRule type="expression" dxfId="127" priority="97">
       <formula>(BT79=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU77:BU96">
-    <cfRule type="expression" dxfId="117" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="87" stopIfTrue="1">
       <formula>(BV77&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="76">
+    <cfRule type="expression" dxfId="125" priority="86">
       <formula>(BV77=2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="75">
+    <cfRule type="expression" dxfId="124" priority="85">
       <formula>(BV77=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW77:BW96">
-    <cfRule type="expression" dxfId="114" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="77">
+      <formula>(BX77=2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="78" stopIfTrue="1">
       <formula>(BX77&gt;2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="67">
-      <formula>(BX77=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW79:BW96">
-    <cfRule type="expression" dxfId="112" priority="66">
+    <cfRule type="expression" dxfId="121" priority="76">
       <formula>(BX79=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY46:BY47 BW49:BW50 GO50 GO53">
-    <cfRule type="expression" dxfId="111" priority="143596" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="143606" stopIfTrue="1">
       <formula>AND(COUNTIF(BY$44:BY$67, BW46)&gt;1,NOT(ISBLANK(BW46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY46:BY47">
-    <cfRule type="expression" dxfId="110" priority="143602" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="143612" stopIfTrue="1">
       <formula>AND(COUNTIF(CG$44:CG$67, BY46)&gt;1,NOT(ISBLANK(BY46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY79:BY96 CC79:CC96 CG79:CG96 CO79:CO96 CS79:CS96 CW79:CW96 DA79:DA96 DE79:DE96 DI79:DI96 EC79:EC96 EG79:EG96 EK79:EK96 EO79:EO96 EW79:EW96 FE79:FE96 FM79:FM96 FQ79:FQ96 FY79:FY96 GC79:GC96 GG79:GG96 GK79:GK96 DQ81:DQ96 ES81:ES96 FU81:FU96">
-    <cfRule type="expression" dxfId="109" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="138">
+      <formula>(BZ79=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="140" stopIfTrue="1">
       <formula>(BZ79&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="129">
+    <cfRule type="expression" dxfId="116" priority="139">
       <formula>(BZ79=2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="128">
-      <formula>(BZ79=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA79:CA96">
-    <cfRule type="expression" dxfId="106" priority="63">
+    <cfRule type="expression" dxfId="115" priority="73">
       <formula>(CB79=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="64">
+    <cfRule type="expression" dxfId="114" priority="75" stopIfTrue="1">
+      <formula>(CB79&gt;2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="74">
       <formula>(CB79=2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="65" stopIfTrue="1">
-      <formula>(CB79&gt;2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH22">
-    <cfRule type="expression" dxfId="103" priority="141834" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="141844" stopIfTrue="1">
       <formula>AND(LEN(#REF!)&gt;1,LEN(CH22)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI79:CI96">
-    <cfRule type="expression" dxfId="102" priority="69">
+    <cfRule type="expression" dxfId="111" priority="80">
+      <formula>(CJ79=2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="79">
       <formula>(CJ79=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="70">
-      <formula>(CJ79=2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="81" stopIfTrue="1">
       <formula>(CJ79&gt;2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK79:CK96">
-    <cfRule type="expression" dxfId="99" priority="105">
-      <formula>(CL79=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="117" stopIfTrue="1">
       <formula>(CL79&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="106">
+    <cfRule type="expression" dxfId="107" priority="116">
       <formula>(CL79=2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="115">
+      <formula>(CL79=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO5:CO9 BO10:BO43 BO48:BO49">
-    <cfRule type="expression" dxfId="96" priority="143604" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="143614" stopIfTrue="1">
       <formula>AND(COUNTIF(BK$44:BK$67, BO5)&gt;1,NOT(ISBLANK(BO5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO44:CO64 CO66 CO68:CO73">
-    <cfRule type="expression" dxfId="95" priority="129946" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="129956" stopIfTrue="1">
       <formula>AND(COUNTIF(CO$44:CO$58, CO44)&gt;1,NOT(ISBLANK(CO44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CU79:CU96">
-    <cfRule type="expression" dxfId="94" priority="34">
+    <cfRule type="expression" dxfId="103" priority="44">
       <formula>(CV79=2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="43">
+      <formula>(CV79=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="45" stopIfTrue="1">
       <formula>(CV79&gt;2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="33">
-      <formula>(CV79=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CW47">
-    <cfRule type="expression" dxfId="91" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="47" stopIfTrue="1">
       <formula>AND(COUNTIF(CW$39:CW$67, CW47)&gt;1,NOT(ISBLANK(CW47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CX48:CX67 DX5:DX9 EP5:EP9 HF5:HF9 IH5:IH9 IV5:IV9 CH5:CH21 BT5:BT23 BX5:BX43 CL5:CL43 FX5:FX43 IB5:IB44 KT5:KT44 CX5:CX46 BL5:BL47 DT5:DT47 EB5:EB47 DZ5:DZ48 BN5:BN49 RT5:RT49 DN5:DN52 FR5:FR52 JD5:JD52 ET5:ET53 FH5:FH57 BV5:BV61 CP5:CP61 FP5:FP61 KX5:KX61 JJ5:JJ63 NL5:NL63 EF5:EF64 GX5:GX64 IT5:IT64 CV5:CV67 CZ5:CZ67 DB5:DB67 DD5:DD67 DF5:DF67 DH5:DH67 DJ5:DJ67 DL5:DL67 OZ5:OZ73 P5:P75 R5:R75 T5:T75 V5:V75 X5:X75 Z5:Z75 AD5:AD75 AF5:AF75 AH5:AH75 AJ5:AJ75 AL5:AL75 AN5:AN75 AR5:AR75 AT5:AT75 AV5:AV75 AX5:AX75 AZ5:AZ75 BB5:BB75 BF5:BF75 BH5:BH75 BJ5:BJ75 BP5:BP75 CB5:CB75 DP5:DP75 DR5:DR75 ED5:ED75 EH5:EH75 EL5:EL75 EN5:EN75 ER5:ER75 EV5:EV75 EZ5:EZ75 FD5:FD75 FF5:FF75 FJ5:FJ75 FN5:FN75 FT5:FT75 FV5:FV75 GB5:GB75 GD5:GD75 GF5:GF75 GH5:GH75 GJ5:GJ75 GL5:GL75 GP5:GP75 GR5:GR75 GT5:GT75 GV5:GV75 GZ5:GZ75 HD5:HD75 HH5:HH75 HJ5:HJ75 HL5:HL75 HN5:HN75 HR5:HR75 HT5:HT75 HV5:HV75 HX5:HX75 HZ5:HZ75 IF5:IF75 IJ5:IJ75 IL5:IL75 IN5:IN75 IP5:IP75 IX5:IX75 IZ5:IZ75 JB5:JB75 JH5:JH75 JL5:JL75 JN5:JN75 JP5:JP75 JR5:JR75 JV5:JV75 JX5:JX75 JZ5:JZ75 KB5:KB75 KD5:KD75 KF5:KF75 KJ5:KJ75 KL5:KL75 KN5:KN75 KP5:KP75 KR5:KR75 KZ5:KZ75 LB5:LB75 LD5:LD75 LF5:LF75 LH5:LH75 LL5:LL75 LN5:LN75 LP5:LP75 LR5:LR75 LT5:LT75 LV5:LV75 LZ5:LZ75 MB5:MB75 MD5:MD75 MF5:MF75 MH5:MH75 MJ5:MJ75 MN5:MN75 MP5:MP75 MR5:MR75 MT5:MT75 MV5:MV75 MX5:MX75 NB5:NB75 ND5:ND75 NF5:NF75 NH5:NH75 NJ5:NJ75 NP5:NP75 NR5:NR75 NT5:NT75 NV5:NV75 NX5:NX75 NZ5:NZ75 OD5:OD75 OF5:OF75 OH5:OH75 OJ5:OJ75 OL5:OL75 ON5:ON75 OR5:OR75 OT5:OT75 OV5:OV75 OX5:OX75 PD5:PD75 PH5:PH75 PL5:PL75 PN5:PN75 PR5:PR75 PV5:PV75 PX5:PX75 PZ5:PZ75 QB5:QB75 QF5:QF75 QL5:QL75 QN5:QN75 QP5:QP75 QT5:QT75 QZ5:QZ75 RB5:RB75 RD5:RD75 RH5:RH75 RL5:RL75 RN5:RN75 RP5:RP75 RR5:RR75 RV5:RV75 RZ5:RZ75 SB5:SB75 SD5:SD75 SF5:SF75 SH5:SH75 SJ5:SJ75 SN5:SN75 SP5:SP75 SR5:SR75 ST5:ST75 SV5:SV75 SX5:SX75 TB5:TB75 TD5:TD75 TF5:TF75 TH5:TH75 TJ5:TJ75 TL5:TL75 BZ10:BZ43 CD10:CD43 CN10:CN43 CR10:CR43 PP10:PP43 QD10:QD43 QX10:QX43 RF10:RF43 PB10:PB73 FB10:FB75 PJ10:PJ75 QJ10:QJ75 QR10:QR75 CH24:CH75 BT25:BT75 HF44:HF49 IH44:IH61 CJ44:CJ75 EP44:EP75 IV44:IV75 FX45:FX75 QX46 KT46:KT47 IB46:IB75 PP46:PP75 QD46:QD75 RF46:RF75 BX47 BZ47:BZ48 CL47:CL75 CN47:CN75 CR47:CR75 QX48:QX49 CD48:CD75 DT49:DT53 BX49:BX75 EB50:EB75 BL51:BL75 BN51:BN75 BZ51:BZ75 DZ51:DZ75 HF51:HF75 QX51:QX75 RT51:RT75 FZ54 DN54:DN63 FR54:FR75 ET55:ET75 DT56:DT75 FH59:FH64 JD62:JD65 IR64 KX64 BV64:BV67 CP64:CP67 KT64:KT75 DN65:DN75 IH65:IH75 JJ65:JJ75 NL65:NL75 EF66:EF75 FH66:FH75 GX66:GX75 IT66:IT75 KX66:KX75 CV71:CV73 CX71:CX73 CZ71:CZ73 DB71:DB73 DD71:DD73 DF71:DF73 DL71:DL73 OZ74:PB75 BV75 CP75 CV75 CX75 CZ75 DB75 DD75 DF75 DL75 JD75">
-    <cfRule type="expression" dxfId="90" priority="12616" stopIfTrue="1">
+  <conditionalFormatting sqref="CX48:CX67 DL5:DL68 DN5:DN75 DX5:DX9 EP5:EP9 HF5:HF9 IH5:IH9 IV5:IV9 CH5:CH21 BT5:BT23 BX5:BX43 CL5:CL43 FX5:FX43 IB5:IB44 KT5:KT44 CX5:CX46 BL5:BL47 DT5:DT47 EB5:EB47 BN5:BN49 RT5:RT49 FR5:FR52 JD5:JD52 ET5:ET53 FH5:FH57 BV5:BV61 CP5:CP61 FP5:FP61 KX5:KX61 JJ5:JJ63 NL5:NL63 GX5:GX64 IT5:IT64 CV5:CV67 CZ5:CZ67 DB5:DB67 DD5:DD67 DF5:DF67 DH5:DH67 DJ5:DJ67 OZ5:OZ73 P5:P75 R5:R75 T5:T75 V5:V75 X5:X75 Z5:Z75 AD5:AD75 AF5:AF75 AH5:AH75 AJ5:AJ75 AL5:AL75 AN5:AN75 AR5:AR75 AT5:AT75 AV5:AV75 AX5:AX75 AZ5:AZ75 BB5:BB75 BF5:BF75 BH5:BH75 BJ5:BJ75 BP5:BP75 CB5:CB75 DP5:DP75 DR5:DR75 DZ5:DZ75 ED5:ED75 EF5:EF75 EH5:EH75 EL5:EL75 EN5:EN75 ER5:ER75 EV5:EV75 EZ5:EZ75 FD5:FD75 FF5:FF75 FJ5:FJ75 FN5:FN75 FT5:FT75 FV5:FV75 GB5:GB75 GD5:GD75 GF5:GF75 GH5:GH75 GJ5:GJ75 GL5:GL75 GP5:GP75 GR5:GR75 GT5:GT75 GV5:GV75 GZ5:GZ75 HD5:HD75 HH5:HH75 HJ5:HJ75 HL5:HL75 HN5:HN75 HR5:HR75 HT5:HT75 HV5:HV75 HX5:HX75 HZ5:HZ75 IF5:IF75 IJ5:IJ75 IL5:IL75 IN5:IN75 IP5:IP75 IX5:IX75 IZ5:IZ75 JB5:JB75 JH5:JH75 JL5:JL75 JN5:JN75 JP5:JP75 JR5:JR75 JV5:JV75 JX5:JX75 JZ5:JZ75 KB5:KB75 KD5:KD75 KF5:KF75 KJ5:KJ75 KL5:KL75 KN5:KN75 KP5:KP75 KR5:KR75 KZ5:KZ75 LB5:LB75 LD5:LD75 LF5:LF75 LH5:LH75 LL5:LL75 LN5:LN75 LP5:LP75 LR5:LR75 LT5:LT75 LV5:LV75 LZ5:LZ75 MB5:MB75 MD5:MD75 MF5:MF75 MH5:MH75 MJ5:MJ75 MN5:MN75 MP5:MP75 MR5:MR75 MT5:MT75 MV5:MV75 MX5:MX75 NB5:NB75 ND5:ND75 NF5:NF75 NH5:NH75 NJ5:NJ75 NP5:NP75 NR5:NR75 NT5:NT75 NV5:NV75 NX5:NX75 NZ5:NZ75 OD5:OD75 OF5:OF75 OH5:OH75 OJ5:OJ75 OL5:OL75 ON5:ON75 OR5:OR75 OT5:OT75 OV5:OV75 OX5:OX75 PD5:PD75 PH5:PH75 PL5:PL75 PN5:PN75 PR5:PR75 PV5:PV75 PX5:PX75 PZ5:PZ75 QB5:QB75 QF5:QF75 QL5:QL75 QN5:QN75 QP5:QP75 QT5:QT75 QZ5:QZ75 RB5:RB75 RD5:RD75 RH5:RH75 RL5:RL75 RN5:RN75 RP5:RP75 RR5:RR75 RV5:RV75 RZ5:RZ75 SB5:SB75 SD5:SD75 SF5:SF75 SH5:SH75 SJ5:SJ75 SN5:SN75 SP5:SP75 SR5:SR75 ST5:ST75 SV5:SV75 SX5:SX75 TB5:TB75 TD5:TD75 TF5:TF75 TH5:TH75 TJ5:TJ75 TL5:TL75 BZ10:BZ43 CD10:CD43 CN10:CN43 CR10:CR43 PP10:PP43 QD10:QD43 QX10:QX43 RF10:RF43 PB10:PB73 FB10:FB75 PJ10:PJ75 QJ10:QJ75 QR10:QR75 CH24:CH75 BT25:BT75 HF44:HF49 IH44:IH61 CJ44:CJ75 EP44:EP75 IV44:IV75 FX45:FX75 QX46 KT46:KT47 IB46:IB75 PP46:PP75 QD46:QD75 RF46:RF75 BX47 BZ47:BZ48 CL47:CL75 CN47:CN75 CR47:CR75 QX48:QX49 CD48:CD75 DT49:DT53 BX49:BX75 EB50:EB75 BL51:BL75 BN51:BN75 BZ51:BZ75 HF51:HF75 QX51:QX75 RT51:RT75 FZ54 FR54:FR75 ET55:ET75 DT56:DT75 FH59:FH64 JD62:JD65 IR64 KX64 BV64:BV67 CP64:CP67 KT64:KT75 IH65:IH75 JJ65:JJ75 NL65:NL75 FH66:FH75 GX66:GX75 IT66:IT75 KX66:KX75 CV71:CV73 CX71:CX73 CZ71:CZ73 DB71:DB73 DD71:DD73 DF71:DF73 DL71:DL73 OZ74:PB75 BV75 CP75 CV75 CX75 CZ75 DB75 DD75 DF75 DL75 JD75">
+    <cfRule type="expression" dxfId="99" priority="12626" stopIfTrue="1">
       <formula>AND(LEN(O5)&gt;1,LEN(P5)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CX53:CX54">
-    <cfRule type="expression" dxfId="89" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="46" stopIfTrue="1">
       <formula>AND(COUNTIF(CX$39:CX$67, CX53)&gt;1,NOT(ISBLANK(CX53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CY79:CY96">
-    <cfRule type="expression" dxfId="88" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="71">
+      <formula>(CZ79=2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="72" stopIfTrue="1">
       <formula>(CZ79&gt;2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="61">
-      <formula>(CZ79=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CY84:CY86">
-    <cfRule type="expression" dxfId="86" priority="60">
+    <cfRule type="expression" dxfId="95" priority="70">
       <formula>(CZ84=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DH71:DH73">
-    <cfRule type="expression" dxfId="85" priority="1293" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="1303" stopIfTrue="1">
       <formula>AND(LEN(DG71)&gt;1,LEN(DH71)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DJ71:DJ73">
-    <cfRule type="expression" dxfId="84" priority="1292" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="1302" stopIfTrue="1">
       <formula>AND(LEN(DI71)&gt;1,LEN(DJ71)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DJ75">
-    <cfRule type="expression" dxfId="83" priority="5349" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="5359" stopIfTrue="1">
       <formula>AND(LEN(DI75)&gt;1,LEN(DJ75)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DK79:DK85 FO79:FO85 BG79:BG96 BK79:BK96 BO79:BO96 BS79:BS96 CE79:CE96 CM79:CM96 CQ79:CQ96 DC79:DC96 DG79:DG96 DO79:DO96 DS79:DS96 DW79:DW96 EE79:EE96 EI79:EI96 EM79:EM96 EQ79:EQ96 EY79:EY96 FG79:FG96 FK79:FK96 FS79:FS96 FW79:FW96 GA79:GA96 GE79:GE96 GI79:GI96 GM79:GM96">
-    <cfRule type="expression" dxfId="82" priority="148" stopIfTrue="1">
-      <formula>(BH79&gt;2)</formula>
+  <conditionalFormatting sqref="DK79:DK96">
+    <cfRule type="expression" dxfId="91" priority="9" stopIfTrue="1">
+      <formula>(DL79&gt;2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="8">
+      <formula>(DL79=2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="7">
+      <formula>(DL79=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DK86:DK96 FO86:FO96">
-    <cfRule type="expression" dxfId="81" priority="144072" stopIfTrue="1">
-      <formula>(DL85&gt;2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="144071">
-      <formula>(DL85=2)</formula>
+  <conditionalFormatting sqref="DL53:DL68">
+    <cfRule type="expression" dxfId="88" priority="10" stopIfTrue="1">
+      <formula>AND(COUNTIF(DL$39:DL$67, DL53)&gt;1,NOT(ISBLANK(DL53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM79:DM96">
-    <cfRule type="expression" dxfId="79" priority="58">
+    <cfRule type="expression" dxfId="87" priority="69" stopIfTrue="1">
+      <formula>(DN79&gt;2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="68">
       <formula>(DN79=2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="57">
+    <cfRule type="expression" dxfId="85" priority="67">
       <formula>(DN79=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="59" stopIfTrue="1">
-      <formula>(DN79&gt;2)</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DN53:DN69">
+    <cfRule type="expression" dxfId="84" priority="5" stopIfTrue="1">
+      <formula>AND(COUNTIF(DN$39:DN$67, DN53)&gt;1,NOT(ISBLANK(DN53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DQ79:DQ80">
-    <cfRule type="expression" dxfId="76" priority="31">
+    <cfRule type="expression" dxfId="83" priority="42" stopIfTrue="1">
+      <formula>(DR79&gt;2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="41">
       <formula>(DR79=2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="32" stopIfTrue="1">
-      <formula>(DR79&gt;2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DU79:DU96">
-    <cfRule type="expression" dxfId="74" priority="99">
+    <cfRule type="expression" dxfId="81" priority="111" stopIfTrue="1">
+      <formula>(DV79&gt;2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="110">
+      <formula>(DV79=2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="109">
       <formula>(DV79=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="101" stopIfTrue="1">
-      <formula>(DV79&gt;2)</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DV39:DV69">
+    <cfRule type="expression" dxfId="78" priority="4" stopIfTrue="1">
+      <formula>AND(LEN(DU39)&gt;1,LEN(DV39)=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="100">
-      <formula>(DV79=2)</formula>
+    <cfRule type="expression" dxfId="77" priority="3" stopIfTrue="1">
+      <formula>AND(COUNTIF(DV$39:DV$67, DV39)&gt;1,NOT(ISBLANK(DV39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DW39 DW40:DX43">
-    <cfRule type="expression" dxfId="71" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="51" stopIfTrue="1">
       <formula>AND(COUNTIF(DW$39:DW$67, DW39)&gt;1,NOT(ISBLANK(DW39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DX39">
-    <cfRule type="expression" dxfId="70" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="50" stopIfTrue="1">
       <formula>AND(LEN(DW39)&gt;1,LEN(DX39)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DX40:DX75">
-    <cfRule type="expression" dxfId="69" priority="45" stopIfTrue="1">
+  <conditionalFormatting sqref="DX40:DX43">
+    <cfRule type="expression" dxfId="74" priority="55" stopIfTrue="1">
       <formula>AND(LEN(DW40)&gt;1,LEN(DX40)=0)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="DX44:DX69">
+    <cfRule type="expression" dxfId="73" priority="1" stopIfTrue="1">
+      <formula>AND(COUNTIF(DX$39:DX$67, DX44)&gt;1,NOT(ISBLANK(DX44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DX44:DX75">
+    <cfRule type="expression" dxfId="72" priority="2" stopIfTrue="1">
+      <formula>AND(LEN(DW44)&gt;1,LEN(DX44)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="EA79:EA96">
-    <cfRule type="expression" dxfId="68" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="66" stopIfTrue="1">
       <formula>(EB79&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="55">
+    <cfRule type="expression" dxfId="70" priority="65">
       <formula>(EB79=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EA84:EA86">
-    <cfRule type="expression" dxfId="66" priority="54">
+    <cfRule type="expression" dxfId="69" priority="64">
       <formula>(EB84=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="ES79:ES80">
-    <cfRule type="expression" dxfId="65" priority="29">
+    <cfRule type="expression" dxfId="68" priority="40" stopIfTrue="1">
+      <formula>(ET79&gt;2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="39">
       <formula>(ET79=2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="30" stopIfTrue="1">
-      <formula>(ET79&gt;2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EU79:EU80">
-    <cfRule type="expression" dxfId="63" priority="141837" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="141847" stopIfTrue="1">
       <formula>(EV80&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="141836">
+    <cfRule type="expression" dxfId="65" priority="141846">
       <formula>(EV80=2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="141835">
+    <cfRule type="expression" dxfId="64" priority="141845">
       <formula>(EV80=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FC79:FC96">
-    <cfRule type="expression" dxfId="60" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="63" stopIfTrue="1">
       <formula>(FD79&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="52">
+    <cfRule type="expression" dxfId="62" priority="62">
       <formula>(FD79=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FC84:FC86">
-    <cfRule type="expression" dxfId="58" priority="51">
+    <cfRule type="expression" dxfId="61" priority="61">
       <formula>(FD84=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI80:FI81 JI83:JI91 HE83:HE96 FA86:FA95 GQ86:GQ95 DY86:DY96 IU86:IU96 KY86:KY96 MA86:MA96 NQ86:NQ96 OS86:OS96">
-    <cfRule type="expression" dxfId="57" priority="141826" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="141836" stopIfTrue="1">
       <formula>(DZ79&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="141825">
+    <cfRule type="expression" dxfId="59" priority="141835">
       <formula>(DZ79=2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="141824">
+    <cfRule type="expression" dxfId="58" priority="141834">
       <formula>(DZ79=1)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="FO79:FO85 BG79:BG96 BK79:BK96 BO79:BO96 BS79:BS96 CE79:CE96 CM79:CM96 CQ79:CQ96 DC79:DC96 DG79:DG96 DO79:DO96 DS79:DS96 DW79:DW96 EE79:EE96 EI79:EI96 EM79:EM96 EQ79:EQ96 EY79:EY96 FG79:FG96 FK79:FK96 FS79:FS96 FW79:FW96 GA79:GA96 GE79:GE96 GI79:GI96 GM79:GM96">
+    <cfRule type="expression" dxfId="57" priority="158" stopIfTrue="1">
+      <formula>(BH79&gt;2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FO86:FO96">
+    <cfRule type="expression" dxfId="56" priority="144082" stopIfTrue="1">
+      <formula>(FP85&gt;2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="144081">
+      <formula>(FP85=2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="FP62:FP75">
-    <cfRule type="expression" dxfId="54" priority="98632" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="98642" stopIfTrue="1">
       <formula>AND(LEN(#REF!)&gt;1,LEN(FP62)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FU79:FU80">
-    <cfRule type="expression" dxfId="53" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="38" stopIfTrue="1">
       <formula>(FV79&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="27">
+    <cfRule type="expression" dxfId="52" priority="37">
       <formula>(FV79=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FW5:FW43 FW45:FW75">
-    <cfRule type="expression" dxfId="51" priority="144048" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="144058" stopIfTrue="1">
       <formula>AND(COUNTIF(FW$45:FW$67, FW5)&gt;1,NOT(ISBLANK(FW5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FY54">
-    <cfRule type="expression" dxfId="50" priority="144057" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="144067" stopIfTrue="1">
       <formula>AND(COUNTIF(HE$44:HE$67, FY54)&gt;1,NOT(ISBLANK(FY54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO79:GO96">
-    <cfRule type="expression" dxfId="49" priority="437">
+    <cfRule type="expression" dxfId="49" priority="447">
       <formula>(GP79=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="438">
+    <cfRule type="expression" dxfId="48" priority="449" stopIfTrue="1">
+      <formula>(GP79&gt;2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="448">
       <formula>(GP79=2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="439" stopIfTrue="1">
-      <formula>(GP79&gt;2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW79:GW80">
-    <cfRule type="expression" dxfId="46" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="35">
+      <formula>(GX79=2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="36" stopIfTrue="1">
       <formula>(GX79&gt;2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="25">
-      <formula>(GX79=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HE79:HE82 JI79:JI82 DY79:DY85 FA79:FA85 GQ79:GQ85 IU79:IU85 KY79:KY85 MA79:MA85 NQ79:NQ85 OS79:OS85 BE79:BE96 JI92:JI96 FA96 GQ96">
-    <cfRule type="expression" dxfId="44" priority="1939">
-      <formula>(BF79=1)</formula>
+    <cfRule type="expression" dxfId="44" priority="1951" stopIfTrue="1">
+      <formula>(BF79&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="1940">
+    <cfRule type="expression" dxfId="43" priority="1950">
       <formula>(BF79=2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="1941" stopIfTrue="1">
-      <formula>(BF79&gt;2)</formula>
+    <cfRule type="expression" dxfId="42" priority="1949">
+      <formula>(BF79=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK79:HK80">
-    <cfRule type="expression" dxfId="41" priority="23">
+    <cfRule type="expression" dxfId="41" priority="34" stopIfTrue="1">
+      <formula>(HL79&gt;2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="33">
       <formula>(HL79=2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="24" stopIfTrue="1">
-      <formula>(HL79&gt;2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ5:HQ38 HQ44:HQ66 NW62:NW63 HQ71:HQ75">
-    <cfRule type="expression" dxfId="39" priority="139060" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="139070" stopIfTrue="1">
       <formula>AND(COUNTIF(HQ$44:HQ$67, HQ5)&gt;1,NOT(ISBLANK(HQ5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HY79:HY80">
-    <cfRule type="expression" dxfId="38" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="32" stopIfTrue="1">
       <formula>(HZ79&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="21">
+    <cfRule type="expression" dxfId="37" priority="31">
       <formula>(HZ79=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH64">
-    <cfRule type="expression" dxfId="36" priority="126449" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="126459" stopIfTrue="1">
       <formula>AND(LEN(IG62)&gt;1,LEN(IH64)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM79:IM80">
-    <cfRule type="expression" dxfId="35" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="30" stopIfTrue="1">
       <formula>(IN79&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="19">
+    <cfRule type="expression" dxfId="34" priority="29">
       <formula>(IN79=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA79:JA80">
-    <cfRule type="expression" dxfId="33" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="28" stopIfTrue="1">
       <formula>(JB79&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="17">
+    <cfRule type="expression" dxfId="32" priority="27">
       <formula>(JB79=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JD70:JD73">
-    <cfRule type="expression" dxfId="31" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="118" stopIfTrue="1">
       <formula>AND(LEN(JC70)&gt;1,LEN(JD70)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JO79:JO80">
-    <cfRule type="expression" dxfId="30" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="26" stopIfTrue="1">
       <formula>(JP79&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="15">
+    <cfRule type="expression" dxfId="29" priority="25">
       <formula>(JP79=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KS78:KS96 GS79:GS96 GU79:GU96 GY79:GY96 HA79:HA96 HC79:HC96 HG79:HG96 HI79:HI96 HM79:HM96 HO79:HO96 HQ79:HQ96 HS79:HS96 HU79:HU96 HW79:HW96 IA79:IA96 IC79:IC96 IE79:IE96 IG79:IG96 II79:II96 IK79:IK96 IO79:IO96 IQ79:IQ96 IS79:IS96 IW79:IW96 IY79:IY96 JC79:JC96 JE79:JE96 JG79:JG96 JK79:JK96 JM79:JM96 JQ79:JQ96 JS79:JS96 JU79:JU96 JW79:JW96 JY79:JY96 KA79:KA96 KC79:KC96 KE79:KE96 KG79:KG96 KI79:KI96 KK79:KK96 KM79:KM96 KO79:KO96 KQ79:KQ96 KU79:KU96 KW79:KW96 LA79:LA96 LC79:LC96 LG79:LG96 LI79:LI96 LK79:LK96 LM79:LM96 LO79:LO96 LQ79:LQ96 LU79:LU96 LW79:LW96 LY79:LY96 MC79:MC96 ME79:ME96 MI79:MI96 MK79:MK96 MM79:MM96 MO79:MO96 MQ79:MQ96 MS79:MS96 MW79:MW96 MY79:MY96 NC79:NC96 NE79:NE96 NG79:NG96 NK79:NK96 NM79:NM96 NO79:NO96 NS79:NS96 NU79:NU96 NY79:NY96 OA79:OA96 OC79:OC96 OE79:OE96 OG79:OG96 OI79:OI96 OM79:OM96 OO79:OO96 OQ79:OQ96 OU79:OU96 OW79:OW96 OY79:OY96 PA79:PA96 PC79:PC96 PE79:PE96 PG79:PG96 PI79:PI96 PK79:PK96 PM79:PM96 PO79:PO96 PQ79:PQ96 PS79:PS96 PU79:PU96 PW79:PW96 PY79:PY96 QA79:QA96 QC79:QC96 QE79:QE96 QG79:QG96 QI79:QI96 QK79:QK96 QM79:QM96 QO79:QO96 QQ79:QQ96 QS79:QS96 QU79:QU96 QW79:QW96 QY79:QY96 RA79:RA96 RC79:RC96 RE79:RE96 RG79:RG96 RI79:RI96 RK79:RK96 RM79:RM96 RO79:RO96 RQ79:RQ96 RS79:RS96 RU79:RU96 RW79:RW96 RY79:RY96 SA79:SA96 SC79:SC96 SE79:SE96 SG79:SG96 SI79:SI96 SK79:SK96 SM79:SM96 SO79:SO96 SQ79:SQ96 SS79:SS96 SU79:SU96 SW79:SW96 SY79:SY96 TA79:TA96 TC79:TC96 TE79:TE96 TG79:TG96 TI79:TI96 TK79:TK96 TM79:TM96 TO79:TO96 TQ79:TQ96 TS79:TS96 TU79:TU96 GW81:GW96 HK81:HK96 HY81:HY96 IM81:IM96 JA81:JA96 JO81:JO96 LE81:LE96 LS81:LS96 MG81:MG96 MU81:MU96 NI81:NI96 NW81:NW96 OK81:OK96">
-    <cfRule type="expression" dxfId="28" priority="111">
+    <cfRule type="expression" dxfId="28" priority="120">
+      <formula>(GT78=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="121">
       <formula>(GT78=2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="122" stopIfTrue="1">
       <formula>(GT78&gt;2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="110">
-      <formula>(GT78=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KX62:KX63">
-    <cfRule type="expression" dxfId="25" priority="124156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="124166" stopIfTrue="1">
       <formula>AND(LEN(#REF!)&gt;1,LEN(KX62)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LE79:LE80">
-    <cfRule type="expression" dxfId="24" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
       <formula>(LF79&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="13">
+    <cfRule type="expression" dxfId="23" priority="23">
       <formula>(LF79=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LS79:LS80">
-    <cfRule type="expression" dxfId="22" priority="11">
+    <cfRule type="expression" dxfId="22" priority="21">
       <formula>(LT79=2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
       <formula>(LT79&gt;2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MG79:MG80">
-    <cfRule type="expression" dxfId="20" priority="9">
+    <cfRule type="expression" dxfId="20" priority="19">
       <formula>(MH79=2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
       <formula>(MH79&gt;2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MU79:MU80">
-    <cfRule type="expression" dxfId="18" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="18" stopIfTrue="1">
       <formula>(MV79&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>(MV79=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NA79:NA83 BC79:BC96 EU82:EU96 FI82:FI96 NA87:NA91 NA95:NA96">
-    <cfRule type="expression" dxfId="16" priority="1949">
+    <cfRule type="expression" dxfId="16" priority="1960" stopIfTrue="1">
+      <formula>(BD79&gt;2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="1959">
       <formula>(BD79=2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="1948">
+    <cfRule type="expression" dxfId="14" priority="1958">
       <formula>(BD79=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="1950" stopIfTrue="1">
-      <formula>(BD79&gt;2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NA84:NA86">
-    <cfRule type="expression" dxfId="13" priority="141841">
+    <cfRule type="expression" dxfId="13" priority="141851">
       <formula>(NB92=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="141842">
+    <cfRule type="expression" dxfId="12" priority="141852">
       <formula>(NB92=2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="141843" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="141853" stopIfTrue="1">
       <formula>(NB92&gt;2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NI79:NI80">
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="15">
+      <formula>(NJ79=2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="16" stopIfTrue="1">
       <formula>(NJ79&gt;2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="5">
-      <formula>(NJ79=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NW79:NW80">
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="14" stopIfTrue="1">
       <formula>(NX79&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="7" priority="13">
       <formula>(NX79=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="OK79:OK80">
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
       <formula>(OL79&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula>(OL79=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="PF39:PF43">
-    <cfRule type="expression" dxfId="4" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="49" stopIfTrue="1">
       <formula>AND(LEN(PE39)&gt;1,LEN(PF39)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="PK5:PK9 BY10:BY43 BY48 BO50">
-    <cfRule type="expression" dxfId="3" priority="144059" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="144069" stopIfTrue="1">
       <formula>AND(COUNTIF(BM$44:BM$67, BO5)&gt;1,NOT(ISBLANK(BO5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="PK5:PK75 BK10:CV22 BK23:CG23 BK24:CV38 O39:CV41 O42:DU43 O44:CO50 J5:CV9 O52:CO52 DS1:DT41 KS1:KT41 EA5:EF9 EO5:ET9 FC5:FH9 FQ5:FV9 GE5:GJ9 GS5:GX9 HG5:HL9 HU5:HZ9 II5:IN9 IW5:JB9 LA5:LF9 LO5:LT9 MC5:MH9 MQ5:MV9 NE5:NJ9 NQ5:NW9 OG5:OL9 OU5:OZ9 CW5:DR41 J10:BJ38 CI23:CV23 DX39:DZ39 EY39:EZ39 FM39:FN39 GA39:GB39 GO39:GP39 HC39:HD39 HQ39:HR39 IE39:IF39 IS39:IT39 JG39:JH39 KW39:KX39 LK39:LL39 LY39:LZ39 MM39:MN39 NA39:NB39 NO39:NP39 OC39:OD39 OQ39:OR39 KS42:KU43 KS44:KT44 CW44:DR46 DS44:DT47 CQ44:CV49 CY47:DR47 CW48:DR50 CQ50:CT50 CU50:CV67 CQ52:CT52 CV52:DT52 CW55:CX67 PE39:PF39 D1:DR4 A1:C38 DW5:DW9 HE5:HE9 IG5:IG9 IU5:IU9 PU5:PU9 PY5:PY9 QM5:QM9 DY5:DY38 EY5:EY38 FM5:FM38 GA5:GA38 GO5:GO38 HC5:HC38 IE5:IE38 IS5:IS38 JG5:JG38 KW5:KW38 LK5:LK38 LY5:LY38 MM5:MM38 NA5:NA38 NO5:NO38 OC5:OC38 OQ5:OQ38 PE5:PE38 DU5:DU41 KU5:KU41 IA5:IA44 QK5:QK48 RS5:RS49 FY5:FY51 GM5:GM52 OE5:OE61 EM5:EM65 JC5:JC73 PA5:PA73 EG5:EG75 EI5:EI75 EK5:EK75 EW5:EW75 FI5:FI75 FK5:FK75 FO5:FO75 GC5:GC75 GK5:GK75 GQ5:GQ75 GY5:GY75 HA5:HA75 HM5:HM75 HO5:HO75 HS5:HS75 IC5:IC75 IO5:IO75 IQ5:IQ75 JE5:JE75 JI5:JI75 JK5:JK75 JM5:JM75 JO5:JO75 JQ5:JQ75 JS5:JS75 JU5:JU75 JW5:JW75 JY5:JY75 KA5:KA75 KC5:KC75 KE5:KE75 KG5:KG75 KI5:KI75 KK5:KK75 KM5:KM75 KO5:KO75 KQ5:KQ75 KY5:KY75 LG5:LG75 LI5:LI75 LM5:LM75 LU5:LU75 LW5:LW75 MA5:MA75 MI5:MI75 MK5:MK75 MO5:MO75 MW5:MW75 MY5:MY75 NC5:NC75 NK5:NK75 NM5:NM75 NY5:NY75 OA5:OA75 OM5:OM75 OO5:OO75 OS5:OS75 PC5:PC75 PG5:PG75 PM5:PM75 PQ5:PQ75 PS5:PS75 PW5:PW75 QA5:QA75 QE5:QE75 QG5:QG75 QO5:QO75 QS5:QS75 QU5:QU75 QY5:QY75 RA5:RA75 RC5:RC75 RG5:RG75 RI5:RI75 RK5:RK75 RM5:RM75 RO5:RO75 RQ5:RQ75 RU5:RU75 RW5:RW75 RY5:RY75 SA5:SA75 SC5:SC75 SE5:SE75 SG5:SG75 SI5:SI75 SK5:SK75 SM5:SM75 SO5:SO75 SQ5:SQ75 SS5:SS75 SU5:SU75 SW5:SW75 SY5:SY75 TA5:TA75 TC5:TC75 TE5:TE75 TG5:TG75 TI5:TI75 TK5:TK75 TM5:TM75 OK10:OK43 OY10:OY43 PO10:PO43 QC10:QC43 QW10:QW43 RE10:RE43 LE10:LE45 LS10:LS45 MG10:MG45 MU10:MU45 NI10:NI45 EA10:EA47 FQ10:FQ52 FG10:FG57 GW10:GW64 QQ10:QQ67 HI10:HI70 EC10:EC75 EE10:EE75 EQ10:EQ75 ES10:ES75 EU10:EU75 FA10:FA75 FC10:FC75 FE10:FE75 FS10:FS75 FU10:FU75 GE10:GE75 GG10:GG75 GI10:GI75 GS10:GS75 GU10:GU75 HG10:HG75 HK10:HK75 HU10:HU75 HW10:HW75 HY10:HY75 II10:II75 IK10:IK75 IM10:IM75 IW10:IW75 IY10:IY75 JA10:JA75 LA10:LA75 LC10:LC75 LO10:LO75 LQ10:LQ75 MC10:MC75 ME10:ME75 MQ10:MQ75 MS10:MS75 NE10:NE75 NG10:NG75 NQ10:NQ75 NS10:NS75 NU10:NU75 OG10:OG75 OI10:OI75 OU10:OU75 OW10:OW75 PI10:PI75 QI10:QI75 HE39:HE49 J39:L50 IG39:IG61 IU39:IU75 HQ40:HQ43 DY40:DY48 GO40:GO49 KW40:KW64 EY40:EY74 FM40:FM75 GA40:GA75 HC40:HC75 IE40:IE75 IS40:IS75 JG40:JG75 LK40:LK75 LY40:LY75 MM40:MM75 NA40:NA75 NO40:NO75 OC40:OC75 OQ40:OQ75 PE40:PE75 PU44 PY44:PY47 KU44:KU59 DU44:DU75 DW44:DW75 EO44:EO75 QM44:QM75 QW46 KS46:KS47 IA46:IA75 QW48:QW49 NW48:NW54 KS48:KT59 OK48:OK67 OY48:OY67 PO48:PO67 QC48:QC67 RE48:RE67 LE48:LE75 LS48:LS75 MG48:MG75 MU48:MU75 NI48:NI75 DS49:DS53 BM50:BM75 EA50:EA75 QK50:QK75 DM51 GO51:GO52 CW51:CW54 CY51:CY67 DA51:DA67 DC51:DC67 DE51:DE67 DG51:DG67 DI51:DI67 DK51:DK67 O51:O75 Q51:Q75 S51:S75 U51:U75 W51:W75 Y51:Y75 AA51:AA75 AC51:AC75 AE51:AE75 AG51:AG75 AI51:AI75 AK51:AK75 AM51:AM75 AO51:AO75 AQ51:AQ75 AS51:AS75 AU51:AU75 AW51:AW75 AY51:AY75 BA51:BA75 BC51:BC75 BE51:BE75 BG51:BG75 BI51:BI75 BK51:BK75 BO51:BO75 BQ51:BQ75 BS51:BS75 BU51:BU75 BW51:BW75 BY51:BY75 CA51:CA75 CC51:CC75 CE51:CE75 CG51:CG75 CI51:CI75 CK51:CK75 CM51:CM75 CQ51:CQ75 CS51:CS75 DO51:DO75 DQ51:DQ75 DY51:DY75 HE51:HE75 PU51:PU75 PY51:PY75 QW51:QW75 RS51:RS75 J52:L52 DM54:DM75 FQ54:FQ75 GM54:GM75 GO54:GO75 FY55:FY75 DS56:DS75 FG59:FG75 KS60:KU63 NW64:NW65 IG64:IG75 KS64:KS75 KU64:KU75 OE64:OE75 CO65 GW66:GW75 KW66:KW75 CO67 HQ67:HQ70 EM67:EM74 CU71:CU73 CW71:CW73 CY71:CY73 DA71:DA73 DC71:DC73 DE71:DE73 DG71:DG73 DI71:DI73 DK71:DK73 OK71:OK75 OY71:OY75 PO71:PO75 QC71:QC75 QQ71:QQ75 RE71:RE75 CU75 CW75 CY75 DA75 DC75 DE75 DG75 DI75 DK75 HI75 JC75">
-    <cfRule type="expression" dxfId="2" priority="144068" stopIfTrue="1">
+  <conditionalFormatting sqref="PK5:PK75 BK10:CV22 BK23:CG23 BK24:CV38 O39:CV41 O42:DU43 O44:CO50 J5:CV9 O52:CO52 DS1:DT41 KS1:KT41 EA5:EF9 EO5:ET9 FC5:FH9 FQ5:FV9 GE5:GJ9 GS5:GX9 HG5:HL9 HU5:HZ9 II5:IN9 IW5:JB9 LA5:LF9 LO5:LT9 MC5:MH9 MQ5:MV9 NE5:NJ9 NQ5:NW9 OG5:OL9 OU5:OZ9 CW5:DR41 J10:BJ38 CI23:CV23 DX39:DZ39 EY39:EZ39 FM39:FN39 GA39:GB39 GO39:GP39 HC39:HD39 HQ39:HR39 IE39:IF39 IS39:IT39 JG39:JH39 KW39:KX39 LK39:LL39 LY39:LZ39 MM39:MN39 NA39:NB39 NO39:NP39 OC39:OD39 OQ39:OR39 KS42:KU43 KS44:KT44 CW44:DR46 DS44:DT47 CQ44:CV49 CY47:DR47 CW48:DR50 CQ50:CT50 CU50:CV67 DL51:DM51 CQ52:CT52 CV52:DT52 CW55:CX67 PE39:PF39 D1:DR4 A1:C38 DW5:DW9 HE5:HE9 IG5:IG9 IU5:IU9 PU5:PU9 PY5:PY9 QM5:QM9 DY5:DY38 EY5:EY38 FM5:FM38 GA5:GA38 GO5:GO38 HC5:HC38 IE5:IE38 IS5:IS38 JG5:JG38 KW5:KW38 LK5:LK38 LY5:LY38 MM5:MM38 NA5:NA38 NO5:NO38 OC5:OC38 OQ5:OQ38 PE5:PE38 DU5:DU41 KU5:KU41 IA5:IA44 QK5:QK48 RS5:RS49 FY5:FY51 GM5:GM52 OE5:OE61 EM5:EM65 JC5:JC73 PA5:PA73 EG5:EG75 EI5:EI75 EK5:EK75 EW5:EW75 FI5:FI75 FK5:FK75 FO5:FO75 GC5:GC75 GK5:GK75 GQ5:GQ75 GY5:GY75 HA5:HA75 HM5:HM75 HO5:HO75 HS5:HS75 IC5:IC75 IO5:IO75 IQ5:IQ75 JE5:JE75 JI5:JI75 JK5:JK75 JM5:JM75 JO5:JO75 JQ5:JQ75 JS5:JS75 JU5:JU75 JW5:JW75 JY5:JY75 KA5:KA75 KC5:KC75 KE5:KE75 KG5:KG75 KI5:KI75 KK5:KK75 KM5:KM75 KO5:KO75 KQ5:KQ75 KY5:KY75 LG5:LG75 LI5:LI75 LM5:LM75 LU5:LU75 LW5:LW75 MA5:MA75 MI5:MI75 MK5:MK75 MO5:MO75 MW5:MW75 MY5:MY75 NC5:NC75 NK5:NK75 NM5:NM75 NY5:NY75 OA5:OA75 OM5:OM75 OO5:OO75 OS5:OS75 PC5:PC75 PG5:PG75 PM5:PM75 PQ5:PQ75 PS5:PS75 PW5:PW75 QA5:QA75 QE5:QE75 QG5:QG75 QO5:QO75 QS5:QS75 QU5:QU75 QY5:QY75 RA5:RA75 RC5:RC75 RG5:RG75 RI5:RI75 RK5:RK75 RM5:RM75 RO5:RO75 RQ5:RQ75 RU5:RU75 RW5:RW75 RY5:RY75 SA5:SA75 SC5:SC75 SE5:SE75 SG5:SG75 SI5:SI75 SK5:SK75 SM5:SM75 SO5:SO75 SQ5:SQ75 SS5:SS75 SU5:SU75 SW5:SW75 SY5:SY75 TA5:TA75 TC5:TC75 TE5:TE75 TG5:TG75 TI5:TI75 TK5:TK75 TM5:TM75 OK10:OK43 OY10:OY43 PO10:PO43 QC10:QC43 QW10:QW43 RE10:RE43 LE10:LE45 LS10:LS45 MG10:MG45 MU10:MU45 NI10:NI45 EA10:EA47 FQ10:FQ52 FG10:FG57 GW10:GW64 QQ10:QQ67 HI10:HI70 EC10:EC75 EE10:EE75 EQ10:EQ75 ES10:ES75 EU10:EU75 FA10:FA75 FC10:FC75 FE10:FE75 FS10:FS75 FU10:FU75 GE10:GE75 GG10:GG75 GI10:GI75 GS10:GS75 GU10:GU75 HG10:HG75 HK10:HK75 HU10:HU75 HW10:HW75 HY10:HY75 II10:II75 IK10:IK75 IM10:IM75 IW10:IW75 IY10:IY75 JA10:JA75 LA10:LA75 LC10:LC75 LO10:LO75 LQ10:LQ75 MC10:MC75 ME10:ME75 MQ10:MQ75 MS10:MS75 NE10:NE75 NG10:NG75 NQ10:NQ75 NS10:NS75 NU10:NU75 OG10:OG75 OI10:OI75 OU10:OU75 OW10:OW75 PI10:PI75 QI10:QI75 HE39:HE49 J39:L50 IG39:IG61 IU39:IU75 HQ40:HQ43 GO40:GO49 KW40:KW64 EY40:EY74 DY40:DY75 FM40:FM75 GA40:GA75 HC40:HC75 IE40:IE75 IS40:IS75 JG40:JG75 LK40:LK75 LY40:LY75 MM40:MM75 NA40:NA75 NO40:NO75 OC40:OC75 OQ40:OQ75 PE40:PE75 PU44 PY44:PY47 KU44:KU59 DU44:DU75 DW44:DW75 EO44:EO75 QM44:QM75 QW46 KS46:KS47 IA46:IA75 QW48:QW49 NW48:NW54 KS48:KT59 OK48:OK67 OY48:OY67 PO48:PO67 QC48:QC67 RE48:RE67 LE48:LE75 LS48:LS75 MG48:MG75 MU48:MU75 NI48:NI75 DS49:DS53 BM50:BM75 EA50:EA75 QK50:QK75 GO51:GO52 CW51:CW54 CY51:CY67 DA51:DA67 DC51:DC67 DE51:DE67 DG51:DG67 DI51:DI67 DK51:DK67 O51:O75 Q51:Q75 S51:S75 U51:U75 W51:W75 Y51:Y75 AA51:AA75 AC51:AC75 AE51:AE75 AG51:AG75 AI51:AI75 AK51:AK75 AM51:AM75 AO51:AO75 AQ51:AQ75 AS51:AS75 AU51:AU75 AW51:AW75 AY51:AY75 BA51:BA75 BC51:BC75 BE51:BE75 BG51:BG75 BI51:BI75 BK51:BK75 BO51:BO75 BQ51:BQ75 BS51:BS75 BU51:BU75 BW51:BW75 BY51:BY75 CA51:CA75 CC51:CC75 CE51:CE75 CG51:CG75 CI51:CI75 CK51:CK75 CM51:CM75 CQ51:CQ75 CS51:CS75 DO51:DO75 DQ51:DQ75 HE51:HE75 PU51:PU75 PY51:PY75 QW51:QW75 RS51:RS75 J52:L52 DM53:DM75 FQ54:FQ75 GM54:GM75 GO54:GO75 FY55:FY75 DS56:DS75 FG59:FG75 KS60:KU63 NW64:NW65 IG64:IG75 KS64:KS75 KU64:KU75 OE64:OE75 CO65 GW66:GW75 KW66:KW75 CO67 HQ67:HQ70 EM67:EM74 CU71:CU73 CW71:CW73 CY71:CY73 DA71:DA73 DC71:DC73 DE71:DE73 DG71:DG73 DI71:DI73 DK71:DK73 OK71:OK75 OY71:OY75 PO71:PO75 QC71:QC75 QQ71:QQ75 RE71:RE75 CU75 CW75 CY75 DA75 DC75 DE75 DG75 DI75 DK75 HI75 JC75">
+    <cfRule type="expression" dxfId="2" priority="144078" stopIfTrue="1">
       <formula>AND(COUNTIF(A$39:A$67, A1)&gt;1,NOT(ISBLANK(A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="PU10:PU43 PY10:PY43 PU45:PU50 PY48:PY50">
-    <cfRule type="expression" dxfId="1" priority="144063" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="144073" stopIfTrue="1">
       <formula>AND(COUNTIF(OQ$44:OQ$67, PU10)&gt;1,NOT(ISBLANK(PU10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="QM10:QM43 QK49">
-    <cfRule type="expression" dxfId="0" priority="144067" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="144077" stopIfTrue="1">
       <formula>AND(COUNTIF(PI$44:PI$67, QK10)&gt;1,NOT(ISBLANK(QK10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY5:IY9 LY5:LY75 EU5:EU75 CI5:CI75 OU5:OU75 IW5:IW75 EE5:EE75 II5:II75 GE5:GE75 GU5:GU75 FE5:FE75 PA5:PA68 NI5:NI75 PI10:PI75 CM10:CM75 GO5:GO75 HS39:HS75 CK10:CK75 QM5:QM75 CQ10:CQ75 QI10:QI75 HQ5:HQ75 QK5:QK75 Q5:Q75 JG5:JG75 HW5:HW75 GW5:GW64 NO5:NO75 OG5:OG75 GA5:GA75 GC5:GC75 EM5:EM75 EK5:EK75 HI5:HI70 BQ5:BQ75 PW5:PW75 HG5:HG75 IO5:IO75 HU5:HU75 NW5:NW75 CA5:CA75 FY5:FY75 IQ5:IQ75 FM5:FM75 IM5:IM75 GS5:GS75 MU5:MU75 EG5:EG75 JE5:JE75 HY5:HY75 EQ5:EQ75 HO5:HO75 HM5:HM75 IC5:IC75 GY5:GY75 HA5:HA75 FK5:FK75 FS5:FS75 EW5:EW75 FC5:FC75 EI5:EI75 AU5:AU75 BE5:BE75 BG5:BG75 RQ5:RQ75 RW5:RW75 TG5:TG75 RK5:RK75 RI5:RI75 OY5:OY75 OK5:OK75 MO5:MO75 NS5:NS75 OA5:OA75 MI5:MI75 LC5:LC75 MW5:MW75 NE5:NE75 NM5:NM75 MC5:MC75 LS5:LS75 MQ5:MQ75 MY5:MY75 LQ5:LQ75 MK5:MK75 LG5:LG75 LE5:LE75 LO5:LO75 LW5:LW75 MS5:MS75 RA5:RA75 LA5:LA75 LI5:LI75 KM5:KM75 KO5:KO75 KU5:KU75 KK5:KK75 KA5:KA75 KG5:KG75 JM5:JM75 JS5:JS75 O5:O75 DO5:DO75 DU5:DU75 DQ5:DQ75 NY5:NY75 CS5:CS75 CE5:CE75 AW5:AW75 BC5:BC75 S5:S75 AY5:AY75 AS5:AS75 AQ5:AQ75 AI5:AI75 AO5:AO75 AM5:AM75 AK5:AK75 AG5:AG75 AE5:AE75 AC5:AC75 U5:U75 AA5:AA75 Y5:Y75 W5:W75 BA5:BA75 KI5:KI75 KW5:KW64 LM5:LM75 RG5:RG75 OI5:OI75 OO5:OO75 QG5:QG75 PC5:PC75 QU5:QU75 QO5:QO75 NA5:NA75 QA5:QA75 QS5:QS75 PY5:PY75 RC5:RC75 ME5:ME75 SE5:SE75 SK5:SK75 RU5:RU75 SG5:SG75 SC5:SC75 SA5:SA75 SY5:SY75 SI5:SI75 RM5:RM75 TM5:TM75 SW5:SW75 SS5:SS75 QY5:QY75 RY5:RY75 RO5:RO75 SM5:SM75 SO5:SO75 SQ5:SQ75 SU5:SU75 TA5:TA75 TC5:TC75 TE5:TE75 TI5:TI75 TK5:TK75 GG5:GG75 OM5:OM75 PQ5:PQ75 PS5:PS75 EC5:EC75 QE5:QE75 DW39:DW75 NG5:NG75 KQ5:KQ75 LU5:LU75 NK5:NK75 BI5:BI75 BO5:BO75 GK5:GK75 PK5:PK75 PM5:PM75 EY5:EY75 GI5:GI75 IK5:IK75 LK5:LK75 OQ5:OQ75 MG5:MG75 OC5:OC75 PG5:PG75 OW5:OW75 HK5:HK75 FU5:FU75 JC5:JC73 BU5:BU75 BS25:BS75 PE5:PE75 CY5:CY67 DA5:DA67 DC5:DC67 DE5:DE67 DG5:DG67 IS5:IS75 PU5:PU75 NU5:NU75 NC5:NC75 HC5:HC75 CO10:CO67 IE5:IE75 DI5:DI67 FI5:FI74 BY5:BY45 BK5:BK47 PO10:PO43 FW5:FW43 RS5:RS49 RE10:RE43 QQ10:QQ44 QC10:QC43 CC10:CC43 KS5:KS44 MM5:MM75 DS5:DS47 DM5:DM52 GM5:GM52 FQ5:FQ52 FG5:FG57 ES5:ES53 EA5:EA47 CU5:CU67 BW5:BW43 BM5:BM49 CG5:CG46 IA5:IA44 IG39:IG61 OE5:OE61 BK51:BK75 PO46:PO75 FW45:FW75 EO44:EO75 RS51:RS75 CC48:CC75 QQ46:QQ75 QC46:QC75 RE46:RE75 FG59:FG75 KS57:KS75 FQ54:FQ75 GM54:GM75 DS56:DS75 EA50:EA75 DM54:DM75 ES55:ES75 IA46:IA75 CG48:CG75 BW49:BW75 BM51:BM75 BY48 IG5:IG9 PA71 HS5:HS9 JA67:JA70 JQ71 IY75 JC75 JA75 HI75 JK67 EO5:EO9 DW5:DW9 KS46:KS55 DS49:DS53 DG71:DG73 KW66:KW75 IG64:IG75 JK71:JK74 GW66:GW75 OE64:OE75 DA71:DA73 CW71:CW73 JA5:JA9 DC71:DC73 CY71:CY73 DE71:DE73 CU75 DI71:DI73 BS5:BS23 CU71:CU73 CW75 CY75 DA75 DC75 DE75 DG75 DI75 BW47 CO75 IY44:IY63 BY51:BY75 CW5:CW67 KY5:KY75 MA5:MA75 NQ5:NQ75 OS5:OS75 DK5:DK67 DK71:DK73 DK75 DY5:DY48 DY51:DY75 FA10:FA75 FO5:FO75 GQ5:GQ75 HE51:HE75 HE5:HE9 HE39:HE49 IU39:IU75 IU5:IU9 JI5:JI75" xr:uid="{F607A28B-F3FC-574C-B96D-00D4D3AE5340}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY5:IY9 LY5:LY75 EU5:EU75 CI5:CI75 OU5:OU75 IW5:IW75 EE5:EE75 II5:II75 GE5:GE75 GU5:GU75 FE5:FE75 PA5:PA68 NI5:NI75 PI10:PI75 CM10:CM75 GO5:GO75 HS39:HS75 CK10:CK75 QM5:QM75 CQ10:CQ75 QI10:QI75 HQ5:HQ75 QK5:QK75 Q5:Q75 JG5:JG75 HW5:HW75 GW5:GW64 NO5:NO75 OG5:OG75 GA5:GA75 GC5:GC75 EM5:EM75 EK5:EK75 HI5:HI70 BQ5:BQ75 PW5:PW75 HG5:HG75 IO5:IO75 HU5:HU75 NW5:NW75 CA5:CA75 FY5:FY75 IQ5:IQ75 FM5:FM75 IM5:IM75 GS5:GS75 MU5:MU75 EG5:EG75 JE5:JE75 HY5:HY75 EQ5:EQ75 HO5:HO75 HM5:HM75 IC5:IC75 GY5:GY75 HA5:HA75 FK5:FK75 FS5:FS75 EW5:EW75 FC5:FC75 EI5:EI75 AU5:AU75 BE5:BE75 BG5:BG75 RQ5:RQ75 RW5:RW75 TG5:TG75 RK5:RK75 RI5:RI75 OY5:OY75 OK5:OK75 MO5:MO75 NS5:NS75 OA5:OA75 MI5:MI75 LC5:LC75 MW5:MW75 NE5:NE75 NM5:NM75 MC5:MC75 LS5:LS75 MQ5:MQ75 MY5:MY75 LQ5:LQ75 MK5:MK75 LG5:LG75 LE5:LE75 LO5:LO75 LW5:LW75 MS5:MS75 RA5:RA75 LA5:LA75 LI5:LI75 KM5:KM75 KO5:KO75 KU5:KU75 KK5:KK75 KA5:KA75 KG5:KG75 JM5:JM75 JS5:JS75 O5:O75 DO5:DO75 DU5:DU75 DQ5:DQ75 NY5:NY75 CS5:CS75 CE5:CE75 AW5:AW75 BC5:BC75 S5:S75 AY5:AY75 AS5:AS75 AQ5:AQ75 AI5:AI75 AO5:AO75 AM5:AM75 AK5:AK75 AG5:AG75 AE5:AE75 AC5:AC75 U5:U75 AA5:AA75 Y5:Y75 W5:W75 BA5:BA75 KI5:KI75 KW5:KW64 LM5:LM75 RG5:RG75 OI5:OI75 OO5:OO75 QG5:QG75 PC5:PC75 QU5:QU75 QO5:QO75 NA5:NA75 QA5:QA75 QS5:QS75 PY5:PY75 RC5:RC75 ME5:ME75 SE5:SE75 SK5:SK75 RU5:RU75 SG5:SG75 SC5:SC75 SA5:SA75 SY5:SY75 SI5:SI75 RM5:RM75 TM5:TM75 SW5:SW75 SS5:SS75 QY5:QY75 RY5:RY75 RO5:RO75 SM5:SM75 SO5:SO75 SQ5:SQ75 SU5:SU75 TA5:TA75 TC5:TC75 TE5:TE75 TI5:TI75 TK5:TK75 GG5:GG75 OM5:OM75 PQ5:PQ75 PS5:PS75 EC5:EC75 QE5:QE75 DW39:DW75 NG5:NG75 KQ5:KQ75 LU5:LU75 NK5:NK75 BI5:BI75 BO5:BO75 GK5:GK75 PK5:PK75 PM5:PM75 EY5:EY75 GI5:GI75 IK5:IK75 LK5:LK75 OQ5:OQ75 MG5:MG75 OC5:OC75 PG5:PG75 OW5:OW75 HK5:HK75 FU5:FU75 JC5:JC73 BU5:BU75 BS25:BS75 PE5:PE75 CY5:CY67 DA5:DA67 DC5:DC67 DE5:DE67 DG5:DG67 IS5:IS75 PU5:PU75 NU5:NU75 NC5:NC75 HC5:HC75 CO10:CO67 IE5:IE75 DI5:DI67 FI5:FI74 BY5:BY45 BK5:BK47 PO10:PO43 FW5:FW43 RS5:RS49 RE10:RE43 QQ10:QQ44 QC10:QC43 CC10:CC43 KS5:KS44 MM5:MM75 DS5:DS47 GM5:GM52 FQ5:FQ52 FG5:FG57 ES5:ES53 EA5:EA47 CU5:CU67 BW5:BW43 BM5:BM49 CG5:CG46 IA5:IA44 IG39:IG61 OE5:OE61 BK51:BK75 PO46:PO75 FW45:FW75 EO44:EO75 RS51:RS75 CC48:CC75 QQ46:QQ75 QC46:QC75 RE46:RE75 FG59:FG75 KS57:KS75 FQ54:FQ75 GM54:GM75 DS56:DS75 EA50:EA75 DM5:DM75 ES55:ES75 IA46:IA75 CG48:CG75 BW49:BW75 BM51:BM75 BY48 IG5:IG9 PA71 HS5:HS9 JA67:JA70 JQ71 IY75 JC75 JA75 HI75 JK67 EO5:EO9 DW5:DW9 KS46:KS55 DS49:DS53 DG71:DG73 KW66:KW75 IG64:IG75 JK71:JK74 GW66:GW75 OE64:OE75 DA71:DA73 CW71:CW73 JA5:JA9 DC71:DC73 CY71:CY73 DE71:DE73 CU75 DI71:DI73 BS5:BS23 CU71:CU73 CW75 CY75 DA75 DC75 DE75 DG75 DI75 BW47 CO75 IY44:IY63 BY51:BY75 CW5:CW67 KY5:KY75 MA5:MA75 NQ5:NQ75 OS5:OS75 DK5:DK67 DK71:DK73 DK75 JI5:JI75 FA10:FA75 FO5:FO75 GQ5:GQ75 HE51:HE75 HE5:HE9 HE39:HE49 IU39:IU75 IU5:IU9 DY5:DY75" xr:uid="{F607A28B-F3FC-574C-B96D-00D4D3AE5340}">
       <formula1>O$76:O$97</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JD75 QX46 CP75 DX5:DX9 HF5:HF9 IH5:IH9 HT5:HT9 IV5:IV9 BX47 BZ46:BZ48 QX48:QX49 PA69:PA70 DT49:DT53 KT46:KT55 DL71:DL73 DH71:DH73 CV71:CV73 DD71:DD73 CX71:CX73 DB71:DB73 DF71:DF73 CZ71:CZ73 DJ71:DJ73 EP5:EP9 CV75 CX75 CZ75 DB75 DD75 DF75 DH75 DJ75 DL75 BT5:BT23 CH5:CH22 PA72:PA75 KX66:KX75 GX66:GX75 IH64:IH75 PP46:PP75 RF46:RF75 QD46:QD75 QR46:QR75 CD48:CD75 BX49:BX75 IB46:IB75 EP44:EP75 FX45:FX75 GN54:GN75 EB50:EB75 DT56:DT75 KT57:KT75 FR54:FR75 RT51:RT75 QX51:QX75 DZ51:DZ75 BZ51:BZ75 BL51:BL75 BN51:BN75 DN54:DN75 ET55:ET75 HF51:HF75 FH59:FH75 CD10:CD43 BZ10:BZ43 PP10:PP43 QD10:QD43 RF10:RF43 QX10:QX43 BX5:BX43 FX5:FX43 LZ5:LZ75 JH5:JH75 CP5:CP67 GX5:GX64 CV5:CV67 PF5:PF75 CZ5:CZ67 DB5:DB67 DD5:DD67 DF5:DF67 DH5:DH67 DL5:DL67 CJ5:CJ75 HT39:HT75 IV39:IV75 CH24:CH75 ED5:ED75 HD5:HD75 FF5:FF75 FT5:FT75 ER5:ER75 GV5:GV75 JB5:JB75 QL5:QL75 QJ10:QJ75 CR10:CR75 QN5:QN75 CN10:CN75 IF5:IF75 HR5:HR75 GP5:GP75 PB10:PB75 PJ10:PJ75 FB10:FB75 FP5:FP75 GH5:GH75 OH5:OH75 EN5:EN75 OR5:OR75 NH5:NH75 IR5:IR75 MR5:MR75 CL5:CL75 HJ5:HJ75 LR5:LR75 NP5:NP75 KX5:KX64 OX5:OX75 LN5:LN75 PL5:PL75 NV5:NV75 GB5:GB75 GR5:GR75 RP5:RP75 MF5:MF75 PT5:PT75 RB5:RB75 GD5:GD75 TF5:TF75 TD5:TD75 TH5:TH75 TJ5:TJ75 SP5:SP75 ST5:ST75 SV5:SV75 SN5:SN75 QZ5:QZ75 SR5:SR75 SX5:SX75 TN5:TN75 RN5:RN75 SJ5:SJ75 SZ5:SZ75 RZ5:RZ75 SH5:SH75 SF5:SF75 RV5:RV75 SB5:SB75 SD5:SD75 SL5:SL75 QT5:QT75 RD5:RD75 PZ5:PZ75 QB5:QB75 QP5:QP75 PN5:PN75 QV5:QV75 QH5:QH75 OP5:OP75 JJ5:JJ75 IL5:IL75 IX5:IX75 IN5:IN75 HZ5:HZ75 GT5:GT75 FN5:FN75 FJ5:FJ75 GZ5:GZ75 TL5:TL75 HP5:HP75 ID5:ID75 HB5:HB75 FL5:FL75 HH5:HH75 GF5:GF75 FV5:FV75 MT5:MT75 EJ5:EJ75 BP5:BP75 BB5:BB75 RL5:RL75 RR5:RR75 TB5:TB75 RX5:RX75 RH5:RH75 RJ5:RJ75 FD5:FD75 BR5:BR75 EF5:EF75 DV5:DV75 DP5:DP75 NZ5:NZ75 CT5:CT75 AV5:AV75 CF5:CF75 BV5:BV75 BD5:BD75 AT5:AT75 AX5:AX75 AZ5:AZ75 AR5:AR75 AP5:AP75 AH5:AH75 AF5:AF75 AN5:AN75 AJ5:AJ75 AL5:AL75 AD5:AD75 AB5:AB75 T5:T75 Z5:Z75 V5:V75 X5:X75 P5:P75 JP5:JP75 JN5:JN75 GJ5:GJ75 JT5:JT75 JV5:JV75 KD5:KD75 KB5:KB75 KF5:KF75 JX5:JX75 JZ5:JZ75 KH5:KH75 KJ5:KJ75 KP5:KP75 JR5:JR75 KL5:KL75 KV5:KV75 EL5:EL75 IT5:IT75 LF5:LF75 KZ5:KZ75 JL5:JL75 LJ5:LJ75 KR5:KR75 LT5:LT75 LX5:LX75 MD5:MD75 LH5:LH75 ML5:ML75 MB5:MB75 LB5:LB75 MH5:MH75 LV5:LV75 KN5:KN75 MZ5:MZ75 MP5:MP75 MN5:MN75 NF5:NF75 NL5:NL75 LL5:LL75 NN5:NN75 OJ5:OJ75 LD5:LD75 NT5:NT75 MJ5:MJ75 MX5:MX75 OB5:OB75 NR5:NR75 ND5:ND75 OV5:OV75 BF5:BF75 BH5:BH75 JF5:JF75 IZ5:IZ75 EX5:EX75 GL5:GL75 HN5:HN75 EV5:EV75 EH5:EH75 BJ5:BJ75 CB5:CB75 NB5:NB75 OD5:OD75 HV5:HV75 FZ5:FZ75 IP5:IP75 HX5:HX75 EZ5:EZ75 LP5:LP75 OF5:OF75 MV5:MV75 ON5:ON75 PR5:PR75 PX5:PX75 QF5:QF75 PH5:PH75 DX39:DX75 OL5:OL75 DZ5:DZ48 HL5:HL75 IJ5:IJ75 PD5:PD75 DR5:DR75 NX5:NX75 NJ5:NJ75 R5:R75 PV5:PV75 OT5:OT75 BT25:BT75 OZ5:OZ75 JD5:JD73 IH39:IH61 DT5:DT47 DJ5:DJ67 KT5:KT44 RT5:RT49 BN5:BN49 QR10:QR44 IB5:IB44 BL5:BL47 DN5:DN52 GN5:GN52 HF39:HF49 EB5:EB47 ET5:ET53 FR5:FR52 FH5:FH57 CX5:CX46 CX48:CX67" xr:uid="{006CF206-074B-9F40-B9DE-5A89C435F363}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JD75 QX46 CP75 DX5:DX9 HF5:HF9 IH5:IH9 HT5:HT9 IV5:IV9 BX47 BZ46:BZ48 QX48:QX49 PA69:PA70 DT49:DT53 KT46:KT55 DL71:DL73 DH71:DH73 CV71:CV73 DD71:DD73 CX71:CX73 DB71:DB73 DF71:DF73 CZ71:CZ73 DJ71:DJ73 EP5:EP9 CV75 CX75 CZ75 DB75 DD75 DF75 DH75 DJ75 DL75 BT5:BT23 CH5:CH22 PA72:PA75 KX66:KX75 GX66:GX75 IH64:IH75 PP46:PP75 RF46:RF75 QD46:QD75 QR46:QR75 CD48:CD75 BX49:BX75 IB46:IB75 EP44:EP75 FX45:FX75 GN54:GN75 EB50:EB75 DT56:DT75 KT57:KT75 FR54:FR75 RT51:RT75 QX51:QX75 DL5:DL67 BZ51:BZ75 BL51:BL75 BN51:BN75 ET55:ET75 HF51:HF75 FH59:FH75 CD10:CD43 BZ10:BZ43 PP10:PP43 QD10:QD43 RF10:RF43 QX10:QX43 BX5:BX43 FX5:FX43 LZ5:LZ75 JH5:JH75 CP5:CP67 GX5:GX64 CV5:CV67 PF5:PF75 CZ5:CZ67 DB5:DB67 DD5:DD67 DF5:DF67 DH5:DH67 CX48:CX67 CJ5:CJ75 HT39:HT75 IV39:IV75 CH24:CH75 ED5:ED75 HD5:HD75 FF5:FF75 FT5:FT75 ER5:ER75 GV5:GV75 JB5:JB75 QL5:QL75 QJ10:QJ75 CR10:CR75 QN5:QN75 CN10:CN75 IF5:IF75 HR5:HR75 GP5:GP75 PB10:PB75 PJ10:PJ75 FB10:FB75 FP5:FP75 GH5:GH75 OH5:OH75 EN5:EN75 OR5:OR75 NH5:NH75 IR5:IR75 MR5:MR75 CL5:CL75 HJ5:HJ75 LR5:LR75 NP5:NP75 KX5:KX64 OX5:OX75 LN5:LN75 PL5:PL75 NV5:NV75 GB5:GB75 GR5:GR75 RP5:RP75 MF5:MF75 PT5:PT75 RB5:RB75 GD5:GD75 TF5:TF75 TD5:TD75 TH5:TH75 TJ5:TJ75 SP5:SP75 ST5:ST75 SV5:SV75 SN5:SN75 QZ5:QZ75 SR5:SR75 SX5:SX75 TN5:TN75 RN5:RN75 SJ5:SJ75 SZ5:SZ75 RZ5:RZ75 SH5:SH75 SF5:SF75 RV5:RV75 SB5:SB75 SD5:SD75 SL5:SL75 QT5:QT75 RD5:RD75 PZ5:PZ75 QB5:QB75 QP5:QP75 PN5:PN75 QV5:QV75 QH5:QH75 OP5:OP75 JJ5:JJ75 IL5:IL75 IX5:IX75 IN5:IN75 HZ5:HZ75 GT5:GT75 FN5:FN75 FJ5:FJ75 GZ5:GZ75 TL5:TL75 HP5:HP75 ID5:ID75 HB5:HB75 FL5:FL75 HH5:HH75 GF5:GF75 FV5:FV75 MT5:MT75 EJ5:EJ75 BP5:BP75 BB5:BB75 RL5:RL75 RR5:RR75 TB5:TB75 RX5:RX75 RH5:RH75 RJ5:RJ75 FD5:FD75 BR5:BR75 EF5:EF75 DV5:DV75 DP5:DP75 NZ5:NZ75 CT5:CT75 AV5:AV75 CF5:CF75 BV5:BV75 BD5:BD75 AT5:AT75 AX5:AX75 AZ5:AZ75 AR5:AR75 AP5:AP75 AH5:AH75 AF5:AF75 AN5:AN75 AJ5:AJ75 AL5:AL75 AD5:AD75 AB5:AB75 T5:T75 Z5:Z75 V5:V75 X5:X75 P5:P75 JP5:JP75 JN5:JN75 GJ5:GJ75 JT5:JT75 JV5:JV75 KD5:KD75 KB5:KB75 KF5:KF75 JX5:JX75 JZ5:JZ75 KH5:KH75 KJ5:KJ75 KP5:KP75 JR5:JR75 KL5:KL75 KV5:KV75 EL5:EL75 IT5:IT75 LF5:LF75 KZ5:KZ75 JL5:JL75 LJ5:LJ75 KR5:KR75 LT5:LT75 LX5:LX75 MD5:MD75 LH5:LH75 ML5:ML75 MB5:MB75 LB5:LB75 MH5:MH75 LV5:LV75 KN5:KN75 MZ5:MZ75 MP5:MP75 MN5:MN75 NF5:NF75 NL5:NL75 LL5:LL75 NN5:NN75 OJ5:OJ75 LD5:LD75 NT5:NT75 MJ5:MJ75 MX5:MX75 OB5:OB75 NR5:NR75 ND5:ND75 OV5:OV75 BF5:BF75 BH5:BH75 JF5:JF75 IZ5:IZ75 EX5:EX75 GL5:GL75 HN5:HN75 EV5:EV75 EH5:EH75 BJ5:BJ75 CB5:CB75 NB5:NB75 OD5:OD75 HV5:HV75 FZ5:FZ75 IP5:IP75 HX5:HX75 EZ5:EZ75 LP5:LP75 OF5:OF75 MV5:MV75 ON5:ON75 PR5:PR75 PX5:PX75 QF5:QF75 PH5:PH75 DX39:DX75 OL5:OL75 HL5:HL75 IJ5:IJ75 PD5:PD75 DR5:DR75 NX5:NX75 NJ5:NJ75 R5:R75 PV5:PV75 OT5:OT75 BT25:BT75 OZ5:OZ75 JD5:JD73 IH39:IH61 DT5:DT47 DJ5:DJ67 KT5:KT44 RT5:RT49 BN5:BN49 QR10:QR44 IB5:IB44 BL5:BL47 DN5:DN75 GN5:GN52 HF39:HF49 EB5:EB47 ET5:ET53 FR5:FR52 FH5:FH57 CX5:CX46 DZ5:DZ75" xr:uid="{006CF206-074B-9F40-B9DE-5A89C435F363}">
       <formula1>Type</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="FI75 KE5:KE75 JQ5:JQ70 JQ72:JQ75" xr:uid="{C26FA146-E69F-3540-B886-3B76029E80F0}">
